--- a/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
+++ b/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
@@ -1189,7 +1189,7 @@
     <t>13 Days</t>
   </si>
   <si>
-    <t>THU (SSW &amp; LCH)</t>
+    <t>SSW</t>
   </si>
   <si>
     <t>Nanhai</t>
@@ -1939,7 +1939,7 @@
     <col min="9" max="9" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="19.995" bestFit="true" customWidth="true" style="0"/>
@@ -13754,9 +13754,6 @@
       <c r="G373">
         <v>50</v>
       </c>
-      <c r="L373" t="s">
-        <v>388</v>
-      </c>
       <c r="M373" t="s">
         <v>347</v>
       </c>
@@ -13769,6 +13766,9 @@
       <c r="P373" t="s">
         <v>218</v>
       </c>
+      <c r="Q373" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" t="s">
@@ -13792,9 +13792,6 @@
       <c r="G374">
         <v>200</v>
       </c>
-      <c r="L374" t="s">
-        <v>388</v>
-      </c>
       <c r="N374" t="s">
         <v>271</v>
       </c>
@@ -13804,6 +13801,9 @@
       <c r="P374" t="s">
         <v>218</v>
       </c>
+      <c r="Q374" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" t="s">
@@ -13827,9 +13827,6 @@
       <c r="G375">
         <v>50</v>
       </c>
-      <c r="L375" t="s">
-        <v>388</v>
-      </c>
       <c r="M375" t="s">
         <v>364</v>
       </c>
@@ -13842,6 +13839,9 @@
       <c r="P375" t="s">
         <v>218</v>
       </c>
+      <c r="Q375" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" t="s">
@@ -13865,9 +13865,6 @@
       <c r="G376">
         <v>200</v>
       </c>
-      <c r="L376" t="s">
-        <v>388</v>
-      </c>
       <c r="N376" t="s">
         <v>271</v>
       </c>
@@ -13877,6 +13874,9 @@
       <c r="P376" t="s">
         <v>218</v>
       </c>
+      <c r="Q376" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" t="s">
@@ -13900,9 +13900,6 @@
       <c r="G377">
         <v>450</v>
       </c>
-      <c r="L377" t="s">
-        <v>388</v>
-      </c>
       <c r="M377" t="s">
         <v>390</v>
       </c>
@@ -13915,6 +13912,9 @@
       <c r="P377" t="s">
         <v>218</v>
       </c>
+      <c r="Q377" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" t="s">
@@ -13938,9 +13938,6 @@
       <c r="G378">
         <v>600</v>
       </c>
-      <c r="L378" t="s">
-        <v>388</v>
-      </c>
       <c r="N378" t="s">
         <v>391</v>
       </c>
@@ -13950,6 +13947,9 @@
       <c r="P378" t="s">
         <v>218</v>
       </c>
+      <c r="Q378" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" t="s">
@@ -13973,9 +13973,6 @@
       <c r="G379">
         <v>300</v>
       </c>
-      <c r="L379" t="s">
-        <v>388</v>
-      </c>
       <c r="M379" t="s">
         <v>390</v>
       </c>
@@ -13988,6 +13985,9 @@
       <c r="P379" t="s">
         <v>218</v>
       </c>
+      <c r="Q379" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" t="s">
@@ -14011,9 +14011,6 @@
       <c r="G380">
         <v>450</v>
       </c>
-      <c r="L380" t="s">
-        <v>388</v>
-      </c>
       <c r="N380" t="s">
         <v>391</v>
       </c>
@@ -14023,6 +14020,9 @@
       <c r="P380" t="s">
         <v>218</v>
       </c>
+      <c r="Q380" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="381" spans="1:21">
       <c r="A381" t="s">
@@ -14046,9 +14046,6 @@
       <c r="G381">
         <v>300</v>
       </c>
-      <c r="L381" t="s">
-        <v>388</v>
-      </c>
       <c r="M381" t="s">
         <v>390</v>
       </c>
@@ -14061,6 +14058,9 @@
       <c r="P381" t="s">
         <v>218</v>
       </c>
+      <c r="Q381" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="382" spans="1:21">
       <c r="A382" t="s">
@@ -14084,9 +14084,6 @@
       <c r="G382">
         <v>450</v>
       </c>
-      <c r="L382" t="s">
-        <v>388</v>
-      </c>
       <c r="N382" t="s">
         <v>391</v>
       </c>
@@ -14096,6 +14093,9 @@
       <c r="P382" t="s">
         <v>218</v>
       </c>
+      <c r="Q382" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="383" spans="1:21">
       <c r="A383" t="s">
@@ -14119,9 +14119,6 @@
       <c r="G383">
         <v>300</v>
       </c>
-      <c r="L383" t="s">
-        <v>388</v>
-      </c>
       <c r="M383" t="s">
         <v>390</v>
       </c>
@@ -14134,6 +14131,9 @@
       <c r="P383" t="s">
         <v>218</v>
       </c>
+      <c r="Q383" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="384" spans="1:21">
       <c r="A384" t="s">
@@ -14157,9 +14157,6 @@
       <c r="G384">
         <v>450</v>
       </c>
-      <c r="L384" t="s">
-        <v>388</v>
-      </c>
       <c r="N384" t="s">
         <v>391</v>
       </c>
@@ -14169,6 +14166,9 @@
       <c r="P384" t="s">
         <v>218</v>
       </c>
+      <c r="Q384" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="385" spans="1:21">
       <c r="A385" t="s">
@@ -14192,9 +14192,6 @@
       <c r="G385">
         <v>300</v>
       </c>
-      <c r="L385" t="s">
-        <v>388</v>
-      </c>
       <c r="M385" t="s">
         <v>390</v>
       </c>
@@ -14207,6 +14204,9 @@
       <c r="P385" t="s">
         <v>218</v>
       </c>
+      <c r="Q385" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="386" spans="1:21">
       <c r="A386" t="s">
@@ -14230,9 +14230,6 @@
       <c r="G386">
         <v>450</v>
       </c>
-      <c r="L386" t="s">
-        <v>388</v>
-      </c>
       <c r="N386" t="s">
         <v>391</v>
       </c>
@@ -14242,6 +14239,9 @@
       <c r="P386" t="s">
         <v>218</v>
       </c>
+      <c r="Q386" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="387" spans="1:21">
       <c r="A387" t="s">
@@ -14265,9 +14265,6 @@
       <c r="G387">
         <v>300</v>
       </c>
-      <c r="L387" t="s">
-        <v>388</v>
-      </c>
       <c r="M387" t="s">
         <v>390</v>
       </c>
@@ -14280,6 +14277,9 @@
       <c r="P387" t="s">
         <v>218</v>
       </c>
+      <c r="Q387" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" t="s">
@@ -14303,9 +14303,6 @@
       <c r="G388">
         <v>450</v>
       </c>
-      <c r="L388" t="s">
-        <v>388</v>
-      </c>
       <c r="N388" t="s">
         <v>391</v>
       </c>
@@ -14315,6 +14312,9 @@
       <c r="P388" t="s">
         <v>218</v>
       </c>
+      <c r="Q388" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="389" spans="1:21">
       <c r="A389" t="s">
@@ -14338,9 +14338,6 @@
       <c r="G389">
         <v>300</v>
       </c>
-      <c r="L389" t="s">
-        <v>388</v>
-      </c>
       <c r="M389" t="s">
         <v>390</v>
       </c>
@@ -14353,6 +14350,9 @@
       <c r="P389" t="s">
         <v>218</v>
       </c>
+      <c r="Q389" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="390" spans="1:21">
       <c r="A390" t="s">
@@ -14376,9 +14376,6 @@
       <c r="G390">
         <v>450</v>
       </c>
-      <c r="L390" t="s">
-        <v>388</v>
-      </c>
       <c r="N390" t="s">
         <v>391</v>
       </c>
@@ -14388,6 +14385,9 @@
       <c r="P390" t="s">
         <v>218</v>
       </c>
+      <c r="Q390" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="391" spans="1:21">
       <c r="A391" t="s">
@@ -14411,9 +14411,6 @@
       <c r="G391">
         <v>300</v>
       </c>
-      <c r="L391" t="s">
-        <v>388</v>
-      </c>
       <c r="M391" t="s">
         <v>390</v>
       </c>
@@ -14426,6 +14423,9 @@
       <c r="P391" t="s">
         <v>218</v>
       </c>
+      <c r="Q391" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="392" spans="1:21">
       <c r="A392" t="s">
@@ -14449,9 +14449,6 @@
       <c r="G392">
         <v>450</v>
       </c>
-      <c r="L392" t="s">
-        <v>388</v>
-      </c>
       <c r="N392" t="s">
         <v>391</v>
       </c>
@@ -14461,6 +14458,9 @@
       <c r="P392" t="s">
         <v>218</v>
       </c>
+      <c r="Q392" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" t="s">
@@ -14484,9 +14484,6 @@
       <c r="G393">
         <v>300</v>
       </c>
-      <c r="L393" t="s">
-        <v>388</v>
-      </c>
       <c r="M393" t="s">
         <v>390</v>
       </c>
@@ -14499,6 +14496,9 @@
       <c r="P393" t="s">
         <v>218</v>
       </c>
+      <c r="Q393" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" t="s">
@@ -14522,9 +14522,6 @@
       <c r="G394">
         <v>450</v>
       </c>
-      <c r="L394" t="s">
-        <v>388</v>
-      </c>
       <c r="N394" t="s">
         <v>391</v>
       </c>
@@ -14534,6 +14531,9 @@
       <c r="P394" t="s">
         <v>218</v>
       </c>
+      <c r="Q394" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" t="s">
@@ -14557,9 +14557,6 @@
       <c r="G395">
         <v>300</v>
       </c>
-      <c r="L395" t="s">
-        <v>388</v>
-      </c>
       <c r="M395" t="s">
         <v>390</v>
       </c>
@@ -14572,6 +14569,9 @@
       <c r="P395" t="s">
         <v>218</v>
       </c>
+      <c r="Q395" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="396" spans="1:21">
       <c r="A396" t="s">
@@ -14595,9 +14595,6 @@
       <c r="G396">
         <v>450</v>
       </c>
-      <c r="L396" t="s">
-        <v>388</v>
-      </c>
       <c r="N396" t="s">
         <v>391</v>
       </c>
@@ -14606,6 +14603,9 @@
       </c>
       <c r="P396" t="s">
         <v>218</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="397" spans="1:21">

--- a/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
+++ b/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>CARRIER</t>
   </si>
@@ -1207,16 +1207,10 @@
     <t>Dongguan</t>
   </si>
   <si>
-    <t>SUN (LCH)</t>
-  </si>
-  <si>
     <t>5 Days</t>
   </si>
   <si>
     <t>7 DEM + 7 DET</t>
-  </si>
-  <si>
-    <t>WED (LCH)</t>
   </si>
   <si>
     <t>8 DEM + 6 DET</t>
@@ -13754,6 +13748,9 @@
       <c r="G373">
         <v>50</v>
       </c>
+      <c r="L373" t="s">
+        <v>36</v>
+      </c>
       <c r="M373" t="s">
         <v>347</v>
       </c>
@@ -13792,6 +13789,9 @@
       <c r="G374">
         <v>200</v>
       </c>
+      <c r="L374" t="s">
+        <v>36</v>
+      </c>
       <c r="N374" t="s">
         <v>271</v>
       </c>
@@ -13827,6 +13827,9 @@
       <c r="G375">
         <v>50</v>
       </c>
+      <c r="L375" t="s">
+        <v>36</v>
+      </c>
       <c r="M375" t="s">
         <v>364</v>
       </c>
@@ -13865,6 +13868,9 @@
       <c r="G376">
         <v>200</v>
       </c>
+      <c r="L376" t="s">
+        <v>36</v>
+      </c>
       <c r="N376" t="s">
         <v>271</v>
       </c>
@@ -13900,6 +13906,9 @@
       <c r="G377">
         <v>450</v>
       </c>
+      <c r="L377" t="s">
+        <v>36</v>
+      </c>
       <c r="M377" t="s">
         <v>390</v>
       </c>
@@ -13938,6 +13947,9 @@
       <c r="G378">
         <v>600</v>
       </c>
+      <c r="L378" t="s">
+        <v>36</v>
+      </c>
       <c r="N378" t="s">
         <v>391</v>
       </c>
@@ -13973,6 +13985,9 @@
       <c r="G379">
         <v>300</v>
       </c>
+      <c r="L379" t="s">
+        <v>36</v>
+      </c>
       <c r="M379" t="s">
         <v>390</v>
       </c>
@@ -14011,6 +14026,9 @@
       <c r="G380">
         <v>450</v>
       </c>
+      <c r="L380" t="s">
+        <v>36</v>
+      </c>
       <c r="N380" t="s">
         <v>391</v>
       </c>
@@ -14046,6 +14064,9 @@
       <c r="G381">
         <v>300</v>
       </c>
+      <c r="L381" t="s">
+        <v>36</v>
+      </c>
       <c r="M381" t="s">
         <v>390</v>
       </c>
@@ -14084,6 +14105,9 @@
       <c r="G382">
         <v>450</v>
       </c>
+      <c r="L382" t="s">
+        <v>36</v>
+      </c>
       <c r="N382" t="s">
         <v>391</v>
       </c>
@@ -14119,6 +14143,9 @@
       <c r="G383">
         <v>300</v>
       </c>
+      <c r="L383" t="s">
+        <v>36</v>
+      </c>
       <c r="M383" t="s">
         <v>390</v>
       </c>
@@ -14157,6 +14184,9 @@
       <c r="G384">
         <v>450</v>
       </c>
+      <c r="L384" t="s">
+        <v>36</v>
+      </c>
       <c r="N384" t="s">
         <v>391</v>
       </c>
@@ -14192,6 +14222,9 @@
       <c r="G385">
         <v>300</v>
       </c>
+      <c r="L385" t="s">
+        <v>36</v>
+      </c>
       <c r="M385" t="s">
         <v>390</v>
       </c>
@@ -14230,6 +14263,9 @@
       <c r="G386">
         <v>450</v>
       </c>
+      <c r="L386" t="s">
+        <v>36</v>
+      </c>
       <c r="N386" t="s">
         <v>391</v>
       </c>
@@ -14265,6 +14301,9 @@
       <c r="G387">
         <v>300</v>
       </c>
+      <c r="L387" t="s">
+        <v>36</v>
+      </c>
       <c r="M387" t="s">
         <v>390</v>
       </c>
@@ -14303,6 +14342,9 @@
       <c r="G388">
         <v>450</v>
       </c>
+      <c r="L388" t="s">
+        <v>36</v>
+      </c>
       <c r="N388" t="s">
         <v>391</v>
       </c>
@@ -14338,6 +14380,9 @@
       <c r="G389">
         <v>300</v>
       </c>
+      <c r="L389" t="s">
+        <v>36</v>
+      </c>
       <c r="M389" t="s">
         <v>390</v>
       </c>
@@ -14376,6 +14421,9 @@
       <c r="G390">
         <v>450</v>
       </c>
+      <c r="L390" t="s">
+        <v>36</v>
+      </c>
       <c r="N390" t="s">
         <v>391</v>
       </c>
@@ -14411,6 +14459,9 @@
       <c r="G391">
         <v>300</v>
       </c>
+      <c r="L391" t="s">
+        <v>36</v>
+      </c>
       <c r="M391" t="s">
         <v>390</v>
       </c>
@@ -14449,6 +14500,9 @@
       <c r="G392">
         <v>450</v>
       </c>
+      <c r="L392" t="s">
+        <v>36</v>
+      </c>
       <c r="N392" t="s">
         <v>391</v>
       </c>
@@ -14484,6 +14538,9 @@
       <c r="G393">
         <v>300</v>
       </c>
+      <c r="L393" t="s">
+        <v>36</v>
+      </c>
       <c r="M393" t="s">
         <v>390</v>
       </c>
@@ -14522,6 +14579,9 @@
       <c r="G394">
         <v>450</v>
       </c>
+      <c r="L394" t="s">
+        <v>36</v>
+      </c>
       <c r="N394" t="s">
         <v>391</v>
       </c>
@@ -14557,6 +14617,9 @@
       <c r="G395">
         <v>300</v>
       </c>
+      <c r="L395" t="s">
+        <v>36</v>
+      </c>
       <c r="M395" t="s">
         <v>390</v>
       </c>
@@ -14595,6 +14658,9 @@
       <c r="G396">
         <v>450</v>
       </c>
+      <c r="L396" t="s">
+        <v>36</v>
+      </c>
       <c r="N396" t="s">
         <v>391</v>
       </c>
@@ -14631,16 +14697,16 @@
         <v>120</v>
       </c>
       <c r="L397" t="s">
+        <v>338</v>
+      </c>
+      <c r="M397" t="s">
         <v>394</v>
-      </c>
-      <c r="M397" t="s">
-        <v>395</v>
       </c>
       <c r="N397" t="s">
         <v>271</v>
       </c>
       <c r="O397" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P397" t="s">
         <v>218</v>
@@ -14669,16 +14735,16 @@
         <v>270</v>
       </c>
       <c r="L398" t="s">
+        <v>338</v>
+      </c>
+      <c r="M398" t="s">
         <v>394</v>
-      </c>
-      <c r="M398" t="s">
-        <v>395</v>
       </c>
       <c r="N398" t="s">
         <v>271</v>
       </c>
       <c r="O398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P398" t="s">
         <v>218</v>
@@ -14707,7 +14773,7 @@
         <v>400</v>
       </c>
       <c r="L399" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="M399" t="s">
         <v>364</v>
@@ -14716,7 +14782,7 @@
         <v>271</v>
       </c>
       <c r="O399" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P399" t="s">
         <v>218</v>
@@ -14745,7 +14811,7 @@
         <v>550</v>
       </c>
       <c r="L400" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="M400" t="s">
         <v>364</v>
@@ -14754,7 +14820,7 @@
         <v>271</v>
       </c>
       <c r="O400" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P400" t="s">
         <v>218</v>
@@ -14783,7 +14849,7 @@
         <v>400</v>
       </c>
       <c r="L401" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="M401" t="s">
         <v>364</v>
@@ -14792,7 +14858,7 @@
         <v>271</v>
       </c>
       <c r="O401" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P401" t="s">
         <v>218</v>
@@ -14821,7 +14887,7 @@
         <v>550</v>
       </c>
       <c r="L402" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="M402" t="s">
         <v>364</v>
@@ -14830,7 +14896,7 @@
         <v>271</v>
       </c>
       <c r="O402" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P402" t="s">
         <v>218</v>
@@ -14844,7 +14910,7 @@
         <v>273</v>
       </c>
       <c r="C403" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D403" t="s">
         <v>22</v>
@@ -14885,7 +14951,7 @@
         <v>235</v>
       </c>
       <c r="C404" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D404" t="s">
         <v>22</v>
@@ -14923,7 +14989,7 @@
         <v>268</v>
       </c>
       <c r="C405" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D405" t="s">
         <v>22</v>
@@ -14961,7 +15027,7 @@
         <v>273</v>
       </c>
       <c r="C406" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D406" t="s">
         <v>22</v>
@@ -14982,7 +15048,7 @@
         <v>34</v>
       </c>
       <c r="M406" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N406" t="s">
         <v>276</v>
@@ -15002,7 +15068,7 @@
         <v>235</v>
       </c>
       <c r="C407" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D407" t="s">
         <v>22</v>
@@ -15020,7 +15086,7 @@
         <v>277</v>
       </c>
       <c r="M407" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N407" t="s">
         <v>276</v>
@@ -15040,7 +15106,7 @@
         <v>268</v>
       </c>
       <c r="C408" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D408" t="s">
         <v>22</v>
@@ -15058,7 +15124,7 @@
         <v>277</v>
       </c>
       <c r="M408" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N408" t="s">
         <v>276</v>
@@ -15078,7 +15144,7 @@
         <v>273</v>
       </c>
       <c r="C409" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D409" t="s">
         <v>22</v>
@@ -15099,7 +15165,7 @@
         <v>361</v>
       </c>
       <c r="M409" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N409" t="s">
         <v>367</v>
@@ -15140,7 +15206,7 @@
         <v>361</v>
       </c>
       <c r="M410" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N410" t="s">
         <v>367</v>
@@ -15181,7 +15247,7 @@
         <v>361</v>
       </c>
       <c r="M411" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N411" t="s">
         <v>367</v>
@@ -15222,7 +15288,7 @@
         <v>361</v>
       </c>
       <c r="M412" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N412" t="s">
         <v>367</v>
@@ -15263,7 +15329,7 @@
         <v>361</v>
       </c>
       <c r="M413" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N413" t="s">
         <v>367</v>
@@ -15283,7 +15349,7 @@
         <v>273</v>
       </c>
       <c r="C414" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D414" t="s">
         <v>22</v>
@@ -15304,7 +15370,7 @@
         <v>361</v>
       </c>
       <c r="M414" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N414" t="s">
         <v>367</v>
@@ -15345,7 +15411,7 @@
         <v>361</v>
       </c>
       <c r="M415" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N415" t="s">
         <v>367</v>
@@ -15365,7 +15431,7 @@
         <v>273</v>
       </c>
       <c r="C416" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D416" t="s">
         <v>22</v>
@@ -15386,7 +15452,7 @@
         <v>361</v>
       </c>
       <c r="M416" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N416" t="s">
         <v>367</v>
@@ -15406,7 +15472,7 @@
         <v>273</v>
       </c>
       <c r="C417" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D417" t="s">
         <v>22</v>
@@ -15427,7 +15493,7 @@
         <v>361</v>
       </c>
       <c r="M417" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N417" t="s">
         <v>367</v>
@@ -15447,7 +15513,7 @@
         <v>273</v>
       </c>
       <c r="C418" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D418" t="s">
         <v>22</v>
@@ -15468,7 +15534,7 @@
         <v>361</v>
       </c>
       <c r="M418" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N418" t="s">
         <v>367</v>
@@ -15482,13 +15548,13 @@
     </row>
     <row r="419" spans="1:21">
       <c r="A419" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B419" t="s">
         <v>217</v>
       </c>
       <c r="C419" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D419" t="s">
         <v>22</v>
@@ -15508,13 +15574,13 @@
     </row>
     <row r="420" spans="1:21">
       <c r="A420" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B420" t="s">
         <v>217</v>
       </c>
       <c r="C420" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D420" t="s">
         <v>22</v>
@@ -15534,13 +15600,13 @@
     </row>
     <row r="421" spans="1:21">
       <c r="A421" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B421" t="s">
         <v>217</v>
       </c>
       <c r="C421" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D421" t="s">
         <v>22</v>
@@ -15560,13 +15626,13 @@
     </row>
     <row r="422" spans="1:21">
       <c r="A422" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B422" t="s">
         <v>217</v>
       </c>
       <c r="C422" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D422" t="s">
         <v>22</v>
@@ -15586,13 +15652,13 @@
     </row>
     <row r="423" spans="1:21">
       <c r="A423" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B423" t="s">
         <v>217</v>
       </c>
       <c r="C423" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D423" t="s">
         <v>22</v>
@@ -15612,13 +15678,13 @@
     </row>
     <row r="424" spans="1:21">
       <c r="A424" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B424" t="s">
         <v>217</v>
       </c>
       <c r="C424" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D424" t="s">
         <v>22</v>
@@ -15638,13 +15704,13 @@
     </row>
     <row r="425" spans="1:21">
       <c r="A425" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B425" t="s">
         <v>217</v>
       </c>
       <c r="C425" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D425" t="s">
         <v>22</v>
@@ -15664,13 +15730,13 @@
     </row>
     <row r="426" spans="1:21">
       <c r="A426" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B426" t="s">
         <v>217</v>
       </c>
       <c r="C426" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D426" t="s">
         <v>22</v>
@@ -15690,13 +15756,13 @@
     </row>
     <row r="427" spans="1:21">
       <c r="A427" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B427" t="s">
         <v>217</v>
       </c>
       <c r="C427" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D427" t="s">
         <v>22</v>
@@ -15716,13 +15782,13 @@
     </row>
     <row r="428" spans="1:21">
       <c r="A428" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B428" t="s">
         <v>217</v>
       </c>
       <c r="C428" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D428" t="s">
         <v>22</v>
@@ -15742,13 +15808,13 @@
     </row>
     <row r="429" spans="1:21">
       <c r="A429" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B429" t="s">
         <v>217</v>
       </c>
       <c r="C429" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D429" t="s">
         <v>22</v>
@@ -15768,13 +15834,13 @@
     </row>
     <row r="430" spans="1:21">
       <c r="A430" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B430" t="s">
         <v>217</v>
       </c>
       <c r="C430" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D430" t="s">
         <v>22</v>
@@ -15794,13 +15860,13 @@
     </row>
     <row r="431" spans="1:21">
       <c r="A431" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B431" t="s">
         <v>217</v>
       </c>
       <c r="C431" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D431" t="s">
         <v>22</v>
@@ -15820,13 +15886,13 @@
     </row>
     <row r="432" spans="1:21">
       <c r="A432" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B432" t="s">
         <v>217</v>
       </c>
       <c r="C432" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D432" t="s">
         <v>22</v>
@@ -15846,13 +15912,13 @@
     </row>
     <row r="433" spans="1:21">
       <c r="A433" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B433" t="s">
         <v>217</v>
       </c>
       <c r="C433" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D433" t="s">
         <v>22</v>
@@ -15872,13 +15938,13 @@
     </row>
     <row r="434" spans="1:21">
       <c r="A434" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B434" t="s">
         <v>217</v>
       </c>
       <c r="C434" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D434" t="s">
         <v>22</v>
@@ -15898,13 +15964,13 @@
     </row>
     <row r="435" spans="1:21">
       <c r="A435" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B435" t="s">
         <v>217</v>
       </c>
       <c r="C435" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D435" t="s">
         <v>22</v>
@@ -15924,13 +15990,13 @@
     </row>
     <row r="436" spans="1:21">
       <c r="A436" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B436" t="s">
         <v>217</v>
       </c>
       <c r="C436" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D436" t="s">
         <v>22</v>
@@ -15950,13 +16016,13 @@
     </row>
     <row r="437" spans="1:21">
       <c r="A437" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B437" t="s">
         <v>217</v>
       </c>
       <c r="C437" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D437" t="s">
         <v>22</v>
@@ -15976,13 +16042,13 @@
     </row>
     <row r="438" spans="1:21">
       <c r="A438" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B438" t="s">
         <v>217</v>
       </c>
       <c r="C438" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D438" t="s">
         <v>22</v>
@@ -16002,13 +16068,13 @@
     </row>
     <row r="439" spans="1:21">
       <c r="A439" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B439" t="s">
         <v>217</v>
       </c>
       <c r="C439" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D439" t="s">
         <v>22</v>
@@ -16028,13 +16094,13 @@
     </row>
     <row r="440" spans="1:21">
       <c r="A440" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B440" t="s">
         <v>217</v>
       </c>
       <c r="C440" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D440" t="s">
         <v>22</v>
@@ -16054,13 +16120,13 @@
     </row>
     <row r="441" spans="1:21">
       <c r="A441" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B441" t="s">
         <v>217</v>
       </c>
       <c r="C441" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D441" t="s">
         <v>22</v>
@@ -16080,13 +16146,13 @@
     </row>
     <row r="442" spans="1:21">
       <c r="A442" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B442" t="s">
         <v>217</v>
       </c>
       <c r="C442" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D442" t="s">
         <v>22</v>
@@ -16106,13 +16172,13 @@
     </row>
     <row r="443" spans="1:21">
       <c r="A443" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B443" t="s">
         <v>217</v>
       </c>
       <c r="C443" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D443" t="s">
         <v>22</v>
@@ -16132,13 +16198,13 @@
     </row>
     <row r="444" spans="1:21">
       <c r="A444" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B444" t="s">
         <v>217</v>
       </c>
       <c r="C444" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D444" t="s">
         <v>22</v>
@@ -16158,13 +16224,13 @@
     </row>
     <row r="445" spans="1:21">
       <c r="A445" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B445" t="s">
         <v>217</v>
       </c>
       <c r="C445" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D445" t="s">
         <v>22</v>
@@ -16184,13 +16250,13 @@
     </row>
     <row r="446" spans="1:21">
       <c r="A446" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B446" t="s">
         <v>217</v>
       </c>
       <c r="C446" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D446" t="s">
         <v>22</v>
@@ -16210,13 +16276,13 @@
     </row>
     <row r="447" spans="1:21">
       <c r="A447" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B447" t="s">
         <v>217</v>
       </c>
       <c r="C447" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D447" t="s">
         <v>22</v>
@@ -16236,13 +16302,13 @@
     </row>
     <row r="448" spans="1:21">
       <c r="A448" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B448" t="s">
         <v>217</v>
       </c>
       <c r="C448" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D448" t="s">
         <v>22</v>
@@ -16262,13 +16328,13 @@
     </row>
     <row r="449" spans="1:21">
       <c r="A449" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B449" t="s">
         <v>217</v>
       </c>
       <c r="C449" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D449" t="s">
         <v>22</v>
@@ -16288,13 +16354,13 @@
     </row>
     <row r="450" spans="1:21">
       <c r="A450" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B450" t="s">
         <v>217</v>
       </c>
       <c r="C450" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D450" t="s">
         <v>22</v>
@@ -16314,13 +16380,13 @@
     </row>
     <row r="451" spans="1:21">
       <c r="A451" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B451" t="s">
         <v>217</v>
       </c>
       <c r="C451" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D451" t="s">
         <v>22</v>
@@ -16340,13 +16406,13 @@
     </row>
     <row r="452" spans="1:21">
       <c r="A452" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B452" t="s">
         <v>217</v>
       </c>
       <c r="C452" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D452" t="s">
         <v>22</v>
@@ -16366,13 +16432,13 @@
     </row>
     <row r="453" spans="1:21">
       <c r="A453" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B453" t="s">
         <v>217</v>
       </c>
       <c r="C453" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D453" t="s">
         <v>22</v>
@@ -16392,13 +16458,13 @@
     </row>
     <row r="454" spans="1:21">
       <c r="A454" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B454" t="s">
         <v>217</v>
       </c>
       <c r="C454" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D454" t="s">
         <v>22</v>
@@ -16418,13 +16484,13 @@
     </row>
     <row r="455" spans="1:21">
       <c r="A455" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B455" t="s">
         <v>217</v>
       </c>
       <c r="C455" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D455" t="s">
         <v>22</v>
@@ -16444,13 +16510,13 @@
     </row>
     <row r="456" spans="1:21">
       <c r="A456" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B456" t="s">
         <v>217</v>
       </c>
       <c r="C456" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D456" t="s">
         <v>22</v>
@@ -16470,10 +16536,10 @@
     </row>
     <row r="457" spans="1:21">
       <c r="A457" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C457" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D457" t="s">
         <v>22</v>
@@ -16490,10 +16556,10 @@
     </row>
     <row r="458" spans="1:21">
       <c r="A458" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C458" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D458" t="s">
         <v>22</v>
@@ -16510,10 +16576,10 @@
     </row>
     <row r="459" spans="1:21">
       <c r="A459" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C459" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D459" t="s">
         <v>22</v>
@@ -16530,10 +16596,10 @@
     </row>
     <row r="460" spans="1:21">
       <c r="A460" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C460" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D460" t="s">
         <v>22</v>
@@ -16550,10 +16616,10 @@
     </row>
     <row r="461" spans="1:21">
       <c r="A461" t="s">
+        <v>445</v>
+      </c>
+      <c r="C461" t="s">
         <v>447</v>
-      </c>
-      <c r="C461" t="s">
-        <v>449</v>
       </c>
       <c r="D461" t="s">
         <v>22</v>
@@ -16570,13 +16636,13 @@
     </row>
     <row r="462" spans="1:21">
       <c r="A462" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B462" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C462" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D462" t="s">
         <v>22</v>
@@ -16593,10 +16659,10 @@
     </row>
     <row r="463" spans="1:21">
       <c r="A463" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C463" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D463" t="s">
         <v>22</v>
@@ -16613,13 +16679,13 @@
     </row>
     <row r="464" spans="1:21">
       <c r="A464" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B464" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C464" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D464" t="s">
         <v>22</v>
@@ -16636,10 +16702,10 @@
     </row>
     <row r="465" spans="1:21">
       <c r="A465" t="s">
+        <v>445</v>
+      </c>
+      <c r="C465" t="s">
         <v>447</v>
-      </c>
-      <c r="C465" t="s">
-        <v>449</v>
       </c>
       <c r="D465" t="s">
         <v>22</v>
@@ -16656,13 +16722,13 @@
     </row>
     <row r="466" spans="1:21">
       <c r="A466" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B466" t="s">
         <v>86</v>
       </c>
       <c r="C466" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D466" t="s">
         <v>22</v>
@@ -16679,13 +16745,13 @@
     </row>
     <row r="467" spans="1:21">
       <c r="A467" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B467" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C467" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D467" t="s">
         <v>22</v>
@@ -16702,13 +16768,13 @@
     </row>
     <row r="468" spans="1:21">
       <c r="A468" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B468" t="s">
         <v>93</v>
       </c>
       <c r="C468" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D468" t="s">
         <v>22</v>
@@ -16725,13 +16791,13 @@
     </row>
     <row r="469" spans="1:21">
       <c r="A469" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B469" t="s">
         <v>378</v>
       </c>
       <c r="C469" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D469" t="s">
         <v>22</v>
@@ -16748,10 +16814,10 @@
     </row>
     <row r="470" spans="1:21">
       <c r="A470" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C470" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D470" t="s">
         <v>22</v>
@@ -16771,10 +16837,10 @@
     </row>
     <row r="471" spans="1:21">
       <c r="A471" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C471" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D471" t="s">
         <v>22</v>
@@ -16791,13 +16857,13 @@
     </row>
     <row r="472" spans="1:21">
       <c r="A472" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B472" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C472" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D472" t="s">
         <v>22</v>
@@ -16812,18 +16878,18 @@
         <v>2</v>
       </c>
       <c r="M472" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="473" spans="1:21">
       <c r="A473" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B473" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C473" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D473" t="s">
         <v>22</v>
@@ -16838,15 +16904,15 @@
         <v>8</v>
       </c>
       <c r="M473" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="474" spans="1:21">
       <c r="A474" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C474" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D474" t="s">
         <v>22</v>
@@ -16863,10 +16929,10 @@
     </row>
     <row r="475" spans="1:21">
       <c r="A475" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C475" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D475" t="s">
         <v>22</v>
@@ -16881,15 +16947,15 @@
         <v>11</v>
       </c>
       <c r="M475" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="476" spans="1:21">
       <c r="A476" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C476" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D476" t="s">
         <v>22</v>
@@ -16909,10 +16975,10 @@
     </row>
     <row r="477" spans="1:21">
       <c r="A477" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C477" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D477" t="s">
         <v>22</v>
@@ -16932,13 +16998,13 @@
     </row>
     <row r="478" spans="1:21">
       <c r="A478" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B478" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C478" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D478" t="s">
         <v>22</v>
@@ -16958,10 +17024,10 @@
     </row>
     <row r="479" spans="1:21">
       <c r="A479" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C479" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D479" t="s">
         <v>22</v>
@@ -16978,10 +17044,10 @@
     </row>
     <row r="480" spans="1:21">
       <c r="A480" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C480" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D480" t="s">
         <v>22</v>
@@ -17001,10 +17067,10 @@
     </row>
     <row r="481" spans="1:21">
       <c r="A481" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C481" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D481" t="s">
         <v>22</v>
@@ -17019,15 +17085,15 @@
         <v>4</v>
       </c>
       <c r="M481" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="482" spans="1:21">
       <c r="A482" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C482" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D482" t="s">
         <v>22</v>
@@ -17047,10 +17113,10 @@
     </row>
     <row r="483" spans="1:21">
       <c r="A483" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C483" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D483" t="s">
         <v>22</v>
@@ -17070,10 +17136,10 @@
     </row>
     <row r="484" spans="1:21">
       <c r="A484" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C484" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D484" t="s">
         <v>22</v>
@@ -17093,13 +17159,13 @@
     </row>
     <row r="485" spans="1:21">
       <c r="A485" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B485" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C485" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D485" t="s">
         <v>22</v>
@@ -17116,13 +17182,13 @@
     </row>
     <row r="486" spans="1:21">
       <c r="A486" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B486" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C486" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D486" t="s">
         <v>22</v>
@@ -17139,13 +17205,13 @@
     </row>
     <row r="487" spans="1:21">
       <c r="A487" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B487" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C487" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D487" t="s">
         <v>22</v>
@@ -17162,13 +17228,13 @@
     </row>
     <row r="488" spans="1:21">
       <c r="A488" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B488" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C488" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D488" t="s">
         <v>22</v>
@@ -17185,13 +17251,13 @@
     </row>
     <row r="489" spans="1:21">
       <c r="A489" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B489" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C489" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D489" t="s">
         <v>22</v>
@@ -17206,18 +17272,18 @@
         <v>200</v>
       </c>
       <c r="K489" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="490" spans="1:21">
       <c r="A490" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B490" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C490" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D490" t="s">
         <v>22</v>
@@ -17234,13 +17300,13 @@
     </row>
     <row r="491" spans="1:21">
       <c r="A491" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B491" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C491" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D491" t="s">
         <v>22</v>
@@ -17257,13 +17323,13 @@
     </row>
     <row r="492" spans="1:21">
       <c r="A492" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B492" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C492" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D492" t="s">
         <v>22</v>
@@ -17280,13 +17346,13 @@
     </row>
     <row r="493" spans="1:21">
       <c r="A493" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B493" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C493" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D493" t="s">
         <v>22</v>
@@ -17301,18 +17367,18 @@
         <v>1</v>
       </c>
       <c r="K493" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="494" spans="1:21">
       <c r="A494" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B494" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C494" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D494" t="s">
         <v>22</v>
@@ -17327,18 +17393,18 @@
         <v>400</v>
       </c>
       <c r="K494" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="495" spans="1:21">
       <c r="A495" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B495" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C495" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D495" t="s">
         <v>22</v>
@@ -17355,13 +17421,13 @@
     </row>
     <row r="496" spans="1:21">
       <c r="A496" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B496" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C496" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D496" t="s">
         <v>22</v>
@@ -17378,13 +17444,13 @@
     </row>
     <row r="497" spans="1:21">
       <c r="A497" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B497" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C497" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D497" t="s">
         <v>22</v>
@@ -17401,13 +17467,13 @@
     </row>
     <row r="498" spans="1:21">
       <c r="A498" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B498" t="s">
         <v>346</v>
       </c>
       <c r="C498" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D498" t="s">
         <v>22</v>
@@ -17424,13 +17490,13 @@
     </row>
     <row r="499" spans="1:21">
       <c r="A499" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B499" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C499" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D499" t="s">
         <v>22</v>
@@ -17447,13 +17513,13 @@
     </row>
     <row r="500" spans="1:21">
       <c r="A500" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B500" t="s">
         <v>340</v>
       </c>
       <c r="C500" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D500" t="s">
         <v>22</v>
@@ -17470,10 +17536,10 @@
     </row>
     <row r="501" spans="1:21">
       <c r="A501" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C501" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D501" t="s">
         <v>22</v>
@@ -17490,10 +17556,10 @@
     </row>
     <row r="502" spans="1:21">
       <c r="A502" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C502" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D502" t="s">
         <v>22</v>
@@ -17510,13 +17576,13 @@
     </row>
     <row r="503" spans="1:21">
       <c r="A503" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B503" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C503" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D503" t="s">
         <v>22</v>
@@ -17533,10 +17599,10 @@
     </row>
     <row r="504" spans="1:21">
       <c r="A504" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C504" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D504" t="s">
         <v>22</v>
@@ -17553,13 +17619,13 @@
     </row>
     <row r="505" spans="1:21">
       <c r="A505" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B505" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C505" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D505" t="s">
         <v>22</v>
@@ -17576,10 +17642,10 @@
     </row>
     <row r="506" spans="1:21">
       <c r="A506" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C506" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D506" t="s">
         <v>22</v>
@@ -17596,10 +17662,10 @@
     </row>
     <row r="507" spans="1:21">
       <c r="A507" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C507" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D507" t="s">
         <v>22</v>
@@ -17619,10 +17685,10 @@
     </row>
     <row r="508" spans="1:21">
       <c r="A508" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C508" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D508" t="s">
         <v>22</v>
@@ -17639,10 +17705,10 @@
     </row>
     <row r="509" spans="1:21">
       <c r="A509" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C509" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D509" t="s">
         <v>22</v>
@@ -17659,10 +17725,10 @@
     </row>
     <row r="510" spans="1:21">
       <c r="A510" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C510" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D510" t="s">
         <v>22</v>
@@ -17679,10 +17745,10 @@
     </row>
     <row r="511" spans="1:21">
       <c r="A511" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C511" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D511" t="s">
         <v>22</v>
@@ -17699,10 +17765,10 @@
     </row>
     <row r="512" spans="1:21">
       <c r="A512" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C512" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D512" t="s">
         <v>22</v>
@@ -17719,10 +17785,10 @@
     </row>
     <row r="513" spans="1:21">
       <c r="A513" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C513" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D513" t="s">
         <v>22</v>
@@ -17739,10 +17805,10 @@
     </row>
     <row r="514" spans="1:21">
       <c r="A514" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C514" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D514" t="s">
         <v>22</v>
@@ -17759,10 +17825,10 @@
     </row>
     <row r="515" spans="1:21">
       <c r="A515" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C515" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D515" t="s">
         <v>22</v>
@@ -17779,10 +17845,10 @@
     </row>
     <row r="516" spans="1:21">
       <c r="A516" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C516" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D516" t="s">
         <v>22</v>
@@ -17799,10 +17865,10 @@
     </row>
     <row r="517" spans="1:21">
       <c r="A517" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C517" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D517" t="s">
         <v>22</v>
@@ -17819,13 +17885,13 @@
     </row>
     <row r="518" spans="1:21">
       <c r="A518" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B518" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C518" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D518" t="s">
         <v>22</v>
@@ -17842,13 +17908,13 @@
     </row>
     <row r="519" spans="1:21">
       <c r="A519" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B519" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C519" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D519" t="s">
         <v>22</v>
@@ -17865,13 +17931,13 @@
     </row>
     <row r="520" spans="1:21">
       <c r="A520" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B520" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C520" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D520" t="s">
         <v>22</v>
@@ -17888,10 +17954,10 @@
     </row>
     <row r="521" spans="1:21">
       <c r="A521" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C521" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D521" t="s">
         <v>22</v>
@@ -17908,13 +17974,13 @@
     </row>
     <row r="522" spans="1:21">
       <c r="A522" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B522" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C522" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D522" t="s">
         <v>22</v>
@@ -17931,10 +17997,10 @@
     </row>
     <row r="523" spans="1:21">
       <c r="A523" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C523" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D523" t="s">
         <v>22</v>
@@ -17951,13 +18017,13 @@
     </row>
     <row r="524" spans="1:21">
       <c r="A524" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B524" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C524" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D524" t="s">
         <v>22</v>
@@ -17974,10 +18040,10 @@
     </row>
     <row r="525" spans="1:21">
       <c r="A525" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C525" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D525" t="s">
         <v>22</v>
@@ -17994,13 +18060,13 @@
     </row>
     <row r="526" spans="1:21">
       <c r="A526" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B526" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C526" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D526" t="s">
         <v>22</v>
@@ -18017,10 +18083,10 @@
     </row>
     <row r="527" spans="1:21">
       <c r="A527" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C527" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D527" t="s">
         <v>22</v>
@@ -18037,13 +18103,13 @@
     </row>
     <row r="528" spans="1:21">
       <c r="A528" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B528" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C528" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D528" t="s">
         <v>22</v>
@@ -18060,10 +18126,10 @@
     </row>
     <row r="529" spans="1:21">
       <c r="A529" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C529" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D529" t="s">
         <v>22</v>
@@ -18080,13 +18146,13 @@
     </row>
     <row r="530" spans="1:21">
       <c r="A530" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B530" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C530" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D530" t="s">
         <v>22</v>
@@ -18103,10 +18169,10 @@
     </row>
     <row r="531" spans="1:21">
       <c r="A531" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C531" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D531" t="s">
         <v>22</v>
@@ -18123,13 +18189,13 @@
     </row>
     <row r="532" spans="1:21">
       <c r="A532" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B532" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C532" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D532" t="s">
         <v>22</v>
@@ -18146,10 +18212,10 @@
     </row>
     <row r="533" spans="1:21">
       <c r="A533" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C533" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D533" t="s">
         <v>22</v>
@@ -18166,10 +18232,10 @@
     </row>
     <row r="534" spans="1:21">
       <c r="A534" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C534" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D534" t="s">
         <v>22</v>
@@ -18189,10 +18255,10 @@
     </row>
     <row r="535" spans="1:21">
       <c r="A535" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C535" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D535" t="s">
         <v>22</v>
@@ -18209,7 +18275,7 @@
     </row>
     <row r="536" spans="1:21">
       <c r="A536" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C536" t="s">
         <v>106</v>
@@ -18229,10 +18295,10 @@
     </row>
     <row r="537" spans="1:21">
       <c r="A537" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C537" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D537" t="s">
         <v>22</v>
@@ -18249,10 +18315,10 @@
     </row>
     <row r="538" spans="1:21">
       <c r="A538" t="s">
+        <v>485</v>
+      </c>
+      <c r="C538" t="s">
         <v>487</v>
-      </c>
-      <c r="C538" t="s">
-        <v>489</v>
       </c>
       <c r="D538" t="s">
         <v>22</v>
@@ -18269,10 +18335,10 @@
     </row>
     <row r="539" spans="1:21">
       <c r="A539" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C539" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D539" t="s">
         <v>22</v>
@@ -18289,10 +18355,10 @@
     </row>
     <row r="540" spans="1:21">
       <c r="A540" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C540" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D540" t="s">
         <v>22</v>
@@ -18309,13 +18375,13 @@
     </row>
     <row r="541" spans="1:21">
       <c r="A541" t="s">
+        <v>490</v>
+      </c>
+      <c r="B541" t="s">
+        <v>491</v>
+      </c>
+      <c r="C541" t="s">
         <v>492</v>
-      </c>
-      <c r="B541" t="s">
-        <v>493</v>
-      </c>
-      <c r="C541" t="s">
-        <v>494</v>
       </c>
       <c r="D541" t="s">
         <v>22</v>
@@ -18332,13 +18398,13 @@
     </row>
     <row r="542" spans="1:21">
       <c r="A542" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B542" t="s">
         <v>217</v>
       </c>
       <c r="C542" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D542" t="s">
         <v>22</v>
@@ -18358,13 +18424,13 @@
     </row>
     <row r="543" spans="1:21">
       <c r="A543" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B543" t="s">
         <v>217</v>
       </c>
       <c r="C543" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D543" t="s">
         <v>22</v>
@@ -18384,13 +18450,13 @@
     </row>
     <row r="544" spans="1:21">
       <c r="A544" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B544" t="s">
         <v>217</v>
       </c>
       <c r="C544" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D544" t="s">
         <v>22</v>
@@ -18410,13 +18476,13 @@
     </row>
     <row r="545" spans="1:21">
       <c r="A545" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B545" t="s">
         <v>217</v>
       </c>
       <c r="C545" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D545" t="s">
         <v>22</v>
@@ -18436,13 +18502,13 @@
     </row>
     <row r="546" spans="1:21">
       <c r="A546" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B546" t="s">
         <v>217</v>
       </c>
       <c r="C546" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D546" t="s">
         <v>22</v>
@@ -18462,13 +18528,13 @@
     </row>
     <row r="547" spans="1:21">
       <c r="A547" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B547" t="s">
         <v>217</v>
       </c>
       <c r="C547" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D547" t="s">
         <v>22</v>
@@ -18488,13 +18554,13 @@
     </row>
     <row r="548" spans="1:21">
       <c r="A548" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B548" t="s">
         <v>217</v>
       </c>
       <c r="C548" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D548" t="s">
         <v>22</v>
@@ -18514,13 +18580,13 @@
     </row>
     <row r="549" spans="1:21">
       <c r="A549" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B549" t="s">
         <v>217</v>
       </c>
       <c r="C549" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D549" t="s">
         <v>22</v>
@@ -18540,13 +18606,13 @@
     </row>
     <row r="550" spans="1:21">
       <c r="A550" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B550" t="s">
         <v>217</v>
       </c>
       <c r="C550" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D550" t="s">
         <v>22</v>
@@ -18566,13 +18632,13 @@
     </row>
     <row r="551" spans="1:21">
       <c r="A551" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B551" t="s">
         <v>217</v>
       </c>
       <c r="C551" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D551" t="s">
         <v>22</v>
@@ -18592,13 +18658,13 @@
     </row>
     <row r="552" spans="1:21">
       <c r="A552" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B552" t="s">
         <v>217</v>
       </c>
       <c r="C552" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D552" t="s">
         <v>22</v>
@@ -18618,13 +18684,13 @@
     </row>
     <row r="553" spans="1:21">
       <c r="A553" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B553" t="s">
         <v>217</v>
       </c>
       <c r="C553" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D553" t="s">
         <v>22</v>
@@ -18644,13 +18710,13 @@
     </row>
     <row r="554" spans="1:21">
       <c r="A554" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B554" t="s">
         <v>217</v>
       </c>
       <c r="C554" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D554" t="s">
         <v>22</v>
@@ -18670,13 +18736,13 @@
     </row>
     <row r="555" spans="1:21">
       <c r="A555" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B555" t="s">
         <v>217</v>
       </c>
       <c r="C555" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D555" t="s">
         <v>22</v>
@@ -18696,13 +18762,13 @@
     </row>
     <row r="556" spans="1:21">
       <c r="A556" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B556" t="s">
         <v>217</v>
       </c>
       <c r="C556" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D556" t="s">
         <v>22</v>
@@ -18722,13 +18788,13 @@
     </row>
     <row r="557" spans="1:21">
       <c r="A557" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B557" t="s">
         <v>217</v>
       </c>
       <c r="C557" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D557" t="s">
         <v>22</v>
@@ -18748,13 +18814,13 @@
     </row>
     <row r="558" spans="1:21">
       <c r="A558" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B558" t="s">
         <v>217</v>
       </c>
       <c r="C558" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D558" t="s">
         <v>22</v>
@@ -18774,13 +18840,13 @@
     </row>
     <row r="559" spans="1:21">
       <c r="A559" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B559" t="s">
         <v>217</v>
       </c>
       <c r="C559" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D559" t="s">
         <v>22</v>
@@ -18800,13 +18866,13 @@
     </row>
     <row r="560" spans="1:21">
       <c r="A560" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B560" t="s">
         <v>217</v>
       </c>
       <c r="C560" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D560" t="s">
         <v>22</v>

--- a/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
+++ b/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t>CARRIER</t>
   </si>
@@ -829,6 +829,9 @@
     <t>14 DAYS COMBINED</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / Included CIC/PCS at POD</t>
+  </si>
+  <si>
     <t>LKR</t>
   </si>
   <si>
@@ -865,6 +868,9 @@
     <t>VIA CMB</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends</t>
+  </si>
+  <si>
     <t>Bangalore</t>
   </si>
   <si>
@@ -877,6 +883,10 @@
     <t>Via KAT</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / Included CIC/PCS at POD / 
+Subject to IHC Tariff</t>
+  </si>
+  <si>
     <t>MUNDRA</t>
   </si>
   <si>
@@ -907,6 +917,10 @@
     <t>T/S SIN/PKG and Direct</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / Included CIC /  
+In-transit cargo to Afghanistan not allowed</t>
+  </si>
+  <si>
     <t>Ahmedabad</t>
   </si>
   <si>
@@ -955,6 +969,9 @@
     <t>UAE/Jebel Ali</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / Included CIC</t>
+  </si>
+  <si>
     <t>Saudi Arabia/Dammam</t>
   </si>
   <si>
@@ -970,6 +987,9 @@
     <t>VIA DMM</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / Included CIC ** Subj. Rail cost 550/510</t>
+  </si>
+  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -985,12 +1005,19 @@
     <t>22 Days</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / 
+Subject to  CIC: KWD 22/38 (OR USD 72/125 IF PREPAID) FOR 20'/40'</t>
+  </si>
+  <si>
     <t>Umm Qasr (West)</t>
   </si>
   <si>
     <t>25-28 Days</t>
   </si>
   <si>
+    <t>incl BAF/ LGGR/ DTHC subject to local charge at both ends and if all any.</t>
+  </si>
+  <si>
     <t>Saudi Arabia/Jeddah</t>
   </si>
   <si>
@@ -1063,6 +1090,9 @@
     <t>Palembang</t>
   </si>
   <si>
+    <t>Subject to local Charge at both ends / Subject to Deposit at POD</t>
+  </si>
+  <si>
     <t>Semarang</t>
   </si>
   <si>
@@ -1075,6 +1105,9 @@
     <t>12-13 Days</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / Included CIC &amp; ECRS</t>
+  </si>
+  <si>
     <t>Batangas</t>
   </si>
   <si>
@@ -1114,6 +1147,10 @@
     <t>10 Days</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / Subject to AFS $30 at POL / 
+Subject to LSS CNY 120/240 at POD</t>
+  </si>
+  <si>
     <t>Ningbo</t>
   </si>
   <si>
@@ -1189,7 +1226,8 @@
     <t>13 Days</t>
   </si>
   <si>
-    <t>SSW</t>
+    <t>Subject to local charge at both ends / Subject to AFS $30 at POL / 
+Subject to LSS CNY 120/240 at POD / SSW</t>
   </si>
   <si>
     <t>Nanhai</t>
@@ -1213,9 +1251,17 @@
     <t>7 DEM + 7 DET</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / 
+Subject to LSS USD 20/40 at POD</t>
+  </si>
+  <si>
     <t>8 DEM + 6 DET</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / 
+Included EBS/CIC/EXS at POD</t>
+  </si>
+  <si>
     <t>Sihanoukville</t>
   </si>
   <si>
@@ -1225,10 +1271,17 @@
     <t>12-14 Days</t>
   </si>
   <si>
+    <t>Subject to local charge at both ends / 
+Included CIC/PCS/LWS at POD</t>
+  </si>
+  <si>
     <t>Otaru</t>
   </si>
   <si>
     <t>18-22 Days</t>
+  </si>
+  <si>
+    <t>Subject to local charge at both ends / Subject to AFS $30 at POL</t>
   </si>
   <si>
     <t>Fukuyama</t>
@@ -1938,7 +1991,7 @@
     <col min="14" max="14" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="93.12" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="13.997" bestFit="true" customWidth="true" style="0"/>
@@ -7449,13 +7502,16 @@
       <c r="P210" t="s">
         <v>218</v>
       </c>
+      <c r="Q210" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="211" spans="1:21">
       <c r="A211" t="s">
         <v>262</v>
       </c>
       <c r="B211" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C211" t="s">
         <v>263</v>
@@ -7487,6 +7543,9 @@
       <c r="P211" t="s">
         <v>218</v>
       </c>
+      <c r="Q211" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="212" spans="1:21">
       <c r="A212" t="s">
@@ -7496,7 +7555,7 @@
         <v>235</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D212" t="s">
         <v>22</v>
@@ -7514,16 +7573,19 @@
         <v>23</v>
       </c>
       <c r="M212" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N212" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O212" t="s">
         <v>267</v>
       </c>
       <c r="P212" t="s">
         <v>218</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:21">
@@ -7531,10 +7593,10 @@
         <v>262</v>
       </c>
       <c r="B213" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C213" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D213" t="s">
         <v>22</v>
@@ -7552,16 +7614,19 @@
         <v>23</v>
       </c>
       <c r="M213" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N213" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O213" t="s">
         <v>267</v>
       </c>
       <c r="P213" t="s">
         <v>218</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="214" spans="1:21">
@@ -7590,7 +7655,7 @@
         <v>264</v>
       </c>
       <c r="M214" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N214" t="s">
         <v>266</v>
@@ -7601,13 +7666,16 @@
       <c r="P214" t="s">
         <v>218</v>
       </c>
+      <c r="Q214" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="215" spans="1:21">
       <c r="A215" t="s">
         <v>262</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C215" t="s">
         <v>33</v>
@@ -7628,7 +7696,7 @@
         <v>264</v>
       </c>
       <c r="M215" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N215" t="s">
         <v>266</v>
@@ -7639,6 +7707,9 @@
       <c r="P215" t="s">
         <v>218</v>
       </c>
+      <c r="Q215" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="216" spans="1:21">
       <c r="A216" t="s">
@@ -7677,13 +7748,16 @@
       <c r="P216" t="s">
         <v>218</v>
       </c>
+      <c r="Q216" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="217" spans="1:21">
       <c r="A217" t="s">
         <v>262</v>
       </c>
       <c r="B217" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C217" t="s">
         <v>35</v>
@@ -7715,16 +7789,19 @@
       <c r="P217" t="s">
         <v>218</v>
       </c>
+      <c r="Q217" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="218" spans="1:21">
       <c r="A218" t="s">
         <v>262</v>
       </c>
       <c r="B218" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C218" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D218" t="s">
         <v>22</v>
@@ -7745,16 +7822,19 @@
         <v>34</v>
       </c>
       <c r="M218" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N218" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O218" t="s">
         <v>267</v>
       </c>
       <c r="P218" t="s">
         <v>218</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:21">
@@ -7765,7 +7845,7 @@
         <v>235</v>
       </c>
       <c r="C219" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D219" t="s">
         <v>22</v>
@@ -7780,19 +7860,22 @@
         <v>1000</v>
       </c>
       <c r="L219" t="s">
+        <v>278</v>
+      </c>
+      <c r="M219" t="s">
+        <v>276</v>
+      </c>
+      <c r="N219" t="s">
         <v>277</v>
       </c>
-      <c r="M219" t="s">
-        <v>275</v>
-      </c>
-      <c r="N219" t="s">
-        <v>276</v>
-      </c>
       <c r="O219" t="s">
         <v>267</v>
       </c>
       <c r="P219" t="s">
         <v>218</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -7800,10 +7883,10 @@
         <v>262</v>
       </c>
       <c r="B220" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C220" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D220" t="s">
         <v>22</v>
@@ -7818,19 +7901,22 @@
         <v>1150</v>
       </c>
       <c r="L220" t="s">
+        <v>278</v>
+      </c>
+      <c r="M220" t="s">
+        <v>276</v>
+      </c>
+      <c r="N220" t="s">
         <v>277</v>
       </c>
-      <c r="M220" t="s">
-        <v>275</v>
-      </c>
-      <c r="N220" t="s">
-        <v>276</v>
-      </c>
       <c r="O220" t="s">
         <v>267</v>
       </c>
       <c r="P220" t="s">
         <v>218</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="221" spans="1:21">
@@ -7838,7 +7924,7 @@
         <v>262</v>
       </c>
       <c r="B221" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C221" t="s">
         <v>38</v>
@@ -7862,16 +7948,19 @@
         <v>34</v>
       </c>
       <c r="M221" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N221" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O221" t="s">
         <v>267</v>
       </c>
       <c r="P221" t="s">
         <v>218</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:21">
@@ -7897,19 +7986,22 @@
         <v>1350</v>
       </c>
       <c r="L222" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M222" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N222" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O222" t="s">
         <v>267</v>
       </c>
       <c r="P222" t="s">
         <v>218</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:21">
@@ -7917,7 +8009,7 @@
         <v>262</v>
       </c>
       <c r="B223" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C223" t="s">
         <v>38</v>
@@ -7935,19 +8027,22 @@
         <v>1500</v>
       </c>
       <c r="L223" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M223" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N223" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O223" t="s">
         <v>267</v>
       </c>
       <c r="P223" t="s">
         <v>218</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:21">
@@ -7958,7 +8053,7 @@
         <v>235</v>
       </c>
       <c r="C224" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D224" t="s">
         <v>22</v>
@@ -7973,19 +8068,22 @@
         <v>1000</v>
       </c>
       <c r="L224" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M224" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N224" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O224" t="s">
         <v>267</v>
       </c>
       <c r="P224" t="s">
         <v>218</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="225" spans="1:21">
@@ -7993,10 +8091,10 @@
         <v>262</v>
       </c>
       <c r="B225" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D225" t="s">
         <v>22</v>
@@ -8011,19 +8109,22 @@
         <v>1150</v>
       </c>
       <c r="L225" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M225" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N225" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O225" t="s">
         <v>267</v>
       </c>
       <c r="P225" t="s">
         <v>218</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="226" spans="1:21">
@@ -8034,7 +8135,7 @@
         <v>235</v>
       </c>
       <c r="C226" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D226" t="s">
         <v>22</v>
@@ -8049,19 +8150,22 @@
         <v>900</v>
       </c>
       <c r="L226" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M226" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N226" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O226" t="s">
         <v>267</v>
       </c>
       <c r="P226" t="s">
         <v>218</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:21">
@@ -8069,10 +8173,10 @@
         <v>262</v>
       </c>
       <c r="B227" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C227" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D227" t="s">
         <v>22</v>
@@ -8087,19 +8191,22 @@
         <v>1050</v>
       </c>
       <c r="L227" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M227" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N227" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O227" t="s">
         <v>267</v>
       </c>
       <c r="P227" t="s">
         <v>218</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="228" spans="1:21">
@@ -8128,16 +8235,19 @@
         <v>23</v>
       </c>
       <c r="M228" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N228" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O228" t="s">
         <v>267</v>
       </c>
       <c r="P228" t="s">
         <v>218</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="1:21">
@@ -8145,7 +8255,7 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C229" t="s">
         <v>44</v>
@@ -8166,16 +8276,19 @@
         <v>23</v>
       </c>
       <c r="M229" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N229" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O229" t="s">
         <v>267</v>
       </c>
       <c r="P229" t="s">
         <v>218</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:21">
@@ -8204,16 +8317,19 @@
         <v>264</v>
       </c>
       <c r="M230" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N230" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O230" t="s">
         <v>267</v>
       </c>
       <c r="P230" t="s">
         <v>218</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="231" spans="1:21">
@@ -8221,7 +8337,7 @@
         <v>262</v>
       </c>
       <c r="B231" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C231" t="s">
         <v>43</v>
@@ -8242,16 +8358,19 @@
         <v>264</v>
       </c>
       <c r="M231" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N231" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O231" t="s">
         <v>267</v>
       </c>
       <c r="P231" t="s">
         <v>218</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="232" spans="1:21">
@@ -8259,7 +8378,7 @@
         <v>262</v>
       </c>
       <c r="B232" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C232" t="s">
         <v>43</v>
@@ -8283,16 +8402,19 @@
         <v>34</v>
       </c>
       <c r="M232" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N232" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O232" t="s">
         <v>267</v>
       </c>
       <c r="P232" t="s">
         <v>218</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="233" spans="1:21">
@@ -8318,19 +8440,22 @@
         <v>1050</v>
       </c>
       <c r="L233" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M233" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N233" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O233" t="s">
         <v>267</v>
       </c>
       <c r="P233" t="s">
         <v>218</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="234" spans="1:21">
@@ -8341,7 +8466,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D234" t="s">
         <v>22</v>
@@ -8359,16 +8484,19 @@
         <v>23</v>
       </c>
       <c r="M234" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N234" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O234" t="s">
         <v>267</v>
       </c>
       <c r="P234" t="s">
         <v>218</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="235" spans="1:21">
@@ -8376,10 +8504,10 @@
         <v>262</v>
       </c>
       <c r="B235" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C235" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D235" t="s">
         <v>22</v>
@@ -8397,16 +8525,19 @@
         <v>23</v>
       </c>
       <c r="M235" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N235" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O235" t="s">
         <v>267</v>
       </c>
       <c r="P235" t="s">
         <v>218</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="236" spans="1:21">
@@ -8414,7 +8545,7 @@
         <v>262</v>
       </c>
       <c r="B236" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C236" t="s">
         <v>49</v>
@@ -8438,16 +8569,19 @@
         <v>34</v>
       </c>
       <c r="M236" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N236" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O236" t="s">
         <v>267</v>
       </c>
       <c r="P236" t="s">
         <v>218</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:21">
@@ -8473,19 +8607,22 @@
         <v>1350</v>
       </c>
       <c r="L237" t="s">
+        <v>278</v>
+      </c>
+      <c r="M237" t="s">
+        <v>273</v>
+      </c>
+      <c r="N237" t="s">
         <v>277</v>
       </c>
-      <c r="M237" t="s">
-        <v>272</v>
-      </c>
-      <c r="N237" t="s">
-        <v>276</v>
-      </c>
       <c r="O237" t="s">
         <v>267</v>
       </c>
       <c r="P237" t="s">
         <v>218</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:21">
@@ -8493,7 +8630,7 @@
         <v>262</v>
       </c>
       <c r="B238" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C238" t="s">
         <v>49</v>
@@ -8511,19 +8648,22 @@
         <v>1500</v>
       </c>
       <c r="L238" t="s">
+        <v>278</v>
+      </c>
+      <c r="M238" t="s">
+        <v>273</v>
+      </c>
+      <c r="N238" t="s">
         <v>277</v>
       </c>
-      <c r="M238" t="s">
-        <v>272</v>
-      </c>
-      <c r="N238" t="s">
-        <v>276</v>
-      </c>
       <c r="O238" t="s">
         <v>267</v>
       </c>
       <c r="P238" t="s">
         <v>218</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:21">
@@ -8534,7 +8674,7 @@
         <v>235</v>
       </c>
       <c r="C239" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D239" t="s">
         <v>22</v>
@@ -8549,19 +8689,22 @@
         <v>950</v>
       </c>
       <c r="L239" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M239" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N239" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O239" t="s">
         <v>267</v>
       </c>
       <c r="P239" t="s">
         <v>218</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="240" spans="1:21">
@@ -8569,10 +8712,10 @@
         <v>262</v>
       </c>
       <c r="B240" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C240" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D240" t="s">
         <v>22</v>
@@ -8587,19 +8730,22 @@
         <v>1100</v>
       </c>
       <c r="L240" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M240" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N240" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O240" t="s">
         <v>267</v>
       </c>
       <c r="P240" t="s">
         <v>218</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="241" spans="1:21">
@@ -8610,7 +8756,7 @@
         <v>235</v>
       </c>
       <c r="C241" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D241" t="s">
         <v>22</v>
@@ -8625,19 +8771,22 @@
         <v>950</v>
       </c>
       <c r="L241" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M241" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N241" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O241" t="s">
         <v>267</v>
       </c>
       <c r="P241" t="s">
         <v>218</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="242" spans="1:21">
@@ -8645,10 +8794,10 @@
         <v>262</v>
       </c>
       <c r="B242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C242" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D242" t="s">
         <v>22</v>
@@ -8663,19 +8812,22 @@
         <v>1100</v>
       </c>
       <c r="L242" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M242" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N242" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O242" t="s">
         <v>267</v>
       </c>
       <c r="P242" t="s">
         <v>218</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="243" spans="1:21">
@@ -8686,7 +8838,7 @@
         <v>235</v>
       </c>
       <c r="C243" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D243" t="s">
         <v>22</v>
@@ -8701,19 +8853,22 @@
         <v>950</v>
       </c>
       <c r="L243" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M243" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N243" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O243" t="s">
         <v>267</v>
       </c>
       <c r="P243" t="s">
         <v>218</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="244" spans="1:21">
@@ -8721,10 +8876,10 @@
         <v>262</v>
       </c>
       <c r="B244" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C244" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D244" t="s">
         <v>22</v>
@@ -8739,19 +8894,22 @@
         <v>1100</v>
       </c>
       <c r="L244" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M244" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N244" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O244" t="s">
         <v>267</v>
       </c>
       <c r="P244" t="s">
         <v>218</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="245" spans="1:21">
@@ -8762,7 +8920,7 @@
         <v>235</v>
       </c>
       <c r="C245" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D245" t="s">
         <v>22</v>
@@ -8777,19 +8935,22 @@
         <v>950</v>
       </c>
       <c r="L245" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M245" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N245" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O245" t="s">
         <v>267</v>
       </c>
       <c r="P245" t="s">
         <v>218</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="246" spans="1:21">
@@ -8797,10 +8958,10 @@
         <v>262</v>
       </c>
       <c r="B246" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C246" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D246" t="s">
         <v>22</v>
@@ -8815,19 +8976,22 @@
         <v>1100</v>
       </c>
       <c r="L246" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M246" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N246" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O246" t="s">
         <v>267</v>
       </c>
       <c r="P246" t="s">
         <v>218</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="247" spans="1:21">
@@ -8838,7 +9002,7 @@
         <v>235</v>
       </c>
       <c r="C247" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D247" t="s">
         <v>22</v>
@@ -8853,19 +9017,22 @@
         <v>950</v>
       </c>
       <c r="L247" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M247" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N247" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O247" t="s">
         <v>267</v>
       </c>
       <c r="P247" t="s">
         <v>218</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="248" spans="1:21">
@@ -8873,10 +9040,10 @@
         <v>262</v>
       </c>
       <c r="B248" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C248" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D248" t="s">
         <v>22</v>
@@ -8891,19 +9058,22 @@
         <v>1100</v>
       </c>
       <c r="L248" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M248" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N248" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O248" t="s">
         <v>267</v>
       </c>
       <c r="P248" t="s">
         <v>218</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="249" spans="1:21">
@@ -8914,7 +9084,7 @@
         <v>235</v>
       </c>
       <c r="C249" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D249" t="s">
         <v>22</v>
@@ -8929,19 +9099,22 @@
         <v>950</v>
       </c>
       <c r="L249" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M249" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N249" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O249" t="s">
         <v>267</v>
       </c>
       <c r="P249" t="s">
         <v>218</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="250" spans="1:21">
@@ -8949,10 +9122,10 @@
         <v>262</v>
       </c>
       <c r="B250" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C250" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D250" t="s">
         <v>22</v>
@@ -8967,19 +9140,22 @@
         <v>1100</v>
       </c>
       <c r="L250" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M250" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N250" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O250" t="s">
         <v>267</v>
       </c>
       <c r="P250" t="s">
         <v>218</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="251" spans="1:21">
@@ -8990,7 +9166,7 @@
         <v>235</v>
       </c>
       <c r="C251" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D251" t="s">
         <v>22</v>
@@ -9005,19 +9181,22 @@
         <v>950</v>
       </c>
       <c r="L251" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M251" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N251" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O251" t="s">
         <v>267</v>
       </c>
       <c r="P251" t="s">
         <v>218</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="252" spans="1:21">
@@ -9025,10 +9204,10 @@
         <v>262</v>
       </c>
       <c r="B252" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C252" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D252" t="s">
         <v>22</v>
@@ -9043,19 +9222,22 @@
         <v>1100</v>
       </c>
       <c r="L252" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M252" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N252" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O252" t="s">
         <v>267</v>
       </c>
       <c r="P252" t="s">
         <v>218</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="253" spans="1:21">
@@ -9066,7 +9248,7 @@
         <v>235</v>
       </c>
       <c r="C253" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D253" t="s">
         <v>22</v>
@@ -9084,16 +9266,19 @@
         <v>264</v>
       </c>
       <c r="M253" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N253" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O253" t="s">
         <v>267</v>
       </c>
       <c r="P253" t="s">
         <v>218</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="254" spans="1:21">
@@ -9101,10 +9286,10 @@
         <v>262</v>
       </c>
       <c r="B254" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C254" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D254" t="s">
         <v>22</v>
@@ -9122,16 +9307,19 @@
         <v>264</v>
       </c>
       <c r="M254" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N254" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O254" t="s">
         <v>267</v>
       </c>
       <c r="P254" t="s">
         <v>218</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="255" spans="1:21">
@@ -9142,7 +9330,7 @@
         <v>235</v>
       </c>
       <c r="C255" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D255" t="s">
         <v>22</v>
@@ -9160,16 +9348,19 @@
         <v>264</v>
       </c>
       <c r="M255" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N255" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O255" t="s">
         <v>267</v>
       </c>
       <c r="P255" t="s">
         <v>218</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="256" spans="1:21">
@@ -9177,10 +9368,10 @@
         <v>262</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C256" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D256" t="s">
         <v>22</v>
@@ -9198,16 +9389,19 @@
         <v>264</v>
       </c>
       <c r="M256" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N256" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O256" t="s">
         <v>267</v>
       </c>
       <c r="P256" t="s">
         <v>218</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="257" spans="1:21">
@@ -9218,7 +9412,7 @@
         <v>235</v>
       </c>
       <c r="C257" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D257" t="s">
         <v>22</v>
@@ -9236,16 +9430,19 @@
         <v>264</v>
       </c>
       <c r="M257" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N257" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O257" t="s">
         <v>267</v>
       </c>
       <c r="P257" t="s">
         <v>218</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="258" spans="1:21">
@@ -9253,10 +9450,10 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C258" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D258" t="s">
         <v>22</v>
@@ -9274,16 +9471,19 @@
         <v>264</v>
       </c>
       <c r="M258" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N258" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O258" t="s">
         <v>267</v>
       </c>
       <c r="P258" t="s">
         <v>218</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="259" spans="1:21">
@@ -9294,7 +9494,7 @@
         <v>235</v>
       </c>
       <c r="C259" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D259" t="s">
         <v>22</v>
@@ -9312,16 +9512,19 @@
         <v>264</v>
       </c>
       <c r="M259" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N259" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O259" t="s">
         <v>267</v>
       </c>
       <c r="P259" t="s">
         <v>218</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="260" spans="1:21">
@@ -9329,10 +9532,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C260" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D260" t="s">
         <v>22</v>
@@ -9350,16 +9553,19 @@
         <v>264</v>
       </c>
       <c r="M260" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N260" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O260" t="s">
         <v>267</v>
       </c>
       <c r="P260" t="s">
         <v>218</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="261" spans="1:21">
@@ -9370,7 +9576,7 @@
         <v>235</v>
       </c>
       <c r="C261" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D261" t="s">
         <v>22</v>
@@ -9388,16 +9594,19 @@
         <v>264</v>
       </c>
       <c r="M261" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N261" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O261" t="s">
         <v>267</v>
       </c>
       <c r="P261" t="s">
         <v>218</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:21">
@@ -9405,10 +9614,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C262" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D262" t="s">
         <v>22</v>
@@ -9426,16 +9635,19 @@
         <v>264</v>
       </c>
       <c r="M262" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N262" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O262" t="s">
         <v>267</v>
       </c>
       <c r="P262" t="s">
         <v>218</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="263" spans="1:21">
@@ -9446,7 +9658,7 @@
         <v>235</v>
       </c>
       <c r="C263" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D263" t="s">
         <v>22</v>
@@ -9464,16 +9676,19 @@
         <v>264</v>
       </c>
       <c r="M263" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N263" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O263" t="s">
         <v>267</v>
       </c>
       <c r="P263" t="s">
         <v>218</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:21">
@@ -9481,10 +9696,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C264" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D264" t="s">
         <v>22</v>
@@ -9502,16 +9717,19 @@
         <v>264</v>
       </c>
       <c r="M264" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N264" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O264" t="s">
         <v>267</v>
       </c>
       <c r="P264" t="s">
         <v>218</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:21">
@@ -9522,7 +9740,7 @@
         <v>235</v>
       </c>
       <c r="C265" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D265" t="s">
         <v>22</v>
@@ -9540,16 +9758,19 @@
         <v>264</v>
       </c>
       <c r="M265" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N265" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O265" t="s">
         <v>267</v>
       </c>
       <c r="P265" t="s">
         <v>218</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="266" spans="1:21">
@@ -9557,10 +9778,10 @@
         <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C266" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D266" t="s">
         <v>22</v>
@@ -9578,16 +9799,19 @@
         <v>264</v>
       </c>
       <c r="M266" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N266" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O266" t="s">
         <v>267</v>
       </c>
       <c r="P266" t="s">
         <v>218</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="267" spans="1:21">
@@ -9598,7 +9822,7 @@
         <v>235</v>
       </c>
       <c r="C267" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D267" t="s">
         <v>22</v>
@@ -9616,16 +9840,19 @@
         <v>264</v>
       </c>
       <c r="M267" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N267" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O267" t="s">
         <v>267</v>
       </c>
       <c r="P267" t="s">
         <v>218</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:21">
@@ -9633,10 +9860,10 @@
         <v>262</v>
       </c>
       <c r="B268" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D268" t="s">
         <v>22</v>
@@ -9654,16 +9881,19 @@
         <v>264</v>
       </c>
       <c r="M268" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N268" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O268" t="s">
         <v>267</v>
       </c>
       <c r="P268" t="s">
         <v>218</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="269" spans="1:21">
@@ -9674,7 +9904,7 @@
         <v>235</v>
       </c>
       <c r="C269" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D269" t="s">
         <v>22</v>
@@ -9692,16 +9922,19 @@
         <v>264</v>
       </c>
       <c r="M269" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N269" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O269" t="s">
         <v>267</v>
       </c>
       <c r="P269" t="s">
         <v>218</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="270" spans="1:21">
@@ -9709,10 +9942,10 @@
         <v>262</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D270" t="s">
         <v>22</v>
@@ -9730,16 +9963,19 @@
         <v>264</v>
       </c>
       <c r="M270" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N270" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O270" t="s">
         <v>267</v>
       </c>
       <c r="P270" t="s">
         <v>218</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="1:21">
@@ -9750,7 +9986,7 @@
         <v>235</v>
       </c>
       <c r="C271" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D271" t="s">
         <v>22</v>
@@ -9768,16 +10004,19 @@
         <v>264</v>
       </c>
       <c r="M271" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N271" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O271" t="s">
         <v>267</v>
       </c>
       <c r="P271" t="s">
         <v>218</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:21">
@@ -9785,10 +10024,10 @@
         <v>262</v>
       </c>
       <c r="B272" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D272" t="s">
         <v>22</v>
@@ -9806,16 +10045,19 @@
         <v>264</v>
       </c>
       <c r="M272" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N272" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O272" t="s">
         <v>267</v>
       </c>
       <c r="P272" t="s">
         <v>218</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="273" spans="1:21">
@@ -9826,7 +10068,7 @@
         <v>235</v>
       </c>
       <c r="C273" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D273" t="s">
         <v>22</v>
@@ -9844,16 +10086,19 @@
         <v>264</v>
       </c>
       <c r="M273" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N273" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O273" t="s">
         <v>267</v>
       </c>
       <c r="P273" t="s">
         <v>218</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="274" spans="1:21">
@@ -9861,10 +10106,10 @@
         <v>262</v>
       </c>
       <c r="B274" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C274" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D274" t="s">
         <v>22</v>
@@ -9882,16 +10127,19 @@
         <v>264</v>
       </c>
       <c r="M274" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N274" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O274" t="s">
         <v>267</v>
       </c>
       <c r="P274" t="s">
         <v>218</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="275" spans="1:21">
@@ -9902,7 +10150,7 @@
         <v>235</v>
       </c>
       <c r="C275" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D275" t="s">
         <v>22</v>
@@ -9920,16 +10168,19 @@
         <v>163</v>
       </c>
       <c r="M275" t="s">
+        <v>273</v>
+      </c>
+      <c r="N275" t="s">
         <v>272</v>
       </c>
-      <c r="N275" t="s">
-        <v>271</v>
-      </c>
       <c r="O275" t="s">
         <v>267</v>
       </c>
       <c r="P275" t="s">
         <v>218</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:21">
@@ -9937,10 +10188,10 @@
         <v>262</v>
       </c>
       <c r="B276" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C276" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D276" t="s">
         <v>22</v>
@@ -9958,16 +10209,19 @@
         <v>163</v>
       </c>
       <c r="M276" t="s">
+        <v>273</v>
+      </c>
+      <c r="N276" t="s">
         <v>272</v>
       </c>
-      <c r="N276" t="s">
-        <v>271</v>
-      </c>
       <c r="O276" t="s">
         <v>267</v>
       </c>
       <c r="P276" t="s">
         <v>218</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="277" spans="1:21">
@@ -9978,7 +10232,7 @@
         <v>235</v>
       </c>
       <c r="C277" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D277" t="s">
         <v>22</v>
@@ -9996,16 +10250,19 @@
         <v>163</v>
       </c>
       <c r="M277" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N277" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O277" t="s">
         <v>267</v>
       </c>
       <c r="P277" t="s">
         <v>218</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:21">
@@ -10013,10 +10270,10 @@
         <v>262</v>
       </c>
       <c r="B278" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C278" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D278" t="s">
         <v>22</v>
@@ -10034,16 +10291,19 @@
         <v>163</v>
       </c>
       <c r="M278" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N278" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O278" t="s">
         <v>267</v>
       </c>
       <c r="P278" t="s">
         <v>218</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="279" spans="1:21">
@@ -10054,7 +10314,7 @@
         <v>235</v>
       </c>
       <c r="C279" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D279" t="s">
         <v>22</v>
@@ -10072,16 +10332,19 @@
         <v>163</v>
       </c>
       <c r="M279" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N279" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O279" t="s">
         <v>267</v>
       </c>
       <c r="P279" t="s">
         <v>218</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="280" spans="1:21">
@@ -10089,10 +10352,10 @@
         <v>262</v>
       </c>
       <c r="B280" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C280" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D280" t="s">
         <v>22</v>
@@ -10110,16 +10373,19 @@
         <v>163</v>
       </c>
       <c r="M280" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N280" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O280" t="s">
         <v>267</v>
       </c>
       <c r="P280" t="s">
         <v>218</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="281" spans="1:21">
@@ -10130,7 +10396,7 @@
         <v>235</v>
       </c>
       <c r="C281" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D281" t="s">
         <v>22</v>
@@ -10148,16 +10414,19 @@
         <v>163</v>
       </c>
       <c r="M281" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N281" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O281" t="s">
         <v>267</v>
       </c>
       <c r="P281" t="s">
         <v>218</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="1:21">
@@ -10165,10 +10434,10 @@
         <v>262</v>
       </c>
       <c r="B282" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C282" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D282" t="s">
         <v>22</v>
@@ -10186,16 +10455,19 @@
         <v>163</v>
       </c>
       <c r="M282" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N282" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O282" t="s">
         <v>267</v>
       </c>
       <c r="P282" t="s">
         <v>218</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="283" spans="1:21">
@@ -10206,7 +10478,7 @@
         <v>235</v>
       </c>
       <c r="C283" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D283" t="s">
         <v>22</v>
@@ -10224,16 +10496,19 @@
         <v>163</v>
       </c>
       <c r="M283" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N283" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O283" t="s">
         <v>267</v>
       </c>
       <c r="P283" t="s">
         <v>218</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:21">
@@ -10241,10 +10516,10 @@
         <v>262</v>
       </c>
       <c r="B284" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C284" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D284" t="s">
         <v>22</v>
@@ -10262,16 +10537,19 @@
         <v>163</v>
       </c>
       <c r="M284" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N284" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O284" t="s">
         <v>267</v>
       </c>
       <c r="P284" t="s">
         <v>218</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:21">
@@ -10282,7 +10560,7 @@
         <v>235</v>
       </c>
       <c r="C285" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D285" t="s">
         <v>22</v>
@@ -10300,16 +10578,19 @@
         <v>163</v>
       </c>
       <c r="M285" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="N285" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O285" t="s">
         <v>267</v>
       </c>
       <c r="P285" t="s">
         <v>218</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:21">
@@ -10317,10 +10598,10 @@
         <v>262</v>
       </c>
       <c r="B286" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C286" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D286" t="s">
         <v>22</v>
@@ -10338,16 +10619,19 @@
         <v>163</v>
       </c>
       <c r="M286" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="N286" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O286" t="s">
         <v>267</v>
       </c>
       <c r="P286" t="s">
         <v>218</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:21">
@@ -10358,7 +10642,7 @@
         <v>235</v>
       </c>
       <c r="C287" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D287" t="s">
         <v>22</v>
@@ -10376,16 +10660,19 @@
         <v>163</v>
       </c>
       <c r="M287" t="s">
+        <v>331</v>
+      </c>
+      <c r="N287" t="s">
         <v>323</v>
       </c>
-      <c r="N287" t="s">
-        <v>317</v>
-      </c>
       <c r="O287" t="s">
         <v>267</v>
       </c>
       <c r="P287" t="s">
         <v>218</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="1:21">
@@ -10393,10 +10680,10 @@
         <v>262</v>
       </c>
       <c r="B288" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C288" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D288" t="s">
         <v>22</v>
@@ -10414,16 +10701,19 @@
         <v>163</v>
       </c>
       <c r="M288" t="s">
+        <v>331</v>
+      </c>
+      <c r="N288" t="s">
         <v>323</v>
       </c>
-      <c r="N288" t="s">
-        <v>317</v>
-      </c>
       <c r="O288" t="s">
         <v>267</v>
       </c>
       <c r="P288" t="s">
         <v>218</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="289" spans="1:21">
@@ -10434,7 +10724,7 @@
         <v>235</v>
       </c>
       <c r="C289" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D289" t="s">
         <v>22</v>
@@ -10452,16 +10742,19 @@
         <v>163</v>
       </c>
       <c r="M289" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N289" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O289" t="s">
         <v>267</v>
       </c>
       <c r="P289" t="s">
         <v>218</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:21">
@@ -10469,10 +10762,10 @@
         <v>262</v>
       </c>
       <c r="B290" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C290" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D290" t="s">
         <v>22</v>
@@ -10490,16 +10783,19 @@
         <v>163</v>
       </c>
       <c r="M290" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N290" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O290" t="s">
         <v>267</v>
       </c>
       <c r="P290" t="s">
         <v>218</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:21">
@@ -10510,7 +10806,7 @@
         <v>235</v>
       </c>
       <c r="C291" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D291" t="s">
         <v>22</v>
@@ -10528,16 +10824,19 @@
         <v>163</v>
       </c>
       <c r="M291" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N291" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O291" t="s">
         <v>267</v>
       </c>
       <c r="P291" t="s">
         <v>218</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:21">
@@ -10545,10 +10844,10 @@
         <v>262</v>
       </c>
       <c r="B292" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C292" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D292" t="s">
         <v>22</v>
@@ -10566,16 +10865,19 @@
         <v>163</v>
       </c>
       <c r="M292" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N292" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O292" t="s">
         <v>267</v>
       </c>
       <c r="P292" t="s">
         <v>218</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:21">
@@ -10586,7 +10888,7 @@
         <v>235</v>
       </c>
       <c r="C293" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D293" t="s">
         <v>22</v>
@@ -10604,7 +10906,7 @@
         <v>264</v>
       </c>
       <c r="M293" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N293" t="s">
         <v>266</v>
@@ -10615,16 +10917,19 @@
       <c r="P293" t="s">
         <v>218</v>
       </c>
+      <c r="Q293" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="294" spans="1:21">
       <c r="A294" t="s">
         <v>262</v>
       </c>
       <c r="B294" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C294" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D294" t="s">
         <v>22</v>
@@ -10642,7 +10947,7 @@
         <v>264</v>
       </c>
       <c r="M294" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N294" t="s">
         <v>266</v>
@@ -10653,6 +10958,9 @@
       <c r="P294" t="s">
         <v>218</v>
       </c>
+      <c r="Q294" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="295" spans="1:21">
       <c r="A295" t="s">
@@ -10662,7 +10970,7 @@
         <v>235</v>
       </c>
       <c r="C295" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D295" t="s">
         <v>22</v>
@@ -10680,7 +10988,7 @@
         <v>264</v>
       </c>
       <c r="M295" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N295" t="s">
         <v>266</v>
@@ -10691,16 +10999,19 @@
       <c r="P295" t="s">
         <v>218</v>
       </c>
+      <c r="Q295" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="296" spans="1:21">
       <c r="A296" t="s">
         <v>262</v>
       </c>
       <c r="B296" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C296" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D296" t="s">
         <v>22</v>
@@ -10718,7 +11029,7 @@
         <v>264</v>
       </c>
       <c r="M296" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N296" t="s">
         <v>266</v>
@@ -10729,13 +11040,16 @@
       <c r="P296" t="s">
         <v>218</v>
       </c>
+      <c r="Q296" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="297" spans="1:21">
       <c r="A297" t="s">
         <v>262</v>
       </c>
       <c r="B297" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C297" t="s">
         <v>21</v>
@@ -10759,16 +11073,19 @@
         <v>34</v>
       </c>
       <c r="M297" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N297" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O297" t="s">
         <v>267</v>
       </c>
       <c r="P297" t="s">
         <v>218</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="298" spans="1:21">
@@ -10794,19 +11111,22 @@
         <v>250</v>
       </c>
       <c r="L298" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M298" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N298" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O298" t="s">
         <v>267</v>
       </c>
       <c r="P298" t="s">
         <v>218</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="299" spans="1:21">
@@ -10814,7 +11134,7 @@
         <v>262</v>
       </c>
       <c r="B299" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C299" t="s">
         <v>21</v>
@@ -10832,19 +11152,22 @@
         <v>400</v>
       </c>
       <c r="L299" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M299" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N299" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O299" t="s">
         <v>267</v>
       </c>
       <c r="P299" t="s">
         <v>218</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="300" spans="1:21">
@@ -10852,10 +11175,10 @@
         <v>262</v>
       </c>
       <c r="B300" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C300" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D300" t="s">
         <v>22</v>
@@ -10876,16 +11199,19 @@
         <v>34</v>
       </c>
       <c r="M300" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="N300" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O300" t="s">
         <v>267</v>
       </c>
       <c r="P300" t="s">
         <v>218</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="301" spans="1:21">
@@ -10896,7 +11222,7 @@
         <v>235</v>
       </c>
       <c r="C301" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D301" t="s">
         <v>22</v>
@@ -10911,19 +11237,22 @@
         <v>500</v>
       </c>
       <c r="L301" t="s">
+        <v>278</v>
+      </c>
+      <c r="M301" t="s">
+        <v>340</v>
+      </c>
+      <c r="N301" t="s">
         <v>277</v>
       </c>
-      <c r="M301" t="s">
-        <v>332</v>
-      </c>
-      <c r="N301" t="s">
-        <v>276</v>
-      </c>
       <c r="O301" t="s">
         <v>267</v>
       </c>
       <c r="P301" t="s">
         <v>218</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="302" spans="1:21">
@@ -10931,10 +11260,10 @@
         <v>262</v>
       </c>
       <c r="B302" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C302" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D302" t="s">
         <v>22</v>
@@ -10949,19 +11278,22 @@
         <v>650</v>
       </c>
       <c r="L302" t="s">
+        <v>278</v>
+      </c>
+      <c r="M302" t="s">
+        <v>340</v>
+      </c>
+      <c r="N302" t="s">
         <v>277</v>
       </c>
-      <c r="M302" t="s">
-        <v>332</v>
-      </c>
-      <c r="N302" t="s">
-        <v>276</v>
-      </c>
       <c r="O302" t="s">
         <v>267</v>
       </c>
       <c r="P302" t="s">
         <v>218</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="303" spans="1:21">
@@ -10969,10 +11301,10 @@
         <v>262</v>
       </c>
       <c r="B303" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C303" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D303" t="s">
         <v>22</v>
@@ -10993,16 +11325,19 @@
         <v>34</v>
       </c>
       <c r="M303" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="N303" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O303" t="s">
         <v>267</v>
       </c>
       <c r="P303" t="s">
         <v>218</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="304" spans="1:21">
@@ -11013,7 +11348,7 @@
         <v>235</v>
       </c>
       <c r="C304" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D304" t="s">
         <v>22</v>
@@ -11028,19 +11363,22 @@
         <v>500</v>
       </c>
       <c r="L304" t="s">
+        <v>278</v>
+      </c>
+      <c r="M304" t="s">
+        <v>342</v>
+      </c>
+      <c r="N304" t="s">
         <v>277</v>
       </c>
-      <c r="M304" t="s">
-        <v>334</v>
-      </c>
-      <c r="N304" t="s">
-        <v>276</v>
-      </c>
       <c r="O304" t="s">
         <v>267</v>
       </c>
       <c r="P304" t="s">
         <v>218</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="305" spans="1:21">
@@ -11048,10 +11386,10 @@
         <v>262</v>
       </c>
       <c r="B305" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C305" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D305" t="s">
         <v>22</v>
@@ -11066,19 +11404,22 @@
         <v>650</v>
       </c>
       <c r="L305" t="s">
+        <v>278</v>
+      </c>
+      <c r="M305" t="s">
+        <v>342</v>
+      </c>
+      <c r="N305" t="s">
         <v>277</v>
       </c>
-      <c r="M305" t="s">
-        <v>334</v>
-      </c>
-      <c r="N305" t="s">
-        <v>276</v>
-      </c>
       <c r="O305" t="s">
         <v>267</v>
       </c>
       <c r="P305" t="s">
         <v>218</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="306" spans="1:21">
@@ -11089,7 +11430,7 @@
         <v>235</v>
       </c>
       <c r="C306" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D306" t="s">
         <v>22</v>
@@ -11107,16 +11448,19 @@
         <v>264</v>
       </c>
       <c r="M306" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N306" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O306" t="s">
         <v>267</v>
       </c>
       <c r="P306" t="s">
         <v>218</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="307" spans="1:21">
@@ -11124,10 +11468,10 @@
         <v>262</v>
       </c>
       <c r="B307" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C307" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D307" t="s">
         <v>22</v>
@@ -11145,16 +11489,19 @@
         <v>264</v>
       </c>
       <c r="M307" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N307" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O307" t="s">
         <v>267</v>
       </c>
       <c r="P307" t="s">
         <v>218</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="308" spans="1:21">
@@ -11165,7 +11512,7 @@
         <v>235</v>
       </c>
       <c r="C308" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D308" t="s">
         <v>22</v>
@@ -11180,19 +11527,22 @@
         <v>300</v>
       </c>
       <c r="L308" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M308" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N308" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O308" t="s">
         <v>267</v>
       </c>
       <c r="P308" t="s">
         <v>218</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="309" spans="1:21">
@@ -11200,10 +11550,10 @@
         <v>262</v>
       </c>
       <c r="B309" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C309" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D309" t="s">
         <v>22</v>
@@ -11218,19 +11568,22 @@
         <v>450</v>
       </c>
       <c r="L309" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M309" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N309" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O309" t="s">
         <v>267</v>
       </c>
       <c r="P309" t="s">
         <v>218</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="310" spans="1:21">
@@ -11238,10 +11591,10 @@
         <v>262</v>
       </c>
       <c r="B310" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C310" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D310" t="s">
         <v>22</v>
@@ -11262,16 +11615,19 @@
         <v>34</v>
       </c>
       <c r="M310" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="N310" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O310" t="s">
         <v>267</v>
       </c>
       <c r="P310" t="s">
         <v>218</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="311" spans="1:21">
@@ -11282,7 +11638,7 @@
         <v>235</v>
       </c>
       <c r="C311" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D311" t="s">
         <v>22</v>
@@ -11297,19 +11653,22 @@
         <v>700</v>
       </c>
       <c r="L311" t="s">
+        <v>278</v>
+      </c>
+      <c r="M311" t="s">
+        <v>349</v>
+      </c>
+      <c r="N311" t="s">
         <v>277</v>
       </c>
-      <c r="M311" t="s">
-        <v>341</v>
-      </c>
-      <c r="N311" t="s">
-        <v>276</v>
-      </c>
       <c r="O311" t="s">
         <v>267</v>
       </c>
       <c r="P311" t="s">
         <v>218</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="312" spans="1:21">
@@ -11317,10 +11676,10 @@
         <v>262</v>
       </c>
       <c r="B312" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C312" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D312" t="s">
         <v>22</v>
@@ -11335,19 +11694,22 @@
         <v>850</v>
       </c>
       <c r="L312" t="s">
+        <v>278</v>
+      </c>
+      <c r="M312" t="s">
+        <v>349</v>
+      </c>
+      <c r="N312" t="s">
         <v>277</v>
       </c>
-      <c r="M312" t="s">
-        <v>341</v>
-      </c>
-      <c r="N312" t="s">
-        <v>276</v>
-      </c>
       <c r="O312" t="s">
         <v>267</v>
       </c>
       <c r="P312" t="s">
         <v>218</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:21">
@@ -11358,7 +11720,7 @@
         <v>235</v>
       </c>
       <c r="C313" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D313" t="s">
         <v>22</v>
@@ -11373,19 +11735,22 @@
         <v>900</v>
       </c>
       <c r="L313" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M313" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N313" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="O313" t="s">
         <v>267</v>
       </c>
       <c r="P313" t="s">
         <v>218</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:21">
@@ -11393,10 +11758,10 @@
         <v>262</v>
       </c>
       <c r="B314" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C314" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D314" t="s">
         <v>22</v>
@@ -11411,19 +11776,22 @@
         <v>1050</v>
       </c>
       <c r="L314" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M314" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N314" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="O314" t="s">
         <v>267</v>
       </c>
       <c r="P314" t="s">
         <v>218</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="1:21">
@@ -11431,10 +11799,10 @@
         <v>262</v>
       </c>
       <c r="B315" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C315" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D315" t="s">
         <v>22</v>
@@ -11455,16 +11823,19 @@
         <v>34</v>
       </c>
       <c r="M315" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N315" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O315" t="s">
         <v>267</v>
       </c>
       <c r="P315" t="s">
         <v>218</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="316" spans="1:21">
@@ -11475,7 +11846,7 @@
         <v>235</v>
       </c>
       <c r="C316" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D316" t="s">
         <v>22</v>
@@ -11490,19 +11861,22 @@
         <v>650</v>
       </c>
       <c r="L316" t="s">
+        <v>278</v>
+      </c>
+      <c r="M316" t="s">
+        <v>271</v>
+      </c>
+      <c r="N316" t="s">
         <v>277</v>
       </c>
-      <c r="M316" t="s">
-        <v>270</v>
-      </c>
-      <c r="N316" t="s">
-        <v>276</v>
-      </c>
       <c r="O316" t="s">
         <v>267</v>
       </c>
       <c r="P316" t="s">
         <v>218</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="317" spans="1:21">
@@ -11510,10 +11884,10 @@
         <v>262</v>
       </c>
       <c r="B317" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C317" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D317" t="s">
         <v>22</v>
@@ -11528,19 +11902,22 @@
         <v>800</v>
       </c>
       <c r="L317" t="s">
+        <v>278</v>
+      </c>
+      <c r="M317" t="s">
+        <v>271</v>
+      </c>
+      <c r="N317" t="s">
         <v>277</v>
       </c>
-      <c r="M317" t="s">
-        <v>270</v>
-      </c>
-      <c r="N317" t="s">
-        <v>276</v>
-      </c>
       <c r="O317" t="s">
         <v>267</v>
       </c>
       <c r="P317" t="s">
         <v>218</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="318" spans="1:21">
@@ -11548,10 +11925,10 @@
         <v>262</v>
       </c>
       <c r="B318" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C318" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D318" t="s">
         <v>22</v>
@@ -11572,16 +11949,19 @@
         <v>34</v>
       </c>
       <c r="M318" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="N318" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O318" t="s">
         <v>267</v>
       </c>
       <c r="P318" t="s">
         <v>218</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="319" spans="1:21">
@@ -11592,7 +11972,7 @@
         <v>235</v>
       </c>
       <c r="C319" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D319" t="s">
         <v>22</v>
@@ -11607,19 +11987,22 @@
         <v>650</v>
       </c>
       <c r="L319" t="s">
+        <v>278</v>
+      </c>
+      <c r="M319" t="s">
+        <v>356</v>
+      </c>
+      <c r="N319" t="s">
         <v>277</v>
       </c>
-      <c r="M319" t="s">
-        <v>347</v>
-      </c>
-      <c r="N319" t="s">
-        <v>276</v>
-      </c>
       <c r="O319" t="s">
         <v>267</v>
       </c>
       <c r="P319" t="s">
         <v>218</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="320" spans="1:21">
@@ -11627,10 +12010,10 @@
         <v>262</v>
       </c>
       <c r="B320" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C320" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D320" t="s">
         <v>22</v>
@@ -11645,19 +12028,22 @@
         <v>800</v>
       </c>
       <c r="L320" t="s">
+        <v>278</v>
+      </c>
+      <c r="M320" t="s">
+        <v>356</v>
+      </c>
+      <c r="N320" t="s">
         <v>277</v>
       </c>
-      <c r="M320" t="s">
-        <v>347</v>
-      </c>
-      <c r="N320" t="s">
-        <v>276</v>
-      </c>
       <c r="O320" t="s">
         <v>267</v>
       </c>
       <c r="P320" t="s">
         <v>218</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="321" spans="1:21">
@@ -11665,10 +12051,10 @@
         <v>262</v>
       </c>
       <c r="B321" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C321" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D321" t="s">
         <v>22</v>
@@ -11689,16 +12075,19 @@
         <v>34</v>
       </c>
       <c r="M321" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N321" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O321" t="s">
         <v>267</v>
       </c>
       <c r="P321" t="s">
         <v>218</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="322" spans="1:21">
@@ -11709,7 +12098,7 @@
         <v>235</v>
       </c>
       <c r="C322" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D322" t="s">
         <v>22</v>
@@ -11724,19 +12113,22 @@
         <v>1300</v>
       </c>
       <c r="L322" t="s">
+        <v>278</v>
+      </c>
+      <c r="M322" t="s">
+        <v>358</v>
+      </c>
+      <c r="N322" t="s">
         <v>277</v>
       </c>
-      <c r="M322" t="s">
-        <v>349</v>
-      </c>
-      <c r="N322" t="s">
-        <v>276</v>
-      </c>
       <c r="O322" t="s">
         <v>267</v>
       </c>
       <c r="P322" t="s">
         <v>218</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="323" spans="1:21">
@@ -11744,10 +12136,10 @@
         <v>262</v>
       </c>
       <c r="B323" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C323" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D323" t="s">
         <v>22</v>
@@ -11762,19 +12154,22 @@
         <v>1450</v>
       </c>
       <c r="L323" t="s">
+        <v>278</v>
+      </c>
+      <c r="M323" t="s">
+        <v>358</v>
+      </c>
+      <c r="N323" t="s">
         <v>277</v>
       </c>
-      <c r="M323" t="s">
-        <v>349</v>
-      </c>
-      <c r="N323" t="s">
-        <v>276</v>
-      </c>
       <c r="O323" t="s">
         <v>267</v>
       </c>
       <c r="P323" t="s">
         <v>218</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="324" spans="1:21">
@@ -11785,7 +12180,7 @@
         <v>235</v>
       </c>
       <c r="C324" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D324" t="s">
         <v>22</v>
@@ -11800,19 +12195,22 @@
         <v>900</v>
       </c>
       <c r="L324" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M324" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N324" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O324" t="s">
         <v>267</v>
       </c>
       <c r="P324" t="s">
         <v>218</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="325" spans="1:21">
@@ -11820,10 +12218,10 @@
         <v>262</v>
       </c>
       <c r="B325" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C325" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D325" t="s">
         <v>22</v>
@@ -11838,19 +12236,22 @@
         <v>1050</v>
       </c>
       <c r="L325" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M325" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N325" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O325" t="s">
         <v>267</v>
       </c>
       <c r="P325" t="s">
         <v>218</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="326" spans="1:21">
@@ -11858,10 +12259,10 @@
         <v>262</v>
       </c>
       <c r="B326" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C326" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D326" t="s">
         <v>22</v>
@@ -11882,16 +12283,19 @@
         <v>36</v>
       </c>
       <c r="M326" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N326" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O326" t="s">
         <v>267</v>
       </c>
       <c r="P326" t="s">
         <v>218</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="327" spans="1:21">
@@ -11902,7 +12306,7 @@
         <v>235</v>
       </c>
       <c r="C327" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D327" t="s">
         <v>22</v>
@@ -11917,19 +12321,22 @@
         <v>1000</v>
       </c>
       <c r="L327" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M327" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N327" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O327" t="s">
         <v>267</v>
       </c>
       <c r="P327" t="s">
         <v>218</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="328" spans="1:21">
@@ -11937,10 +12344,10 @@
         <v>262</v>
       </c>
       <c r="B328" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C328" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D328" t="s">
         <v>22</v>
@@ -11955,19 +12362,22 @@
         <v>1150</v>
       </c>
       <c r="L328" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M328" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N328" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O328" t="s">
         <v>267</v>
       </c>
       <c r="P328" t="s">
         <v>218</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="329" spans="1:21">
@@ -11975,10 +12385,10 @@
         <v>262</v>
       </c>
       <c r="B329" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C329" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D329" t="s">
         <v>22</v>
@@ -11999,16 +12409,19 @@
         <v>34</v>
       </c>
       <c r="M329" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N329" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O329" t="s">
         <v>267</v>
       </c>
       <c r="P329" t="s">
         <v>218</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="330" spans="1:21">
@@ -12019,7 +12432,7 @@
         <v>235</v>
       </c>
       <c r="C330" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D330" t="s">
         <v>22</v>
@@ -12034,19 +12447,22 @@
         <v>1300</v>
       </c>
       <c r="L330" t="s">
+        <v>278</v>
+      </c>
+      <c r="M330" t="s">
+        <v>358</v>
+      </c>
+      <c r="N330" t="s">
         <v>277</v>
       </c>
-      <c r="M330" t="s">
-        <v>349</v>
-      </c>
-      <c r="N330" t="s">
-        <v>276</v>
-      </c>
       <c r="O330" t="s">
         <v>267</v>
       </c>
       <c r="P330" t="s">
         <v>218</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="331" spans="1:21">
@@ -12054,10 +12470,10 @@
         <v>262</v>
       </c>
       <c r="B331" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C331" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D331" t="s">
         <v>22</v>
@@ -12072,19 +12488,22 @@
         <v>1450</v>
       </c>
       <c r="L331" t="s">
+        <v>278</v>
+      </c>
+      <c r="M331" t="s">
+        <v>358</v>
+      </c>
+      <c r="N331" t="s">
         <v>277</v>
       </c>
-      <c r="M331" t="s">
-        <v>349</v>
-      </c>
-      <c r="N331" t="s">
-        <v>276</v>
-      </c>
       <c r="O331" t="s">
         <v>267</v>
       </c>
       <c r="P331" t="s">
         <v>218</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="332" spans="1:21">
@@ -12092,10 +12511,10 @@
         <v>262</v>
       </c>
       <c r="B332" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D332" t="s">
         <v>22</v>
@@ -12116,16 +12535,19 @@
         <v>34</v>
       </c>
       <c r="M332" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N332" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O332" t="s">
         <v>267</v>
       </c>
       <c r="P332" t="s">
         <v>218</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="333" spans="1:21">
@@ -12136,7 +12558,7 @@
         <v>235</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D333" t="s">
         <v>22</v>
@@ -12151,19 +12573,22 @@
         <v>1300</v>
       </c>
       <c r="L333" t="s">
+        <v>278</v>
+      </c>
+      <c r="M333" t="s">
+        <v>358</v>
+      </c>
+      <c r="N333" t="s">
         <v>277</v>
       </c>
-      <c r="M333" t="s">
-        <v>349</v>
-      </c>
-      <c r="N333" t="s">
-        <v>276</v>
-      </c>
       <c r="O333" t="s">
         <v>267</v>
       </c>
       <c r="P333" t="s">
         <v>218</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="334" spans="1:21">
@@ -12171,10 +12596,10 @@
         <v>262</v>
       </c>
       <c r="B334" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D334" t="s">
         <v>22</v>
@@ -12189,19 +12614,22 @@
         <v>1450</v>
       </c>
       <c r="L334" t="s">
+        <v>278</v>
+      </c>
+      <c r="M334" t="s">
+        <v>358</v>
+      </c>
+      <c r="N334" t="s">
         <v>277</v>
       </c>
-      <c r="M334" t="s">
-        <v>349</v>
-      </c>
-      <c r="N334" t="s">
-        <v>276</v>
-      </c>
       <c r="O334" t="s">
         <v>267</v>
       </c>
       <c r="P334" t="s">
         <v>218</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="335" spans="1:21">
@@ -12209,10 +12637,10 @@
         <v>262</v>
       </c>
       <c r="B335" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C335" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D335" t="s">
         <v>22</v>
@@ -12233,16 +12661,19 @@
         <v>34</v>
       </c>
       <c r="M335" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N335" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O335" t="s">
         <v>267</v>
       </c>
       <c r="P335" t="s">
         <v>218</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="336" spans="1:21">
@@ -12253,7 +12684,7 @@
         <v>235</v>
       </c>
       <c r="C336" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D336" t="s">
         <v>22</v>
@@ -12268,19 +12699,22 @@
         <v>1300</v>
       </c>
       <c r="L336" t="s">
+        <v>278</v>
+      </c>
+      <c r="M336" t="s">
+        <v>358</v>
+      </c>
+      <c r="N336" t="s">
         <v>277</v>
       </c>
-      <c r="M336" t="s">
-        <v>349</v>
-      </c>
-      <c r="N336" t="s">
-        <v>276</v>
-      </c>
       <c r="O336" t="s">
         <v>267</v>
       </c>
       <c r="P336" t="s">
         <v>218</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="337" spans="1:21">
@@ -12288,10 +12722,10 @@
         <v>262</v>
       </c>
       <c r="B337" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C337" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D337" t="s">
         <v>22</v>
@@ -12306,19 +12740,22 @@
         <v>1450</v>
       </c>
       <c r="L337" t="s">
+        <v>278</v>
+      </c>
+      <c r="M337" t="s">
+        <v>358</v>
+      </c>
+      <c r="N337" t="s">
         <v>277</v>
       </c>
-      <c r="M337" t="s">
-        <v>349</v>
-      </c>
-      <c r="N337" t="s">
-        <v>276</v>
-      </c>
       <c r="O337" t="s">
         <v>267</v>
       </c>
       <c r="P337" t="s">
         <v>218</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:21">
@@ -12326,10 +12763,10 @@
         <v>262</v>
       </c>
       <c r="B338" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C338" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D338" t="s">
         <v>22</v>
@@ -12350,16 +12787,19 @@
         <v>34</v>
       </c>
       <c r="M338" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N338" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O338" t="s">
         <v>267</v>
       </c>
       <c r="P338" t="s">
         <v>218</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="339" spans="1:21">
@@ -12370,7 +12810,7 @@
         <v>235</v>
       </c>
       <c r="C339" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D339" t="s">
         <v>22</v>
@@ -12385,19 +12825,22 @@
         <v>1300</v>
       </c>
       <c r="L339" t="s">
+        <v>278</v>
+      </c>
+      <c r="M339" t="s">
+        <v>358</v>
+      </c>
+      <c r="N339" t="s">
         <v>277</v>
       </c>
-      <c r="M339" t="s">
-        <v>349</v>
-      </c>
-      <c r="N339" t="s">
-        <v>276</v>
-      </c>
       <c r="O339" t="s">
         <v>267</v>
       </c>
       <c r="P339" t="s">
         <v>218</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="340" spans="1:21">
@@ -12405,10 +12848,10 @@
         <v>262</v>
       </c>
       <c r="B340" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C340" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D340" t="s">
         <v>22</v>
@@ -12423,19 +12866,22 @@
         <v>1450</v>
       </c>
       <c r="L340" t="s">
+        <v>278</v>
+      </c>
+      <c r="M340" t="s">
+        <v>358</v>
+      </c>
+      <c r="N340" t="s">
         <v>277</v>
       </c>
-      <c r="M340" t="s">
-        <v>349</v>
-      </c>
-      <c r="N340" t="s">
-        <v>276</v>
-      </c>
       <c r="O340" t="s">
         <v>267</v>
       </c>
       <c r="P340" t="s">
         <v>218</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="341" spans="1:21">
@@ -12443,10 +12889,10 @@
         <v>262</v>
       </c>
       <c r="B341" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C341" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D341" t="s">
         <v>22</v>
@@ -12467,16 +12913,19 @@
         <v>34</v>
       </c>
       <c r="M341" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N341" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O341" t="s">
         <v>267</v>
       </c>
       <c r="P341" t="s">
         <v>218</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="342" spans="1:21">
@@ -12487,7 +12936,7 @@
         <v>235</v>
       </c>
       <c r="C342" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D342" t="s">
         <v>22</v>
@@ -12502,19 +12951,22 @@
         <v>1300</v>
       </c>
       <c r="L342" t="s">
+        <v>278</v>
+      </c>
+      <c r="M342" t="s">
+        <v>358</v>
+      </c>
+      <c r="N342" t="s">
         <v>277</v>
       </c>
-      <c r="M342" t="s">
-        <v>349</v>
-      </c>
-      <c r="N342" t="s">
-        <v>276</v>
-      </c>
       <c r="O342" t="s">
         <v>267</v>
       </c>
       <c r="P342" t="s">
         <v>218</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="343" spans="1:21">
@@ -12522,10 +12974,10 @@
         <v>262</v>
       </c>
       <c r="B343" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C343" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D343" t="s">
         <v>22</v>
@@ -12540,19 +12992,22 @@
         <v>1450</v>
       </c>
       <c r="L343" t="s">
+        <v>278</v>
+      </c>
+      <c r="M343" t="s">
+        <v>358</v>
+      </c>
+      <c r="N343" t="s">
         <v>277</v>
       </c>
-      <c r="M343" t="s">
-        <v>349</v>
-      </c>
-      <c r="N343" t="s">
-        <v>276</v>
-      </c>
       <c r="O343" t="s">
         <v>267</v>
       </c>
       <c r="P343" t="s">
         <v>218</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="344" spans="1:21">
@@ -12560,10 +13015,10 @@
         <v>262</v>
       </c>
       <c r="B344" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C344" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D344" t="s">
         <v>22</v>
@@ -12584,16 +13039,19 @@
         <v>196</v>
       </c>
       <c r="M344" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N344" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O344" t="s">
         <v>267</v>
       </c>
       <c r="P344" t="s">
         <v>218</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="345" spans="1:21">
@@ -12601,10 +13059,10 @@
         <v>262</v>
       </c>
       <c r="B345" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C345" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D345" t="s">
         <v>22</v>
@@ -12625,16 +13083,19 @@
         <v>36</v>
       </c>
       <c r="M345" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N345" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O345" t="s">
         <v>267</v>
       </c>
       <c r="P345" t="s">
         <v>218</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="346" spans="1:21">
@@ -12642,7 +13103,7 @@
         <v>262</v>
       </c>
       <c r="B346" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C346" t="s">
         <v>83</v>
@@ -12660,22 +13121,25 @@
         <v>50</v>
       </c>
       <c r="K346" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L346" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M346" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="N346" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O346" t="s">
         <v>267</v>
       </c>
       <c r="P346" t="s">
         <v>218</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="347" spans="1:21">
@@ -12683,10 +13147,10 @@
         <v>262</v>
       </c>
       <c r="B347" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C347" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D347" t="s">
         <v>22</v>
@@ -12701,22 +13165,25 @@
         <v>50</v>
       </c>
       <c r="K347" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L347" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M347" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N347" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O347" t="s">
         <v>267</v>
       </c>
       <c r="P347" t="s">
         <v>218</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="348" spans="1:21">
@@ -12724,10 +13191,10 @@
         <v>262</v>
       </c>
       <c r="B348" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C348" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D348" t="s">
         <v>22</v>
@@ -12742,22 +13209,25 @@
         <v>400</v>
       </c>
       <c r="K348" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L348" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M348" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="N348" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O348" t="s">
         <v>267</v>
       </c>
       <c r="P348" t="s">
         <v>218</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="349" spans="1:21">
@@ -12765,10 +13235,10 @@
         <v>262</v>
       </c>
       <c r="B349" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C349" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D349" t="s">
         <v>22</v>
@@ -12783,22 +13253,25 @@
         <v>500</v>
       </c>
       <c r="K349" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L349" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M349" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="N349" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O349" t="s">
         <v>267</v>
       </c>
       <c r="P349" t="s">
         <v>218</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="350" spans="1:21">
@@ -12806,10 +13279,10 @@
         <v>262</v>
       </c>
       <c r="B350" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C350" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D350" t="s">
         <v>22</v>
@@ -12824,22 +13297,25 @@
         <v>700</v>
       </c>
       <c r="K350" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L350" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M350" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="N350" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O350" t="s">
         <v>267</v>
       </c>
       <c r="P350" t="s">
         <v>218</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="351" spans="1:21">
@@ -12847,10 +13323,10 @@
         <v>262</v>
       </c>
       <c r="B351" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C351" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D351" t="s">
         <v>22</v>
@@ -12865,22 +13341,25 @@
         <v>480</v>
       </c>
       <c r="K351" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L351" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M351" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="N351" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O351" t="s">
         <v>267</v>
       </c>
       <c r="P351" t="s">
         <v>218</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="352" spans="1:21">
@@ -12888,10 +13367,10 @@
         <v>262</v>
       </c>
       <c r="B352" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C352" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D352" t="s">
         <v>22</v>
@@ -12906,22 +13385,25 @@
         <v>300</v>
       </c>
       <c r="K352" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L352" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M352" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="N352" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O352" t="s">
         <v>267</v>
       </c>
       <c r="P352" t="s">
         <v>218</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="353" spans="1:21">
@@ -12929,10 +13411,10 @@
         <v>262</v>
       </c>
       <c r="B353" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C353" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D353" t="s">
         <v>22</v>
@@ -12947,22 +13429,25 @@
         <v>300</v>
       </c>
       <c r="K353" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L353" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M353" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N353" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O353" t="s">
         <v>267</v>
       </c>
       <c r="P353" t="s">
         <v>218</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="354" spans="1:21">
@@ -12970,7 +13455,7 @@
         <v>262</v>
       </c>
       <c r="B354" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C354" t="s">
         <v>97</v>
@@ -12988,22 +13473,25 @@
         <v>300</v>
       </c>
       <c r="K354" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L354" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M354" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N354" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O354" t="s">
         <v>267</v>
       </c>
       <c r="P354" t="s">
         <v>218</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="355" spans="1:21">
@@ -13011,10 +13499,10 @@
         <v>262</v>
       </c>
       <c r="B355" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C355" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D355" t="s">
         <v>22</v>
@@ -13029,22 +13517,25 @@
         <v>300</v>
       </c>
       <c r="K355" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L355" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M355" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N355" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O355" t="s">
         <v>267</v>
       </c>
       <c r="P355" t="s">
         <v>218</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="356" spans="1:21">
@@ -13052,10 +13543,10 @@
         <v>262</v>
       </c>
       <c r="B356" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C356" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D356" t="s">
         <v>22</v>
@@ -13070,22 +13561,25 @@
         <v>500</v>
       </c>
       <c r="K356" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L356" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M356" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N356" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O356" t="s">
         <v>267</v>
       </c>
       <c r="P356" t="s">
         <v>218</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="357" spans="1:21">
@@ -13093,10 +13587,10 @@
         <v>262</v>
       </c>
       <c r="B357" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C357" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D357" t="s">
         <v>22</v>
@@ -13111,22 +13605,25 @@
         <v>300</v>
       </c>
       <c r="K357" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L357" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M357" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N357" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O357" t="s">
         <v>267</v>
       </c>
       <c r="P357" t="s">
         <v>218</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="358" spans="1:21">
@@ -13134,10 +13631,10 @@
         <v>262</v>
       </c>
       <c r="B358" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C358" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D358" t="s">
         <v>22</v>
@@ -13152,22 +13649,25 @@
         <v>300</v>
       </c>
       <c r="K358" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L358" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M358" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N358" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O358" t="s">
         <v>267</v>
       </c>
       <c r="P358" t="s">
         <v>218</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="359" spans="1:21">
@@ -13175,10 +13675,10 @@
         <v>262</v>
       </c>
       <c r="B359" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C359" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D359" t="s">
         <v>22</v>
@@ -13193,22 +13693,25 @@
         <v>300</v>
       </c>
       <c r="K359" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L359" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M359" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N359" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O359" t="s">
         <v>267</v>
       </c>
       <c r="P359" t="s">
         <v>218</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="360" spans="1:21">
@@ -13216,10 +13719,10 @@
         <v>262</v>
       </c>
       <c r="B360" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C360" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D360" t="s">
         <v>22</v>
@@ -13234,22 +13737,25 @@
         <v>700</v>
       </c>
       <c r="K360" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L360" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M360" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N360" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O360" t="s">
         <v>267</v>
       </c>
       <c r="P360" t="s">
         <v>218</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="361" spans="1:21">
@@ -13257,10 +13763,10 @@
         <v>262</v>
       </c>
       <c r="B361" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C361" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D361" t="s">
         <v>22</v>
@@ -13275,22 +13781,25 @@
         <v>300</v>
       </c>
       <c r="K361" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L361" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M361" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N361" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O361" t="s">
         <v>267</v>
       </c>
       <c r="P361" t="s">
         <v>218</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="362" spans="1:21">
@@ -13298,10 +13807,10 @@
         <v>262</v>
       </c>
       <c r="B362" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C362" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D362" t="s">
         <v>22</v>
@@ -13316,22 +13825,25 @@
         <v>300</v>
       </c>
       <c r="K362" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L362" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M362" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N362" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O362" t="s">
         <v>267</v>
       </c>
       <c r="P362" t="s">
         <v>218</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="363" spans="1:21">
@@ -13339,10 +13851,10 @@
         <v>262</v>
       </c>
       <c r="B363" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C363" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D363" t="s">
         <v>22</v>
@@ -13357,22 +13869,25 @@
         <v>300</v>
       </c>
       <c r="K363" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L363" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M363" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N363" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="O363" t="s">
         <v>267</v>
       </c>
       <c r="P363" t="s">
         <v>218</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="364" spans="1:21">
@@ -13380,10 +13895,10 @@
         <v>262</v>
       </c>
       <c r="B364" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C364" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D364" t="s">
         <v>22</v>
@@ -13398,22 +13913,25 @@
         <v>300</v>
       </c>
       <c r="K364" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L364" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M364" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N364" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O364" t="s">
         <v>267</v>
       </c>
       <c r="P364" t="s">
         <v>218</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="365" spans="1:21">
@@ -13421,10 +13939,10 @@
         <v>262</v>
       </c>
       <c r="B365" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C365" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D365" t="s">
         <v>22</v>
@@ -13439,22 +13957,25 @@
         <v>300</v>
       </c>
       <c r="K365" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L365" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M365" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N365" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="O365" t="s">
         <v>267</v>
       </c>
       <c r="P365" t="s">
         <v>218</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="366" spans="1:21">
@@ -13462,10 +13983,10 @@
         <v>262</v>
       </c>
       <c r="B366" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C366" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D366" t="s">
         <v>22</v>
@@ -13480,22 +14001,25 @@
         <v>450</v>
       </c>
       <c r="K366" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L366" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M366" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N366" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O366" t="s">
         <v>267</v>
       </c>
       <c r="P366" t="s">
         <v>218</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="367" spans="1:21">
@@ -13521,19 +14045,22 @@
         <v>120</v>
       </c>
       <c r="L367" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M367" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N367" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O367" t="s">
         <v>267</v>
       </c>
       <c r="P367" t="s">
         <v>218</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="368" spans="1:21">
@@ -13541,7 +14068,7 @@
         <v>262</v>
       </c>
       <c r="B368" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C368" t="s">
         <v>198</v>
@@ -13559,19 +14086,22 @@
         <v>270</v>
       </c>
       <c r="L368" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M368" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N368" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O368" t="s">
         <v>267</v>
       </c>
       <c r="P368" t="s">
         <v>218</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="369" spans="1:21">
@@ -13582,7 +14112,7 @@
         <v>235</v>
       </c>
       <c r="C369" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D369" t="s">
         <v>22</v>
@@ -13597,19 +14127,22 @@
         <v>120</v>
       </c>
       <c r="L369" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M369" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="N369" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O369" t="s">
         <v>267</v>
       </c>
       <c r="P369" t="s">
         <v>218</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="370" spans="1:21">
@@ -13617,10 +14150,10 @@
         <v>262</v>
       </c>
       <c r="B370" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C370" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D370" t="s">
         <v>22</v>
@@ -13635,19 +14168,22 @@
         <v>270</v>
       </c>
       <c r="L370" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M370" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="N370" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O370" t="s">
         <v>267</v>
       </c>
       <c r="P370" t="s">
         <v>218</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="371" spans="1:21">
@@ -13673,19 +14209,22 @@
         <v>120</v>
       </c>
       <c r="L371" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M371" t="s">
+        <v>273</v>
+      </c>
+      <c r="N371" t="s">
         <v>272</v>
       </c>
-      <c r="N371" t="s">
-        <v>271</v>
-      </c>
       <c r="O371" t="s">
         <v>267</v>
       </c>
       <c r="P371" t="s">
         <v>218</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="372" spans="1:21">
@@ -13693,7 +14232,7 @@
         <v>262</v>
       </c>
       <c r="B372" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C372" t="s">
         <v>89</v>
@@ -13711,19 +14250,22 @@
         <v>270</v>
       </c>
       <c r="L372" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M372" t="s">
+        <v>273</v>
+      </c>
+      <c r="N372" t="s">
         <v>272</v>
       </c>
-      <c r="N372" t="s">
-        <v>271</v>
-      </c>
       <c r="O372" t="s">
         <v>267</v>
       </c>
       <c r="P372" t="s">
         <v>218</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="373" spans="1:21">
@@ -13731,7 +14273,7 @@
         <v>262</v>
       </c>
       <c r="B373" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C373" t="s">
         <v>87</v>
@@ -13752,10 +14294,10 @@
         <v>36</v>
       </c>
       <c r="M373" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="N373" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O373" t="s">
         <v>267</v>
@@ -13764,7 +14306,7 @@
         <v>218</v>
       </c>
       <c r="Q373" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="374" spans="1:21">
@@ -13772,7 +14314,7 @@
         <v>262</v>
       </c>
       <c r="B374" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C374" t="s">
         <v>87</v>
@@ -13793,7 +14335,7 @@
         <v>36</v>
       </c>
       <c r="N374" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O374" t="s">
         <v>267</v>
@@ -13802,7 +14344,7 @@
         <v>218</v>
       </c>
       <c r="Q374" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="375" spans="1:21">
@@ -13810,7 +14352,7 @@
         <v>262</v>
       </c>
       <c r="B375" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C375" t="s">
         <v>88</v>
@@ -13831,10 +14373,10 @@
         <v>36</v>
       </c>
       <c r="M375" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N375" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O375" t="s">
         <v>267</v>
@@ -13843,7 +14385,7 @@
         <v>218</v>
       </c>
       <c r="Q375" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" spans="1:21">
@@ -13851,7 +14393,7 @@
         <v>262</v>
       </c>
       <c r="B376" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C376" t="s">
         <v>88</v>
@@ -13872,7 +14414,7 @@
         <v>36</v>
       </c>
       <c r="N376" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O376" t="s">
         <v>267</v>
@@ -13881,7 +14423,7 @@
         <v>218</v>
       </c>
       <c r="Q376" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="377" spans="1:21">
@@ -13889,10 +14431,10 @@
         <v>262</v>
       </c>
       <c r="B377" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C377" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D377" t="s">
         <v>22</v>
@@ -13910,10 +14452,10 @@
         <v>36</v>
       </c>
       <c r="M377" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N377" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O377" t="s">
         <v>267</v>
@@ -13922,7 +14464,7 @@
         <v>218</v>
       </c>
       <c r="Q377" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="378" spans="1:21">
@@ -13930,10 +14472,10 @@
         <v>262</v>
       </c>
       <c r="B378" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C378" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D378" t="s">
         <v>22</v>
@@ -13951,7 +14493,7 @@
         <v>36</v>
       </c>
       <c r="N378" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O378" t="s">
         <v>267</v>
@@ -13960,7 +14502,7 @@
         <v>218</v>
       </c>
       <c r="Q378" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="379" spans="1:21">
@@ -13968,10 +14510,10 @@
         <v>262</v>
       </c>
       <c r="B379" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C379" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D379" t="s">
         <v>22</v>
@@ -13989,10 +14531,10 @@
         <v>36</v>
       </c>
       <c r="M379" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N379" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O379" t="s">
         <v>267</v>
@@ -14001,7 +14543,7 @@
         <v>218</v>
       </c>
       <c r="Q379" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="380" spans="1:21">
@@ -14009,10 +14551,10 @@
         <v>262</v>
       </c>
       <c r="B380" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C380" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D380" t="s">
         <v>22</v>
@@ -14030,7 +14572,7 @@
         <v>36</v>
       </c>
       <c r="N380" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O380" t="s">
         <v>267</v>
@@ -14039,7 +14581,7 @@
         <v>218</v>
       </c>
       <c r="Q380" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="381" spans="1:21">
@@ -14047,10 +14589,10 @@
         <v>262</v>
       </c>
       <c r="B381" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C381" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D381" t="s">
         <v>22</v>
@@ -14068,10 +14610,10 @@
         <v>36</v>
       </c>
       <c r="M381" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N381" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O381" t="s">
         <v>267</v>
@@ -14080,7 +14622,7 @@
         <v>218</v>
       </c>
       <c r="Q381" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="382" spans="1:21">
@@ -14088,10 +14630,10 @@
         <v>262</v>
       </c>
       <c r="B382" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C382" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D382" t="s">
         <v>22</v>
@@ -14109,7 +14651,7 @@
         <v>36</v>
       </c>
       <c r="N382" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O382" t="s">
         <v>267</v>
@@ -14118,7 +14660,7 @@
         <v>218</v>
       </c>
       <c r="Q382" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="383" spans="1:21">
@@ -14126,7 +14668,7 @@
         <v>262</v>
       </c>
       <c r="B383" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C383" t="s">
         <v>93</v>
@@ -14147,10 +14689,10 @@
         <v>36</v>
       </c>
       <c r="M383" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N383" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O383" t="s">
         <v>267</v>
@@ -14159,7 +14701,7 @@
         <v>218</v>
       </c>
       <c r="Q383" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="384" spans="1:21">
@@ -14167,7 +14709,7 @@
         <v>262</v>
       </c>
       <c r="B384" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C384" t="s">
         <v>93</v>
@@ -14188,7 +14730,7 @@
         <v>36</v>
       </c>
       <c r="N384" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O384" t="s">
         <v>267</v>
@@ -14197,7 +14739,7 @@
         <v>218</v>
       </c>
       <c r="Q384" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="385" spans="1:21">
@@ -14205,7 +14747,7 @@
         <v>262</v>
       </c>
       <c r="B385" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C385" t="s">
         <v>95</v>
@@ -14226,10 +14768,10 @@
         <v>36</v>
       </c>
       <c r="M385" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N385" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O385" t="s">
         <v>267</v>
@@ -14238,7 +14780,7 @@
         <v>218</v>
       </c>
       <c r="Q385" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="386" spans="1:21">
@@ -14246,7 +14788,7 @@
         <v>262</v>
       </c>
       <c r="B386" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C386" t="s">
         <v>95</v>
@@ -14267,7 +14809,7 @@
         <v>36</v>
       </c>
       <c r="N386" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O386" t="s">
         <v>267</v>
@@ -14276,7 +14818,7 @@
         <v>218</v>
       </c>
       <c r="Q386" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="1:21">
@@ -14284,7 +14826,7 @@
         <v>262</v>
       </c>
       <c r="B387" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C387" t="s">
         <v>96</v>
@@ -14305,10 +14847,10 @@
         <v>36</v>
       </c>
       <c r="M387" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N387" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O387" t="s">
         <v>267</v>
@@ -14317,7 +14859,7 @@
         <v>218</v>
       </c>
       <c r="Q387" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="388" spans="1:21">
@@ -14325,7 +14867,7 @@
         <v>262</v>
       </c>
       <c r="B388" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C388" t="s">
         <v>96</v>
@@ -14346,7 +14888,7 @@
         <v>36</v>
       </c>
       <c r="N388" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O388" t="s">
         <v>267</v>
@@ -14355,7 +14897,7 @@
         <v>218</v>
       </c>
       <c r="Q388" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="389" spans="1:21">
@@ -14363,7 +14905,7 @@
         <v>262</v>
       </c>
       <c r="B389" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C389" t="s">
         <v>103</v>
@@ -14384,10 +14926,10 @@
         <v>36</v>
       </c>
       <c r="M389" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N389" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O389" t="s">
         <v>267</v>
@@ -14396,7 +14938,7 @@
         <v>218</v>
       </c>
       <c r="Q389" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="390" spans="1:21">
@@ -14404,7 +14946,7 @@
         <v>262</v>
       </c>
       <c r="B390" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C390" t="s">
         <v>103</v>
@@ -14425,7 +14967,7 @@
         <v>36</v>
       </c>
       <c r="N390" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O390" t="s">
         <v>267</v>
@@ -14434,7 +14976,7 @@
         <v>218</v>
       </c>
       <c r="Q390" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="391" spans="1:21">
@@ -14442,7 +14984,7 @@
         <v>262</v>
       </c>
       <c r="B391" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C391" t="s">
         <v>106</v>
@@ -14463,10 +15005,10 @@
         <v>36</v>
       </c>
       <c r="M391" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N391" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O391" t="s">
         <v>267</v>
@@ -14475,7 +15017,7 @@
         <v>218</v>
       </c>
       <c r="Q391" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="392" spans="1:21">
@@ -14483,7 +15025,7 @@
         <v>262</v>
       </c>
       <c r="B392" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C392" t="s">
         <v>106</v>
@@ -14504,7 +15046,7 @@
         <v>36</v>
       </c>
       <c r="N392" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O392" t="s">
         <v>267</v>
@@ -14513,7 +15055,7 @@
         <v>218</v>
       </c>
       <c r="Q392" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="393" spans="1:21">
@@ -14521,7 +15063,7 @@
         <v>262</v>
       </c>
       <c r="B393" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C393" t="s">
         <v>105</v>
@@ -14542,10 +15084,10 @@
         <v>36</v>
       </c>
       <c r="M393" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N393" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O393" t="s">
         <v>267</v>
@@ -14554,7 +15096,7 @@
         <v>218</v>
       </c>
       <c r="Q393" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="394" spans="1:21">
@@ -14562,7 +15104,7 @@
         <v>262</v>
       </c>
       <c r="B394" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C394" t="s">
         <v>105</v>
@@ -14583,7 +15125,7 @@
         <v>36</v>
       </c>
       <c r="N394" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O394" t="s">
         <v>267</v>
@@ -14592,7 +15134,7 @@
         <v>218</v>
       </c>
       <c r="Q394" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="395" spans="1:21">
@@ -14600,7 +15142,7 @@
         <v>262</v>
       </c>
       <c r="B395" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C395" t="s">
         <v>104</v>
@@ -14621,10 +15163,10 @@
         <v>36</v>
       </c>
       <c r="M395" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N395" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O395" t="s">
         <v>267</v>
@@ -14633,7 +15175,7 @@
         <v>218</v>
       </c>
       <c r="Q395" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="396" spans="1:21">
@@ -14641,7 +15183,7 @@
         <v>262</v>
       </c>
       <c r="B396" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C396" t="s">
         <v>104</v>
@@ -14662,7 +15204,7 @@
         <v>36</v>
       </c>
       <c r="N396" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O396" t="s">
         <v>267</v>
@@ -14671,7 +15213,7 @@
         <v>218</v>
       </c>
       <c r="Q396" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="397" spans="1:21">
@@ -14697,19 +15239,22 @@
         <v>120</v>
       </c>
       <c r="L397" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M397" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="N397" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O397" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="P397" t="s">
         <v>218</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="398" spans="1:21">
@@ -14717,7 +15262,7 @@
         <v>262</v>
       </c>
       <c r="B398" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C398" t="s">
         <v>71</v>
@@ -14735,19 +15280,22 @@
         <v>270</v>
       </c>
       <c r="L398" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M398" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="N398" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O398" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="P398" t="s">
         <v>218</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="399" spans="1:21">
@@ -14776,16 +15324,19 @@
         <v>23</v>
       </c>
       <c r="M399" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N399" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O399" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="P399" t="s">
         <v>218</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="400" spans="1:21">
@@ -14793,7 +15344,7 @@
         <v>262</v>
       </c>
       <c r="B400" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C400" t="s">
         <v>112</v>
@@ -14814,16 +15365,19 @@
         <v>23</v>
       </c>
       <c r="M400" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N400" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O400" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="P400" t="s">
         <v>218</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="401" spans="1:21">
@@ -14852,16 +15406,19 @@
         <v>23</v>
       </c>
       <c r="M401" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N401" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O401" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="P401" t="s">
         <v>218</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="402" spans="1:21">
@@ -14869,7 +15426,7 @@
         <v>262</v>
       </c>
       <c r="B402" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C402" t="s">
         <v>109</v>
@@ -14890,16 +15447,19 @@
         <v>23</v>
       </c>
       <c r="M402" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N402" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O402" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="P402" t="s">
         <v>218</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="403" spans="1:21">
@@ -14907,10 +15467,10 @@
         <v>262</v>
       </c>
       <c r="B403" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C403" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D403" t="s">
         <v>22</v>
@@ -14931,16 +15491,19 @@
         <v>34</v>
       </c>
       <c r="M403" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N403" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O403" t="s">
         <v>267</v>
       </c>
       <c r="P403" t="s">
         <v>218</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="404" spans="1:21">
@@ -14951,7 +15514,7 @@
         <v>235</v>
       </c>
       <c r="C404" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D404" t="s">
         <v>22</v>
@@ -14966,19 +15529,22 @@
         <v>800</v>
       </c>
       <c r="L404" t="s">
+        <v>278</v>
+      </c>
+      <c r="M404" t="s">
+        <v>358</v>
+      </c>
+      <c r="N404" t="s">
         <v>277</v>
       </c>
-      <c r="M404" t="s">
-        <v>349</v>
-      </c>
-      <c r="N404" t="s">
-        <v>276</v>
-      </c>
       <c r="O404" t="s">
         <v>267</v>
       </c>
       <c r="P404" t="s">
         <v>218</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="405" spans="1:21">
@@ -14986,10 +15552,10 @@
         <v>262</v>
       </c>
       <c r="B405" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C405" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D405" t="s">
         <v>22</v>
@@ -15004,19 +15570,22 @@
         <v>950</v>
       </c>
       <c r="L405" t="s">
+        <v>278</v>
+      </c>
+      <c r="M405" t="s">
+        <v>358</v>
+      </c>
+      <c r="N405" t="s">
         <v>277</v>
       </c>
-      <c r="M405" t="s">
-        <v>349</v>
-      </c>
-      <c r="N405" t="s">
-        <v>276</v>
-      </c>
       <c r="O405" t="s">
         <v>267</v>
       </c>
       <c r="P405" t="s">
         <v>218</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="406" spans="1:21">
@@ -15024,10 +15593,10 @@
         <v>262</v>
       </c>
       <c r="B406" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C406" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D406" t="s">
         <v>22</v>
@@ -15048,16 +15617,19 @@
         <v>34</v>
       </c>
       <c r="M406" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="N406" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O406" t="s">
         <v>267</v>
       </c>
       <c r="P406" t="s">
         <v>218</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="407" spans="1:21">
@@ -15068,7 +15640,7 @@
         <v>235</v>
       </c>
       <c r="C407" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D407" t="s">
         <v>22</v>
@@ -15083,19 +15655,22 @@
         <v>1050</v>
       </c>
       <c r="L407" t="s">
+        <v>278</v>
+      </c>
+      <c r="M407" t="s">
+        <v>412</v>
+      </c>
+      <c r="N407" t="s">
         <v>277</v>
       </c>
-      <c r="M407" t="s">
-        <v>399</v>
-      </c>
-      <c r="N407" t="s">
-        <v>276</v>
-      </c>
       <c r="O407" t="s">
         <v>267</v>
       </c>
       <c r="P407" t="s">
         <v>218</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="408" spans="1:21">
@@ -15103,10 +15678,10 @@
         <v>262</v>
       </c>
       <c r="B408" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C408" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D408" t="s">
         <v>22</v>
@@ -15121,19 +15696,22 @@
         <v>1200</v>
       </c>
       <c r="L408" t="s">
+        <v>278</v>
+      </c>
+      <c r="M408" t="s">
+        <v>412</v>
+      </c>
+      <c r="N408" t="s">
         <v>277</v>
       </c>
-      <c r="M408" t="s">
-        <v>399</v>
-      </c>
-      <c r="N408" t="s">
-        <v>276</v>
-      </c>
       <c r="O408" t="s">
         <v>267</v>
       </c>
       <c r="P408" t="s">
         <v>218</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="409" spans="1:21">
@@ -15141,10 +15719,10 @@
         <v>262</v>
       </c>
       <c r="B409" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C409" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="D409" t="s">
         <v>22</v>
@@ -15159,22 +15737,25 @@
         <v>500</v>
       </c>
       <c r="K409" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L409" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M409" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N409" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O409" t="s">
         <v>267</v>
       </c>
       <c r="P409" t="s">
         <v>218</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="410" spans="1:21">
@@ -15182,7 +15763,7 @@
         <v>262</v>
       </c>
       <c r="B410" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C410" t="s">
         <v>130</v>
@@ -15200,22 +15781,25 @@
         <v>500</v>
       </c>
       <c r="K410" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L410" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M410" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N410" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O410" t="s">
         <v>267</v>
       </c>
       <c r="P410" t="s">
         <v>218</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="411" spans="1:21">
@@ -15223,7 +15807,7 @@
         <v>262</v>
       </c>
       <c r="B411" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C411" t="s">
         <v>132</v>
@@ -15241,22 +15825,25 @@
         <v>500</v>
       </c>
       <c r="K411" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L411" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M411" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N411" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O411" t="s">
         <v>267</v>
       </c>
       <c r="P411" t="s">
         <v>218</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="412" spans="1:21">
@@ -15264,7 +15851,7 @@
         <v>262</v>
       </c>
       <c r="B412" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C412" t="s">
         <v>141</v>
@@ -15282,22 +15869,25 @@
         <v>500</v>
       </c>
       <c r="K412" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L412" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M412" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N412" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O412" t="s">
         <v>267</v>
       </c>
       <c r="P412" t="s">
         <v>218</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="413" spans="1:21">
@@ -15305,7 +15895,7 @@
         <v>262</v>
       </c>
       <c r="B413" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C413" t="s">
         <v>144</v>
@@ -15323,22 +15913,25 @@
         <v>500</v>
       </c>
       <c r="K413" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L413" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M413" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N413" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O413" t="s">
         <v>267</v>
       </c>
       <c r="P413" t="s">
         <v>218</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="414" spans="1:21">
@@ -15346,10 +15939,10 @@
         <v>262</v>
       </c>
       <c r="B414" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C414" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="D414" t="s">
         <v>22</v>
@@ -15364,22 +15957,25 @@
         <v>500</v>
       </c>
       <c r="K414" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L414" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M414" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N414" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O414" t="s">
         <v>267</v>
       </c>
       <c r="P414" t="s">
         <v>218</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="415" spans="1:21">
@@ -15387,7 +15983,7 @@
         <v>262</v>
       </c>
       <c r="B415" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C415" t="s">
         <v>143</v>
@@ -15405,22 +16001,25 @@
         <v>500</v>
       </c>
       <c r="K415" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L415" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M415" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N415" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O415" t="s">
         <v>267</v>
       </c>
       <c r="P415" t="s">
         <v>218</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="416" spans="1:21">
@@ -15428,10 +16027,10 @@
         <v>262</v>
       </c>
       <c r="B416" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C416" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D416" t="s">
         <v>22</v>
@@ -15446,22 +16045,25 @@
         <v>500</v>
       </c>
       <c r="K416" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L416" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M416" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N416" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O416" t="s">
         <v>267</v>
       </c>
       <c r="P416" t="s">
         <v>218</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="417" spans="1:21">
@@ -15469,10 +16071,10 @@
         <v>262</v>
       </c>
       <c r="B417" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C417" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="D417" t="s">
         <v>22</v>
@@ -15487,22 +16089,25 @@
         <v>500</v>
       </c>
       <c r="K417" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L417" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M417" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N417" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O417" t="s">
         <v>267</v>
       </c>
       <c r="P417" t="s">
         <v>218</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:21">
@@ -15510,10 +16115,10 @@
         <v>262</v>
       </c>
       <c r="B418" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C418" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D418" t="s">
         <v>22</v>
@@ -15528,33 +16133,36 @@
         <v>500</v>
       </c>
       <c r="K418" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L418" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M418" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="N418" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O418" t="s">
         <v>267</v>
       </c>
       <c r="P418" t="s">
         <v>218</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:21">
       <c r="A419" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B419" t="s">
         <v>217</v>
       </c>
       <c r="C419" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D419" t="s">
         <v>22</v>
@@ -15574,13 +16182,13 @@
     </row>
     <row r="420" spans="1:21">
       <c r="A420" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B420" t="s">
         <v>217</v>
       </c>
       <c r="C420" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D420" t="s">
         <v>22</v>
@@ -15600,13 +16208,13 @@
     </row>
     <row r="421" spans="1:21">
       <c r="A421" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B421" t="s">
         <v>217</v>
       </c>
       <c r="C421" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D421" t="s">
         <v>22</v>
@@ -15626,13 +16234,13 @@
     </row>
     <row r="422" spans="1:21">
       <c r="A422" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B422" t="s">
         <v>217</v>
       </c>
       <c r="C422" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="D422" t="s">
         <v>22</v>
@@ -15652,13 +16260,13 @@
     </row>
     <row r="423" spans="1:21">
       <c r="A423" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B423" t="s">
         <v>217</v>
       </c>
       <c r="C423" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D423" t="s">
         <v>22</v>
@@ -15678,13 +16286,13 @@
     </row>
     <row r="424" spans="1:21">
       <c r="A424" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B424" t="s">
         <v>217</v>
       </c>
       <c r="C424" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D424" t="s">
         <v>22</v>
@@ -15704,13 +16312,13 @@
     </row>
     <row r="425" spans="1:21">
       <c r="A425" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B425" t="s">
         <v>217</v>
       </c>
       <c r="C425" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D425" t="s">
         <v>22</v>
@@ -15730,13 +16338,13 @@
     </row>
     <row r="426" spans="1:21">
       <c r="A426" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B426" t="s">
         <v>217</v>
       </c>
       <c r="C426" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D426" t="s">
         <v>22</v>
@@ -15756,13 +16364,13 @@
     </row>
     <row r="427" spans="1:21">
       <c r="A427" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B427" t="s">
         <v>217</v>
       </c>
       <c r="C427" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D427" t="s">
         <v>22</v>
@@ -15782,13 +16390,13 @@
     </row>
     <row r="428" spans="1:21">
       <c r="A428" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B428" t="s">
         <v>217</v>
       </c>
       <c r="C428" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D428" t="s">
         <v>22</v>
@@ -15808,13 +16416,13 @@
     </row>
     <row r="429" spans="1:21">
       <c r="A429" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B429" t="s">
         <v>217</v>
       </c>
       <c r="C429" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D429" t="s">
         <v>22</v>
@@ -15834,13 +16442,13 @@
     </row>
     <row r="430" spans="1:21">
       <c r="A430" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B430" t="s">
         <v>217</v>
       </c>
       <c r="C430" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D430" t="s">
         <v>22</v>
@@ -15860,13 +16468,13 @@
     </row>
     <row r="431" spans="1:21">
       <c r="A431" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B431" t="s">
         <v>217</v>
       </c>
       <c r="C431" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="D431" t="s">
         <v>22</v>
@@ -15886,13 +16494,13 @@
     </row>
     <row r="432" spans="1:21">
       <c r="A432" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B432" t="s">
         <v>217</v>
       </c>
       <c r="C432" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D432" t="s">
         <v>22</v>
@@ -15912,13 +16520,13 @@
     </row>
     <row r="433" spans="1:21">
       <c r="A433" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B433" t="s">
         <v>217</v>
       </c>
       <c r="C433" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D433" t="s">
         <v>22</v>
@@ -15938,13 +16546,13 @@
     </row>
     <row r="434" spans="1:21">
       <c r="A434" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B434" t="s">
         <v>217</v>
       </c>
       <c r="C434" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D434" t="s">
         <v>22</v>
@@ -15964,13 +16572,13 @@
     </row>
     <row r="435" spans="1:21">
       <c r="A435" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B435" t="s">
         <v>217</v>
       </c>
       <c r="C435" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D435" t="s">
         <v>22</v>
@@ -15990,13 +16598,13 @@
     </row>
     <row r="436" spans="1:21">
       <c r="A436" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B436" t="s">
         <v>217</v>
       </c>
       <c r="C436" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D436" t="s">
         <v>22</v>
@@ -16016,13 +16624,13 @@
     </row>
     <row r="437" spans="1:21">
       <c r="A437" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B437" t="s">
         <v>217</v>
       </c>
       <c r="C437" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D437" t="s">
         <v>22</v>
@@ -16042,13 +16650,13 @@
     </row>
     <row r="438" spans="1:21">
       <c r="A438" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B438" t="s">
         <v>217</v>
       </c>
       <c r="C438" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D438" t="s">
         <v>22</v>
@@ -16068,13 +16676,13 @@
     </row>
     <row r="439" spans="1:21">
       <c r="A439" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B439" t="s">
         <v>217</v>
       </c>
       <c r="C439" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D439" t="s">
         <v>22</v>
@@ -16094,13 +16702,13 @@
     </row>
     <row r="440" spans="1:21">
       <c r="A440" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B440" t="s">
         <v>217</v>
       </c>
       <c r="C440" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D440" t="s">
         <v>22</v>
@@ -16120,13 +16728,13 @@
     </row>
     <row r="441" spans="1:21">
       <c r="A441" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B441" t="s">
         <v>217</v>
       </c>
       <c r="C441" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D441" t="s">
         <v>22</v>
@@ -16146,13 +16754,13 @@
     </row>
     <row r="442" spans="1:21">
       <c r="A442" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B442" t="s">
         <v>217</v>
       </c>
       <c r="C442" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D442" t="s">
         <v>22</v>
@@ -16172,13 +16780,13 @@
     </row>
     <row r="443" spans="1:21">
       <c r="A443" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B443" t="s">
         <v>217</v>
       </c>
       <c r="C443" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="D443" t="s">
         <v>22</v>
@@ -16198,13 +16806,13 @@
     </row>
     <row r="444" spans="1:21">
       <c r="A444" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B444" t="s">
         <v>217</v>
       </c>
       <c r="C444" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D444" t="s">
         <v>22</v>
@@ -16224,13 +16832,13 @@
     </row>
     <row r="445" spans="1:21">
       <c r="A445" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B445" t="s">
         <v>217</v>
       </c>
       <c r="C445" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D445" t="s">
         <v>22</v>
@@ -16250,13 +16858,13 @@
     </row>
     <row r="446" spans="1:21">
       <c r="A446" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B446" t="s">
         <v>217</v>
       </c>
       <c r="C446" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D446" t="s">
         <v>22</v>
@@ -16276,13 +16884,13 @@
     </row>
     <row r="447" spans="1:21">
       <c r="A447" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B447" t="s">
         <v>217</v>
       </c>
       <c r="C447" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D447" t="s">
         <v>22</v>
@@ -16302,13 +16910,13 @@
     </row>
     <row r="448" spans="1:21">
       <c r="A448" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B448" t="s">
         <v>217</v>
       </c>
       <c r="C448" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D448" t="s">
         <v>22</v>
@@ -16328,13 +16936,13 @@
     </row>
     <row r="449" spans="1:21">
       <c r="A449" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B449" t="s">
         <v>217</v>
       </c>
       <c r="C449" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D449" t="s">
         <v>22</v>
@@ -16354,13 +16962,13 @@
     </row>
     <row r="450" spans="1:21">
       <c r="A450" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B450" t="s">
         <v>217</v>
       </c>
       <c r="C450" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D450" t="s">
         <v>22</v>
@@ -16380,13 +16988,13 @@
     </row>
     <row r="451" spans="1:21">
       <c r="A451" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B451" t="s">
         <v>217</v>
       </c>
       <c r="C451" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D451" t="s">
         <v>22</v>
@@ -16406,13 +17014,13 @@
     </row>
     <row r="452" spans="1:21">
       <c r="A452" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B452" t="s">
         <v>217</v>
       </c>
       <c r="C452" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D452" t="s">
         <v>22</v>
@@ -16432,13 +17040,13 @@
     </row>
     <row r="453" spans="1:21">
       <c r="A453" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B453" t="s">
         <v>217</v>
       </c>
       <c r="C453" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D453" t="s">
         <v>22</v>
@@ -16458,13 +17066,13 @@
     </row>
     <row r="454" spans="1:21">
       <c r="A454" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B454" t="s">
         <v>217</v>
       </c>
       <c r="C454" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="D454" t="s">
         <v>22</v>
@@ -16484,13 +17092,13 @@
     </row>
     <row r="455" spans="1:21">
       <c r="A455" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B455" t="s">
         <v>217</v>
       </c>
       <c r="C455" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D455" t="s">
         <v>22</v>
@@ -16510,13 +17118,13 @@
     </row>
     <row r="456" spans="1:21">
       <c r="A456" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B456" t="s">
         <v>217</v>
       </c>
       <c r="C456" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D456" t="s">
         <v>22</v>
@@ -16536,10 +17144,10 @@
     </row>
     <row r="457" spans="1:21">
       <c r="A457" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C457" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D457" t="s">
         <v>22</v>
@@ -16556,10 +17164,10 @@
     </row>
     <row r="458" spans="1:21">
       <c r="A458" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C458" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D458" t="s">
         <v>22</v>
@@ -16576,10 +17184,10 @@
     </row>
     <row r="459" spans="1:21">
       <c r="A459" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D459" t="s">
         <v>22</v>
@@ -16596,10 +17204,10 @@
     </row>
     <row r="460" spans="1:21">
       <c r="A460" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D460" t="s">
         <v>22</v>
@@ -16616,10 +17224,10 @@
     </row>
     <row r="461" spans="1:21">
       <c r="A461" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C461" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D461" t="s">
         <v>22</v>
@@ -16636,13 +17244,13 @@
     </row>
     <row r="462" spans="1:21">
       <c r="A462" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D462" t="s">
         <v>22</v>
@@ -16659,10 +17267,10 @@
     </row>
     <row r="463" spans="1:21">
       <c r="A463" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C463" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D463" t="s">
         <v>22</v>
@@ -16679,13 +17287,13 @@
     </row>
     <row r="464" spans="1:21">
       <c r="A464" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B464" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D464" t="s">
         <v>22</v>
@@ -16702,10 +17310,10 @@
     </row>
     <row r="465" spans="1:21">
       <c r="A465" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C465" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D465" t="s">
         <v>22</v>
@@ -16722,13 +17330,13 @@
     </row>
     <row r="466" spans="1:21">
       <c r="A466" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B466" t="s">
         <v>86</v>
       </c>
       <c r="C466" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D466" t="s">
         <v>22</v>
@@ -16745,13 +17353,13 @@
     </row>
     <row r="467" spans="1:21">
       <c r="A467" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B467" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C467" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D467" t="s">
         <v>22</v>
@@ -16768,13 +17376,13 @@
     </row>
     <row r="468" spans="1:21">
       <c r="A468" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B468" t="s">
         <v>93</v>
       </c>
       <c r="C468" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D468" t="s">
         <v>22</v>
@@ -16791,13 +17399,13 @@
     </row>
     <row r="469" spans="1:21">
       <c r="A469" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B469" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C469" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D469" t="s">
         <v>22</v>
@@ -16814,10 +17422,10 @@
     </row>
     <row r="470" spans="1:21">
       <c r="A470" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C470" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D470" t="s">
         <v>22</v>
@@ -16837,10 +17445,10 @@
     </row>
     <row r="471" spans="1:21">
       <c r="A471" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C471" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D471" t="s">
         <v>22</v>
@@ -16857,13 +17465,13 @@
     </row>
     <row r="472" spans="1:21">
       <c r="A472" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B472" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C472" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D472" t="s">
         <v>22</v>
@@ -16878,18 +17486,18 @@
         <v>2</v>
       </c>
       <c r="M472" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="1:21">
       <c r="A473" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B473" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C473" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D473" t="s">
         <v>22</v>
@@ -16904,15 +17512,15 @@
         <v>8</v>
       </c>
       <c r="M473" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="474" spans="1:21">
       <c r="A474" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C474" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D474" t="s">
         <v>22</v>
@@ -16929,10 +17537,10 @@
     </row>
     <row r="475" spans="1:21">
       <c r="A475" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C475" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D475" t="s">
         <v>22</v>
@@ -16947,15 +17555,15 @@
         <v>11</v>
       </c>
       <c r="M475" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="476" spans="1:21">
       <c r="A476" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C476" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D476" t="s">
         <v>22</v>
@@ -16975,10 +17583,10 @@
     </row>
     <row r="477" spans="1:21">
       <c r="A477" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C477" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D477" t="s">
         <v>22</v>
@@ -16998,13 +17606,13 @@
     </row>
     <row r="478" spans="1:21">
       <c r="A478" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B478" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="C478" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D478" t="s">
         <v>22</v>
@@ -17024,10 +17632,10 @@
     </row>
     <row r="479" spans="1:21">
       <c r="A479" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C479" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D479" t="s">
         <v>22</v>
@@ -17044,10 +17652,10 @@
     </row>
     <row r="480" spans="1:21">
       <c r="A480" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C480" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D480" t="s">
         <v>22</v>
@@ -17067,10 +17675,10 @@
     </row>
     <row r="481" spans="1:21">
       <c r="A481" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C481" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D481" t="s">
         <v>22</v>
@@ -17085,15 +17693,15 @@
         <v>4</v>
       </c>
       <c r="M481" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="482" spans="1:21">
       <c r="A482" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C482" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D482" t="s">
         <v>22</v>
@@ -17113,10 +17721,10 @@
     </row>
     <row r="483" spans="1:21">
       <c r="A483" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C483" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D483" t="s">
         <v>22</v>
@@ -17136,10 +17744,10 @@
     </row>
     <row r="484" spans="1:21">
       <c r="A484" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C484" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D484" t="s">
         <v>22</v>
@@ -17159,13 +17767,13 @@
     </row>
     <row r="485" spans="1:21">
       <c r="A485" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B485" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C485" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D485" t="s">
         <v>22</v>
@@ -17182,13 +17790,13 @@
     </row>
     <row r="486" spans="1:21">
       <c r="A486" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B486" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C486" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D486" t="s">
         <v>22</v>
@@ -17205,13 +17813,13 @@
     </row>
     <row r="487" spans="1:21">
       <c r="A487" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B487" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C487" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D487" t="s">
         <v>22</v>
@@ -17228,13 +17836,13 @@
     </row>
     <row r="488" spans="1:21">
       <c r="A488" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B488" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C488" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D488" t="s">
         <v>22</v>
@@ -17251,13 +17859,13 @@
     </row>
     <row r="489" spans="1:21">
       <c r="A489" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B489" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C489" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D489" t="s">
         <v>22</v>
@@ -17272,18 +17880,18 @@
         <v>200</v>
       </c>
       <c r="K489" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="490" spans="1:21">
       <c r="A490" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B490" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C490" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D490" t="s">
         <v>22</v>
@@ -17300,13 +17908,13 @@
     </row>
     <row r="491" spans="1:21">
       <c r="A491" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B491" t="s">
+        <v>476</v>
+      </c>
+      <c r="C491" t="s">
         <v>461</v>
-      </c>
-      <c r="C491" t="s">
-        <v>446</v>
       </c>
       <c r="D491" t="s">
         <v>22</v>
@@ -17323,13 +17931,13 @@
     </row>
     <row r="492" spans="1:21">
       <c r="A492" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B492" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="C492" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D492" t="s">
         <v>22</v>
@@ -17346,13 +17954,13 @@
     </row>
     <row r="493" spans="1:21">
       <c r="A493" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B493" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C493" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D493" t="s">
         <v>22</v>
@@ -17367,18 +17975,18 @@
         <v>1</v>
       </c>
       <c r="K493" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="494" spans="1:21">
       <c r="A494" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B494" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C494" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D494" t="s">
         <v>22</v>
@@ -17393,18 +18001,18 @@
         <v>400</v>
       </c>
       <c r="K494" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="495" spans="1:21">
       <c r="A495" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B495" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C495" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D495" t="s">
         <v>22</v>
@@ -17421,13 +18029,13 @@
     </row>
     <row r="496" spans="1:21">
       <c r="A496" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B496" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="C496" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D496" t="s">
         <v>22</v>
@@ -17444,13 +18052,13 @@
     </row>
     <row r="497" spans="1:21">
       <c r="A497" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B497" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C497" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D497" t="s">
         <v>22</v>
@@ -17467,13 +18075,13 @@
     </row>
     <row r="498" spans="1:21">
       <c r="A498" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B498" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C498" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D498" t="s">
         <v>22</v>
@@ -17490,13 +18098,13 @@
     </row>
     <row r="499" spans="1:21">
       <c r="A499" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B499" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C499" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D499" t="s">
         <v>22</v>
@@ -17513,13 +18121,13 @@
     </row>
     <row r="500" spans="1:21">
       <c r="A500" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B500" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C500" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D500" t="s">
         <v>22</v>
@@ -17536,10 +18144,10 @@
     </row>
     <row r="501" spans="1:21">
       <c r="A501" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C501" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D501" t="s">
         <v>22</v>
@@ -17556,10 +18164,10 @@
     </row>
     <row r="502" spans="1:21">
       <c r="A502" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C502" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D502" t="s">
         <v>22</v>
@@ -17576,13 +18184,13 @@
     </row>
     <row r="503" spans="1:21">
       <c r="A503" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B503" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="C503" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D503" t="s">
         <v>22</v>
@@ -17599,10 +18207,10 @@
     </row>
     <row r="504" spans="1:21">
       <c r="A504" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C504" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D504" t="s">
         <v>22</v>
@@ -17619,13 +18227,13 @@
     </row>
     <row r="505" spans="1:21">
       <c r="A505" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B505" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C505" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D505" t="s">
         <v>22</v>
@@ -17642,10 +18250,10 @@
     </row>
     <row r="506" spans="1:21">
       <c r="A506" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C506" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="D506" t="s">
         <v>22</v>
@@ -17662,10 +18270,10 @@
     </row>
     <row r="507" spans="1:21">
       <c r="A507" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C507" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D507" t="s">
         <v>22</v>
@@ -17685,10 +18293,10 @@
     </row>
     <row r="508" spans="1:21">
       <c r="A508" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C508" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="D508" t="s">
         <v>22</v>
@@ -17705,10 +18313,10 @@
     </row>
     <row r="509" spans="1:21">
       <c r="A509" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C509" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="D509" t="s">
         <v>22</v>
@@ -17725,10 +18333,10 @@
     </row>
     <row r="510" spans="1:21">
       <c r="A510" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C510" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D510" t="s">
         <v>22</v>
@@ -17745,10 +18353,10 @@
     </row>
     <row r="511" spans="1:21">
       <c r="A511" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C511" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D511" t="s">
         <v>22</v>
@@ -17765,10 +18373,10 @@
     </row>
     <row r="512" spans="1:21">
       <c r="A512" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C512" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D512" t="s">
         <v>22</v>
@@ -17785,10 +18393,10 @@
     </row>
     <row r="513" spans="1:21">
       <c r="A513" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C513" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D513" t="s">
         <v>22</v>
@@ -17805,10 +18413,10 @@
     </row>
     <row r="514" spans="1:21">
       <c r="A514" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C514" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D514" t="s">
         <v>22</v>
@@ -17825,10 +18433,10 @@
     </row>
     <row r="515" spans="1:21">
       <c r="A515" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C515" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D515" t="s">
         <v>22</v>
@@ -17845,10 +18453,10 @@
     </row>
     <row r="516" spans="1:21">
       <c r="A516" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C516" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D516" t="s">
         <v>22</v>
@@ -17865,10 +18473,10 @@
     </row>
     <row r="517" spans="1:21">
       <c r="A517" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C517" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D517" t="s">
         <v>22</v>
@@ -17885,13 +18493,13 @@
     </row>
     <row r="518" spans="1:21">
       <c r="A518" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B518" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="C518" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D518" t="s">
         <v>22</v>
@@ -17908,13 +18516,13 @@
     </row>
     <row r="519" spans="1:21">
       <c r="A519" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B519" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="C519" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D519" t="s">
         <v>22</v>
@@ -17931,13 +18539,13 @@
     </row>
     <row r="520" spans="1:21">
       <c r="A520" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B520" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C520" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D520" t="s">
         <v>22</v>
@@ -17954,10 +18562,10 @@
     </row>
     <row r="521" spans="1:21">
       <c r="A521" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C521" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D521" t="s">
         <v>22</v>
@@ -17974,13 +18582,13 @@
     </row>
     <row r="522" spans="1:21">
       <c r="A522" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B522" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C522" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D522" t="s">
         <v>22</v>
@@ -17997,10 +18605,10 @@
     </row>
     <row r="523" spans="1:21">
       <c r="A523" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C523" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D523" t="s">
         <v>22</v>
@@ -18017,13 +18625,13 @@
     </row>
     <row r="524" spans="1:21">
       <c r="A524" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B524" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="C524" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D524" t="s">
         <v>22</v>
@@ -18040,10 +18648,10 @@
     </row>
     <row r="525" spans="1:21">
       <c r="A525" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C525" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D525" t="s">
         <v>22</v>
@@ -18060,13 +18668,13 @@
     </row>
     <row r="526" spans="1:21">
       <c r="A526" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B526" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C526" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D526" t="s">
         <v>22</v>
@@ -18083,10 +18691,10 @@
     </row>
     <row r="527" spans="1:21">
       <c r="A527" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C527" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D527" t="s">
         <v>22</v>
@@ -18103,13 +18711,13 @@
     </row>
     <row r="528" spans="1:21">
       <c r="A528" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B528" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C528" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D528" t="s">
         <v>22</v>
@@ -18126,10 +18734,10 @@
     </row>
     <row r="529" spans="1:21">
       <c r="A529" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C529" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D529" t="s">
         <v>22</v>
@@ -18146,13 +18754,13 @@
     </row>
     <row r="530" spans="1:21">
       <c r="A530" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B530" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C530" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D530" t="s">
         <v>22</v>
@@ -18169,10 +18777,10 @@
     </row>
     <row r="531" spans="1:21">
       <c r="A531" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C531" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D531" t="s">
         <v>22</v>
@@ -18189,13 +18797,13 @@
     </row>
     <row r="532" spans="1:21">
       <c r="A532" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B532" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C532" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D532" t="s">
         <v>22</v>
@@ -18212,10 +18820,10 @@
     </row>
     <row r="533" spans="1:21">
       <c r="A533" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C533" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D533" t="s">
         <v>22</v>
@@ -18232,10 +18840,10 @@
     </row>
     <row r="534" spans="1:21">
       <c r="A534" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C534" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D534" t="s">
         <v>22</v>
@@ -18255,10 +18863,10 @@
     </row>
     <row r="535" spans="1:21">
       <c r="A535" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C535" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D535" t="s">
         <v>22</v>
@@ -18275,7 +18883,7 @@
     </row>
     <row r="536" spans="1:21">
       <c r="A536" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C536" t="s">
         <v>106</v>
@@ -18295,10 +18903,10 @@
     </row>
     <row r="537" spans="1:21">
       <c r="A537" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C537" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D537" t="s">
         <v>22</v>
@@ -18315,10 +18923,10 @@
     </row>
     <row r="538" spans="1:21">
       <c r="A538" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C538" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D538" t="s">
         <v>22</v>
@@ -18335,10 +18943,10 @@
     </row>
     <row r="539" spans="1:21">
       <c r="A539" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C539" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D539" t="s">
         <v>22</v>
@@ -18355,10 +18963,10 @@
     </row>
     <row r="540" spans="1:21">
       <c r="A540" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C540" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="D540" t="s">
         <v>22</v>
@@ -18375,13 +18983,13 @@
     </row>
     <row r="541" spans="1:21">
       <c r="A541" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B541" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="C541" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D541" t="s">
         <v>22</v>
@@ -18398,13 +19006,13 @@
     </row>
     <row r="542" spans="1:21">
       <c r="A542" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B542" t="s">
         <v>217</v>
       </c>
       <c r="C542" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="D542" t="s">
         <v>22</v>
@@ -18424,13 +19032,13 @@
     </row>
     <row r="543" spans="1:21">
       <c r="A543" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B543" t="s">
         <v>217</v>
       </c>
       <c r="C543" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D543" t="s">
         <v>22</v>
@@ -18450,13 +19058,13 @@
     </row>
     <row r="544" spans="1:21">
       <c r="A544" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B544" t="s">
         <v>217</v>
       </c>
       <c r="C544" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D544" t="s">
         <v>22</v>
@@ -18476,13 +19084,13 @@
     </row>
     <row r="545" spans="1:21">
       <c r="A545" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B545" t="s">
         <v>217</v>
       </c>
       <c r="C545" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D545" t="s">
         <v>22</v>
@@ -18502,13 +19110,13 @@
     </row>
     <row r="546" spans="1:21">
       <c r="A546" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B546" t="s">
         <v>217</v>
       </c>
       <c r="C546" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D546" t="s">
         <v>22</v>
@@ -18528,13 +19136,13 @@
     </row>
     <row r="547" spans="1:21">
       <c r="A547" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B547" t="s">
         <v>217</v>
       </c>
       <c r="C547" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D547" t="s">
         <v>22</v>
@@ -18554,13 +19162,13 @@
     </row>
     <row r="548" spans="1:21">
       <c r="A548" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B548" t="s">
         <v>217</v>
       </c>
       <c r="C548" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D548" t="s">
         <v>22</v>
@@ -18580,13 +19188,13 @@
     </row>
     <row r="549" spans="1:21">
       <c r="A549" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B549" t="s">
         <v>217</v>
       </c>
       <c r="C549" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D549" t="s">
         <v>22</v>
@@ -18606,13 +19214,13 @@
     </row>
     <row r="550" spans="1:21">
       <c r="A550" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B550" t="s">
         <v>217</v>
       </c>
       <c r="C550" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D550" t="s">
         <v>22</v>
@@ -18632,13 +19240,13 @@
     </row>
     <row r="551" spans="1:21">
       <c r="A551" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B551" t="s">
         <v>217</v>
       </c>
       <c r="C551" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D551" t="s">
         <v>22</v>
@@ -18658,13 +19266,13 @@
     </row>
     <row r="552" spans="1:21">
       <c r="A552" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B552" t="s">
         <v>217</v>
       </c>
       <c r="C552" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D552" t="s">
         <v>22</v>
@@ -18684,13 +19292,13 @@
     </row>
     <row r="553" spans="1:21">
       <c r="A553" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B553" t="s">
         <v>217</v>
       </c>
       <c r="C553" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="D553" t="s">
         <v>22</v>
@@ -18710,13 +19318,13 @@
     </row>
     <row r="554" spans="1:21">
       <c r="A554" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B554" t="s">
         <v>217</v>
       </c>
       <c r="C554" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D554" t="s">
         <v>22</v>
@@ -18736,13 +19344,13 @@
     </row>
     <row r="555" spans="1:21">
       <c r="A555" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B555" t="s">
         <v>217</v>
       </c>
       <c r="C555" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="D555" t="s">
         <v>22</v>
@@ -18762,13 +19370,13 @@
     </row>
     <row r="556" spans="1:21">
       <c r="A556" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B556" t="s">
         <v>217</v>
       </c>
       <c r="C556" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D556" t="s">
         <v>22</v>
@@ -18788,13 +19396,13 @@
     </row>
     <row r="557" spans="1:21">
       <c r="A557" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B557" t="s">
         <v>217</v>
       </c>
       <c r="C557" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="D557" t="s">
         <v>22</v>
@@ -18814,13 +19422,13 @@
     </row>
     <row r="558" spans="1:21">
       <c r="A558" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B558" t="s">
         <v>217</v>
       </c>
       <c r="C558" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D558" t="s">
         <v>22</v>
@@ -18840,13 +19448,13 @@
     </row>
     <row r="559" spans="1:21">
       <c r="A559" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B559" t="s">
         <v>217</v>
       </c>
       <c r="C559" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="D559" t="s">
         <v>22</v>
@@ -18866,13 +19474,13 @@
     </row>
     <row r="560" spans="1:21">
       <c r="A560" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B560" t="s">
         <v>217</v>
       </c>
       <c r="C560" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D560" t="s">
         <v>22</v>

--- a/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
+++ b/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
@@ -829,7 +829,7 @@
     <t>14 DAYS COMBINED</t>
   </si>
   <si>
-    <t>01/11-15/11</t>
+    <t>15 Nov 2025</t>
   </si>
   <si>
     <t>Subject to local charge at both ends / Included CIC/PCS at POD</t>
@@ -1048,7 +1048,7 @@
     <t>3 Days</t>
   </si>
   <si>
-    <t>01/11-30/11/2025</t>
+    <t>30 Nov 2025</t>
   </si>
   <si>
     <t>Penang</t>
@@ -1996,7 +1996,7 @@
     <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="93.12" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="10.569" bestFit="true" customWidth="true" style="0"/>

--- a/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
+++ b/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
   <si>
     <t>CARRIER</t>
   </si>
@@ -1059,16 +1059,7 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>20 Days</t>
-  </si>
-  <si>
-    <t>T/S DXB</t>
-  </si>
-  <si>
     <t>Kuwait/Shuwaikh</t>
-  </si>
-  <si>
-    <t>22 Days</t>
   </si>
   <si>
     <t>Subject to local charge at both ends / 
@@ -1081,6 +1072,9 @@
     <t>25-28 Days</t>
   </si>
   <si>
+    <t>T/S DXB</t>
+  </si>
+  <si>
     <t>incl BAF/ LGGR/ DTHC subject to local charge at both ends and if all any.</t>
   </si>
   <si>
@@ -1120,9 +1114,6 @@
     <t>Pasir Gudang</t>
   </si>
   <si>
-    <t>7-9 Days</t>
-  </si>
-  <si>
     <t>Port Klang</t>
   </si>
   <si>
@@ -1177,9 +1168,6 @@
     <t>Manila</t>
   </si>
   <si>
-    <t>4-7 Days</t>
-  </si>
-  <si>
     <t>Davao</t>
   </si>
   <si>
@@ -1199,12 +1187,6 @@
   </si>
   <si>
     <t>Hai Phong</t>
-  </si>
-  <si>
-    <t>SUN/MON</t>
-  </si>
-  <si>
-    <t>MON/TUE</t>
   </si>
   <si>
     <t>Subject to local charge at both ends / Subject to AFS $30 at POL / 
@@ -1214,12 +1196,15 @@
     <t>Ningbo</t>
   </si>
   <si>
-    <t>8 Days</t>
-  </si>
-  <si>
     <t>Changsha</t>
   </si>
   <si>
+    <t>SUN/MON</t>
+  </si>
+  <si>
+    <t>MON/TUE</t>
+  </si>
+  <si>
     <t>14-16 Days</t>
   </si>
   <si>
@@ -1239,6 +1224,9 @@
   </si>
   <si>
     <t>Nanjing</t>
+  </si>
+  <si>
+    <t>20 Days</t>
   </si>
   <si>
     <t>Jiujiang, Jiangxi</t>
@@ -1288,6 +1276,9 @@
   <si>
     <t>Subject to local charge at both ends / Subject to AFS $30 at POL / 
 Subject to LSS CNY 120/240 at POD / SSW</t>
+  </si>
+  <si>
+    <t>8 Days</t>
   </si>
   <si>
     <t>Nanhai</t>
@@ -1673,7 +1664,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -1692,8 +1683,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,6 +1703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1719,9 +1725,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2024,7 +2031,7 @@
   <dimension ref="A1:U562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:U1"/>
+      <selection activeCell="A407" sqref="A407:U407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12181,168 +12188,208 @@
       </c>
     </row>
     <row r="283" spans="1:21">
-      <c r="A283" t="s">
+      <c r="A283" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D283" t="s">
-        <v>22</v>
-      </c>
-      <c r="E283">
-        <v>2000</v>
-      </c>
-      <c r="F283">
-        <v>2500</v>
-      </c>
-      <c r="G283">
-        <v>2500</v>
-      </c>
-      <c r="L283" t="s">
-        <v>164</v>
-      </c>
-      <c r="M283" t="s">
+      <c r="D283" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O283" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P283" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q283" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R283" s="2"/>
+      <c r="S283" s="2"/>
+      <c r="T283" s="2"/>
+      <c r="U283" s="2"/>
+    </row>
+    <row r="284" spans="1:21">
+      <c r="A284" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P284" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q284" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R284" s="2"/>
+      <c r="S284" s="2"/>
+      <c r="T284" s="2"/>
+      <c r="U284" s="2"/>
+    </row>
+    <row r="285" spans="1:21">
+      <c r="A285" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="N283" t="s">
+      <c r="D285" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O285" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P285" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q285" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O283" t="s">
-        <v>290</v>
-      </c>
-      <c r="P283" t="s">
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+      <c r="U285" s="2"/>
+    </row>
+    <row r="286" spans="1:21">
+      <c r="A286" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P286" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="Q283" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="284" spans="1:21">
-      <c r="A284" t="s">
-        <v>285</v>
-      </c>
-      <c r="B284" t="s">
-        <v>293</v>
-      </c>
-      <c r="C284" t="s">
-        <v>343</v>
-      </c>
-      <c r="D284" t="s">
-        <v>22</v>
-      </c>
-      <c r="E284">
-        <v>2120</v>
-      </c>
-      <c r="F284">
-        <v>2650</v>
-      </c>
-      <c r="G284">
-        <v>2650</v>
-      </c>
-      <c r="L284" t="s">
-        <v>164</v>
-      </c>
-      <c r="M284" t="s">
-        <v>344</v>
-      </c>
-      <c r="N284" t="s">
+      <c r="Q286" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O284" t="s">
-        <v>290</v>
-      </c>
-      <c r="P284" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q284" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="285" spans="1:21">
-      <c r="A285" t="s">
-        <v>285</v>
-      </c>
-      <c r="B285" t="s">
-        <v>213</v>
-      </c>
-      <c r="C285" t="s">
-        <v>346</v>
-      </c>
-      <c r="D285" t="s">
-        <v>22</v>
-      </c>
-      <c r="E285">
-        <v>2100</v>
-      </c>
-      <c r="F285">
-        <v>2600</v>
-      </c>
-      <c r="G285">
-        <v>2600</v>
-      </c>
-      <c r="L285" t="s">
-        <v>164</v>
-      </c>
-      <c r="M285" t="s">
-        <v>347</v>
-      </c>
-      <c r="N285" t="s">
-        <v>345</v>
-      </c>
-      <c r="O285" t="s">
-        <v>290</v>
-      </c>
-      <c r="P285" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="286" spans="1:21">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-      <c r="B286" t="s">
-        <v>293</v>
-      </c>
-      <c r="C286" t="s">
-        <v>346</v>
-      </c>
-      <c r="D286" t="s">
-        <v>22</v>
-      </c>
-      <c r="E286">
-        <v>2220</v>
-      </c>
-      <c r="F286">
-        <v>2750</v>
-      </c>
-      <c r="G286">
-        <v>2750</v>
-      </c>
-      <c r="L286" t="s">
-        <v>164</v>
-      </c>
-      <c r="M286" t="s">
-        <v>347</v>
-      </c>
-      <c r="N286" t="s">
-        <v>345</v>
-      </c>
-      <c r="O286" t="s">
-        <v>290</v>
-      </c>
-      <c r="P286" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q286" t="s">
-        <v>348</v>
-      </c>
+      <c r="R286" s="2"/>
+      <c r="S286" s="2"/>
+      <c r="T286" s="2"/>
+      <c r="U286" s="2"/>
     </row>
     <row r="287" spans="1:21">
       <c r="A287" t="s">
@@ -12352,7 +12399,7 @@
         <v>213</v>
       </c>
       <c r="C287" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D287" t="s">
         <v>22</v>
@@ -12370,10 +12417,10 @@
         <v>164</v>
       </c>
       <c r="M287" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N287" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O287" t="s">
         <v>290</v>
@@ -12382,7 +12429,7 @@
         <v>291</v>
       </c>
       <c r="Q287" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" spans="1:21">
@@ -12393,7 +12440,7 @@
         <v>293</v>
       </c>
       <c r="C288" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D288" t="s">
         <v>22</v>
@@ -12411,10 +12458,10 @@
         <v>164</v>
       </c>
       <c r="M288" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N288" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O288" t="s">
         <v>290</v>
@@ -12423,7 +12470,7 @@
         <v>291</v>
       </c>
       <c r="Q288" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="289" spans="1:21">
@@ -12434,7 +12481,7 @@
         <v>213</v>
       </c>
       <c r="C289" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D289" t="s">
         <v>22</v>
@@ -12452,10 +12499,10 @@
         <v>164</v>
       </c>
       <c r="M289" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N289" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O289" t="s">
         <v>290</v>
@@ -12475,7 +12522,7 @@
         <v>293</v>
       </c>
       <c r="C290" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D290" t="s">
         <v>22</v>
@@ -12493,10 +12540,10 @@
         <v>164</v>
       </c>
       <c r="M290" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N290" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O290" t="s">
         <v>290</v>
@@ -12516,7 +12563,7 @@
         <v>213</v>
       </c>
       <c r="C291" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D291" t="s">
         <v>22</v>
@@ -12534,10 +12581,10 @@
         <v>164</v>
       </c>
       <c r="M291" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N291" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O291" t="s">
         <v>290</v>
@@ -12557,7 +12604,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D292" t="s">
         <v>22</v>
@@ -12575,10 +12622,10 @@
         <v>164</v>
       </c>
       <c r="M292" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N292" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O292" t="s">
         <v>290</v>
@@ -12598,7 +12645,7 @@
         <v>213</v>
       </c>
       <c r="C293" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D293" t="s">
         <v>22</v>
@@ -12616,10 +12663,10 @@
         <v>164</v>
       </c>
       <c r="M293" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N293" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O293" t="s">
         <v>290</v>
@@ -12639,7 +12686,7 @@
         <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D294" t="s">
         <v>22</v>
@@ -12657,10 +12704,10 @@
         <v>164</v>
       </c>
       <c r="M294" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N294" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O294" t="s">
         <v>290</v>
@@ -12680,7 +12727,7 @@
         <v>213</v>
       </c>
       <c r="C295" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D295" t="s">
         <v>22</v>
@@ -12698,7 +12745,7 @@
         <v>287</v>
       </c>
       <c r="M295" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N295" t="s">
         <v>289</v>
@@ -12721,7 +12768,7 @@
         <v>293</v>
       </c>
       <c r="C296" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D296" t="s">
         <v>22</v>
@@ -12739,7 +12786,7 @@
         <v>287</v>
       </c>
       <c r="M296" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N296" t="s">
         <v>289</v>
@@ -12762,7 +12809,7 @@
         <v>213</v>
       </c>
       <c r="C297" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D297" t="s">
         <v>22</v>
@@ -12780,7 +12827,7 @@
         <v>287</v>
       </c>
       <c r="M297" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N297" t="s">
         <v>289</v>
@@ -12803,7 +12850,7 @@
         <v>293</v>
       </c>
       <c r="C298" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D298" t="s">
         <v>22</v>
@@ -12821,7 +12868,7 @@
         <v>287</v>
       </c>
       <c r="M298" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N298" t="s">
         <v>289</v>
@@ -12837,130 +12884,157 @@
       </c>
     </row>
     <row r="299" spans="1:21">
-      <c r="A299" t="s">
+      <c r="A299" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D299" t="s">
-        <v>22</v>
-      </c>
-      <c r="E299">
-        <v>150</v>
-      </c>
-      <c r="F299">
-        <v>250</v>
-      </c>
-      <c r="G299">
-        <v>250</v>
-      </c>
-      <c r="K299" t="s">
-        <v>164</v>
-      </c>
-      <c r="L299" t="s">
-        <v>35</v>
-      </c>
-      <c r="M299" t="s">
-        <v>200</v>
-      </c>
-      <c r="N299" t="s">
-        <v>296</v>
-      </c>
-      <c r="O299" t="s">
-        <v>290</v>
-      </c>
-      <c r="P299" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q299" t="s">
+      <c r="D299" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2"/>
+      <c r="K299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P299" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q299" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R299" s="2"/>
+      <c r="S299" s="2"/>
+      <c r="T299" s="2"/>
+      <c r="U299" s="2"/>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" t="s">
+      <c r="A300" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D300" t="s">
-        <v>22</v>
-      </c>
-      <c r="E300">
-        <v>150</v>
-      </c>
-      <c r="F300">
-        <v>250</v>
-      </c>
-      <c r="G300">
-        <v>250</v>
-      </c>
-      <c r="L300" t="s">
-        <v>301</v>
-      </c>
-      <c r="M300" t="s">
-        <v>200</v>
-      </c>
-      <c r="N300" t="s">
-        <v>296</v>
-      </c>
-      <c r="O300" t="s">
-        <v>290</v>
-      </c>
-      <c r="P300" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q300" t="s">
+      <c r="D300" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P300" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q300" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R300" s="2"/>
+      <c r="S300" s="2"/>
+      <c r="T300" s="2"/>
+      <c r="U300" s="2"/>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" t="s">
+      <c r="A301" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D301" t="s">
-        <v>22</v>
-      </c>
-      <c r="E301">
-        <v>270</v>
-      </c>
-      <c r="F301">
-        <v>400</v>
-      </c>
-      <c r="G301">
-        <v>400</v>
-      </c>
-      <c r="L301" t="s">
-        <v>301</v>
-      </c>
-      <c r="M301" t="s">
-        <v>200</v>
-      </c>
-      <c r="N301" t="s">
-        <v>296</v>
-      </c>
-      <c r="O301" t="s">
-        <v>290</v>
-      </c>
-      <c r="P301" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q301" t="s">
+      <c r="D301" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P301" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q301" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R301" s="2"/>
+      <c r="S301" s="2"/>
+      <c r="T301" s="2"/>
+      <c r="U301" s="2"/>
     </row>
     <row r="302" spans="1:21">
       <c r="A302" t="s">
@@ -12970,7 +13044,7 @@
         <v>297</v>
       </c>
       <c r="C302" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D302" t="s">
         <v>22</v>
@@ -12991,7 +13065,7 @@
         <v>35</v>
       </c>
       <c r="M302" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N302" t="s">
         <v>300</v>
@@ -13000,7 +13074,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q302" t="s">
         <v>304</v>
@@ -13014,7 +13088,7 @@
         <v>213</v>
       </c>
       <c r="C303" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D303" t="s">
         <v>22</v>
@@ -13032,7 +13106,7 @@
         <v>301</v>
       </c>
       <c r="M303" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N303" t="s">
         <v>300</v>
@@ -13041,7 +13115,7 @@
         <v>290</v>
       </c>
       <c r="P303" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q303" t="s">
         <v>304</v>
@@ -13055,7 +13129,7 @@
         <v>293</v>
       </c>
       <c r="C304" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D304" t="s">
         <v>22</v>
@@ -13073,7 +13147,7 @@
         <v>301</v>
       </c>
       <c r="M304" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N304" t="s">
         <v>300</v>
@@ -13082,219 +13156,266 @@
         <v>290</v>
       </c>
       <c r="P304" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q304" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:21">
-      <c r="A305" t="s">
+      <c r="A305" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C305" t="s">
-        <v>363</v>
-      </c>
-      <c r="D305" t="s">
-        <v>22</v>
-      </c>
-      <c r="E305">
-        <v>350</v>
-      </c>
-      <c r="F305">
-        <v>500</v>
-      </c>
-      <c r="G305">
-        <v>500</v>
-      </c>
-      <c r="K305" t="s">
-        <v>164</v>
-      </c>
-      <c r="L305" t="s">
-        <v>35</v>
-      </c>
-      <c r="M305" t="s">
-        <v>364</v>
-      </c>
-      <c r="N305" t="s">
-        <v>300</v>
-      </c>
-      <c r="O305" t="s">
-        <v>290</v>
-      </c>
-      <c r="P305" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q305" t="s">
+      <c r="C305" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P305" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q305" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R305" s="2"/>
+      <c r="S305" s="2"/>
+      <c r="T305" s="2"/>
+      <c r="U305" s="2"/>
     </row>
     <row r="306" spans="1:21">
-      <c r="A306" t="s">
+      <c r="A306" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C306" t="s">
-        <v>363</v>
-      </c>
-      <c r="D306" t="s">
-        <v>22</v>
-      </c>
-      <c r="E306">
-        <v>350</v>
-      </c>
-      <c r="F306">
-        <v>500</v>
-      </c>
-      <c r="G306">
-        <v>500</v>
-      </c>
-      <c r="L306" t="s">
-        <v>301</v>
-      </c>
-      <c r="M306" t="s">
-        <v>364</v>
-      </c>
-      <c r="N306" t="s">
-        <v>300</v>
-      </c>
-      <c r="O306" t="s">
-        <v>290</v>
-      </c>
-      <c r="P306" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q306" t="s">
+      <c r="C306" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P306" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q306" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R306" s="2"/>
+      <c r="S306" s="2"/>
+      <c r="T306" s="2"/>
+      <c r="U306" s="2"/>
     </row>
     <row r="307" spans="1:21">
-      <c r="A307" t="s">
+      <c r="A307" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C307" t="s">
-        <v>363</v>
-      </c>
-      <c r="D307" t="s">
-        <v>22</v>
-      </c>
-      <c r="E307">
-        <v>470</v>
-      </c>
-      <c r="F307">
-        <v>650</v>
-      </c>
-      <c r="G307">
-        <v>650</v>
-      </c>
-      <c r="L307" t="s">
-        <v>301</v>
-      </c>
-      <c r="M307" t="s">
-        <v>364</v>
-      </c>
-      <c r="N307" t="s">
-        <v>300</v>
-      </c>
-      <c r="O307" t="s">
-        <v>290</v>
-      </c>
-      <c r="P307" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q307" t="s">
+      <c r="C307" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P307" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q307" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R307" s="2"/>
+      <c r="S307" s="2"/>
+      <c r="T307" s="2"/>
+      <c r="U307" s="2"/>
     </row>
     <row r="308" spans="1:21">
-      <c r="A308" t="s">
+      <c r="A308" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C308" t="s">
-        <v>365</v>
-      </c>
-      <c r="D308" t="s">
-        <v>22</v>
-      </c>
-      <c r="E308">
-        <v>200</v>
-      </c>
-      <c r="F308">
-        <v>300</v>
-      </c>
-      <c r="G308">
-        <v>300</v>
-      </c>
-      <c r="L308" t="s">
-        <v>287</v>
-      </c>
-      <c r="M308" t="s">
-        <v>194</v>
-      </c>
-      <c r="N308" t="s">
-        <v>296</v>
-      </c>
-      <c r="O308" t="s">
-        <v>290</v>
-      </c>
-      <c r="P308" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q308" t="s">
+      <c r="C308" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P308" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q308" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R308" s="2"/>
+      <c r="S308" s="2"/>
+      <c r="T308" s="2"/>
+      <c r="U308" s="2"/>
     </row>
     <row r="309" spans="1:21">
-      <c r="A309" t="s">
+      <c r="A309" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C309" t="s">
-        <v>365</v>
-      </c>
-      <c r="D309" t="s">
-        <v>22</v>
-      </c>
-      <c r="E309">
-        <v>320</v>
-      </c>
-      <c r="F309">
-        <v>450</v>
-      </c>
-      <c r="G309">
-        <v>450</v>
-      </c>
-      <c r="L309" t="s">
-        <v>287</v>
-      </c>
-      <c r="M309" t="s">
-        <v>194</v>
-      </c>
-      <c r="N309" t="s">
-        <v>296</v>
-      </c>
-      <c r="O309" t="s">
-        <v>290</v>
-      </c>
-      <c r="P309" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q309" t="s">
+      <c r="C309" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P309" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q309" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R309" s="2"/>
+      <c r="S309" s="2"/>
+      <c r="T309" s="2"/>
+      <c r="U309" s="2"/>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" t="s">
@@ -13304,7 +13425,7 @@
         <v>213</v>
       </c>
       <c r="C310" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D310" t="s">
         <v>22</v>
@@ -13319,10 +13440,10 @@
         <v>300</v>
       </c>
       <c r="L310" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M310" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N310" t="s">
         <v>296</v>
@@ -13331,7 +13452,7 @@
         <v>290</v>
       </c>
       <c r="P310" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q310" t="s">
         <v>336</v>
@@ -13345,7 +13466,7 @@
         <v>293</v>
       </c>
       <c r="C311" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D311" t="s">
         <v>22</v>
@@ -13360,10 +13481,10 @@
         <v>450</v>
       </c>
       <c r="L311" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M311" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N311" t="s">
         <v>296</v>
@@ -13372,7 +13493,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q311" t="s">
         <v>336</v>
@@ -13386,7 +13507,7 @@
         <v>297</v>
       </c>
       <c r="C312" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D312" t="s">
         <v>22</v>
@@ -13407,7 +13528,7 @@
         <v>35</v>
       </c>
       <c r="M312" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N312" t="s">
         <v>300</v>
@@ -13416,7 +13537,7 @@
         <v>290</v>
       </c>
       <c r="P312" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q312" t="s">
         <v>336</v>
@@ -13430,7 +13551,7 @@
         <v>213</v>
       </c>
       <c r="C313" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D313" t="s">
         <v>22</v>
@@ -13448,7 +13569,7 @@
         <v>301</v>
       </c>
       <c r="M313" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N313" t="s">
         <v>300</v>
@@ -13457,7 +13578,7 @@
         <v>290</v>
       </c>
       <c r="P313" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q313" t="s">
         <v>336</v>
@@ -13471,7 +13592,7 @@
         <v>293</v>
       </c>
       <c r="C314" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D314" t="s">
         <v>22</v>
@@ -13489,7 +13610,7 @@
         <v>301</v>
       </c>
       <c r="M314" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N314" t="s">
         <v>300</v>
@@ -13498,7 +13619,7 @@
         <v>290</v>
       </c>
       <c r="P314" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q314" t="s">
         <v>336</v>
@@ -13512,7 +13633,7 @@
         <v>213</v>
       </c>
       <c r="C315" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D315" t="s">
         <v>22</v>
@@ -13527,19 +13648,19 @@
         <v>900</v>
       </c>
       <c r="L315" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M315" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N315" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O315" t="s">
         <v>290</v>
       </c>
       <c r="P315" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q315" t="s">
         <v>336</v>
@@ -13553,7 +13674,7 @@
         <v>293</v>
       </c>
       <c r="C316" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D316" t="s">
         <v>22</v>
@@ -13568,19 +13689,19 @@
         <v>1050</v>
       </c>
       <c r="L316" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M316" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N316" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O316" t="s">
         <v>290</v>
       </c>
       <c r="P316" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q316" t="s">
         <v>336</v>
@@ -13594,7 +13715,7 @@
         <v>297</v>
       </c>
       <c r="C317" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D317" t="s">
         <v>22</v>
@@ -13624,10 +13745,10 @@
         <v>290</v>
       </c>
       <c r="P317" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q317" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="318" spans="1:21">
@@ -13638,7 +13759,7 @@
         <v>213</v>
       </c>
       <c r="C318" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D318" t="s">
         <v>22</v>
@@ -13665,10 +13786,10 @@
         <v>290</v>
       </c>
       <c r="P318" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q318" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="319" spans="1:21">
@@ -13679,7 +13800,7 @@
         <v>293</v>
       </c>
       <c r="C319" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D319" t="s">
         <v>22</v>
@@ -13706,10 +13827,10 @@
         <v>290</v>
       </c>
       <c r="P319" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q319" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="320" spans="1:21">
@@ -13720,7 +13841,7 @@
         <v>297</v>
       </c>
       <c r="C320" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D320" t="s">
         <v>22</v>
@@ -13741,7 +13862,7 @@
         <v>35</v>
       </c>
       <c r="M320" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N320" t="s">
         <v>300</v>
@@ -13750,7 +13871,7 @@
         <v>290</v>
       </c>
       <c r="P320" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q320" t="s">
         <v>336</v>
@@ -13764,7 +13885,7 @@
         <v>213</v>
       </c>
       <c r="C321" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D321" t="s">
         <v>22</v>
@@ -13782,7 +13903,7 @@
         <v>301</v>
       </c>
       <c r="M321" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N321" t="s">
         <v>300</v>
@@ -13791,7 +13912,7 @@
         <v>290</v>
       </c>
       <c r="P321" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q321" t="s">
         <v>336</v>
@@ -13805,7 +13926,7 @@
         <v>293</v>
       </c>
       <c r="C322" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D322" t="s">
         <v>22</v>
@@ -13823,7 +13944,7 @@
         <v>301</v>
       </c>
       <c r="M322" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N322" t="s">
         <v>300</v>
@@ -13832,7 +13953,7 @@
         <v>290</v>
       </c>
       <c r="P322" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q322" t="s">
         <v>336</v>
@@ -13846,7 +13967,7 @@
         <v>297</v>
       </c>
       <c r="C323" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D323" t="s">
         <v>22</v>
@@ -13867,7 +13988,7 @@
         <v>35</v>
       </c>
       <c r="M323" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N323" t="s">
         <v>300</v>
@@ -13876,10 +13997,10 @@
         <v>290</v>
       </c>
       <c r="P323" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q323" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="324" spans="1:21">
@@ -13890,7 +14011,7 @@
         <v>213</v>
       </c>
       <c r="C324" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D324" t="s">
         <v>22</v>
@@ -13908,7 +14029,7 @@
         <v>301</v>
       </c>
       <c r="M324" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N324" t="s">
         <v>300</v>
@@ -13917,10 +14038,10 @@
         <v>290</v>
       </c>
       <c r="P324" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q324" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="325" spans="1:21">
@@ -13931,7 +14052,7 @@
         <v>293</v>
       </c>
       <c r="C325" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D325" t="s">
         <v>22</v>
@@ -13949,7 +14070,7 @@
         <v>301</v>
       </c>
       <c r="M325" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N325" t="s">
         <v>300</v>
@@ -13958,10 +14079,10 @@
         <v>290</v>
       </c>
       <c r="P325" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q325" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="326" spans="1:21">
@@ -13972,7 +14093,7 @@
         <v>213</v>
       </c>
       <c r="C326" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D326" t="s">
         <v>22</v>
@@ -13987,10 +14108,10 @@
         <v>900</v>
       </c>
       <c r="L326" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M326" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N326" t="s">
         <v>296</v>
@@ -13999,10 +14120,10 @@
         <v>290</v>
       </c>
       <c r="P326" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q326" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="327" spans="1:21">
@@ -14013,7 +14134,7 @@
         <v>293</v>
       </c>
       <c r="C327" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D327" t="s">
         <v>22</v>
@@ -14028,10 +14149,10 @@
         <v>1050</v>
       </c>
       <c r="L327" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M327" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N327" t="s">
         <v>296</v>
@@ -14040,943 +14161,1133 @@
         <v>290</v>
       </c>
       <c r="P327" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q327" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21">
+      <c r="A328" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+      <c r="J328" s="2"/>
+      <c r="K328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P328" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q328" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R328" s="2"/>
+      <c r="S328" s="2"/>
+      <c r="T328" s="2"/>
+      <c r="U328" s="2"/>
+    </row>
+    <row r="329" spans="1:21">
+      <c r="A329" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H329" s="2"/>
+      <c r="I329" s="2"/>
+      <c r="J329" s="2"/>
+      <c r="K329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P329" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q329" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R329" s="2"/>
+      <c r="S329" s="2"/>
+      <c r="T329" s="2"/>
+      <c r="U329" s="2"/>
+    </row>
+    <row r="330" spans="1:21">
+      <c r="A330" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
+      <c r="J330" s="2"/>
+      <c r="K330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P330" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q330" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R330" s="2"/>
+      <c r="S330" s="2"/>
+      <c r="T330" s="2"/>
+      <c r="U330" s="2"/>
+    </row>
+    <row r="331" spans="1:21">
+      <c r="A331" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="328" spans="1:21">
-      <c r="A328" t="s">
+      <c r="D331" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
+      <c r="J331" s="2"/>
+      <c r="K331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P331" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q331" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R331" s="2"/>
+      <c r="S331" s="2"/>
+      <c r="T331" s="2"/>
+      <c r="U331" s="2"/>
+    </row>
+    <row r="332" spans="1:21">
+      <c r="A332" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B332" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H332" s="2"/>
+      <c r="I332" s="2"/>
+      <c r="J332" s="2"/>
+      <c r="K332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P332" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q332" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R332" s="2"/>
+      <c r="S332" s="2"/>
+      <c r="T332" s="2"/>
+      <c r="U332" s="2"/>
+    </row>
+    <row r="333" spans="1:21">
+      <c r="A333" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="K333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P333" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q333" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R333" s="2"/>
+      <c r="S333" s="2"/>
+      <c r="T333" s="2"/>
+      <c r="U333" s="2"/>
+    </row>
+    <row r="334" spans="1:21">
+      <c r="A334" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C334" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+      <c r="J334" s="2"/>
+      <c r="K334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P334" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q334" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R334" s="2"/>
+      <c r="S334" s="2"/>
+      <c r="T334" s="2"/>
+      <c r="U334" s="2"/>
+    </row>
+    <row r="335" spans="1:21">
+      <c r="A335" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+      <c r="J335" s="2"/>
+      <c r="K335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P335" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q335" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R335" s="2"/>
+      <c r="S335" s="2"/>
+      <c r="T335" s="2"/>
+      <c r="U335" s="2"/>
+    </row>
+    <row r="336" spans="1:21">
+      <c r="A336" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+      <c r="J336" s="2"/>
+      <c r="K336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P336" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q336" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R336" s="2"/>
+      <c r="S336" s="2"/>
+      <c r="T336" s="2"/>
+      <c r="U336" s="2"/>
+    </row>
+    <row r="337" spans="1:21">
+      <c r="A337" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D328" t="s">
-        <v>22</v>
-      </c>
-      <c r="E328">
-        <v>550</v>
-      </c>
-      <c r="F328">
-        <v>1000</v>
-      </c>
-      <c r="G328">
-        <v>1000</v>
-      </c>
-      <c r="K328" t="s">
-        <v>23</v>
-      </c>
-      <c r="L328" t="s">
-        <v>37</v>
-      </c>
-      <c r="M328" t="s">
+      <c r="D337" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H337" s="2"/>
+      <c r="I337" s="2"/>
+      <c r="J337" s="2"/>
+      <c r="K337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P337" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q337" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R337" s="2"/>
+      <c r="S337" s="2"/>
+      <c r="T337" s="2"/>
+      <c r="U337" s="2"/>
+    </row>
+    <row r="338" spans="1:21">
+      <c r="A338" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P338" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q338" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R338" s="2"/>
+      <c r="S338" s="2"/>
+      <c r="T338" s="2"/>
+      <c r="U338" s="2"/>
+    </row>
+    <row r="339" spans="1:21">
+      <c r="A339" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
+      <c r="J339" s="2"/>
+      <c r="K339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P339" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q339" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R339" s="2"/>
+      <c r="S339" s="2"/>
+      <c r="T339" s="2"/>
+      <c r="U339" s="2"/>
+    </row>
+    <row r="340" spans="1:21">
+      <c r="A340" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="N328" t="s">
-        <v>296</v>
-      </c>
-      <c r="O328" t="s">
-        <v>290</v>
-      </c>
-      <c r="P328" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q328" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="329" spans="1:21">
-      <c r="A329" t="s">
+      <c r="D340" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+      <c r="J340" s="2"/>
+      <c r="K340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P340" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q340" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R340" s="2"/>
+      <c r="S340" s="2"/>
+      <c r="T340" s="2"/>
+      <c r="U340" s="2"/>
+    </row>
+    <row r="341" spans="1:21">
+      <c r="A341" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B341" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C329" t="s">
-        <v>382</v>
-      </c>
-      <c r="D329" t="s">
-        <v>22</v>
-      </c>
-      <c r="E329">
-        <v>550</v>
-      </c>
-      <c r="F329">
-        <v>1000</v>
-      </c>
-      <c r="G329">
-        <v>1000</v>
-      </c>
-      <c r="L329" t="s">
-        <v>367</v>
-      </c>
-      <c r="M329" t="s">
+      <c r="C341" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="N329" t="s">
-        <v>296</v>
-      </c>
-      <c r="O329" t="s">
-        <v>290</v>
-      </c>
-      <c r="P329" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q329" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="330" spans="1:21">
-      <c r="A330" t="s">
+      <c r="D341" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P341" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q341" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R341" s="2"/>
+      <c r="S341" s="2"/>
+      <c r="T341" s="2"/>
+      <c r="U341" s="2"/>
+    </row>
+    <row r="342" spans="1:21">
+      <c r="A342" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B342" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C330" t="s">
-        <v>382</v>
-      </c>
-      <c r="D330" t="s">
-        <v>22</v>
-      </c>
-      <c r="E330">
-        <v>670</v>
-      </c>
-      <c r="F330">
-        <v>1150</v>
-      </c>
-      <c r="G330">
-        <v>1150</v>
-      </c>
-      <c r="L330" t="s">
-        <v>367</v>
-      </c>
-      <c r="M330" t="s">
+      <c r="C342" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="N330" t="s">
-        <v>296</v>
-      </c>
-      <c r="O330" t="s">
-        <v>290</v>
-      </c>
-      <c r="P330" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q330" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="331" spans="1:21">
-      <c r="A331" t="s">
+      <c r="D342" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+      <c r="J342" s="2"/>
+      <c r="K342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P342" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q342" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R342" s="2"/>
+      <c r="S342" s="2"/>
+      <c r="T342" s="2"/>
+      <c r="U342" s="2"/>
+    </row>
+    <row r="343" spans="1:21">
+      <c r="A343" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B343" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C343" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D331" t="s">
-        <v>22</v>
-      </c>
-      <c r="E331">
-        <v>750</v>
-      </c>
-      <c r="F331">
-        <v>1300</v>
-      </c>
-      <c r="G331">
-        <v>1300</v>
-      </c>
-      <c r="K331" t="s">
-        <v>164</v>
-      </c>
-      <c r="L331" t="s">
-        <v>35</v>
-      </c>
-      <c r="M331" t="s">
-        <v>379</v>
-      </c>
-      <c r="N331" t="s">
-        <v>300</v>
-      </c>
-      <c r="O331" t="s">
-        <v>290</v>
-      </c>
-      <c r="P331" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q331" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="332" spans="1:21">
-      <c r="A332" t="s">
+      <c r="D343" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+      <c r="J343" s="2"/>
+      <c r="K343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P343" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q343" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R343" s="2"/>
+      <c r="S343" s="2"/>
+      <c r="T343" s="2"/>
+      <c r="U343" s="2"/>
+    </row>
+    <row r="344" spans="1:21">
+      <c r="A344" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B344" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C344" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D332" t="s">
-        <v>22</v>
-      </c>
-      <c r="E332">
-        <v>750</v>
-      </c>
-      <c r="F332">
-        <v>1300</v>
-      </c>
-      <c r="G332">
-        <v>1300</v>
-      </c>
-      <c r="L332" t="s">
-        <v>301</v>
-      </c>
-      <c r="M332" t="s">
-        <v>379</v>
-      </c>
-      <c r="N332" t="s">
-        <v>300</v>
-      </c>
-      <c r="O332" t="s">
-        <v>290</v>
-      </c>
-      <c r="P332" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q332" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="333" spans="1:21">
-      <c r="A333" t="s">
+      <c r="D344" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
+      <c r="J344" s="2"/>
+      <c r="K344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P344" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q344" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R344" s="2"/>
+      <c r="S344" s="2"/>
+      <c r="T344" s="2"/>
+      <c r="U344" s="2"/>
+    </row>
+    <row r="345" spans="1:21">
+      <c r="A345" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B345" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C345" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D333" t="s">
-        <v>22</v>
-      </c>
-      <c r="E333">
-        <v>870</v>
-      </c>
-      <c r="F333">
-        <v>1450</v>
-      </c>
-      <c r="G333">
-        <v>1450</v>
-      </c>
-      <c r="L333" t="s">
-        <v>301</v>
-      </c>
-      <c r="M333" t="s">
-        <v>379</v>
-      </c>
-      <c r="N333" t="s">
-        <v>300</v>
-      </c>
-      <c r="O333" t="s">
-        <v>290</v>
-      </c>
-      <c r="P333" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q333" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="334" spans="1:21">
-      <c r="A334" t="s">
+      <c r="D345" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P345" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q345" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R345" s="2"/>
+      <c r="S345" s="2"/>
+      <c r="T345" s="2"/>
+      <c r="U345" s="2"/>
+    </row>
+    <row r="346" spans="1:21">
+      <c r="A346" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B346" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C346" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D334" t="s">
-        <v>22</v>
-      </c>
-      <c r="E334">
-        <v>750</v>
-      </c>
-      <c r="F334">
-        <v>1300</v>
-      </c>
-      <c r="G334">
-        <v>1300</v>
-      </c>
-      <c r="K334" t="s">
-        <v>164</v>
-      </c>
-      <c r="L334" t="s">
-        <v>35</v>
-      </c>
-      <c r="M334" t="s">
-        <v>379</v>
-      </c>
-      <c r="N334" t="s">
-        <v>300</v>
-      </c>
-      <c r="O334" t="s">
-        <v>290</v>
-      </c>
-      <c r="P334" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q334" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="335" spans="1:21">
-      <c r="A335" t="s">
+      <c r="D346" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H346" s="2"/>
+      <c r="I346" s="2"/>
+      <c r="J346" s="2"/>
+      <c r="K346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P346" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q346" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R346" s="2"/>
+      <c r="S346" s="2"/>
+      <c r="T346" s="2"/>
+      <c r="U346" s="2"/>
+    </row>
+    <row r="347" spans="1:21">
+      <c r="A347" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B335" t="s">
-        <v>213</v>
-      </c>
-      <c r="C335" t="s">
-        <v>385</v>
-      </c>
-      <c r="D335" t="s">
-        <v>22</v>
-      </c>
-      <c r="E335">
-        <v>750</v>
-      </c>
-      <c r="F335">
-        <v>1300</v>
-      </c>
-      <c r="G335">
-        <v>1300</v>
-      </c>
-      <c r="L335" t="s">
-        <v>301</v>
-      </c>
-      <c r="M335" t="s">
-        <v>379</v>
-      </c>
-      <c r="N335" t="s">
-        <v>300</v>
-      </c>
-      <c r="O335" t="s">
-        <v>290</v>
-      </c>
-      <c r="P335" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q335" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="336" spans="1:21">
-      <c r="A336" t="s">
+      <c r="B347" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H347" s="2"/>
+      <c r="I347" s="2"/>
+      <c r="J347" s="2"/>
+      <c r="K347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P347" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q347" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R347" s="2"/>
+      <c r="S347" s="2"/>
+      <c r="T347" s="2"/>
+      <c r="U347" s="2"/>
+    </row>
+    <row r="348" spans="1:21">
+      <c r="A348" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B336" t="s">
-        <v>293</v>
-      </c>
-      <c r="C336" t="s">
-        <v>385</v>
-      </c>
-      <c r="D336" t="s">
-        <v>22</v>
-      </c>
-      <c r="E336">
-        <v>870</v>
-      </c>
-      <c r="F336">
-        <v>1450</v>
-      </c>
-      <c r="G336">
-        <v>1450</v>
-      </c>
-      <c r="L336" t="s">
-        <v>301</v>
-      </c>
-      <c r="M336" t="s">
-        <v>379</v>
-      </c>
-      <c r="N336" t="s">
-        <v>300</v>
-      </c>
-      <c r="O336" t="s">
-        <v>290</v>
-      </c>
-      <c r="P336" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q336" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="337" spans="1:21">
-      <c r="A337" t="s">
+      <c r="B348" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
+      <c r="J348" s="2"/>
+      <c r="K348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P348" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q348" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="R348" s="2"/>
+      <c r="S348" s="2"/>
+      <c r="T348" s="2"/>
+      <c r="U348" s="2"/>
+    </row>
+    <row r="349" spans="1:21">
+      <c r="A349" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B349" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C337" t="s">
-        <v>386</v>
-      </c>
-      <c r="D337" t="s">
-        <v>22</v>
-      </c>
-      <c r="E337">
-        <v>750</v>
-      </c>
-      <c r="F337">
-        <v>1300</v>
-      </c>
-      <c r="G337">
-        <v>1300</v>
-      </c>
-      <c r="K337" t="s">
-        <v>164</v>
-      </c>
-      <c r="L337" t="s">
-        <v>35</v>
-      </c>
-      <c r="M337" t="s">
-        <v>379</v>
-      </c>
-      <c r="N337" t="s">
-        <v>300</v>
-      </c>
-      <c r="O337" t="s">
-        <v>290</v>
-      </c>
-      <c r="P337" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q337" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="338" spans="1:21">
-      <c r="A338" t="s">
-        <v>285</v>
-      </c>
-      <c r="B338" t="s">
-        <v>213</v>
-      </c>
-      <c r="C338" t="s">
-        <v>386</v>
-      </c>
-      <c r="D338" t="s">
-        <v>22</v>
-      </c>
-      <c r="E338">
-        <v>750</v>
-      </c>
-      <c r="F338">
-        <v>1300</v>
-      </c>
-      <c r="G338">
-        <v>1300</v>
-      </c>
-      <c r="L338" t="s">
-        <v>301</v>
-      </c>
-      <c r="M338" t="s">
-        <v>379</v>
-      </c>
-      <c r="N338" t="s">
-        <v>300</v>
-      </c>
-      <c r="O338" t="s">
-        <v>290</v>
-      </c>
-      <c r="P338" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q338" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="339" spans="1:21">
-      <c r="A339" t="s">
-        <v>285</v>
-      </c>
-      <c r="B339" t="s">
-        <v>293</v>
-      </c>
-      <c r="C339" t="s">
-        <v>386</v>
-      </c>
-      <c r="D339" t="s">
-        <v>22</v>
-      </c>
-      <c r="E339">
-        <v>870</v>
-      </c>
-      <c r="F339">
-        <v>1450</v>
-      </c>
-      <c r="G339">
-        <v>1450</v>
-      </c>
-      <c r="L339" t="s">
-        <v>301</v>
-      </c>
-      <c r="M339" t="s">
-        <v>379</v>
-      </c>
-      <c r="N339" t="s">
-        <v>300</v>
-      </c>
-      <c r="O339" t="s">
-        <v>290</v>
-      </c>
-      <c r="P339" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q339" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="340" spans="1:21">
-      <c r="A340" t="s">
-        <v>285</v>
-      </c>
-      <c r="B340" t="s">
-        <v>297</v>
-      </c>
-      <c r="C340" t="s">
+      <c r="C349" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H349" s="2"/>
+      <c r="I349" s="2"/>
+      <c r="J349" s="2"/>
+      <c r="K349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P349" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q349" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D340" t="s">
-        <v>22</v>
-      </c>
-      <c r="E340">
-        <v>750</v>
-      </c>
-      <c r="F340">
-        <v>1300</v>
-      </c>
-      <c r="G340">
-        <v>1300</v>
-      </c>
-      <c r="K340" t="s">
-        <v>164</v>
-      </c>
-      <c r="L340" t="s">
-        <v>35</v>
-      </c>
-      <c r="M340" t="s">
-        <v>379</v>
-      </c>
-      <c r="N340" t="s">
-        <v>300</v>
-      </c>
-      <c r="O340" t="s">
-        <v>290</v>
-      </c>
-      <c r="P340" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q340" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="341" spans="1:21">
-      <c r="A341" t="s">
-        <v>285</v>
-      </c>
-      <c r="B341" t="s">
-        <v>213</v>
-      </c>
-      <c r="C341" t="s">
-        <v>387</v>
-      </c>
-      <c r="D341" t="s">
-        <v>22</v>
-      </c>
-      <c r="E341">
-        <v>750</v>
-      </c>
-      <c r="F341">
-        <v>1300</v>
-      </c>
-      <c r="G341">
-        <v>1300</v>
-      </c>
-      <c r="L341" t="s">
-        <v>301</v>
-      </c>
-      <c r="M341" t="s">
-        <v>379</v>
-      </c>
-      <c r="N341" t="s">
-        <v>300</v>
-      </c>
-      <c r="O341" t="s">
-        <v>290</v>
-      </c>
-      <c r="P341" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q341" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="342" spans="1:21">
-      <c r="A342" t="s">
-        <v>285</v>
-      </c>
-      <c r="B342" t="s">
-        <v>293</v>
-      </c>
-      <c r="C342" t="s">
-        <v>387</v>
-      </c>
-      <c r="D342" t="s">
-        <v>22</v>
-      </c>
-      <c r="E342">
-        <v>870</v>
-      </c>
-      <c r="F342">
-        <v>1450</v>
-      </c>
-      <c r="G342">
-        <v>1450</v>
-      </c>
-      <c r="L342" t="s">
-        <v>301</v>
-      </c>
-      <c r="M342" t="s">
-        <v>379</v>
-      </c>
-      <c r="N342" t="s">
-        <v>300</v>
-      </c>
-      <c r="O342" t="s">
-        <v>290</v>
-      </c>
-      <c r="P342" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q342" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="343" spans="1:21">
-      <c r="A343" t="s">
-        <v>285</v>
-      </c>
-      <c r="B343" t="s">
-        <v>297</v>
-      </c>
-      <c r="C343" t="s">
-        <v>388</v>
-      </c>
-      <c r="D343" t="s">
-        <v>22</v>
-      </c>
-      <c r="E343">
-        <v>750</v>
-      </c>
-      <c r="F343">
-        <v>1300</v>
-      </c>
-      <c r="G343">
-        <v>1300</v>
-      </c>
-      <c r="K343" t="s">
-        <v>164</v>
-      </c>
-      <c r="L343" t="s">
-        <v>35</v>
-      </c>
-      <c r="M343" t="s">
-        <v>379</v>
-      </c>
-      <c r="N343" t="s">
-        <v>300</v>
-      </c>
-      <c r="O343" t="s">
-        <v>290</v>
-      </c>
-      <c r="P343" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q343" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="344" spans="1:21">
-      <c r="A344" t="s">
-        <v>285</v>
-      </c>
-      <c r="B344" t="s">
-        <v>213</v>
-      </c>
-      <c r="C344" t="s">
-        <v>388</v>
-      </c>
-      <c r="D344" t="s">
-        <v>22</v>
-      </c>
-      <c r="E344">
-        <v>750</v>
-      </c>
-      <c r="F344">
-        <v>1300</v>
-      </c>
-      <c r="G344">
-        <v>1300</v>
-      </c>
-      <c r="L344" t="s">
-        <v>301</v>
-      </c>
-      <c r="M344" t="s">
-        <v>379</v>
-      </c>
-      <c r="N344" t="s">
-        <v>300</v>
-      </c>
-      <c r="O344" t="s">
-        <v>290</v>
-      </c>
-      <c r="P344" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q344" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="345" spans="1:21">
-      <c r="A345" t="s">
-        <v>285</v>
-      </c>
-      <c r="B345" t="s">
-        <v>293</v>
-      </c>
-      <c r="C345" t="s">
-        <v>388</v>
-      </c>
-      <c r="D345" t="s">
-        <v>22</v>
-      </c>
-      <c r="E345">
-        <v>870</v>
-      </c>
-      <c r="F345">
-        <v>1450</v>
-      </c>
-      <c r="G345">
-        <v>1450</v>
-      </c>
-      <c r="L345" t="s">
-        <v>301</v>
-      </c>
-      <c r="M345" t="s">
-        <v>379</v>
-      </c>
-      <c r="N345" t="s">
-        <v>300</v>
-      </c>
-      <c r="O345" t="s">
-        <v>290</v>
-      </c>
-      <c r="P345" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q345" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="346" spans="1:21">
-      <c r="A346" t="s">
-        <v>285</v>
-      </c>
-      <c r="B346" t="s">
-        <v>297</v>
-      </c>
-      <c r="C346" t="s">
-        <v>389</v>
-      </c>
-      <c r="D346" t="s">
-        <v>22</v>
-      </c>
-      <c r="E346">
-        <v>5</v>
-      </c>
-      <c r="F346">
-        <v>10</v>
-      </c>
-      <c r="G346">
-        <v>10</v>
-      </c>
-      <c r="K346" t="s">
-        <v>40</v>
-      </c>
-      <c r="L346" t="s">
-        <v>207</v>
-      </c>
-      <c r="M346" t="s">
-        <v>200</v>
-      </c>
-      <c r="N346" t="s">
-        <v>296</v>
-      </c>
-      <c r="O346" t="s">
-        <v>290</v>
-      </c>
-      <c r="P346" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q346" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="347" spans="1:21">
-      <c r="A347" t="s">
-        <v>285</v>
-      </c>
-      <c r="B347" t="s">
-        <v>297</v>
-      </c>
-      <c r="C347" t="s">
-        <v>390</v>
-      </c>
-      <c r="D347" t="s">
-        <v>22</v>
-      </c>
-      <c r="E347">
-        <v>100</v>
-      </c>
-      <c r="F347">
-        <v>200</v>
-      </c>
-      <c r="G347">
-        <v>200</v>
-      </c>
-      <c r="K347" t="s">
-        <v>23</v>
-      </c>
-      <c r="L347" t="s">
-        <v>37</v>
-      </c>
-      <c r="M347" t="s">
-        <v>194</v>
-      </c>
-      <c r="N347" t="s">
-        <v>296</v>
-      </c>
-      <c r="O347" t="s">
-        <v>290</v>
-      </c>
-      <c r="P347" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q347" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="348" spans="1:21">
-      <c r="A348" t="s">
-        <v>285</v>
-      </c>
-      <c r="B348" t="s">
-        <v>297</v>
-      </c>
-      <c r="C348" t="s">
-        <v>84</v>
-      </c>
-      <c r="D348" t="s">
-        <v>22</v>
-      </c>
-      <c r="E348">
-        <v>30</v>
-      </c>
-      <c r="F348">
-        <v>50</v>
-      </c>
-      <c r="G348">
-        <v>50</v>
-      </c>
-      <c r="K348" t="s">
-        <v>391</v>
-      </c>
-      <c r="L348" t="s">
-        <v>392</v>
-      </c>
-      <c r="M348" t="s">
-        <v>212</v>
-      </c>
-      <c r="N348" t="s">
-        <v>296</v>
-      </c>
-      <c r="O348" t="s">
-        <v>290</v>
-      </c>
-      <c r="P348" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q348" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="349" spans="1:21">
-      <c r="A349" t="s">
-        <v>285</v>
-      </c>
-      <c r="B349" t="s">
-        <v>297</v>
-      </c>
-      <c r="C349" t="s">
-        <v>394</v>
-      </c>
-      <c r="D349" t="s">
-        <v>22</v>
-      </c>
-      <c r="E349">
-        <v>30</v>
-      </c>
-      <c r="F349">
-        <v>50</v>
-      </c>
-      <c r="G349">
-        <v>50</v>
-      </c>
-      <c r="K349" t="s">
-        <v>391</v>
-      </c>
-      <c r="L349" t="s">
-        <v>392</v>
-      </c>
-      <c r="M349" t="s">
-        <v>395</v>
-      </c>
-      <c r="N349" t="s">
-        <v>296</v>
-      </c>
-      <c r="O349" t="s">
-        <v>290</v>
-      </c>
-      <c r="P349" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q349" t="s">
-        <v>393</v>
-      </c>
+      <c r="R349" s="2"/>
+      <c r="S349" s="2"/>
+      <c r="T349" s="2"/>
+      <c r="U349" s="2"/>
     </row>
     <row r="350" spans="1:21">
       <c r="A350" t="s">
@@ -14986,7 +15297,7 @@
         <v>297</v>
       </c>
       <c r="C350" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D350" t="s">
         <v>22</v>
@@ -15001,25 +15312,25 @@
         <v>400</v>
       </c>
       <c r="K350" t="s">
+        <v>390</v>
+      </c>
+      <c r="L350" t="s">
         <v>391</v>
       </c>
-      <c r="L350" t="s">
+      <c r="M350" t="s">
         <v>392</v>
       </c>
-      <c r="M350" t="s">
-        <v>397</v>
-      </c>
       <c r="N350" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O350" t="s">
         <v>290</v>
       </c>
       <c r="P350" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q350" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="351" spans="1:21">
@@ -15030,7 +15341,7 @@
         <v>297</v>
       </c>
       <c r="C351" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D351" t="s">
         <v>22</v>
@@ -15045,25 +15356,25 @@
         <v>500</v>
       </c>
       <c r="K351" t="s">
+        <v>390</v>
+      </c>
+      <c r="L351" t="s">
         <v>391</v>
       </c>
-      <c r="L351" t="s">
+      <c r="M351" t="s">
         <v>392</v>
       </c>
-      <c r="M351" t="s">
-        <v>397</v>
-      </c>
       <c r="N351" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O351" t="s">
         <v>290</v>
       </c>
       <c r="P351" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q351" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="352" spans="1:21">
@@ -15074,7 +15385,7 @@
         <v>297</v>
       </c>
       <c r="C352" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D352" t="s">
         <v>22</v>
@@ -15089,25 +15400,25 @@
         <v>700</v>
       </c>
       <c r="K352" t="s">
+        <v>390</v>
+      </c>
+      <c r="L352" t="s">
         <v>391</v>
       </c>
-      <c r="L352" t="s">
+      <c r="M352" t="s">
         <v>392</v>
       </c>
-      <c r="M352" t="s">
-        <v>397</v>
-      </c>
       <c r="N352" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O352" t="s">
         <v>290</v>
       </c>
       <c r="P352" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q352" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="353" spans="1:21">
@@ -15118,7 +15429,7 @@
         <v>297</v>
       </c>
       <c r="C353" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D353" t="s">
         <v>22</v>
@@ -15133,25 +15444,25 @@
         <v>480</v>
       </c>
       <c r="K353" t="s">
+        <v>390</v>
+      </c>
+      <c r="L353" t="s">
         <v>391</v>
       </c>
-      <c r="L353" t="s">
+      <c r="M353" t="s">
         <v>392</v>
       </c>
-      <c r="M353" t="s">
-        <v>397</v>
-      </c>
       <c r="N353" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O353" t="s">
         <v>290</v>
       </c>
       <c r="P353" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q353" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="354" spans="1:21">
@@ -15162,7 +15473,7 @@
         <v>297</v>
       </c>
       <c r="C354" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D354" t="s">
         <v>22</v>
@@ -15177,25 +15488,25 @@
         <v>300</v>
       </c>
       <c r="K354" t="s">
+        <v>390</v>
+      </c>
+      <c r="L354" t="s">
         <v>391</v>
       </c>
-      <c r="L354" t="s">
+      <c r="M354" t="s">
         <v>392</v>
       </c>
-      <c r="M354" t="s">
-        <v>397</v>
-      </c>
       <c r="N354" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O354" t="s">
         <v>290</v>
       </c>
       <c r="P354" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q354" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="355" spans="1:21">
@@ -15206,7 +15517,7 @@
         <v>297</v>
       </c>
       <c r="C355" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D355" t="s">
         <v>22</v>
@@ -15221,25 +15532,25 @@
         <v>300</v>
       </c>
       <c r="K355" t="s">
+        <v>390</v>
+      </c>
+      <c r="L355" t="s">
         <v>391</v>
       </c>
-      <c r="L355" t="s">
-        <v>392</v>
-      </c>
       <c r="M355" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N355" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O355" t="s">
         <v>290</v>
       </c>
       <c r="P355" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q355" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="356" spans="1:21">
@@ -15265,25 +15576,25 @@
         <v>300</v>
       </c>
       <c r="K356" t="s">
+        <v>390</v>
+      </c>
+      <c r="L356" t="s">
         <v>391</v>
       </c>
-      <c r="L356" t="s">
-        <v>392</v>
-      </c>
       <c r="M356" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N356" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O356" t="s">
         <v>290</v>
       </c>
       <c r="P356" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q356" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="357" spans="1:21">
@@ -15294,7 +15605,7 @@
         <v>297</v>
       </c>
       <c r="C357" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D357" t="s">
         <v>22</v>
@@ -15309,25 +15620,25 @@
         <v>300</v>
       </c>
       <c r="K357" t="s">
+        <v>390</v>
+      </c>
+      <c r="L357" t="s">
         <v>391</v>
       </c>
-      <c r="L357" t="s">
-        <v>392</v>
-      </c>
       <c r="M357" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N357" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O357" t="s">
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q357" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="358" spans="1:21">
@@ -15338,7 +15649,7 @@
         <v>297</v>
       </c>
       <c r="C358" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D358" t="s">
         <v>22</v>
@@ -15353,25 +15664,25 @@
         <v>500</v>
       </c>
       <c r="K358" t="s">
+        <v>390</v>
+      </c>
+      <c r="L358" t="s">
         <v>391</v>
       </c>
-      <c r="L358" t="s">
-        <v>392</v>
-      </c>
       <c r="M358" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N358" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O358" t="s">
         <v>290</v>
       </c>
       <c r="P358" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q358" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="359" spans="1:21">
@@ -15382,7 +15693,7 @@
         <v>297</v>
       </c>
       <c r="C359" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D359" t="s">
         <v>22</v>
@@ -15397,25 +15708,25 @@
         <v>300</v>
       </c>
       <c r="K359" t="s">
+        <v>390</v>
+      </c>
+      <c r="L359" t="s">
         <v>391</v>
       </c>
-      <c r="L359" t="s">
-        <v>392</v>
-      </c>
       <c r="M359" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N359" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O359" t="s">
         <v>290</v>
       </c>
       <c r="P359" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q359" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="360" spans="1:21">
@@ -15426,7 +15737,7 @@
         <v>297</v>
       </c>
       <c r="C360" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D360" t="s">
         <v>22</v>
@@ -15441,25 +15752,25 @@
         <v>300</v>
       </c>
       <c r="K360" t="s">
+        <v>390</v>
+      </c>
+      <c r="L360" t="s">
         <v>391</v>
       </c>
-      <c r="L360" t="s">
-        <v>392</v>
-      </c>
       <c r="M360" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N360" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O360" t="s">
         <v>290</v>
       </c>
       <c r="P360" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q360" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="361" spans="1:21">
@@ -15470,7 +15781,7 @@
         <v>297</v>
       </c>
       <c r="C361" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D361" t="s">
         <v>22</v>
@@ -15485,25 +15796,25 @@
         <v>300</v>
       </c>
       <c r="K361" t="s">
+        <v>390</v>
+      </c>
+      <c r="L361" t="s">
         <v>391</v>
       </c>
-      <c r="L361" t="s">
-        <v>392</v>
-      </c>
       <c r="M361" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N361" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O361" t="s">
         <v>290</v>
       </c>
       <c r="P361" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q361" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="362" spans="1:21">
@@ -15514,7 +15825,7 @@
         <v>297</v>
       </c>
       <c r="C362" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D362" t="s">
         <v>22</v>
@@ -15529,25 +15840,25 @@
         <v>700</v>
       </c>
       <c r="K362" t="s">
+        <v>390</v>
+      </c>
+      <c r="L362" t="s">
         <v>391</v>
       </c>
-      <c r="L362" t="s">
-        <v>392</v>
-      </c>
       <c r="M362" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N362" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O362" t="s">
         <v>290</v>
       </c>
       <c r="P362" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q362" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="363" spans="1:21">
@@ -15558,7 +15869,7 @@
         <v>297</v>
       </c>
       <c r="C363" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D363" t="s">
         <v>22</v>
@@ -15573,25 +15884,25 @@
         <v>300</v>
       </c>
       <c r="K363" t="s">
+        <v>390</v>
+      </c>
+      <c r="L363" t="s">
         <v>391</v>
       </c>
-      <c r="L363" t="s">
-        <v>392</v>
-      </c>
       <c r="M363" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N363" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O363" t="s">
         <v>290</v>
       </c>
       <c r="P363" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q363" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="364" spans="1:21">
@@ -15602,7 +15913,7 @@
         <v>297</v>
       </c>
       <c r="C364" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D364" t="s">
         <v>22</v>
@@ -15617,25 +15928,25 @@
         <v>300</v>
       </c>
       <c r="K364" t="s">
+        <v>390</v>
+      </c>
+      <c r="L364" t="s">
         <v>391</v>
       </c>
-      <c r="L364" t="s">
-        <v>392</v>
-      </c>
       <c r="M364" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N364" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O364" t="s">
         <v>290</v>
       </c>
       <c r="P364" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q364" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="365" spans="1:21">
@@ -15646,7 +15957,7 @@
         <v>297</v>
       </c>
       <c r="C365" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D365" t="s">
         <v>22</v>
@@ -15661,25 +15972,25 @@
         <v>300</v>
       </c>
       <c r="K365" t="s">
+        <v>390</v>
+      </c>
+      <c r="L365" t="s">
         <v>391</v>
       </c>
-      <c r="L365" t="s">
-        <v>392</v>
-      </c>
       <c r="M365" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N365" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O365" t="s">
         <v>290</v>
       </c>
       <c r="P365" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q365" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="366" spans="1:21">
@@ -15690,7 +16001,7 @@
         <v>297</v>
       </c>
       <c r="C366" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D366" t="s">
         <v>22</v>
@@ -15705,25 +16016,25 @@
         <v>300</v>
       </c>
       <c r="K366" t="s">
+        <v>390</v>
+      </c>
+      <c r="L366" t="s">
         <v>391</v>
       </c>
-      <c r="L366" t="s">
-        <v>392</v>
-      </c>
       <c r="M366" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N366" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O366" t="s">
         <v>290</v>
       </c>
       <c r="P366" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q366" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="367" spans="1:21">
@@ -15734,7 +16045,7 @@
         <v>297</v>
       </c>
       <c r="C367" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D367" t="s">
         <v>22</v>
@@ -15749,25 +16060,25 @@
         <v>300</v>
       </c>
       <c r="K367" t="s">
+        <v>390</v>
+      </c>
+      <c r="L367" t="s">
         <v>391</v>
       </c>
-      <c r="L367" t="s">
-        <v>392</v>
-      </c>
       <c r="M367" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N367" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O367" t="s">
         <v>290</v>
       </c>
       <c r="P367" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q367" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="368" spans="1:21">
@@ -15778,7 +16089,7 @@
         <v>297</v>
       </c>
       <c r="C368" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D368" t="s">
         <v>22</v>
@@ -15793,25 +16104,25 @@
         <v>450</v>
       </c>
       <c r="K368" t="s">
+        <v>390</v>
+      </c>
+      <c r="L368" t="s">
         <v>391</v>
       </c>
-      <c r="L368" t="s">
-        <v>392</v>
-      </c>
       <c r="M368" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="N368" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O368" t="s">
         <v>290</v>
       </c>
       <c r="P368" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q368" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="369" spans="1:21">
@@ -15837,7 +16148,7 @@
         <v>120</v>
       </c>
       <c r="L369" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M369" t="s">
         <v>313</v>
@@ -15849,10 +16160,10 @@
         <v>290</v>
       </c>
       <c r="P369" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q369" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="370" spans="1:21">
@@ -15878,7 +16189,7 @@
         <v>270</v>
       </c>
       <c r="L370" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M370" t="s">
         <v>313</v>
@@ -15890,10 +16201,10 @@
         <v>290</v>
       </c>
       <c r="P370" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q370" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="371" spans="1:21">
@@ -15904,7 +16215,7 @@
         <v>213</v>
       </c>
       <c r="C371" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D371" t="s">
         <v>22</v>
@@ -15919,10 +16230,10 @@
         <v>120</v>
       </c>
       <c r="L371" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M371" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N371" t="s">
         <v>296</v>
@@ -15931,10 +16242,10 @@
         <v>290</v>
       </c>
       <c r="P371" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q371" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="372" spans="1:21">
@@ -15945,7 +16256,7 @@
         <v>293</v>
       </c>
       <c r="C372" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D372" t="s">
         <v>22</v>
@@ -15960,10 +16271,10 @@
         <v>270</v>
       </c>
       <c r="L372" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M372" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N372" t="s">
         <v>296</v>
@@ -15972,10 +16283,10 @@
         <v>290</v>
       </c>
       <c r="P372" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q372" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="373" spans="1:21">
@@ -16001,7 +16312,7 @@
         <v>120</v>
       </c>
       <c r="L373" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M373" t="s">
         <v>218</v>
@@ -16013,10 +16324,10 @@
         <v>290</v>
       </c>
       <c r="P373" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q373" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="374" spans="1:21">
@@ -16042,7 +16353,7 @@
         <v>270</v>
       </c>
       <c r="L374" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M374" t="s">
         <v>218</v>
@@ -16054,10 +16365,10 @@
         <v>290</v>
       </c>
       <c r="P374" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q374" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="375" spans="1:21">
@@ -16086,7 +16397,7 @@
         <v>37</v>
       </c>
       <c r="M375" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N375" t="s">
         <v>296</v>
@@ -16095,10 +16406,10 @@
         <v>290</v>
       </c>
       <c r="P375" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q375" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="376" spans="1:21">
@@ -16136,10 +16447,10 @@
         <v>290</v>
       </c>
       <c r="P376" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q376" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="377" spans="1:21">
@@ -16168,7 +16479,7 @@
         <v>37</v>
       </c>
       <c r="M377" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="N377" t="s">
         <v>296</v>
@@ -16177,10 +16488,10 @@
         <v>290</v>
       </c>
       <c r="P377" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q377" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="378" spans="1:21">
@@ -16218,10 +16529,10 @@
         <v>290</v>
       </c>
       <c r="P378" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q378" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="379" spans="1:21">
@@ -16232,7 +16543,7 @@
         <v>297</v>
       </c>
       <c r="C379" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D379" t="s">
         <v>22</v>
@@ -16250,19 +16561,19 @@
         <v>37</v>
       </c>
       <c r="M379" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N379" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O379" t="s">
         <v>290</v>
       </c>
       <c r="P379" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q379" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="380" spans="1:21">
@@ -16273,7 +16584,7 @@
         <v>293</v>
       </c>
       <c r="C380" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D380" t="s">
         <v>22</v>
@@ -16294,16 +16605,16 @@
         <v>25</v>
       </c>
       <c r="N380" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O380" t="s">
         <v>290</v>
       </c>
       <c r="P380" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q380" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="381" spans="1:21">
@@ -16314,7 +16625,7 @@
         <v>297</v>
       </c>
       <c r="C381" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D381" t="s">
         <v>22</v>
@@ -16332,19 +16643,19 @@
         <v>37</v>
       </c>
       <c r="M381" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N381" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O381" t="s">
         <v>290</v>
       </c>
       <c r="P381" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q381" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="382" spans="1:21">
@@ -16355,7 +16666,7 @@
         <v>293</v>
       </c>
       <c r="C382" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D382" t="s">
         <v>22</v>
@@ -16376,16 +16687,16 @@
         <v>25</v>
       </c>
       <c r="N382" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O382" t="s">
         <v>290</v>
       </c>
       <c r="P382" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q382" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="383" spans="1:21">
@@ -16396,7 +16707,7 @@
         <v>297</v>
       </c>
       <c r="C383" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D383" t="s">
         <v>22</v>
@@ -16414,19 +16725,19 @@
         <v>37</v>
       </c>
       <c r="M383" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N383" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O383" t="s">
         <v>290</v>
       </c>
       <c r="P383" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q383" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="384" spans="1:21">
@@ -16437,7 +16748,7 @@
         <v>293</v>
       </c>
       <c r="C384" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D384" t="s">
         <v>22</v>
@@ -16458,16 +16769,16 @@
         <v>25</v>
       </c>
       <c r="N384" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O384" t="s">
         <v>290</v>
       </c>
       <c r="P384" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q384" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="385" spans="1:21">
@@ -16496,19 +16807,19 @@
         <v>37</v>
       </c>
       <c r="M385" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N385" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O385" t="s">
         <v>290</v>
       </c>
       <c r="P385" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q385" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="386" spans="1:21">
@@ -16540,16 +16851,16 @@
         <v>25</v>
       </c>
       <c r="N386" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O386" t="s">
         <v>290</v>
       </c>
       <c r="P386" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q386" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="387" spans="1:21">
@@ -16578,19 +16889,19 @@
         <v>37</v>
       </c>
       <c r="M387" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N387" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O387" t="s">
         <v>290</v>
       </c>
       <c r="P387" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q387" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="388" spans="1:21">
@@ -16622,16 +16933,16 @@
         <v>25</v>
       </c>
       <c r="N388" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O388" t="s">
         <v>290</v>
       </c>
       <c r="P388" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q388" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="389" spans="1:21">
@@ -16660,19 +16971,19 @@
         <v>37</v>
       </c>
       <c r="M389" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N389" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O389" t="s">
         <v>290</v>
       </c>
       <c r="P389" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q389" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="390" spans="1:21">
@@ -16704,16 +17015,16 @@
         <v>25</v>
       </c>
       <c r="N390" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O390" t="s">
         <v>290</v>
       </c>
       <c r="P390" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q390" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="391" spans="1:21">
@@ -16742,19 +17053,19 @@
         <v>37</v>
       </c>
       <c r="M391" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N391" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O391" t="s">
         <v>290</v>
       </c>
       <c r="P391" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q391" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="392" spans="1:21">
@@ -16786,16 +17097,16 @@
         <v>25</v>
       </c>
       <c r="N392" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O392" t="s">
         <v>290</v>
       </c>
       <c r="P392" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q392" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="393" spans="1:21">
@@ -16824,19 +17135,19 @@
         <v>37</v>
       </c>
       <c r="M393" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N393" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O393" t="s">
         <v>290</v>
       </c>
       <c r="P393" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q393" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="394" spans="1:21">
@@ -16868,16 +17179,16 @@
         <v>25</v>
       </c>
       <c r="N394" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O394" t="s">
         <v>290</v>
       </c>
       <c r="P394" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q394" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="395" spans="1:21">
@@ -16906,19 +17217,19 @@
         <v>37</v>
       </c>
       <c r="M395" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N395" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O395" t="s">
         <v>290</v>
       </c>
       <c r="P395" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q395" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="396" spans="1:21">
@@ -16950,16 +17261,16 @@
         <v>25</v>
       </c>
       <c r="N396" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O396" t="s">
         <v>290</v>
       </c>
       <c r="P396" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q396" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="397" spans="1:21">
@@ -16988,19 +17299,19 @@
         <v>37</v>
       </c>
       <c r="M397" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N397" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O397" t="s">
         <v>290</v>
       </c>
       <c r="P397" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q397" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="398" spans="1:21">
@@ -17032,16 +17343,16 @@
         <v>25</v>
       </c>
       <c r="N398" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O398" t="s">
         <v>290</v>
       </c>
       <c r="P398" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q398" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="399" spans="1:21">
@@ -17067,7 +17378,7 @@
         <v>120</v>
       </c>
       <c r="L399" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M399" t="s">
         <v>208</v>
@@ -17076,13 +17387,13 @@
         <v>296</v>
       </c>
       <c r="O399" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P399" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q399" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="400" spans="1:21">
@@ -17108,7 +17419,7 @@
         <v>270</v>
       </c>
       <c r="L400" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M400" t="s">
         <v>208</v>
@@ -17117,13 +17428,13 @@
         <v>296</v>
       </c>
       <c r="O400" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P400" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q400" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="401" spans="1:21">
@@ -17152,19 +17463,19 @@
         <v>23</v>
       </c>
       <c r="M401" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="N401" t="s">
         <v>296</v>
       </c>
       <c r="O401" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P401" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q401" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="402" spans="1:21">
@@ -17193,19 +17504,19 @@
         <v>23</v>
       </c>
       <c r="M402" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="N402" t="s">
         <v>296</v>
       </c>
       <c r="O402" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P402" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q402" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="403" spans="1:21">
@@ -17234,19 +17545,19 @@
         <v>23</v>
       </c>
       <c r="M403" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="N403" t="s">
         <v>296</v>
       </c>
       <c r="O403" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P403" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q403" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="404" spans="1:21">
@@ -17275,146 +17586,173 @@
         <v>23</v>
       </c>
       <c r="M404" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="N404" t="s">
         <v>296</v>
       </c>
       <c r="O404" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P404" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q404" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" t="s">
+      <c r="A405" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C405" t="s">
-        <v>429</v>
-      </c>
-      <c r="D405" t="s">
-        <v>22</v>
-      </c>
-      <c r="E405">
-        <v>400</v>
-      </c>
-      <c r="F405">
-        <v>800</v>
-      </c>
-      <c r="G405">
-        <v>800</v>
-      </c>
-      <c r="K405" t="s">
-        <v>164</v>
-      </c>
-      <c r="L405" t="s">
-        <v>35</v>
-      </c>
-      <c r="M405" t="s">
-        <v>379</v>
-      </c>
-      <c r="N405" t="s">
-        <v>300</v>
-      </c>
-      <c r="O405" t="s">
-        <v>290</v>
-      </c>
-      <c r="P405" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q405" t="s">
+      <c r="C405" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H405" s="2"/>
+      <c r="I405" s="2"/>
+      <c r="J405" s="2"/>
+      <c r="K405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P405" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q405" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R405" s="2"/>
+      <c r="S405" s="2"/>
+      <c r="T405" s="2"/>
+      <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" t="s">
+      <c r="A406" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C406" t="s">
-        <v>429</v>
-      </c>
-      <c r="D406" t="s">
-        <v>22</v>
-      </c>
-      <c r="E406">
-        <v>400</v>
-      </c>
-      <c r="F406">
-        <v>800</v>
-      </c>
-      <c r="G406">
-        <v>800</v>
-      </c>
-      <c r="L406" t="s">
-        <v>301</v>
-      </c>
-      <c r="M406" t="s">
-        <v>379</v>
-      </c>
-      <c r="N406" t="s">
-        <v>300</v>
-      </c>
-      <c r="O406" t="s">
-        <v>290</v>
-      </c>
-      <c r="P406" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q406" t="s">
+      <c r="C406" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H406" s="2"/>
+      <c r="I406" s="2"/>
+      <c r="J406" s="2"/>
+      <c r="K406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P406" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q406" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R406" s="2"/>
+      <c r="S406" s="2"/>
+      <c r="T406" s="2"/>
+      <c r="U406" s="2"/>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" t="s">
+      <c r="A407" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C407" t="s">
-        <v>429</v>
-      </c>
-      <c r="D407" t="s">
-        <v>22</v>
-      </c>
-      <c r="E407">
-        <v>520</v>
-      </c>
-      <c r="F407">
-        <v>950</v>
-      </c>
-      <c r="G407">
-        <v>950</v>
-      </c>
-      <c r="L407" t="s">
-        <v>301</v>
-      </c>
-      <c r="M407" t="s">
-        <v>379</v>
-      </c>
-      <c r="N407" t="s">
-        <v>300</v>
-      </c>
-      <c r="O407" t="s">
-        <v>290</v>
-      </c>
-      <c r="P407" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q407" t="s">
+      <c r="C407" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H407" s="2"/>
+      <c r="I407" s="2"/>
+      <c r="J407" s="2"/>
+      <c r="K407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P407" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q407" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="R407" s="2"/>
+      <c r="S407" s="2"/>
+      <c r="T407" s="2"/>
+      <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" t="s">
@@ -17424,7 +17762,7 @@
         <v>297</v>
       </c>
       <c r="C408" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D408" t="s">
         <v>22</v>
@@ -17445,7 +17783,7 @@
         <v>35</v>
       </c>
       <c r="M408" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N408" t="s">
         <v>300</v>
@@ -17454,10 +17792,10 @@
         <v>290</v>
       </c>
       <c r="P408" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q408" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="409" spans="1:21">
@@ -17468,7 +17806,7 @@
         <v>213</v>
       </c>
       <c r="C409" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D409" t="s">
         <v>22</v>
@@ -17486,7 +17824,7 @@
         <v>301</v>
       </c>
       <c r="M409" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N409" t="s">
         <v>300</v>
@@ -17495,10 +17833,10 @@
         <v>290</v>
       </c>
       <c r="P409" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q409" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="410" spans="1:21">
@@ -17509,7 +17847,7 @@
         <v>293</v>
       </c>
       <c r="C410" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D410" t="s">
         <v>22</v>
@@ -17527,7 +17865,7 @@
         <v>301</v>
       </c>
       <c r="M410" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N410" t="s">
         <v>300</v>
@@ -17536,10 +17874,10 @@
         <v>290</v>
       </c>
       <c r="P410" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q410" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="411" spans="1:21">
@@ -17550,7 +17888,7 @@
         <v>297</v>
       </c>
       <c r="C411" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D411" t="s">
         <v>22</v>
@@ -17565,25 +17903,25 @@
         <v>500</v>
       </c>
       <c r="K411" t="s">
+        <v>390</v>
+      </c>
+      <c r="L411" t="s">
         <v>391</v>
       </c>
-      <c r="L411" t="s">
-        <v>392</v>
-      </c>
       <c r="M411" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N411" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O411" t="s">
         <v>290</v>
       </c>
       <c r="P411" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q411" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="412" spans="1:21">
@@ -17609,25 +17947,25 @@
         <v>500</v>
       </c>
       <c r="K412" t="s">
+        <v>390</v>
+      </c>
+      <c r="L412" t="s">
         <v>391</v>
       </c>
-      <c r="L412" t="s">
-        <v>392</v>
-      </c>
       <c r="M412" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N412" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O412" t="s">
         <v>290</v>
       </c>
       <c r="P412" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q412" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="413" spans="1:21">
@@ -17653,25 +17991,25 @@
         <v>500</v>
       </c>
       <c r="K413" t="s">
+        <v>390</v>
+      </c>
+      <c r="L413" t="s">
         <v>391</v>
       </c>
-      <c r="L413" t="s">
-        <v>392</v>
-      </c>
       <c r="M413" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N413" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O413" t="s">
         <v>290</v>
       </c>
       <c r="P413" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q413" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="414" spans="1:21">
@@ -17697,25 +18035,25 @@
         <v>500</v>
       </c>
       <c r="K414" t="s">
+        <v>390</v>
+      </c>
+      <c r="L414" t="s">
         <v>391</v>
       </c>
-      <c r="L414" t="s">
-        <v>392</v>
-      </c>
       <c r="M414" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N414" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O414" t="s">
         <v>290</v>
       </c>
       <c r="P414" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q414" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="415" spans="1:21">
@@ -17741,25 +18079,25 @@
         <v>500</v>
       </c>
       <c r="K415" t="s">
+        <v>390</v>
+      </c>
+      <c r="L415" t="s">
         <v>391</v>
       </c>
-      <c r="L415" t="s">
-        <v>392</v>
-      </c>
       <c r="M415" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N415" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O415" t="s">
         <v>290</v>
       </c>
       <c r="P415" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q415" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="416" spans="1:21">
@@ -17770,7 +18108,7 @@
         <v>297</v>
       </c>
       <c r="C416" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D416" t="s">
         <v>22</v>
@@ -17785,25 +18123,25 @@
         <v>500</v>
       </c>
       <c r="K416" t="s">
+        <v>390</v>
+      </c>
+      <c r="L416" t="s">
         <v>391</v>
       </c>
-      <c r="L416" t="s">
-        <v>392</v>
-      </c>
       <c r="M416" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N416" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O416" t="s">
         <v>290</v>
       </c>
       <c r="P416" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q416" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="417" spans="1:21">
@@ -17829,25 +18167,25 @@
         <v>500</v>
       </c>
       <c r="K417" t="s">
+        <v>390</v>
+      </c>
+      <c r="L417" t="s">
         <v>391</v>
       </c>
-      <c r="L417" t="s">
-        <v>392</v>
-      </c>
       <c r="M417" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N417" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O417" t="s">
         <v>290</v>
       </c>
       <c r="P417" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q417" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="418" spans="1:21">
@@ -17858,7 +18196,7 @@
         <v>297</v>
       </c>
       <c r="C418" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D418" t="s">
         <v>22</v>
@@ -17873,25 +18211,25 @@
         <v>500</v>
       </c>
       <c r="K418" t="s">
+        <v>390</v>
+      </c>
+      <c r="L418" t="s">
         <v>391</v>
       </c>
-      <c r="L418" t="s">
-        <v>392</v>
-      </c>
       <c r="M418" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N418" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O418" t="s">
         <v>290</v>
       </c>
       <c r="P418" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q418" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="419" spans="1:21">
@@ -17902,7 +18240,7 @@
         <v>297</v>
       </c>
       <c r="C419" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D419" t="s">
         <v>22</v>
@@ -17917,25 +18255,25 @@
         <v>500</v>
       </c>
       <c r="K419" t="s">
+        <v>390</v>
+      </c>
+      <c r="L419" t="s">
         <v>391</v>
       </c>
-      <c r="L419" t="s">
-        <v>392</v>
-      </c>
       <c r="M419" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N419" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O419" t="s">
         <v>290</v>
       </c>
       <c r="P419" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q419" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="420" spans="1:21">
@@ -17946,7 +18284,7 @@
         <v>297</v>
       </c>
       <c r="C420" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D420" t="s">
         <v>22</v>
@@ -17961,36 +18299,36 @@
         <v>500</v>
       </c>
       <c r="K420" t="s">
+        <v>390</v>
+      </c>
+      <c r="L420" t="s">
         <v>391</v>
       </c>
-      <c r="L420" t="s">
-        <v>392</v>
-      </c>
       <c r="M420" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N420" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O420" t="s">
         <v>290</v>
       </c>
       <c r="P420" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q420" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="421" spans="1:21">
       <c r="A421" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B421" t="s">
         <v>243</v>
       </c>
       <c r="C421" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D421" t="s">
         <v>22</v>
@@ -18019,13 +18357,13 @@
     </row>
     <row r="422" spans="1:21">
       <c r="A422" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B422" t="s">
         <v>243</v>
       </c>
       <c r="C422" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D422" t="s">
         <v>22</v>
@@ -18054,13 +18392,13 @@
     </row>
     <row r="423" spans="1:21">
       <c r="A423" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B423" t="s">
         <v>243</v>
       </c>
       <c r="C423" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D423" t="s">
         <v>22</v>
@@ -18089,13 +18427,13 @@
     </row>
     <row r="424" spans="1:21">
       <c r="A424" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B424" t="s">
         <v>243</v>
       </c>
       <c r="C424" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D424" t="s">
         <v>22</v>
@@ -18124,13 +18462,13 @@
     </row>
     <row r="425" spans="1:21">
       <c r="A425" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B425" t="s">
         <v>243</v>
       </c>
       <c r="C425" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D425" t="s">
         <v>22</v>
@@ -18159,13 +18497,13 @@
     </row>
     <row r="426" spans="1:21">
       <c r="A426" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B426" t="s">
         <v>243</v>
       </c>
       <c r="C426" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D426" t="s">
         <v>22</v>
@@ -18194,13 +18532,13 @@
     </row>
     <row r="427" spans="1:21">
       <c r="A427" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B427" t="s">
         <v>243</v>
       </c>
       <c r="C427" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D427" t="s">
         <v>22</v>
@@ -18229,13 +18567,13 @@
     </row>
     <row r="428" spans="1:21">
       <c r="A428" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B428" t="s">
         <v>243</v>
       </c>
       <c r="C428" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D428" t="s">
         <v>22</v>
@@ -18264,13 +18602,13 @@
     </row>
     <row r="429" spans="1:21">
       <c r="A429" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B429" t="s">
         <v>243</v>
       </c>
       <c r="C429" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D429" t="s">
         <v>22</v>
@@ -18299,13 +18637,13 @@
     </row>
     <row r="430" spans="1:21">
       <c r="A430" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B430" t="s">
         <v>243</v>
       </c>
       <c r="C430" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D430" t="s">
         <v>22</v>
@@ -18334,13 +18672,13 @@
     </row>
     <row r="431" spans="1:21">
       <c r="A431" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B431" t="s">
         <v>243</v>
       </c>
       <c r="C431" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D431" t="s">
         <v>22</v>
@@ -18369,13 +18707,13 @@
     </row>
     <row r="432" spans="1:21">
       <c r="A432" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B432" t="s">
         <v>243</v>
       </c>
       <c r="C432" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D432" t="s">
         <v>22</v>
@@ -18404,13 +18742,13 @@
     </row>
     <row r="433" spans="1:21">
       <c r="A433" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B433" t="s">
         <v>243</v>
       </c>
       <c r="C433" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D433" t="s">
         <v>22</v>
@@ -18439,13 +18777,13 @@
     </row>
     <row r="434" spans="1:21">
       <c r="A434" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B434" t="s">
         <v>243</v>
       </c>
       <c r="C434" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D434" t="s">
         <v>22</v>
@@ -18474,13 +18812,13 @@
     </row>
     <row r="435" spans="1:21">
       <c r="A435" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B435" t="s">
         <v>243</v>
       </c>
       <c r="C435" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D435" t="s">
         <v>22</v>
@@ -18509,13 +18847,13 @@
     </row>
     <row r="436" spans="1:21">
       <c r="A436" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B436" t="s">
         <v>243</v>
       </c>
       <c r="C436" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D436" t="s">
         <v>22</v>
@@ -18544,13 +18882,13 @@
     </row>
     <row r="437" spans="1:21">
       <c r="A437" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B437" t="s">
         <v>243</v>
       </c>
       <c r="C437" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D437" t="s">
         <v>22</v>
@@ -18579,13 +18917,13 @@
     </row>
     <row r="438" spans="1:21">
       <c r="A438" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B438" t="s">
         <v>243</v>
       </c>
       <c r="C438" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D438" t="s">
         <v>22</v>
@@ -18614,13 +18952,13 @@
     </row>
     <row r="439" spans="1:21">
       <c r="A439" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>243</v>
       </c>
       <c r="C439" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D439" t="s">
         <v>22</v>
@@ -18649,13 +18987,13 @@
     </row>
     <row r="440" spans="1:21">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B440" t="s">
         <v>243</v>
       </c>
       <c r="C440" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D440" t="s">
         <v>22</v>
@@ -18684,13 +19022,13 @@
     </row>
     <row r="441" spans="1:21">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B441" t="s">
         <v>243</v>
       </c>
       <c r="C441" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D441" t="s">
         <v>22</v>
@@ -18719,13 +19057,13 @@
     </row>
     <row r="442" spans="1:21">
       <c r="A442" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B442" t="s">
         <v>243</v>
       </c>
       <c r="C442" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D442" t="s">
         <v>22</v>
@@ -18754,13 +19092,13 @@
     </row>
     <row r="443" spans="1:21">
       <c r="A443" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B443" t="s">
         <v>243</v>
       </c>
       <c r="C443" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D443" t="s">
         <v>22</v>
@@ -18789,13 +19127,13 @@
     </row>
     <row r="444" spans="1:21">
       <c r="A444" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B444" t="s">
         <v>243</v>
       </c>
       <c r="C444" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D444" t="s">
         <v>22</v>
@@ -18824,13 +19162,13 @@
     </row>
     <row r="445" spans="1:21">
       <c r="A445" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B445" t="s">
         <v>243</v>
       </c>
       <c r="C445" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D445" t="s">
         <v>22</v>
@@ -18859,13 +19197,13 @@
     </row>
     <row r="446" spans="1:21">
       <c r="A446" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B446" t="s">
         <v>243</v>
       </c>
       <c r="C446" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D446" t="s">
         <v>22</v>
@@ -18894,13 +19232,13 @@
     </row>
     <row r="447" spans="1:21">
       <c r="A447" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B447" t="s">
         <v>243</v>
       </c>
       <c r="C447" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D447" t="s">
         <v>22</v>
@@ -18929,13 +19267,13 @@
     </row>
     <row r="448" spans="1:21">
       <c r="A448" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B448" t="s">
         <v>243</v>
       </c>
       <c r="C448" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D448" t="s">
         <v>22</v>
@@ -18964,13 +19302,13 @@
     </row>
     <row r="449" spans="1:21">
       <c r="A449" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B449" t="s">
         <v>243</v>
       </c>
       <c r="C449" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D449" t="s">
         <v>22</v>
@@ -18999,13 +19337,13 @@
     </row>
     <row r="450" spans="1:21">
       <c r="A450" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B450" t="s">
         <v>243</v>
       </c>
       <c r="C450" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D450" t="s">
         <v>22</v>
@@ -19034,13 +19372,13 @@
     </row>
     <row r="451" spans="1:21">
       <c r="A451" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B451" t="s">
         <v>243</v>
       </c>
       <c r="C451" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D451" t="s">
         <v>22</v>
@@ -19069,13 +19407,13 @@
     </row>
     <row r="452" spans="1:21">
       <c r="A452" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B452" t="s">
         <v>243</v>
       </c>
       <c r="C452" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D452" t="s">
         <v>22</v>
@@ -19104,13 +19442,13 @@
     </row>
     <row r="453" spans="1:21">
       <c r="A453" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B453" t="s">
         <v>243</v>
       </c>
       <c r="C453" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D453" t="s">
         <v>22</v>
@@ -19139,13 +19477,13 @@
     </row>
     <row r="454" spans="1:21">
       <c r="A454" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B454" t="s">
         <v>243</v>
       </c>
       <c r="C454" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D454" t="s">
         <v>22</v>
@@ -19174,13 +19512,13 @@
     </row>
     <row r="455" spans="1:21">
       <c r="A455" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B455" t="s">
         <v>243</v>
       </c>
       <c r="C455" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D455" t="s">
         <v>22</v>
@@ -19209,13 +19547,13 @@
     </row>
     <row r="456" spans="1:21">
       <c r="A456" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B456" t="s">
         <v>243</v>
       </c>
       <c r="C456" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D456" t="s">
         <v>22</v>
@@ -19244,13 +19582,13 @@
     </row>
     <row r="457" spans="1:21">
       <c r="A457" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B457" t="s">
         <v>243</v>
       </c>
       <c r="C457" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D457" t="s">
         <v>22</v>
@@ -19279,13 +19617,13 @@
     </row>
     <row r="458" spans="1:21">
       <c r="A458" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B458" t="s">
         <v>243</v>
       </c>
       <c r="C458" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D458" t="s">
         <v>22</v>
@@ -19314,10 +19652,10 @@
     </row>
     <row r="459" spans="1:21">
       <c r="A459" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C459" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D459" t="s">
         <v>22</v>
@@ -19343,10 +19681,10 @@
     </row>
     <row r="460" spans="1:21">
       <c r="A460" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C460" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D460" t="s">
         <v>22</v>
@@ -19372,10 +19710,10 @@
     </row>
     <row r="461" spans="1:21">
       <c r="A461" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C461" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D461" t="s">
         <v>22</v>
@@ -19401,10 +19739,10 @@
     </row>
     <row r="462" spans="1:21">
       <c r="A462" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C462" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D462" t="s">
         <v>22</v>
@@ -19430,10 +19768,10 @@
     </row>
     <row r="463" spans="1:21">
       <c r="A463" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C463" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D463" t="s">
         <v>22</v>
@@ -19459,13 +19797,13 @@
     </row>
     <row r="464" spans="1:21">
       <c r="A464" t="s">
+        <v>476</v>
+      </c>
+      <c r="B464" t="s">
         <v>479</v>
       </c>
-      <c r="B464" t="s">
-        <v>482</v>
-      </c>
       <c r="C464" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D464" t="s">
         <v>22</v>
@@ -19491,10 +19829,10 @@
     </row>
     <row r="465" spans="1:21">
       <c r="A465" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C465" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D465" t="s">
         <v>22</v>
@@ -19520,13 +19858,13 @@
     </row>
     <row r="466" spans="1:21">
       <c r="A466" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B466" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C466" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D466" t="s">
         <v>22</v>
@@ -19552,10 +19890,10 @@
     </row>
     <row r="467" spans="1:21">
       <c r="A467" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C467" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D467" t="s">
         <v>22</v>
@@ -19581,13 +19919,13 @@
     </row>
     <row r="468" spans="1:21">
       <c r="A468" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B468" t="s">
         <v>87</v>
       </c>
       <c r="C468" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D468" t="s">
         <v>22</v>
@@ -19613,13 +19951,13 @@
     </row>
     <row r="469" spans="1:21">
       <c r="A469" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B469" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C469" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D469" t="s">
         <v>22</v>
@@ -19645,13 +19983,13 @@
     </row>
     <row r="470" spans="1:21">
       <c r="A470" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B470" t="s">
         <v>94</v>
       </c>
       <c r="C470" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D470" t="s">
         <v>22</v>
@@ -19677,13 +20015,13 @@
     </row>
     <row r="471" spans="1:21">
       <c r="A471" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B471" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C471" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D471" t="s">
         <v>22</v>
@@ -19709,7 +20047,7 @@
     </row>
     <row r="472" spans="1:21">
       <c r="A472" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C472" t="s">
         <v>195</v>
@@ -19738,7 +20076,7 @@
     </row>
     <row r="473" spans="1:21">
       <c r="A473" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C473" t="s">
         <v>195</v>
@@ -19767,13 +20105,13 @@
     </row>
     <row r="474" spans="1:21">
       <c r="A474" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B474" t="s">
         <v>195</v>
       </c>
       <c r="C474" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D474" t="s">
         <v>22</v>
@@ -19788,7 +20126,7 @@
         <v>2</v>
       </c>
       <c r="M474" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N474" t="s">
         <v>25</v>
@@ -19799,13 +20137,13 @@
     </row>
     <row r="475" spans="1:21">
       <c r="A475" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B475" t="s">
         <v>195</v>
       </c>
       <c r="C475" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D475" t="s">
         <v>22</v>
@@ -19820,7 +20158,7 @@
         <v>8</v>
       </c>
       <c r="M475" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N475" t="s">
         <v>25</v>
@@ -19831,7 +20169,7 @@
     </row>
     <row r="476" spans="1:21">
       <c r="A476" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C476" t="s">
         <v>195</v>
@@ -19860,7 +20198,7 @@
     </row>
     <row r="477" spans="1:21">
       <c r="A477" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C477" t="s">
         <v>195</v>
@@ -19878,7 +20216,7 @@
         <v>11</v>
       </c>
       <c r="M477" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N477" t="s">
         <v>25</v>
@@ -19889,7 +20227,7 @@
     </row>
     <row r="478" spans="1:21">
       <c r="A478" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C478" t="s">
         <v>195</v>
@@ -19918,7 +20256,7 @@
     </row>
     <row r="479" spans="1:21">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C479" t="s">
         <v>195</v>
@@ -19947,13 +20285,13 @@
     </row>
     <row r="480" spans="1:21">
       <c r="A480" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B480" t="s">
         <v>195</v>
       </c>
       <c r="C480" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D480" t="s">
         <v>22</v>
@@ -19979,7 +20317,7 @@
     </row>
     <row r="481" spans="1:21">
       <c r="A481" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C481" t="s">
         <v>195</v>
@@ -20008,7 +20346,7 @@
     </row>
     <row r="482" spans="1:21">
       <c r="A482" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C482" t="s">
         <v>195</v>
@@ -20037,7 +20375,7 @@
     </row>
     <row r="483" spans="1:21">
       <c r="A483" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C483" t="s">
         <v>195</v>
@@ -20055,7 +20393,7 @@
         <v>4</v>
       </c>
       <c r="M483" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N483" t="s">
         <v>25</v>
@@ -20066,7 +20404,7 @@
     </row>
     <row r="484" spans="1:21">
       <c r="A484" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C484" t="s">
         <v>195</v>
@@ -20095,10 +20433,10 @@
     </row>
     <row r="485" spans="1:21">
       <c r="A485" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C485" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D485" t="s">
         <v>22</v>
@@ -20124,10 +20462,10 @@
     </row>
     <row r="486" spans="1:21">
       <c r="A486" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C486" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D486" t="s">
         <v>22</v>
@@ -20153,13 +20491,13 @@
     </row>
     <row r="487" spans="1:21">
       <c r="A487" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B487" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C487" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D487" t="s">
         <v>22</v>
@@ -20185,13 +20523,13 @@
     </row>
     <row r="488" spans="1:21">
       <c r="A488" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B488" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C488" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D488" t="s">
         <v>22</v>
@@ -20217,13 +20555,13 @@
     </row>
     <row r="489" spans="1:21">
       <c r="A489" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B489" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C489" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D489" t="s">
         <v>22</v>
@@ -20249,13 +20587,13 @@
     </row>
     <row r="490" spans="1:21">
       <c r="A490" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B490" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C490" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D490" t="s">
         <v>22</v>
@@ -20281,13 +20619,13 @@
     </row>
     <row r="491" spans="1:21">
       <c r="A491" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B491" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C491" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D491" t="s">
         <v>22</v>
@@ -20302,7 +20640,7 @@
         <v>200</v>
       </c>
       <c r="K491" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M491" t="s">
         <v>25</v>
@@ -20316,13 +20654,13 @@
     </row>
     <row r="492" spans="1:21">
       <c r="A492" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B492" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C492" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D492" t="s">
         <v>22</v>
@@ -20348,13 +20686,13 @@
     </row>
     <row r="493" spans="1:21">
       <c r="A493" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B493" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C493" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D493" t="s">
         <v>22</v>
@@ -20380,13 +20718,13 @@
     </row>
     <row r="494" spans="1:21">
       <c r="A494" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B494" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C494" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D494" t="s">
         <v>22</v>
@@ -20412,13 +20750,13 @@
     </row>
     <row r="495" spans="1:21">
       <c r="A495" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B495" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C495" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D495" t="s">
         <v>22</v>
@@ -20433,7 +20771,7 @@
         <v>1</v>
       </c>
       <c r="K495" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M495" t="s">
         <v>25</v>
@@ -20447,13 +20785,13 @@
     </row>
     <row r="496" spans="1:21">
       <c r="A496" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B496" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C496" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D496" t="s">
         <v>22</v>
@@ -20468,7 +20806,7 @@
         <v>400</v>
       </c>
       <c r="K496" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M496" t="s">
         <v>25</v>
@@ -20482,13 +20820,13 @@
     </row>
     <row r="497" spans="1:21">
       <c r="A497" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B497" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C497" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D497" t="s">
         <v>22</v>
@@ -20514,13 +20852,13 @@
     </row>
     <row r="498" spans="1:21">
       <c r="A498" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B498" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C498" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D498" t="s">
         <v>22</v>
@@ -20546,13 +20884,13 @@
     </row>
     <row r="499" spans="1:21">
       <c r="A499" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B499" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C499" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D499" t="s">
         <v>22</v>
@@ -20578,13 +20916,13 @@
     </row>
     <row r="500" spans="1:21">
       <c r="A500" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B500" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C500" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D500" t="s">
         <v>22</v>
@@ -20610,13 +20948,13 @@
     </row>
     <row r="501" spans="1:21">
       <c r="A501" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B501" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C501" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D501" t="s">
         <v>22</v>
@@ -20642,13 +20980,13 @@
     </row>
     <row r="502" spans="1:21">
       <c r="A502" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B502" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C502" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D502" t="s">
         <v>22</v>
@@ -20674,10 +21012,10 @@
     </row>
     <row r="503" spans="1:21">
       <c r="A503" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C503" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D503" t="s">
         <v>22</v>
@@ -20703,10 +21041,10 @@
     </row>
     <row r="504" spans="1:21">
       <c r="A504" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C504" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D504" t="s">
         <v>22</v>
@@ -20732,13 +21070,13 @@
     </row>
     <row r="505" spans="1:21">
       <c r="A505" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B505" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C505" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D505" t="s">
         <v>22</v>
@@ -20764,10 +21102,10 @@
     </row>
     <row r="506" spans="1:21">
       <c r="A506" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C506" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D506" t="s">
         <v>22</v>
@@ -20793,13 +21131,13 @@
     </row>
     <row r="507" spans="1:21">
       <c r="A507" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B507" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C507" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D507" t="s">
         <v>22</v>
@@ -20825,10 +21163,10 @@
     </row>
     <row r="508" spans="1:21">
       <c r="A508" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C508" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D508" t="s">
         <v>22</v>
@@ -20854,10 +21192,10 @@
     </row>
     <row r="509" spans="1:21">
       <c r="A509" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C509" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D509" t="s">
         <v>22</v>
@@ -20883,10 +21221,10 @@
     </row>
     <row r="510" spans="1:21">
       <c r="A510" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C510" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D510" t="s">
         <v>22</v>
@@ -20912,10 +21250,10 @@
     </row>
     <row r="511" spans="1:21">
       <c r="A511" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C511" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D511" t="s">
         <v>22</v>
@@ -20941,7 +21279,7 @@
     </row>
     <row r="512" spans="1:21">
       <c r="A512" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C512" t="s">
         <v>195</v>
@@ -20970,10 +21308,10 @@
     </row>
     <row r="513" spans="1:21">
       <c r="A513" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C513" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D513" t="s">
         <v>22</v>
@@ -20999,7 +21337,7 @@
     </row>
     <row r="514" spans="1:21">
       <c r="A514" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C514" t="s">
         <v>195</v>
@@ -21028,7 +21366,7 @@
     </row>
     <row r="515" spans="1:21">
       <c r="A515" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C515" t="s">
         <v>195</v>
@@ -21057,10 +21395,10 @@
     </row>
     <row r="516" spans="1:21">
       <c r="A516" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C516" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D516" t="s">
         <v>22</v>
@@ -21086,7 +21424,7 @@
     </row>
     <row r="517" spans="1:21">
       <c r="A517" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C517" t="s">
         <v>195</v>
@@ -21115,7 +21453,7 @@
     </row>
     <row r="518" spans="1:21">
       <c r="A518" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C518" t="s">
         <v>195</v>
@@ -21144,7 +21482,7 @@
     </row>
     <row r="519" spans="1:21">
       <c r="A519" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C519" t="s">
         <v>195</v>
@@ -21173,13 +21511,13 @@
     </row>
     <row r="520" spans="1:21">
       <c r="A520" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B520" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C520" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D520" t="s">
         <v>22</v>
@@ -21205,13 +21543,13 @@
     </row>
     <row r="521" spans="1:21">
       <c r="A521" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B521" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C521" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D521" t="s">
         <v>22</v>
@@ -21237,13 +21575,13 @@
     </row>
     <row r="522" spans="1:21">
       <c r="A522" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B522" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C522" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D522" t="s">
         <v>22</v>
@@ -21269,10 +21607,10 @@
     </row>
     <row r="523" spans="1:21">
       <c r="A523" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C523" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D523" t="s">
         <v>22</v>
@@ -21298,13 +21636,13 @@
     </row>
     <row r="524" spans="1:21">
       <c r="A524" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B524" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C524" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D524" t="s">
         <v>22</v>
@@ -21330,10 +21668,10 @@
     </row>
     <row r="525" spans="1:21">
       <c r="A525" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C525" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D525" t="s">
         <v>22</v>
@@ -21359,13 +21697,13 @@
     </row>
     <row r="526" spans="1:21">
       <c r="A526" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B526" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C526" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D526" t="s">
         <v>22</v>
@@ -21391,10 +21729,10 @@
     </row>
     <row r="527" spans="1:21">
       <c r="A527" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C527" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D527" t="s">
         <v>22</v>
@@ -21420,13 +21758,13 @@
     </row>
     <row r="528" spans="1:21">
       <c r="A528" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B528" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C528" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D528" t="s">
         <v>22</v>
@@ -21452,10 +21790,10 @@
     </row>
     <row r="529" spans="1:21">
       <c r="A529" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C529" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D529" t="s">
         <v>22</v>
@@ -21481,13 +21819,13 @@
     </row>
     <row r="530" spans="1:21">
       <c r="A530" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B530" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C530" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D530" t="s">
         <v>22</v>
@@ -21513,10 +21851,10 @@
     </row>
     <row r="531" spans="1:21">
       <c r="A531" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C531" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D531" t="s">
         <v>22</v>
@@ -21542,13 +21880,13 @@
     </row>
     <row r="532" spans="1:21">
       <c r="A532" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B532" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C532" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D532" t="s">
         <v>22</v>
@@ -21574,10 +21912,10 @@
     </row>
     <row r="533" spans="1:21">
       <c r="A533" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C533" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D533" t="s">
         <v>22</v>
@@ -21603,13 +21941,13 @@
     </row>
     <row r="534" spans="1:21">
       <c r="A534" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B534" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C534" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D534" t="s">
         <v>22</v>
@@ -21635,10 +21973,10 @@
     </row>
     <row r="535" spans="1:21">
       <c r="A535" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C535" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D535" t="s">
         <v>22</v>
@@ -21664,10 +22002,10 @@
     </row>
     <row r="536" spans="1:21">
       <c r="A536" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C536" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D536" t="s">
         <v>22</v>
@@ -21693,10 +22031,10 @@
     </row>
     <row r="537" spans="1:21">
       <c r="A537" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C537" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D537" t="s">
         <v>22</v>
@@ -21722,7 +22060,7 @@
     </row>
     <row r="538" spans="1:21">
       <c r="A538" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C538" t="s">
         <v>107</v>
@@ -21751,10 +22089,10 @@
     </row>
     <row r="539" spans="1:21">
       <c r="A539" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C539" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D539" t="s">
         <v>22</v>
@@ -21780,10 +22118,10 @@
     </row>
     <row r="540" spans="1:21">
       <c r="A540" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C540" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D540" t="s">
         <v>22</v>
@@ -21809,10 +22147,10 @@
     </row>
     <row r="541" spans="1:21">
       <c r="A541" t="s">
+        <v>515</v>
+      </c>
+      <c r="C541" t="s">
         <v>518</v>
-      </c>
-      <c r="C541" t="s">
-        <v>521</v>
       </c>
       <c r="D541" t="s">
         <v>22</v>
@@ -21838,10 +22176,10 @@
     </row>
     <row r="542" spans="1:21">
       <c r="A542" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C542" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D542" t="s">
         <v>22</v>
@@ -21867,13 +22205,13 @@
     </row>
     <row r="543" spans="1:21">
       <c r="A543" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B543" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C543" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D543" t="s">
         <v>22</v>
@@ -21899,13 +22237,13 @@
     </row>
     <row r="544" spans="1:21">
       <c r="A544" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B544" t="s">
         <v>243</v>
       </c>
       <c r="C544" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D544" t="s">
         <v>22</v>
@@ -21934,13 +22272,13 @@
     </row>
     <row r="545" spans="1:21">
       <c r="A545" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B545" t="s">
         <v>243</v>
       </c>
       <c r="C545" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D545" t="s">
         <v>22</v>
@@ -21969,13 +22307,13 @@
     </row>
     <row r="546" spans="1:21">
       <c r="A546" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B546" t="s">
         <v>243</v>
       </c>
       <c r="C546" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D546" t="s">
         <v>22</v>
@@ -22004,13 +22342,13 @@
     </row>
     <row r="547" spans="1:21">
       <c r="A547" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B547" t="s">
         <v>243</v>
       </c>
       <c r="C547" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D547" t="s">
         <v>22</v>
@@ -22039,13 +22377,13 @@
     </row>
     <row r="548" spans="1:21">
       <c r="A548" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B548" t="s">
         <v>243</v>
       </c>
       <c r="C548" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D548" t="s">
         <v>22</v>
@@ -22074,13 +22412,13 @@
     </row>
     <row r="549" spans="1:21">
       <c r="A549" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B549" t="s">
         <v>243</v>
       </c>
       <c r="C549" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D549" t="s">
         <v>22</v>
@@ -22109,13 +22447,13 @@
     </row>
     <row r="550" spans="1:21">
       <c r="A550" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B550" t="s">
         <v>243</v>
       </c>
       <c r="C550" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D550" t="s">
         <v>22</v>
@@ -22144,13 +22482,13 @@
     </row>
     <row r="551" spans="1:21">
       <c r="A551" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B551" t="s">
         <v>243</v>
       </c>
       <c r="C551" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D551" t="s">
         <v>22</v>
@@ -22179,13 +22517,13 @@
     </row>
     <row r="552" spans="1:21">
       <c r="A552" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B552" t="s">
         <v>243</v>
       </c>
       <c r="C552" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D552" t="s">
         <v>22</v>
@@ -22214,13 +22552,13 @@
     </row>
     <row r="553" spans="1:21">
       <c r="A553" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B553" t="s">
         <v>243</v>
       </c>
       <c r="C553" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D553" t="s">
         <v>22</v>
@@ -22249,13 +22587,13 @@
     </row>
     <row r="554" spans="1:21">
       <c r="A554" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B554" t="s">
         <v>243</v>
       </c>
       <c r="C554" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D554" t="s">
         <v>22</v>
@@ -22284,13 +22622,13 @@
     </row>
     <row r="555" spans="1:21">
       <c r="A555" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B555" t="s">
         <v>243</v>
       </c>
       <c r="C555" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D555" t="s">
         <v>22</v>
@@ -22319,13 +22657,13 @@
     </row>
     <row r="556" spans="1:21">
       <c r="A556" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B556" t="s">
         <v>243</v>
       </c>
       <c r="C556" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D556" t="s">
         <v>22</v>
@@ -22354,13 +22692,13 @@
     </row>
     <row r="557" spans="1:21">
       <c r="A557" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B557" t="s">
         <v>243</v>
       </c>
       <c r="C557" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D557" t="s">
         <v>22</v>
@@ -22389,13 +22727,13 @@
     </row>
     <row r="558" spans="1:21">
       <c r="A558" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B558" t="s">
         <v>243</v>
       </c>
       <c r="C558" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D558" t="s">
         <v>22</v>
@@ -22424,13 +22762,13 @@
     </row>
     <row r="559" spans="1:21">
       <c r="A559" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B559" t="s">
         <v>243</v>
       </c>
       <c r="C559" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D559" t="s">
         <v>22</v>
@@ -22459,13 +22797,13 @@
     </row>
     <row r="560" spans="1:21">
       <c r="A560" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B560" t="s">
         <v>243</v>
       </c>
       <c r="C560" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D560" t="s">
         <v>22</v>
@@ -22494,13 +22832,13 @@
     </row>
     <row r="561" spans="1:21">
       <c r="A561" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B561" t="s">
         <v>243</v>
       </c>
       <c r="C561" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D561" t="s">
         <v>22</v>
@@ -22529,13 +22867,13 @@
     </row>
     <row r="562" spans="1:21">
       <c r="A562" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B562" t="s">
         <v>243</v>
       </c>
       <c r="C562" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D562" t="s">
         <v>22</v>

--- a/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
+++ b/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>CARRIER</t>
   </si>
@@ -1108,12 +1108,12 @@
     <t>Penang</t>
   </si>
   <si>
-    <t>9-10 Days</t>
-  </si>
-  <si>
     <t>Pasir Gudang</t>
   </si>
   <si>
+    <t>7-9 Days</t>
+  </si>
+  <si>
     <t>Port Klang</t>
   </si>
   <si>
@@ -1168,6 +1168,9 @@
     <t>Manila</t>
   </si>
   <si>
+    <t>4-7 Days</t>
+  </si>
+  <si>
     <t>Davao</t>
   </si>
   <si>
@@ -1187,6 +1190,12 @@
   </si>
   <si>
     <t>Hai Phong</t>
+  </si>
+  <si>
+    <t>SUN/MON</t>
+  </si>
+  <si>
+    <t>MON/TUE</t>
   </si>
   <si>
     <t>Subject to local charge at both ends / Subject to AFS $30 at POL / 
@@ -1196,13 +1205,10 @@
     <t>Ningbo</t>
   </si>
   <si>
+    <t>8 Days</t>
+  </si>
+  <si>
     <t>Changsha</t>
-  </si>
-  <si>
-    <t>SUN/MON</t>
-  </si>
-  <si>
-    <t>MON/TUE</t>
   </si>
   <si>
     <t>14-16 Days</t>
@@ -1276,9 +1282,6 @@
   <si>
     <t>Subject to local charge at both ends / Subject to AFS $30 at POL / 
 Subject to LSS CNY 120/240 at POD / SSW</t>
-  </si>
-  <si>
-    <t>8 Days</t>
   </si>
   <si>
     <t>Nanhai</t>
@@ -2031,7 +2034,7 @@
   <dimension ref="A1:U562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A407" sqref="A407:U407"/>
+      <selection activeCell="A304" sqref="A304:U304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12884,538 +12887,491 @@
       </c>
     </row>
     <row r="299" spans="1:21">
-      <c r="A299" s="2" t="s">
+      <c r="A299" t="s">
         <v>285</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" t="s">
         <v>297</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" t="s">
         <v>21</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2"/>
-      <c r="K299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P299" s="2" t="s">
+      <c r="D299" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299">
+        <v>150</v>
+      </c>
+      <c r="F299">
+        <v>250</v>
+      </c>
+      <c r="G299">
+        <v>250</v>
+      </c>
+      <c r="K299" t="s">
+        <v>164</v>
+      </c>
+      <c r="L299" t="s">
+        <v>35</v>
+      </c>
+      <c r="M299" t="s">
+        <v>200</v>
+      </c>
+      <c r="N299" t="s">
+        <v>296</v>
+      </c>
+      <c r="O299" t="s">
+        <v>290</v>
+      </c>
+      <c r="P299" t="s">
         <v>358</v>
       </c>
-      <c r="Q299" s="2" t="s">
+      <c r="Q299" t="s">
         <v>304</v>
       </c>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2"/>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="2" t="s">
+      <c r="A300" t="s">
         <v>285</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" t="s">
         <v>213</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" t="s">
         <v>21</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-      <c r="J300" s="2"/>
-      <c r="K300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P300" s="2" t="s">
+      <c r="D300" t="s">
+        <v>22</v>
+      </c>
+      <c r="E300">
+        <v>150</v>
+      </c>
+      <c r="F300">
+        <v>250</v>
+      </c>
+      <c r="G300">
+        <v>250</v>
+      </c>
+      <c r="L300" t="s">
+        <v>301</v>
+      </c>
+      <c r="M300" t="s">
+        <v>200</v>
+      </c>
+      <c r="N300" t="s">
+        <v>296</v>
+      </c>
+      <c r="O300" t="s">
+        <v>290</v>
+      </c>
+      <c r="P300" t="s">
         <v>358</v>
       </c>
-      <c r="Q300" s="2" t="s">
+      <c r="Q300" t="s">
         <v>304</v>
       </c>
-      <c r="R300" s="2"/>
-      <c r="S300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="U300" s="2"/>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="2" t="s">
+      <c r="A301" t="s">
         <v>285</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" t="s">
         <v>293</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" t="s">
         <v>21</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-      <c r="J301" s="2"/>
-      <c r="K301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P301" s="2" t="s">
+      <c r="D301" t="s">
+        <v>22</v>
+      </c>
+      <c r="E301">
+        <v>270</v>
+      </c>
+      <c r="F301">
+        <v>400</v>
+      </c>
+      <c r="G301">
+        <v>400</v>
+      </c>
+      <c r="L301" t="s">
+        <v>301</v>
+      </c>
+      <c r="M301" t="s">
+        <v>200</v>
+      </c>
+      <c r="N301" t="s">
+        <v>296</v>
+      </c>
+      <c r="O301" t="s">
+        <v>290</v>
+      </c>
+      <c r="P301" t="s">
         <v>358</v>
       </c>
-      <c r="Q301" s="2" t="s">
+      <c r="Q301" t="s">
         <v>304</v>
       </c>
-      <c r="R301" s="2"/>
-      <c r="S301" s="2"/>
-      <c r="T301" s="2"/>
-      <c r="U301" s="2"/>
     </row>
     <row r="302" spans="1:21">
-      <c r="A302" t="s">
+      <c r="A302" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D302" t="s">
-        <v>22</v>
-      </c>
-      <c r="E302">
+      <c r="D302" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P302" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q302" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="R302" s="2"/>
+      <c r="S302" s="2"/>
+      <c r="T302" s="2"/>
+      <c r="U302" s="2"/>
+    </row>
+    <row r="303" spans="1:21">
+      <c r="A303" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P303" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q303" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="R303" s="2"/>
+      <c r="S303" s="2"/>
+      <c r="T303" s="2"/>
+      <c r="U303" s="2"/>
+    </row>
+    <row r="304" spans="1:21">
+      <c r="A304" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P304" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q304" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="R304" s="2"/>
+      <c r="S304" s="2"/>
+      <c r="T304" s="2"/>
+      <c r="U304" s="2"/>
+    </row>
+    <row r="305" spans="1:21">
+      <c r="A305" t="s">
+        <v>285</v>
+      </c>
+      <c r="B305" t="s">
+        <v>297</v>
+      </c>
+      <c r="C305" t="s">
+        <v>360</v>
+      </c>
+      <c r="D305" t="s">
+        <v>22</v>
+      </c>
+      <c r="E305">
         <v>350</v>
       </c>
-      <c r="F302">
+      <c r="F305">
         <v>500</v>
       </c>
-      <c r="G302">
+      <c r="G305">
         <v>500</v>
       </c>
-      <c r="K302" t="s">
+      <c r="K305" t="s">
         <v>164</v>
       </c>
-      <c r="L302" t="s">
+      <c r="L305" t="s">
         <v>35</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M305" t="s">
+        <v>361</v>
+      </c>
+      <c r="N305" t="s">
+        <v>300</v>
+      </c>
+      <c r="O305" t="s">
+        <v>290</v>
+      </c>
+      <c r="P305" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21">
+      <c r="A306" t="s">
+        <v>285</v>
+      </c>
+      <c r="B306" t="s">
+        <v>213</v>
+      </c>
+      <c r="C306" t="s">
         <v>360</v>
       </c>
-      <c r="N302" t="s">
+      <c r="D306" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306">
+        <v>350</v>
+      </c>
+      <c r="F306">
+        <v>500</v>
+      </c>
+      <c r="G306">
+        <v>500</v>
+      </c>
+      <c r="L306" t="s">
+        <v>301</v>
+      </c>
+      <c r="M306" t="s">
+        <v>361</v>
+      </c>
+      <c r="N306" t="s">
         <v>300</v>
       </c>
-      <c r="O302" t="s">
+      <c r="O306" t="s">
         <v>290</v>
       </c>
-      <c r="P302" t="s">
+      <c r="P306" t="s">
         <v>358</v>
       </c>
-      <c r="Q302" t="s">
+      <c r="Q306" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
-      <c r="A303" t="s">
+    <row r="307" spans="1:21">
+      <c r="A307" t="s">
         <v>285</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B307" t="s">
+        <v>293</v>
+      </c>
+      <c r="C307" t="s">
+        <v>360</v>
+      </c>
+      <c r="D307" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307">
+        <v>470</v>
+      </c>
+      <c r="F307">
+        <v>650</v>
+      </c>
+      <c r="G307">
+        <v>650</v>
+      </c>
+      <c r="L307" t="s">
+        <v>301</v>
+      </c>
+      <c r="M307" t="s">
+        <v>361</v>
+      </c>
+      <c r="N307" t="s">
+        <v>300</v>
+      </c>
+      <c r="O307" t="s">
+        <v>290</v>
+      </c>
+      <c r="P307" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21">
+      <c r="A308" t="s">
+        <v>285</v>
+      </c>
+      <c r="B308" t="s">
         <v>213</v>
       </c>
-      <c r="C303" t="s">
-        <v>359</v>
-      </c>
-      <c r="D303" t="s">
-        <v>22</v>
-      </c>
-      <c r="E303">
-        <v>350</v>
-      </c>
-      <c r="F303">
-        <v>500</v>
-      </c>
-      <c r="G303">
-        <v>500</v>
-      </c>
-      <c r="L303" t="s">
-        <v>301</v>
-      </c>
-      <c r="M303" t="s">
-        <v>360</v>
-      </c>
-      <c r="N303" t="s">
+      <c r="C308" t="s">
+        <v>362</v>
+      </c>
+      <c r="D308" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308">
+        <v>200</v>
+      </c>
+      <c r="F308">
         <v>300</v>
       </c>
-      <c r="O303" t="s">
+      <c r="G308">
+        <v>300</v>
+      </c>
+      <c r="L308" t="s">
+        <v>287</v>
+      </c>
+      <c r="M308" t="s">
+        <v>194</v>
+      </c>
+      <c r="N308" t="s">
+        <v>296</v>
+      </c>
+      <c r="O308" t="s">
         <v>290</v>
       </c>
-      <c r="P303" t="s">
+      <c r="P308" t="s">
         <v>358</v>
       </c>
-      <c r="Q303" t="s">
+      <c r="Q308" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
-      <c r="A304" t="s">
+    <row r="309" spans="1:21">
+      <c r="A309" t="s">
         <v>285</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B309" t="s">
         <v>293</v>
       </c>
-      <c r="C304" t="s">
-        <v>359</v>
-      </c>
-      <c r="D304" t="s">
-        <v>22</v>
-      </c>
-      <c r="E304">
-        <v>470</v>
-      </c>
-      <c r="F304">
-        <v>650</v>
-      </c>
-      <c r="G304">
-        <v>650</v>
-      </c>
-      <c r="L304" t="s">
-        <v>301</v>
-      </c>
-      <c r="M304" t="s">
-        <v>360</v>
-      </c>
-      <c r="N304" t="s">
-        <v>300</v>
-      </c>
-      <c r="O304" t="s">
+      <c r="C309" t="s">
+        <v>362</v>
+      </c>
+      <c r="D309" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309">
+        <v>320</v>
+      </c>
+      <c r="F309">
+        <v>450</v>
+      </c>
+      <c r="G309">
+        <v>450</v>
+      </c>
+      <c r="L309" t="s">
+        <v>287</v>
+      </c>
+      <c r="M309" t="s">
+        <v>194</v>
+      </c>
+      <c r="N309" t="s">
+        <v>296</v>
+      </c>
+      <c r="O309" t="s">
         <v>290</v>
       </c>
-      <c r="P304" t="s">
+      <c r="P309" t="s">
         <v>358</v>
       </c>
-      <c r="Q304" t="s">
+      <c r="Q309" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="305" spans="1:21">
-      <c r="A305" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
-      <c r="J305" s="2"/>
-      <c r="K305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O305" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P305" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q305" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="R305" s="2"/>
-      <c r="S305" s="2"/>
-      <c r="T305" s="2"/>
-      <c r="U305" s="2"/>
-    </row>
-    <row r="306" spans="1:21">
-      <c r="A306" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-      <c r="J306" s="2"/>
-      <c r="K306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O306" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P306" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q306" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="R306" s="2"/>
-      <c r="S306" s="2"/>
-      <c r="T306" s="2"/>
-      <c r="U306" s="2"/>
-    </row>
-    <row r="307" spans="1:21">
-      <c r="A307" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2"/>
-      <c r="K307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O307" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P307" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q307" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="R307" s="2"/>
-      <c r="S307" s="2"/>
-      <c r="T307" s="2"/>
-      <c r="U307" s="2"/>
-    </row>
-    <row r="308" spans="1:21">
-      <c r="A308" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H308" s="2"/>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2"/>
-      <c r="K308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O308" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P308" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q308" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="R308" s="2"/>
-      <c r="S308" s="2"/>
-      <c r="T308" s="2"/>
-      <c r="U308" s="2"/>
-    </row>
-    <row r="309" spans="1:21">
-      <c r="A309" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-      <c r="J309" s="2"/>
-      <c r="K309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O309" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P309" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q309" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="R309" s="2"/>
-      <c r="S309" s="2"/>
-      <c r="T309" s="2"/>
-      <c r="U309" s="2"/>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" t="s">
@@ -14168,1126 +14124,936 @@
       </c>
     </row>
     <row r="328" spans="1:21">
-      <c r="A328" s="2" t="s">
+      <c r="A328" t="s">
         <v>285</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" t="s">
         <v>297</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" t="s">
         <v>379</v>
       </c>
-      <c r="D328" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H328" s="2"/>
-      <c r="I328" s="2"/>
-      <c r="J328" s="2"/>
-      <c r="K328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O328" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P328" s="2" t="s">
+      <c r="D328" t="s">
+        <v>22</v>
+      </c>
+      <c r="E328">
+        <v>550</v>
+      </c>
+      <c r="F328">
+        <v>1000</v>
+      </c>
+      <c r="G328">
+        <v>1000</v>
+      </c>
+      <c r="K328" t="s">
+        <v>23</v>
+      </c>
+      <c r="L328" t="s">
+        <v>37</v>
+      </c>
+      <c r="M328" t="s">
+        <v>380</v>
+      </c>
+      <c r="N328" t="s">
+        <v>296</v>
+      </c>
+      <c r="O328" t="s">
+        <v>290</v>
+      </c>
+      <c r="P328" t="s">
         <v>358</v>
       </c>
-      <c r="Q328" s="2" t="s">
+      <c r="Q328" t="s">
         <v>377</v>
       </c>
-      <c r="R328" s="2"/>
-      <c r="S328" s="2"/>
-      <c r="T328" s="2"/>
-      <c r="U328" s="2"/>
     </row>
     <row r="329" spans="1:21">
-      <c r="A329" s="2" t="s">
+      <c r="A329" t="s">
         <v>285</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" t="s">
         <v>213</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" t="s">
         <v>379</v>
       </c>
-      <c r="D329" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
-      <c r="J329" s="2"/>
-      <c r="K329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O329" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P329" s="2" t="s">
+      <c r="D329" t="s">
+        <v>22</v>
+      </c>
+      <c r="E329">
+        <v>550</v>
+      </c>
+      <c r="F329">
+        <v>1000</v>
+      </c>
+      <c r="G329">
+        <v>1000</v>
+      </c>
+      <c r="L329" t="s">
+        <v>364</v>
+      </c>
+      <c r="M329" t="s">
+        <v>380</v>
+      </c>
+      <c r="N329" t="s">
+        <v>296</v>
+      </c>
+      <c r="O329" t="s">
+        <v>290</v>
+      </c>
+      <c r="P329" t="s">
         <v>358</v>
       </c>
-      <c r="Q329" s="2" t="s">
+      <c r="Q329" t="s">
         <v>377</v>
       </c>
-      <c r="R329" s="2"/>
-      <c r="S329" s="2"/>
-      <c r="T329" s="2"/>
-      <c r="U329" s="2"/>
     </row>
     <row r="330" spans="1:21">
-      <c r="A330" s="2" t="s">
+      <c r="A330" t="s">
         <v>285</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" t="s">
         <v>293</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" t="s">
         <v>379</v>
       </c>
-      <c r="D330" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
-      <c r="J330" s="2"/>
-      <c r="K330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O330" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P330" s="2" t="s">
+      <c r="D330" t="s">
+        <v>22</v>
+      </c>
+      <c r="E330">
+        <v>670</v>
+      </c>
+      <c r="F330">
+        <v>1150</v>
+      </c>
+      <c r="G330">
+        <v>1150</v>
+      </c>
+      <c r="L330" t="s">
+        <v>364</v>
+      </c>
+      <c r="M330" t="s">
+        <v>380</v>
+      </c>
+      <c r="N330" t="s">
+        <v>296</v>
+      </c>
+      <c r="O330" t="s">
+        <v>290</v>
+      </c>
+      <c r="P330" t="s">
         <v>358</v>
       </c>
-      <c r="Q330" s="2" t="s">
+      <c r="Q330" t="s">
         <v>377</v>
       </c>
-      <c r="R330" s="2"/>
-      <c r="S330" s="2"/>
-      <c r="T330" s="2"/>
-      <c r="U330" s="2"/>
     </row>
     <row r="331" spans="1:21">
-      <c r="A331" s="2" t="s">
+      <c r="A331" t="s">
         <v>285</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" t="s">
         <v>297</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2"/>
-      <c r="K331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O331" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P331" s="2" t="s">
+      <c r="C331" t="s">
+        <v>381</v>
+      </c>
+      <c r="D331" t="s">
+        <v>22</v>
+      </c>
+      <c r="E331">
+        <v>750</v>
+      </c>
+      <c r="F331">
+        <v>1300</v>
+      </c>
+      <c r="G331">
+        <v>1300</v>
+      </c>
+      <c r="K331" t="s">
+        <v>164</v>
+      </c>
+      <c r="L331" t="s">
+        <v>35</v>
+      </c>
+      <c r="M331" t="s">
+        <v>376</v>
+      </c>
+      <c r="N331" t="s">
+        <v>300</v>
+      </c>
+      <c r="O331" t="s">
+        <v>290</v>
+      </c>
+      <c r="P331" t="s">
         <v>358</v>
       </c>
-      <c r="Q331" s="2" t="s">
+      <c r="Q331" t="s">
         <v>377</v>
       </c>
-      <c r="R331" s="2"/>
-      <c r="S331" s="2"/>
-      <c r="T331" s="2"/>
-      <c r="U331" s="2"/>
     </row>
     <row r="332" spans="1:21">
-      <c r="A332" s="2" t="s">
+      <c r="A332" t="s">
         <v>285</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" t="s">
         <v>213</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H332" s="2"/>
-      <c r="I332" s="2"/>
-      <c r="J332" s="2"/>
-      <c r="K332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O332" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P332" s="2" t="s">
+      <c r="C332" t="s">
+        <v>381</v>
+      </c>
+      <c r="D332" t="s">
+        <v>22</v>
+      </c>
+      <c r="E332">
+        <v>750</v>
+      </c>
+      <c r="F332">
+        <v>1300</v>
+      </c>
+      <c r="G332">
+        <v>1300</v>
+      </c>
+      <c r="L332" t="s">
+        <v>301</v>
+      </c>
+      <c r="M332" t="s">
+        <v>376</v>
+      </c>
+      <c r="N332" t="s">
+        <v>300</v>
+      </c>
+      <c r="O332" t="s">
+        <v>290</v>
+      </c>
+      <c r="P332" t="s">
         <v>358</v>
       </c>
-      <c r="Q332" s="2" t="s">
+      <c r="Q332" t="s">
         <v>377</v>
       </c>
-      <c r="R332" s="2"/>
-      <c r="S332" s="2"/>
-      <c r="T332" s="2"/>
-      <c r="U332" s="2"/>
     </row>
     <row r="333" spans="1:21">
-      <c r="A333" s="2" t="s">
+      <c r="A333" t="s">
         <v>285</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" t="s">
         <v>293</v>
       </c>
-      <c r="C333" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
-      <c r="J333" s="2"/>
-      <c r="K333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P333" s="2" t="s">
+      <c r="C333" t="s">
+        <v>381</v>
+      </c>
+      <c r="D333" t="s">
+        <v>22</v>
+      </c>
+      <c r="E333">
+        <v>870</v>
+      </c>
+      <c r="F333">
+        <v>1450</v>
+      </c>
+      <c r="G333">
+        <v>1450</v>
+      </c>
+      <c r="L333" t="s">
+        <v>301</v>
+      </c>
+      <c r="M333" t="s">
+        <v>376</v>
+      </c>
+      <c r="N333" t="s">
+        <v>300</v>
+      </c>
+      <c r="O333" t="s">
+        <v>290</v>
+      </c>
+      <c r="P333" t="s">
         <v>358</v>
       </c>
-      <c r="Q333" s="2" t="s">
+      <c r="Q333" t="s">
         <v>377</v>
       </c>
-      <c r="R333" s="2"/>
-      <c r="S333" s="2"/>
-      <c r="T333" s="2"/>
-      <c r="U333" s="2"/>
     </row>
     <row r="334" spans="1:21">
-      <c r="A334" s="2" t="s">
+      <c r="A334" t="s">
         <v>285</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" t="s">
         <v>297</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="2"/>
-      <c r="K334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O334" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P334" s="2" t="s">
+      <c r="C334" t="s">
+        <v>382</v>
+      </c>
+      <c r="D334" t="s">
+        <v>22</v>
+      </c>
+      <c r="E334">
+        <v>750</v>
+      </c>
+      <c r="F334">
+        <v>1300</v>
+      </c>
+      <c r="G334">
+        <v>1300</v>
+      </c>
+      <c r="K334" t="s">
+        <v>164</v>
+      </c>
+      <c r="L334" t="s">
+        <v>35</v>
+      </c>
+      <c r="M334" t="s">
+        <v>376</v>
+      </c>
+      <c r="N334" t="s">
+        <v>300</v>
+      </c>
+      <c r="O334" t="s">
+        <v>290</v>
+      </c>
+      <c r="P334" t="s">
         <v>358</v>
       </c>
-      <c r="Q334" s="2" t="s">
+      <c r="Q334" t="s">
         <v>377</v>
       </c>
-      <c r="R334" s="2"/>
-      <c r="S334" s="2"/>
-      <c r="T334" s="2"/>
-      <c r="U334" s="2"/>
     </row>
     <row r="335" spans="1:21">
-      <c r="A335" s="2" t="s">
+      <c r="A335" t="s">
         <v>285</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" t="s">
         <v>213</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
-      <c r="J335" s="2"/>
-      <c r="K335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O335" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P335" s="2" t="s">
+      <c r="C335" t="s">
+        <v>382</v>
+      </c>
+      <c r="D335" t="s">
+        <v>22</v>
+      </c>
+      <c r="E335">
+        <v>750</v>
+      </c>
+      <c r="F335">
+        <v>1300</v>
+      </c>
+      <c r="G335">
+        <v>1300</v>
+      </c>
+      <c r="L335" t="s">
+        <v>301</v>
+      </c>
+      <c r="M335" t="s">
+        <v>376</v>
+      </c>
+      <c r="N335" t="s">
+        <v>300</v>
+      </c>
+      <c r="O335" t="s">
+        <v>290</v>
+      </c>
+      <c r="P335" t="s">
         <v>358</v>
       </c>
-      <c r="Q335" s="2" t="s">
+      <c r="Q335" t="s">
         <v>377</v>
       </c>
-      <c r="R335" s="2"/>
-      <c r="S335" s="2"/>
-      <c r="T335" s="2"/>
-      <c r="U335" s="2"/>
     </row>
     <row r="336" spans="1:21">
-      <c r="A336" s="2" t="s">
+      <c r="A336" t="s">
         <v>285</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" t="s">
         <v>293</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H336" s="2"/>
-      <c r="I336" s="2"/>
-      <c r="J336" s="2"/>
-      <c r="K336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O336" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P336" s="2" t="s">
+      <c r="C336" t="s">
+        <v>382</v>
+      </c>
+      <c r="D336" t="s">
+        <v>22</v>
+      </c>
+      <c r="E336">
+        <v>870</v>
+      </c>
+      <c r="F336">
+        <v>1450</v>
+      </c>
+      <c r="G336">
+        <v>1450</v>
+      </c>
+      <c r="L336" t="s">
+        <v>301</v>
+      </c>
+      <c r="M336" t="s">
+        <v>376</v>
+      </c>
+      <c r="N336" t="s">
+        <v>300</v>
+      </c>
+      <c r="O336" t="s">
+        <v>290</v>
+      </c>
+      <c r="P336" t="s">
         <v>358</v>
       </c>
-      <c r="Q336" s="2" t="s">
+      <c r="Q336" t="s">
         <v>377</v>
       </c>
-      <c r="R336" s="2"/>
-      <c r="S336" s="2"/>
-      <c r="T336" s="2"/>
-      <c r="U336" s="2"/>
     </row>
     <row r="337" spans="1:21">
-      <c r="A337" s="2" t="s">
+      <c r="A337" t="s">
         <v>285</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" t="s">
         <v>297</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H337" s="2"/>
-      <c r="I337" s="2"/>
-      <c r="J337" s="2"/>
-      <c r="K337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O337" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P337" s="2" t="s">
+      <c r="C337" t="s">
+        <v>383</v>
+      </c>
+      <c r="D337" t="s">
+        <v>22</v>
+      </c>
+      <c r="E337">
+        <v>750</v>
+      </c>
+      <c r="F337">
+        <v>1300</v>
+      </c>
+      <c r="G337">
+        <v>1300</v>
+      </c>
+      <c r="K337" t="s">
+        <v>164</v>
+      </c>
+      <c r="L337" t="s">
+        <v>35</v>
+      </c>
+      <c r="M337" t="s">
+        <v>376</v>
+      </c>
+      <c r="N337" t="s">
+        <v>300</v>
+      </c>
+      <c r="O337" t="s">
+        <v>290</v>
+      </c>
+      <c r="P337" t="s">
         <v>358</v>
       </c>
-      <c r="Q337" s="2" t="s">
+      <c r="Q337" t="s">
         <v>377</v>
       </c>
-      <c r="R337" s="2"/>
-      <c r="S337" s="2"/>
-      <c r="T337" s="2"/>
-      <c r="U337" s="2"/>
     </row>
     <row r="338" spans="1:21">
-      <c r="A338" s="2" t="s">
+      <c r="A338" t="s">
         <v>285</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" t="s">
         <v>213</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H338" s="2"/>
-      <c r="I338" s="2"/>
-      <c r="J338" s="2"/>
-      <c r="K338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O338" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P338" s="2" t="s">
+      <c r="C338" t="s">
+        <v>383</v>
+      </c>
+      <c r="D338" t="s">
+        <v>22</v>
+      </c>
+      <c r="E338">
+        <v>750</v>
+      </c>
+      <c r="F338">
+        <v>1300</v>
+      </c>
+      <c r="G338">
+        <v>1300</v>
+      </c>
+      <c r="L338" t="s">
+        <v>301</v>
+      </c>
+      <c r="M338" t="s">
+        <v>376</v>
+      </c>
+      <c r="N338" t="s">
+        <v>300</v>
+      </c>
+      <c r="O338" t="s">
+        <v>290</v>
+      </c>
+      <c r="P338" t="s">
         <v>358</v>
       </c>
-      <c r="Q338" s="2" t="s">
+      <c r="Q338" t="s">
         <v>377</v>
       </c>
-      <c r="R338" s="2"/>
-      <c r="S338" s="2"/>
-      <c r="T338" s="2"/>
-      <c r="U338" s="2"/>
     </row>
     <row r="339" spans="1:21">
-      <c r="A339" s="2" t="s">
+      <c r="A339" t="s">
         <v>285</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" t="s">
         <v>293</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H339" s="2"/>
-      <c r="I339" s="2"/>
-      <c r="J339" s="2"/>
-      <c r="K339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O339" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P339" s="2" t="s">
+      <c r="C339" t="s">
+        <v>383</v>
+      </c>
+      <c r="D339" t="s">
+        <v>22</v>
+      </c>
+      <c r="E339">
+        <v>870</v>
+      </c>
+      <c r="F339">
+        <v>1450</v>
+      </c>
+      <c r="G339">
+        <v>1450</v>
+      </c>
+      <c r="L339" t="s">
+        <v>301</v>
+      </c>
+      <c r="M339" t="s">
+        <v>376</v>
+      </c>
+      <c r="N339" t="s">
+        <v>300</v>
+      </c>
+      <c r="O339" t="s">
+        <v>290</v>
+      </c>
+      <c r="P339" t="s">
         <v>358</v>
       </c>
-      <c r="Q339" s="2" t="s">
+      <c r="Q339" t="s">
         <v>377</v>
       </c>
-      <c r="R339" s="2"/>
-      <c r="S339" s="2"/>
-      <c r="T339" s="2"/>
-      <c r="U339" s="2"/>
     </row>
     <row r="340" spans="1:21">
-      <c r="A340" s="2" t="s">
+      <c r="A340" t="s">
         <v>285</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" t="s">
         <v>297</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-      <c r="J340" s="2"/>
-      <c r="K340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O340" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P340" s="2" t="s">
+      <c r="C340" t="s">
+        <v>384</v>
+      </c>
+      <c r="D340" t="s">
+        <v>22</v>
+      </c>
+      <c r="E340">
+        <v>750</v>
+      </c>
+      <c r="F340">
+        <v>1300</v>
+      </c>
+      <c r="G340">
+        <v>1300</v>
+      </c>
+      <c r="K340" t="s">
+        <v>164</v>
+      </c>
+      <c r="L340" t="s">
+        <v>35</v>
+      </c>
+      <c r="M340" t="s">
+        <v>376</v>
+      </c>
+      <c r="N340" t="s">
+        <v>300</v>
+      </c>
+      <c r="O340" t="s">
+        <v>290</v>
+      </c>
+      <c r="P340" t="s">
         <v>358</v>
       </c>
-      <c r="Q340" s="2" t="s">
+      <c r="Q340" t="s">
         <v>377</v>
       </c>
-      <c r="R340" s="2"/>
-      <c r="S340" s="2"/>
-      <c r="T340" s="2"/>
-      <c r="U340" s="2"/>
     </row>
     <row r="341" spans="1:21">
-      <c r="A341" s="2" t="s">
+      <c r="A341" t="s">
         <v>285</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" t="s">
         <v>213</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H341" s="2"/>
-      <c r="I341" s="2"/>
-      <c r="J341" s="2"/>
-      <c r="K341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O341" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P341" s="2" t="s">
+      <c r="C341" t="s">
+        <v>384</v>
+      </c>
+      <c r="D341" t="s">
+        <v>22</v>
+      </c>
+      <c r="E341">
+        <v>750</v>
+      </c>
+      <c r="F341">
+        <v>1300</v>
+      </c>
+      <c r="G341">
+        <v>1300</v>
+      </c>
+      <c r="L341" t="s">
+        <v>301</v>
+      </c>
+      <c r="M341" t="s">
+        <v>376</v>
+      </c>
+      <c r="N341" t="s">
+        <v>300</v>
+      </c>
+      <c r="O341" t="s">
+        <v>290</v>
+      </c>
+      <c r="P341" t="s">
         <v>358</v>
       </c>
-      <c r="Q341" s="2" t="s">
+      <c r="Q341" t="s">
         <v>377</v>
       </c>
-      <c r="R341" s="2"/>
-      <c r="S341" s="2"/>
-      <c r="T341" s="2"/>
-      <c r="U341" s="2"/>
     </row>
     <row r="342" spans="1:21">
-      <c r="A342" s="2" t="s">
+      <c r="A342" t="s">
         <v>285</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" t="s">
         <v>293</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H342" s="2"/>
-      <c r="I342" s="2"/>
-      <c r="J342" s="2"/>
-      <c r="K342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O342" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P342" s="2" t="s">
+      <c r="C342" t="s">
+        <v>384</v>
+      </c>
+      <c r="D342" t="s">
+        <v>22</v>
+      </c>
+      <c r="E342">
+        <v>870</v>
+      </c>
+      <c r="F342">
+        <v>1450</v>
+      </c>
+      <c r="G342">
+        <v>1450</v>
+      </c>
+      <c r="L342" t="s">
+        <v>301</v>
+      </c>
+      <c r="M342" t="s">
+        <v>376</v>
+      </c>
+      <c r="N342" t="s">
+        <v>300</v>
+      </c>
+      <c r="O342" t="s">
+        <v>290</v>
+      </c>
+      <c r="P342" t="s">
         <v>358</v>
       </c>
-      <c r="Q342" s="2" t="s">
+      <c r="Q342" t="s">
         <v>377</v>
       </c>
-      <c r="R342" s="2"/>
-      <c r="S342" s="2"/>
-      <c r="T342" s="2"/>
-      <c r="U342" s="2"/>
     </row>
     <row r="343" spans="1:21">
-      <c r="A343" s="2" t="s">
+      <c r="A343" t="s">
         <v>285</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" t="s">
         <v>297</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
-      <c r="J343" s="2"/>
-      <c r="K343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P343" s="2" t="s">
+      <c r="C343" t="s">
+        <v>385</v>
+      </c>
+      <c r="D343" t="s">
+        <v>22</v>
+      </c>
+      <c r="E343">
+        <v>750</v>
+      </c>
+      <c r="F343">
+        <v>1300</v>
+      </c>
+      <c r="G343">
+        <v>1300</v>
+      </c>
+      <c r="K343" t="s">
+        <v>164</v>
+      </c>
+      <c r="L343" t="s">
+        <v>35</v>
+      </c>
+      <c r="M343" t="s">
+        <v>376</v>
+      </c>
+      <c r="N343" t="s">
+        <v>300</v>
+      </c>
+      <c r="O343" t="s">
+        <v>290</v>
+      </c>
+      <c r="P343" t="s">
         <v>358</v>
       </c>
-      <c r="Q343" s="2" t="s">
+      <c r="Q343" t="s">
         <v>377</v>
       </c>
-      <c r="R343" s="2"/>
-      <c r="S343" s="2"/>
-      <c r="T343" s="2"/>
-      <c r="U343" s="2"/>
     </row>
     <row r="344" spans="1:21">
-      <c r="A344" s="2" t="s">
+      <c r="A344" t="s">
         <v>285</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" t="s">
         <v>213</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="2"/>
-      <c r="K344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O344" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P344" s="2" t="s">
+      <c r="C344" t="s">
+        <v>385</v>
+      </c>
+      <c r="D344" t="s">
+        <v>22</v>
+      </c>
+      <c r="E344">
+        <v>750</v>
+      </c>
+      <c r="F344">
+        <v>1300</v>
+      </c>
+      <c r="G344">
+        <v>1300</v>
+      </c>
+      <c r="L344" t="s">
+        <v>301</v>
+      </c>
+      <c r="M344" t="s">
+        <v>376</v>
+      </c>
+      <c r="N344" t="s">
+        <v>300</v>
+      </c>
+      <c r="O344" t="s">
+        <v>290</v>
+      </c>
+      <c r="P344" t="s">
         <v>358</v>
       </c>
-      <c r="Q344" s="2" t="s">
+      <c r="Q344" t="s">
         <v>377</v>
       </c>
-      <c r="R344" s="2"/>
-      <c r="S344" s="2"/>
-      <c r="T344" s="2"/>
-      <c r="U344" s="2"/>
     </row>
     <row r="345" spans="1:21">
-      <c r="A345" s="2" t="s">
+      <c r="A345" t="s">
         <v>285</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" t="s">
         <v>293</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H345" s="2"/>
-      <c r="I345" s="2"/>
-      <c r="J345" s="2"/>
-      <c r="K345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O345" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P345" s="2" t="s">
+      <c r="C345" t="s">
+        <v>385</v>
+      </c>
+      <c r="D345" t="s">
+        <v>22</v>
+      </c>
+      <c r="E345">
+        <v>870</v>
+      </c>
+      <c r="F345">
+        <v>1450</v>
+      </c>
+      <c r="G345">
+        <v>1450</v>
+      </c>
+      <c r="L345" t="s">
+        <v>301</v>
+      </c>
+      <c r="M345" t="s">
+        <v>376</v>
+      </c>
+      <c r="N345" t="s">
+        <v>300</v>
+      </c>
+      <c r="O345" t="s">
+        <v>290</v>
+      </c>
+      <c r="P345" t="s">
         <v>358</v>
       </c>
-      <c r="Q345" s="2" t="s">
+      <c r="Q345" t="s">
         <v>377</v>
       </c>
-      <c r="R345" s="2"/>
-      <c r="S345" s="2"/>
-      <c r="T345" s="2"/>
-      <c r="U345" s="2"/>
     </row>
     <row r="346" spans="1:21">
-      <c r="A346" s="2" t="s">
+      <c r="A346" t="s">
         <v>285</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" t="s">
         <v>297</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-      <c r="J346" s="2"/>
-      <c r="K346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O346" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P346" s="2" t="s">
+      <c r="C346" t="s">
+        <v>386</v>
+      </c>
+      <c r="D346" t="s">
+        <v>22</v>
+      </c>
+      <c r="E346">
+        <v>5</v>
+      </c>
+      <c r="F346">
+        <v>10</v>
+      </c>
+      <c r="G346">
+        <v>10</v>
+      </c>
+      <c r="K346" t="s">
+        <v>40</v>
+      </c>
+      <c r="L346" t="s">
+        <v>207</v>
+      </c>
+      <c r="M346" t="s">
+        <v>200</v>
+      </c>
+      <c r="N346" t="s">
+        <v>296</v>
+      </c>
+      <c r="O346" t="s">
+        <v>290</v>
+      </c>
+      <c r="P346" t="s">
         <v>358</v>
       </c>
-      <c r="Q346" s="2" t="s">
+      <c r="Q346" t="s">
         <v>336</v>
       </c>
-      <c r="R346" s="2"/>
-      <c r="S346" s="2"/>
-      <c r="T346" s="2"/>
-      <c r="U346" s="2"/>
     </row>
     <row r="347" spans="1:21">
-      <c r="A347" s="2" t="s">
+      <c r="A347" t="s">
         <v>285</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" t="s">
         <v>297</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H347" s="2"/>
-      <c r="I347" s="2"/>
-      <c r="J347" s="2"/>
-      <c r="K347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P347" s="2" t="s">
+      <c r="C347" t="s">
+        <v>387</v>
+      </c>
+      <c r="D347" t="s">
+        <v>22</v>
+      </c>
+      <c r="E347">
+        <v>100</v>
+      </c>
+      <c r="F347">
+        <v>200</v>
+      </c>
+      <c r="G347">
+        <v>200</v>
+      </c>
+      <c r="K347" t="s">
+        <v>23</v>
+      </c>
+      <c r="L347" t="s">
+        <v>37</v>
+      </c>
+      <c r="M347" t="s">
+        <v>194</v>
+      </c>
+      <c r="N347" t="s">
+        <v>296</v>
+      </c>
+      <c r="O347" t="s">
+        <v>290</v>
+      </c>
+      <c r="P347" t="s">
         <v>358</v>
       </c>
-      <c r="Q347" s="2" t="s">
+      <c r="Q347" t="s">
         <v>336</v>
       </c>
-      <c r="R347" s="2"/>
-      <c r="S347" s="2"/>
-      <c r="T347" s="2"/>
-      <c r="U347" s="2"/>
     </row>
     <row r="348" spans="1:21">
-      <c r="A348" s="2" t="s">
+      <c r="A348" t="s">
         <v>285</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" t="s">
         <v>297</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="C348" t="s">
         <v>84</v>
       </c>
-      <c r="D348" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H348" s="2"/>
-      <c r="I348" s="2"/>
-      <c r="J348" s="2"/>
-      <c r="K348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O348" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P348" s="2" t="s">
+      <c r="D348" t="s">
+        <v>22</v>
+      </c>
+      <c r="E348">
+        <v>30</v>
+      </c>
+      <c r="F348">
+        <v>50</v>
+      </c>
+      <c r="G348">
+        <v>50</v>
+      </c>
+      <c r="K348" t="s">
+        <v>388</v>
+      </c>
+      <c r="L348" t="s">
+        <v>389</v>
+      </c>
+      <c r="M348" t="s">
+        <v>212</v>
+      </c>
+      <c r="N348" t="s">
+        <v>296</v>
+      </c>
+      <c r="O348" t="s">
+        <v>290</v>
+      </c>
+      <c r="P348" t="s">
         <v>358</v>
       </c>
-      <c r="Q348" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="R348" s="2"/>
-      <c r="S348" s="2"/>
-      <c r="T348" s="2"/>
-      <c r="U348" s="2"/>
+      <c r="Q348" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="349" spans="1:21">
-      <c r="A349" s="2" t="s">
+      <c r="A349" t="s">
         <v>285</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" t="s">
         <v>297</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" t="s">
+        <v>391</v>
+      </c>
+      <c r="D349" t="s">
+        <v>22</v>
+      </c>
+      <c r="E349">
+        <v>30</v>
+      </c>
+      <c r="F349">
+        <v>50</v>
+      </c>
+      <c r="G349">
+        <v>50</v>
+      </c>
+      <c r="K349" t="s">
         <v>388</v>
       </c>
-      <c r="D349" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H349" s="2"/>
-      <c r="I349" s="2"/>
-      <c r="J349" s="2"/>
-      <c r="K349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O349" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P349" s="2" t="s">
+      <c r="L349" t="s">
+        <v>389</v>
+      </c>
+      <c r="M349" t="s">
+        <v>392</v>
+      </c>
+      <c r="N349" t="s">
+        <v>296</v>
+      </c>
+      <c r="O349" t="s">
+        <v>290</v>
+      </c>
+      <c r="P349" t="s">
         <v>358</v>
       </c>
-      <c r="Q349" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="R349" s="2"/>
-      <c r="S349" s="2"/>
-      <c r="T349" s="2"/>
-      <c r="U349" s="2"/>
+      <c r="Q349" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="350" spans="1:21">
       <c r="A350" t="s">
@@ -15297,7 +15063,7 @@
         <v>297</v>
       </c>
       <c r="C350" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D350" t="s">
         <v>22</v>
@@ -15312,16 +15078,16 @@
         <v>400</v>
       </c>
       <c r="K350" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L350" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M350" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N350" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O350" t="s">
         <v>290</v>
@@ -15330,7 +15096,7 @@
         <v>358</v>
       </c>
       <c r="Q350" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="351" spans="1:21">
@@ -15341,7 +15107,7 @@
         <v>297</v>
       </c>
       <c r="C351" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D351" t="s">
         <v>22</v>
@@ -15356,16 +15122,16 @@
         <v>500</v>
       </c>
       <c r="K351" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L351" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M351" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N351" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O351" t="s">
         <v>290</v>
@@ -15374,7 +15140,7 @@
         <v>358</v>
       </c>
       <c r="Q351" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="352" spans="1:21">
@@ -15385,7 +15151,7 @@
         <v>297</v>
       </c>
       <c r="C352" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D352" t="s">
         <v>22</v>
@@ -15400,16 +15166,16 @@
         <v>700</v>
       </c>
       <c r="K352" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L352" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M352" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N352" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O352" t="s">
         <v>290</v>
@@ -15418,7 +15184,7 @@
         <v>358</v>
       </c>
       <c r="Q352" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="353" spans="1:21">
@@ -15429,7 +15195,7 @@
         <v>297</v>
       </c>
       <c r="C353" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D353" t="s">
         <v>22</v>
@@ -15444,16 +15210,16 @@
         <v>480</v>
       </c>
       <c r="K353" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L353" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M353" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N353" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O353" t="s">
         <v>290</v>
@@ -15462,7 +15228,7 @@
         <v>358</v>
       </c>
       <c r="Q353" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="354" spans="1:21">
@@ -15473,7 +15239,7 @@
         <v>297</v>
       </c>
       <c r="C354" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D354" t="s">
         <v>22</v>
@@ -15488,16 +15254,16 @@
         <v>300</v>
       </c>
       <c r="K354" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L354" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M354" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N354" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O354" t="s">
         <v>290</v>
@@ -15506,7 +15272,7 @@
         <v>358</v>
       </c>
       <c r="Q354" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="355" spans="1:21">
@@ -15517,7 +15283,7 @@
         <v>297</v>
       </c>
       <c r="C355" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D355" t="s">
         <v>22</v>
@@ -15532,16 +15298,16 @@
         <v>300</v>
       </c>
       <c r="K355" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L355" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M355" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N355" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O355" t="s">
         <v>290</v>
@@ -15550,7 +15316,7 @@
         <v>358</v>
       </c>
       <c r="Q355" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="356" spans="1:21">
@@ -15576,16 +15342,16 @@
         <v>300</v>
       </c>
       <c r="K356" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L356" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M356" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N356" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O356" t="s">
         <v>290</v>
@@ -15594,7 +15360,7 @@
         <v>358</v>
       </c>
       <c r="Q356" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="357" spans="1:21">
@@ -15605,7 +15371,7 @@
         <v>297</v>
       </c>
       <c r="C357" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D357" t="s">
         <v>22</v>
@@ -15620,16 +15386,16 @@
         <v>300</v>
       </c>
       <c r="K357" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L357" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M357" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N357" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O357" t="s">
         <v>290</v>
@@ -15638,7 +15404,7 @@
         <v>358</v>
       </c>
       <c r="Q357" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="358" spans="1:21">
@@ -15649,7 +15415,7 @@
         <v>297</v>
       </c>
       <c r="C358" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D358" t="s">
         <v>22</v>
@@ -15664,16 +15430,16 @@
         <v>500</v>
       </c>
       <c r="K358" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L358" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M358" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N358" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O358" t="s">
         <v>290</v>
@@ -15682,7 +15448,7 @@
         <v>358</v>
       </c>
       <c r="Q358" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="359" spans="1:21">
@@ -15693,7 +15459,7 @@
         <v>297</v>
       </c>
       <c r="C359" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D359" t="s">
         <v>22</v>
@@ -15708,16 +15474,16 @@
         <v>300</v>
       </c>
       <c r="K359" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L359" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M359" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N359" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O359" t="s">
         <v>290</v>
@@ -15726,7 +15492,7 @@
         <v>358</v>
       </c>
       <c r="Q359" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="360" spans="1:21">
@@ -15737,7 +15503,7 @@
         <v>297</v>
       </c>
       <c r="C360" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D360" t="s">
         <v>22</v>
@@ -15752,16 +15518,16 @@
         <v>300</v>
       </c>
       <c r="K360" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L360" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M360" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N360" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O360" t="s">
         <v>290</v>
@@ -15770,7 +15536,7 @@
         <v>358</v>
       </c>
       <c r="Q360" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="361" spans="1:21">
@@ -15781,7 +15547,7 @@
         <v>297</v>
       </c>
       <c r="C361" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D361" t="s">
         <v>22</v>
@@ -15796,16 +15562,16 @@
         <v>300</v>
       </c>
       <c r="K361" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L361" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M361" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N361" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O361" t="s">
         <v>290</v>
@@ -15814,7 +15580,7 @@
         <v>358</v>
       </c>
       <c r="Q361" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="362" spans="1:21">
@@ -15825,7 +15591,7 @@
         <v>297</v>
       </c>
       <c r="C362" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D362" t="s">
         <v>22</v>
@@ -15840,16 +15606,16 @@
         <v>700</v>
       </c>
       <c r="K362" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L362" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M362" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N362" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O362" t="s">
         <v>290</v>
@@ -15858,7 +15624,7 @@
         <v>358</v>
       </c>
       <c r="Q362" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="363" spans="1:21">
@@ -15869,7 +15635,7 @@
         <v>297</v>
       </c>
       <c r="C363" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D363" t="s">
         <v>22</v>
@@ -15884,16 +15650,16 @@
         <v>300</v>
       </c>
       <c r="K363" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L363" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M363" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N363" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O363" t="s">
         <v>290</v>
@@ -15902,7 +15668,7 @@
         <v>358</v>
       </c>
       <c r="Q363" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="364" spans="1:21">
@@ -15913,7 +15679,7 @@
         <v>297</v>
       </c>
       <c r="C364" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D364" t="s">
         <v>22</v>
@@ -15928,16 +15694,16 @@
         <v>300</v>
       </c>
       <c r="K364" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L364" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M364" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N364" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O364" t="s">
         <v>290</v>
@@ -15946,7 +15712,7 @@
         <v>358</v>
       </c>
       <c r="Q364" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="365" spans="1:21">
@@ -15957,7 +15723,7 @@
         <v>297</v>
       </c>
       <c r="C365" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D365" t="s">
         <v>22</v>
@@ -15972,16 +15738,16 @@
         <v>300</v>
       </c>
       <c r="K365" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L365" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M365" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N365" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O365" t="s">
         <v>290</v>
@@ -15990,7 +15756,7 @@
         <v>358</v>
       </c>
       <c r="Q365" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="366" spans="1:21">
@@ -16001,7 +15767,7 @@
         <v>297</v>
       </c>
       <c r="C366" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D366" t="s">
         <v>22</v>
@@ -16016,16 +15782,16 @@
         <v>300</v>
       </c>
       <c r="K366" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L366" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M366" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N366" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O366" t="s">
         <v>290</v>
@@ -16034,7 +15800,7 @@
         <v>358</v>
       </c>
       <c r="Q366" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="367" spans="1:21">
@@ -16045,7 +15811,7 @@
         <v>297</v>
       </c>
       <c r="C367" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D367" t="s">
         <v>22</v>
@@ -16060,16 +15826,16 @@
         <v>300</v>
       </c>
       <c r="K367" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L367" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M367" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N367" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O367" t="s">
         <v>290</v>
@@ -16078,7 +15844,7 @@
         <v>358</v>
       </c>
       <c r="Q367" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="368" spans="1:21">
@@ -16089,7 +15855,7 @@
         <v>297</v>
       </c>
       <c r="C368" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D368" t="s">
         <v>22</v>
@@ -16104,16 +15870,16 @@
         <v>450</v>
       </c>
       <c r="K368" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L368" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M368" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N368" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O368" t="s">
         <v>290</v>
@@ -16122,7 +15888,7 @@
         <v>358</v>
       </c>
       <c r="Q368" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="369" spans="1:21">
@@ -16163,7 +15929,7 @@
         <v>358</v>
       </c>
       <c r="Q369" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="370" spans="1:21">
@@ -16204,7 +15970,7 @@
         <v>358</v>
       </c>
       <c r="Q370" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="371" spans="1:21">
@@ -16215,7 +15981,7 @@
         <v>213</v>
       </c>
       <c r="C371" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D371" t="s">
         <v>22</v>
@@ -16233,7 +15999,7 @@
         <v>364</v>
       </c>
       <c r="M371" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N371" t="s">
         <v>296</v>
@@ -16245,7 +16011,7 @@
         <v>358</v>
       </c>
       <c r="Q371" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="372" spans="1:21">
@@ -16256,7 +16022,7 @@
         <v>293</v>
       </c>
       <c r="C372" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D372" t="s">
         <v>22</v>
@@ -16274,7 +16040,7 @@
         <v>364</v>
       </c>
       <c r="M372" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N372" t="s">
         <v>296</v>
@@ -16286,7 +16052,7 @@
         <v>358</v>
       </c>
       <c r="Q372" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="373" spans="1:21">
@@ -16327,7 +16093,7 @@
         <v>358</v>
       </c>
       <c r="Q373" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374" spans="1:21">
@@ -16368,7 +16134,7 @@
         <v>358</v>
       </c>
       <c r="Q374" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="375" spans="1:21">
@@ -16409,7 +16175,7 @@
         <v>358</v>
       </c>
       <c r="Q375" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:21">
@@ -16450,7 +16216,7 @@
         <v>358</v>
       </c>
       <c r="Q376" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" spans="1:21">
@@ -16479,7 +16245,7 @@
         <v>37</v>
       </c>
       <c r="M377" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N377" t="s">
         <v>296</v>
@@ -16491,7 +16257,7 @@
         <v>358</v>
       </c>
       <c r="Q377" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:21">
@@ -16532,7 +16298,7 @@
         <v>358</v>
       </c>
       <c r="Q378" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="379" spans="1:21">
@@ -16543,7 +16309,7 @@
         <v>297</v>
       </c>
       <c r="C379" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D379" t="s">
         <v>22</v>
@@ -16561,10 +16327,10 @@
         <v>37</v>
       </c>
       <c r="M379" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N379" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O379" t="s">
         <v>290</v>
@@ -16573,7 +16339,7 @@
         <v>358</v>
       </c>
       <c r="Q379" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="380" spans="1:21">
@@ -16584,7 +16350,7 @@
         <v>293</v>
       </c>
       <c r="C380" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D380" t="s">
         <v>22</v>
@@ -16605,7 +16371,7 @@
         <v>25</v>
       </c>
       <c r="N380" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O380" t="s">
         <v>290</v>
@@ -16614,7 +16380,7 @@
         <v>358</v>
       </c>
       <c r="Q380" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="381" spans="1:21">
@@ -16625,7 +16391,7 @@
         <v>297</v>
       </c>
       <c r="C381" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D381" t="s">
         <v>22</v>
@@ -16643,10 +16409,10 @@
         <v>37</v>
       </c>
       <c r="M381" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N381" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O381" t="s">
         <v>290</v>
@@ -16655,7 +16421,7 @@
         <v>358</v>
       </c>
       <c r="Q381" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:21">
@@ -16666,7 +16432,7 @@
         <v>293</v>
       </c>
       <c r="C382" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D382" t="s">
         <v>22</v>
@@ -16687,7 +16453,7 @@
         <v>25</v>
       </c>
       <c r="N382" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O382" t="s">
         <v>290</v>
@@ -16696,7 +16462,7 @@
         <v>358</v>
       </c>
       <c r="Q382" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="383" spans="1:21">
@@ -16707,7 +16473,7 @@
         <v>297</v>
       </c>
       <c r="C383" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D383" t="s">
         <v>22</v>
@@ -16725,10 +16491,10 @@
         <v>37</v>
       </c>
       <c r="M383" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N383" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O383" t="s">
         <v>290</v>
@@ -16737,7 +16503,7 @@
         <v>358</v>
       </c>
       <c r="Q383" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="384" spans="1:21">
@@ -16748,7 +16514,7 @@
         <v>293</v>
       </c>
       <c r="C384" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D384" t="s">
         <v>22</v>
@@ -16769,7 +16535,7 @@
         <v>25</v>
       </c>
       <c r="N384" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O384" t="s">
         <v>290</v>
@@ -16778,7 +16544,7 @@
         <v>358</v>
       </c>
       <c r="Q384" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="385" spans="1:21">
@@ -16807,10 +16573,10 @@
         <v>37</v>
       </c>
       <c r="M385" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N385" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O385" t="s">
         <v>290</v>
@@ -16819,7 +16585,7 @@
         <v>358</v>
       </c>
       <c r="Q385" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="386" spans="1:21">
@@ -16851,7 +16617,7 @@
         <v>25</v>
       </c>
       <c r="N386" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O386" t="s">
         <v>290</v>
@@ -16860,7 +16626,7 @@
         <v>358</v>
       </c>
       <c r="Q386" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="387" spans="1:21">
@@ -16889,10 +16655,10 @@
         <v>37</v>
       </c>
       <c r="M387" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N387" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O387" t="s">
         <v>290</v>
@@ -16901,7 +16667,7 @@
         <v>358</v>
       </c>
       <c r="Q387" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="388" spans="1:21">
@@ -16933,7 +16699,7 @@
         <v>25</v>
       </c>
       <c r="N388" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O388" t="s">
         <v>290</v>
@@ -16942,7 +16708,7 @@
         <v>358</v>
       </c>
       <c r="Q388" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="389" spans="1:21">
@@ -16971,10 +16737,10 @@
         <v>37</v>
       </c>
       <c r="M389" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N389" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O389" t="s">
         <v>290</v>
@@ -16983,7 +16749,7 @@
         <v>358</v>
       </c>
       <c r="Q389" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="390" spans="1:21">
@@ -17015,7 +16781,7 @@
         <v>25</v>
       </c>
       <c r="N390" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O390" t="s">
         <v>290</v>
@@ -17024,7 +16790,7 @@
         <v>358</v>
       </c>
       <c r="Q390" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="391" spans="1:21">
@@ -17053,10 +16819,10 @@
         <v>37</v>
       </c>
       <c r="M391" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N391" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O391" t="s">
         <v>290</v>
@@ -17065,7 +16831,7 @@
         <v>358</v>
       </c>
       <c r="Q391" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="392" spans="1:21">
@@ -17097,7 +16863,7 @@
         <v>25</v>
       </c>
       <c r="N392" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O392" t="s">
         <v>290</v>
@@ -17106,7 +16872,7 @@
         <v>358</v>
       </c>
       <c r="Q392" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="393" spans="1:21">
@@ -17135,10 +16901,10 @@
         <v>37</v>
       </c>
       <c r="M393" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N393" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O393" t="s">
         <v>290</v>
@@ -17147,7 +16913,7 @@
         <v>358</v>
       </c>
       <c r="Q393" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="394" spans="1:21">
@@ -17179,7 +16945,7 @@
         <v>25</v>
       </c>
       <c r="N394" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O394" t="s">
         <v>290</v>
@@ -17188,7 +16954,7 @@
         <v>358</v>
       </c>
       <c r="Q394" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="395" spans="1:21">
@@ -17217,10 +16983,10 @@
         <v>37</v>
       </c>
       <c r="M395" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N395" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O395" t="s">
         <v>290</v>
@@ -17229,7 +16995,7 @@
         <v>358</v>
       </c>
       <c r="Q395" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="396" spans="1:21">
@@ -17261,7 +17027,7 @@
         <v>25</v>
       </c>
       <c r="N396" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O396" t="s">
         <v>290</v>
@@ -17270,7 +17036,7 @@
         <v>358</v>
       </c>
       <c r="Q396" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="397" spans="1:21">
@@ -17299,10 +17065,10 @@
         <v>37</v>
       </c>
       <c r="M397" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N397" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O397" t="s">
         <v>290</v>
@@ -17311,7 +17077,7 @@
         <v>358</v>
       </c>
       <c r="Q397" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="398" spans="1:21">
@@ -17343,7 +17109,7 @@
         <v>25</v>
       </c>
       <c r="N398" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O398" t="s">
         <v>290</v>
@@ -17352,7 +17118,7 @@
         <v>358</v>
       </c>
       <c r="Q398" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="399" spans="1:21">
@@ -17387,13 +17153,13 @@
         <v>296</v>
       </c>
       <c r="O399" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P399" t="s">
         <v>358</v>
       </c>
       <c r="Q399" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="400" spans="1:21">
@@ -17428,13 +17194,13 @@
         <v>296</v>
       </c>
       <c r="O400" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P400" t="s">
         <v>358</v>
       </c>
       <c r="Q400" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="401" spans="1:21">
@@ -17463,19 +17229,19 @@
         <v>23</v>
       </c>
       <c r="M401" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N401" t="s">
         <v>296</v>
       </c>
       <c r="O401" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P401" t="s">
         <v>358</v>
       </c>
       <c r="Q401" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="402" spans="1:21">
@@ -17504,19 +17270,19 @@
         <v>23</v>
       </c>
       <c r="M402" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N402" t="s">
         <v>296</v>
       </c>
       <c r="O402" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P402" t="s">
         <v>358</v>
       </c>
       <c r="Q402" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="403" spans="1:21">
@@ -17545,19 +17311,19 @@
         <v>23</v>
       </c>
       <c r="M403" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N403" t="s">
         <v>296</v>
       </c>
       <c r="O403" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P403" t="s">
         <v>358</v>
       </c>
       <c r="Q403" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="404" spans="1:21">
@@ -17586,173 +17352,146 @@
         <v>23</v>
       </c>
       <c r="M404" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N404" t="s">
         <v>296</v>
       </c>
       <c r="O404" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P404" t="s">
         <v>358</v>
       </c>
       <c r="Q404" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="2" t="s">
+      <c r="A405" t="s">
         <v>285</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" t="s">
         <v>297</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H405" s="2"/>
-      <c r="I405" s="2"/>
-      <c r="J405" s="2"/>
-      <c r="K405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O405" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P405" s="2" t="s">
+      <c r="C405" t="s">
+        <v>427</v>
+      </c>
+      <c r="D405" t="s">
+        <v>22</v>
+      </c>
+      <c r="E405">
+        <v>400</v>
+      </c>
+      <c r="F405">
+        <v>800</v>
+      </c>
+      <c r="G405">
+        <v>800</v>
+      </c>
+      <c r="K405" t="s">
+        <v>164</v>
+      </c>
+      <c r="L405" t="s">
+        <v>35</v>
+      </c>
+      <c r="M405" t="s">
+        <v>376</v>
+      </c>
+      <c r="N405" t="s">
+        <v>300</v>
+      </c>
+      <c r="O405" t="s">
+        <v>290</v>
+      </c>
+      <c r="P405" t="s">
         <v>358</v>
       </c>
-      <c r="Q405" s="2" t="s">
+      <c r="Q405" t="s">
         <v>304</v>
       </c>
-      <c r="R405" s="2"/>
-      <c r="S405" s="2"/>
-      <c r="T405" s="2"/>
-      <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="2" t="s">
+      <c r="A406" t="s">
         <v>285</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" t="s">
         <v>213</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H406" s="2"/>
-      <c r="I406" s="2"/>
-      <c r="J406" s="2"/>
-      <c r="K406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O406" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P406" s="2" t="s">
+      <c r="C406" t="s">
+        <v>427</v>
+      </c>
+      <c r="D406" t="s">
+        <v>22</v>
+      </c>
+      <c r="E406">
+        <v>400</v>
+      </c>
+      <c r="F406">
+        <v>800</v>
+      </c>
+      <c r="G406">
+        <v>800</v>
+      </c>
+      <c r="L406" t="s">
+        <v>301</v>
+      </c>
+      <c r="M406" t="s">
+        <v>376</v>
+      </c>
+      <c r="N406" t="s">
+        <v>300</v>
+      </c>
+      <c r="O406" t="s">
+        <v>290</v>
+      </c>
+      <c r="P406" t="s">
         <v>358</v>
       </c>
-      <c r="Q406" s="2" t="s">
+      <c r="Q406" t="s">
         <v>304</v>
       </c>
-      <c r="R406" s="2"/>
-      <c r="S406" s="2"/>
-      <c r="T406" s="2"/>
-      <c r="U406" s="2"/>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="2" t="s">
+      <c r="A407" t="s">
         <v>285</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" t="s">
         <v>293</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H407" s="2"/>
-      <c r="I407" s="2"/>
-      <c r="J407" s="2"/>
-      <c r="K407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O407" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P407" s="2" t="s">
+      <c r="C407" t="s">
+        <v>427</v>
+      </c>
+      <c r="D407" t="s">
+        <v>22</v>
+      </c>
+      <c r="E407">
+        <v>520</v>
+      </c>
+      <c r="F407">
+        <v>950</v>
+      </c>
+      <c r="G407">
+        <v>950</v>
+      </c>
+      <c r="L407" t="s">
+        <v>301</v>
+      </c>
+      <c r="M407" t="s">
+        <v>376</v>
+      </c>
+      <c r="N407" t="s">
+        <v>300</v>
+      </c>
+      <c r="O407" t="s">
+        <v>290</v>
+      </c>
+      <c r="P407" t="s">
         <v>358</v>
       </c>
-      <c r="Q407" s="2" t="s">
+      <c r="Q407" t="s">
         <v>304</v>
       </c>
-      <c r="R407" s="2"/>
-      <c r="S407" s="2"/>
-      <c r="T407" s="2"/>
-      <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
       <c r="A408" t="s">
@@ -17762,7 +17501,7 @@
         <v>297</v>
       </c>
       <c r="C408" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D408" t="s">
         <v>22</v>
@@ -17783,7 +17522,7 @@
         <v>35</v>
       </c>
       <c r="M408" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N408" t="s">
         <v>300</v>
@@ -17795,7 +17534,7 @@
         <v>358</v>
       </c>
       <c r="Q408" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:21">
@@ -17806,7 +17545,7 @@
         <v>213</v>
       </c>
       <c r="C409" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D409" t="s">
         <v>22</v>
@@ -17824,7 +17563,7 @@
         <v>301</v>
       </c>
       <c r="M409" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N409" t="s">
         <v>300</v>
@@ -17836,7 +17575,7 @@
         <v>358</v>
       </c>
       <c r="Q409" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="410" spans="1:21">
@@ -17847,7 +17586,7 @@
         <v>293</v>
       </c>
       <c r="C410" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D410" t="s">
         <v>22</v>
@@ -17865,7 +17604,7 @@
         <v>301</v>
       </c>
       <c r="M410" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N410" t="s">
         <v>300</v>
@@ -17877,7 +17616,7 @@
         <v>358</v>
       </c>
       <c r="Q410" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="411" spans="1:21">
@@ -17888,7 +17627,7 @@
         <v>297</v>
       </c>
       <c r="C411" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D411" t="s">
         <v>22</v>
@@ -17903,16 +17642,16 @@
         <v>500</v>
       </c>
       <c r="K411" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L411" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M411" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N411" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O411" t="s">
         <v>290</v>
@@ -17921,7 +17660,7 @@
         <v>358</v>
       </c>
       <c r="Q411" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="412" spans="1:21">
@@ -17947,16 +17686,16 @@
         <v>500</v>
       </c>
       <c r="K412" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L412" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M412" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N412" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O412" t="s">
         <v>290</v>
@@ -17965,7 +17704,7 @@
         <v>358</v>
       </c>
       <c r="Q412" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="413" spans="1:21">
@@ -17991,16 +17730,16 @@
         <v>500</v>
       </c>
       <c r="K413" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L413" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M413" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N413" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O413" t="s">
         <v>290</v>
@@ -18009,7 +17748,7 @@
         <v>358</v>
       </c>
       <c r="Q413" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="414" spans="1:21">
@@ -18035,16 +17774,16 @@
         <v>500</v>
       </c>
       <c r="K414" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L414" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M414" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N414" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O414" t="s">
         <v>290</v>
@@ -18053,7 +17792,7 @@
         <v>358</v>
       </c>
       <c r="Q414" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="415" spans="1:21">
@@ -18079,16 +17818,16 @@
         <v>500</v>
       </c>
       <c r="K415" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L415" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M415" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N415" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O415" t="s">
         <v>290</v>
@@ -18097,7 +17836,7 @@
         <v>358</v>
       </c>
       <c r="Q415" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="416" spans="1:21">
@@ -18108,7 +17847,7 @@
         <v>297</v>
       </c>
       <c r="C416" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D416" t="s">
         <v>22</v>
@@ -18123,16 +17862,16 @@
         <v>500</v>
       </c>
       <c r="K416" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L416" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M416" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N416" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O416" t="s">
         <v>290</v>
@@ -18141,7 +17880,7 @@
         <v>358</v>
       </c>
       <c r="Q416" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="417" spans="1:21">
@@ -18167,16 +17906,16 @@
         <v>500</v>
       </c>
       <c r="K417" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L417" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M417" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N417" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O417" t="s">
         <v>290</v>
@@ -18185,7 +17924,7 @@
         <v>358</v>
       </c>
       <c r="Q417" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="418" spans="1:21">
@@ -18196,7 +17935,7 @@
         <v>297</v>
       </c>
       <c r="C418" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D418" t="s">
         <v>22</v>
@@ -18211,16 +17950,16 @@
         <v>500</v>
       </c>
       <c r="K418" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L418" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M418" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N418" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O418" t="s">
         <v>290</v>
@@ -18229,7 +17968,7 @@
         <v>358</v>
       </c>
       <c r="Q418" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="419" spans="1:21">
@@ -18240,7 +17979,7 @@
         <v>297</v>
       </c>
       <c r="C419" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D419" t="s">
         <v>22</v>
@@ -18255,16 +17994,16 @@
         <v>500</v>
       </c>
       <c r="K419" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L419" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M419" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N419" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O419" t="s">
         <v>290</v>
@@ -18273,7 +18012,7 @@
         <v>358</v>
       </c>
       <c r="Q419" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="420" spans="1:21">
@@ -18284,7 +18023,7 @@
         <v>297</v>
       </c>
       <c r="C420" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D420" t="s">
         <v>22</v>
@@ -18299,16 +18038,16 @@
         <v>500</v>
       </c>
       <c r="K420" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L420" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M420" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N420" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O420" t="s">
         <v>290</v>
@@ -18317,18 +18056,18 @@
         <v>358</v>
       </c>
       <c r="Q420" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="421" spans="1:21">
       <c r="A421" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B421" t="s">
         <v>243</v>
       </c>
       <c r="C421" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D421" t="s">
         <v>22</v>
@@ -18357,13 +18096,13 @@
     </row>
     <row r="422" spans="1:21">
       <c r="A422" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B422" t="s">
         <v>243</v>
       </c>
       <c r="C422" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D422" t="s">
         <v>22</v>
@@ -18392,13 +18131,13 @@
     </row>
     <row r="423" spans="1:21">
       <c r="A423" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B423" t="s">
         <v>243</v>
       </c>
       <c r="C423" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D423" t="s">
         <v>22</v>
@@ -18427,13 +18166,13 @@
     </row>
     <row r="424" spans="1:21">
       <c r="A424" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B424" t="s">
         <v>243</v>
       </c>
       <c r="C424" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D424" t="s">
         <v>22</v>
@@ -18462,13 +18201,13 @@
     </row>
     <row r="425" spans="1:21">
       <c r="A425" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B425" t="s">
         <v>243</v>
       </c>
       <c r="C425" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D425" t="s">
         <v>22</v>
@@ -18497,13 +18236,13 @@
     </row>
     <row r="426" spans="1:21">
       <c r="A426" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B426" t="s">
         <v>243</v>
       </c>
       <c r="C426" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D426" t="s">
         <v>22</v>
@@ -18532,13 +18271,13 @@
     </row>
     <row r="427" spans="1:21">
       <c r="A427" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B427" t="s">
         <v>243</v>
       </c>
       <c r="C427" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D427" t="s">
         <v>22</v>
@@ -18567,13 +18306,13 @@
     </row>
     <row r="428" spans="1:21">
       <c r="A428" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B428" t="s">
         <v>243</v>
       </c>
       <c r="C428" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D428" t="s">
         <v>22</v>
@@ -18602,13 +18341,13 @@
     </row>
     <row r="429" spans="1:21">
       <c r="A429" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B429" t="s">
         <v>243</v>
       </c>
       <c r="C429" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D429" t="s">
         <v>22</v>
@@ -18637,13 +18376,13 @@
     </row>
     <row r="430" spans="1:21">
       <c r="A430" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B430" t="s">
         <v>243</v>
       </c>
       <c r="C430" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D430" t="s">
         <v>22</v>
@@ -18672,13 +18411,13 @@
     </row>
     <row r="431" spans="1:21">
       <c r="A431" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B431" t="s">
         <v>243</v>
       </c>
       <c r="C431" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D431" t="s">
         <v>22</v>
@@ -18707,13 +18446,13 @@
     </row>
     <row r="432" spans="1:21">
       <c r="A432" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B432" t="s">
         <v>243</v>
       </c>
       <c r="C432" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D432" t="s">
         <v>22</v>
@@ -18742,13 +18481,13 @@
     </row>
     <row r="433" spans="1:21">
       <c r="A433" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B433" t="s">
         <v>243</v>
       </c>
       <c r="C433" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D433" t="s">
         <v>22</v>
@@ -18777,13 +18516,13 @@
     </row>
     <row r="434" spans="1:21">
       <c r="A434" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B434" t="s">
         <v>243</v>
       </c>
       <c r="C434" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D434" t="s">
         <v>22</v>
@@ -18812,13 +18551,13 @@
     </row>
     <row r="435" spans="1:21">
       <c r="A435" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B435" t="s">
         <v>243</v>
       </c>
       <c r="C435" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D435" t="s">
         <v>22</v>
@@ -18847,13 +18586,13 @@
     </row>
     <row r="436" spans="1:21">
       <c r="A436" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B436" t="s">
         <v>243</v>
       </c>
       <c r="C436" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D436" t="s">
         <v>22</v>
@@ -18882,13 +18621,13 @@
     </row>
     <row r="437" spans="1:21">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B437" t="s">
         <v>243</v>
       </c>
       <c r="C437" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D437" t="s">
         <v>22</v>
@@ -18917,13 +18656,13 @@
     </row>
     <row r="438" spans="1:21">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B438" t="s">
         <v>243</v>
       </c>
       <c r="C438" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D438" t="s">
         <v>22</v>
@@ -18952,13 +18691,13 @@
     </row>
     <row r="439" spans="1:21">
       <c r="A439" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" t="s">
         <v>243</v>
       </c>
       <c r="C439" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D439" t="s">
         <v>22</v>
@@ -18987,13 +18726,13 @@
     </row>
     <row r="440" spans="1:21">
       <c r="A440" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B440" t="s">
         <v>243</v>
       </c>
       <c r="C440" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D440" t="s">
         <v>22</v>
@@ -19022,13 +18761,13 @@
     </row>
     <row r="441" spans="1:21">
       <c r="A441" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B441" t="s">
         <v>243</v>
       </c>
       <c r="C441" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D441" t="s">
         <v>22</v>
@@ -19057,13 +18796,13 @@
     </row>
     <row r="442" spans="1:21">
       <c r="A442" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B442" t="s">
         <v>243</v>
       </c>
       <c r="C442" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D442" t="s">
         <v>22</v>
@@ -19092,13 +18831,13 @@
     </row>
     <row r="443" spans="1:21">
       <c r="A443" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B443" t="s">
         <v>243</v>
       </c>
       <c r="C443" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D443" t="s">
         <v>22</v>
@@ -19127,13 +18866,13 @@
     </row>
     <row r="444" spans="1:21">
       <c r="A444" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B444" t="s">
         <v>243</v>
       </c>
       <c r="C444" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D444" t="s">
         <v>22</v>
@@ -19162,13 +18901,13 @@
     </row>
     <row r="445" spans="1:21">
       <c r="A445" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B445" t="s">
         <v>243</v>
       </c>
       <c r="C445" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D445" t="s">
         <v>22</v>
@@ -19197,13 +18936,13 @@
     </row>
     <row r="446" spans="1:21">
       <c r="A446" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B446" t="s">
         <v>243</v>
       </c>
       <c r="C446" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D446" t="s">
         <v>22</v>
@@ -19232,13 +18971,13 @@
     </row>
     <row r="447" spans="1:21">
       <c r="A447" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B447" t="s">
         <v>243</v>
       </c>
       <c r="C447" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D447" t="s">
         <v>22</v>
@@ -19267,13 +19006,13 @@
     </row>
     <row r="448" spans="1:21">
       <c r="A448" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B448" t="s">
         <v>243</v>
       </c>
       <c r="C448" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D448" t="s">
         <v>22</v>
@@ -19302,13 +19041,13 @@
     </row>
     <row r="449" spans="1:21">
       <c r="A449" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B449" t="s">
         <v>243</v>
       </c>
       <c r="C449" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D449" t="s">
         <v>22</v>
@@ -19337,13 +19076,13 @@
     </row>
     <row r="450" spans="1:21">
       <c r="A450" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B450" t="s">
         <v>243</v>
       </c>
       <c r="C450" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D450" t="s">
         <v>22</v>
@@ -19372,13 +19111,13 @@
     </row>
     <row r="451" spans="1:21">
       <c r="A451" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B451" t="s">
         <v>243</v>
       </c>
       <c r="C451" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D451" t="s">
         <v>22</v>
@@ -19407,13 +19146,13 @@
     </row>
     <row r="452" spans="1:21">
       <c r="A452" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B452" t="s">
         <v>243</v>
       </c>
       <c r="C452" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D452" t="s">
         <v>22</v>
@@ -19442,13 +19181,13 @@
     </row>
     <row r="453" spans="1:21">
       <c r="A453" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B453" t="s">
         <v>243</v>
       </c>
       <c r="C453" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D453" t="s">
         <v>22</v>
@@ -19477,13 +19216,13 @@
     </row>
     <row r="454" spans="1:21">
       <c r="A454" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B454" t="s">
         <v>243</v>
       </c>
       <c r="C454" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D454" t="s">
         <v>22</v>
@@ -19512,13 +19251,13 @@
     </row>
     <row r="455" spans="1:21">
       <c r="A455" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B455" t="s">
         <v>243</v>
       </c>
       <c r="C455" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D455" t="s">
         <v>22</v>
@@ -19547,13 +19286,13 @@
     </row>
     <row r="456" spans="1:21">
       <c r="A456" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B456" t="s">
         <v>243</v>
       </c>
       <c r="C456" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D456" t="s">
         <v>22</v>
@@ -19582,13 +19321,13 @@
     </row>
     <row r="457" spans="1:21">
       <c r="A457" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B457" t="s">
         <v>243</v>
       </c>
       <c r="C457" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D457" t="s">
         <v>22</v>
@@ -19617,13 +19356,13 @@
     </row>
     <row r="458" spans="1:21">
       <c r="A458" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B458" t="s">
         <v>243</v>
       </c>
       <c r="C458" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D458" t="s">
         <v>22</v>
@@ -19652,10 +19391,10 @@
     </row>
     <row r="459" spans="1:21">
       <c r="A459" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C459" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D459" t="s">
         <v>22</v>
@@ -19681,10 +19420,10 @@
     </row>
     <row r="460" spans="1:21">
       <c r="A460" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C460" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D460" t="s">
         <v>22</v>
@@ -19710,10 +19449,10 @@
     </row>
     <row r="461" spans="1:21">
       <c r="A461" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C461" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D461" t="s">
         <v>22</v>
@@ -19739,10 +19478,10 @@
     </row>
     <row r="462" spans="1:21">
       <c r="A462" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C462" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D462" t="s">
         <v>22</v>
@@ -19768,10 +19507,10 @@
     </row>
     <row r="463" spans="1:21">
       <c r="A463" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C463" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D463" t="s">
         <v>22</v>
@@ -19797,13 +19536,13 @@
     </row>
     <row r="464" spans="1:21">
       <c r="A464" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B464" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C464" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D464" t="s">
         <v>22</v>
@@ -19829,10 +19568,10 @@
     </row>
     <row r="465" spans="1:21">
       <c r="A465" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C465" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D465" t="s">
         <v>22</v>
@@ -19858,13 +19597,13 @@
     </row>
     <row r="466" spans="1:21">
       <c r="A466" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C466" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D466" t="s">
         <v>22</v>
@@ -19890,10 +19629,10 @@
     </row>
     <row r="467" spans="1:21">
       <c r="A467" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C467" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D467" t="s">
         <v>22</v>
@@ -19919,13 +19658,13 @@
     </row>
     <row r="468" spans="1:21">
       <c r="A468" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B468" t="s">
         <v>87</v>
       </c>
       <c r="C468" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D468" t="s">
         <v>22</v>
@@ -19951,13 +19690,13 @@
     </row>
     <row r="469" spans="1:21">
       <c r="A469" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B469" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C469" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D469" t="s">
         <v>22</v>
@@ -19983,13 +19722,13 @@
     </row>
     <row r="470" spans="1:21">
       <c r="A470" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B470" t="s">
         <v>94</v>
       </c>
       <c r="C470" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D470" t="s">
         <v>22</v>
@@ -20015,13 +19754,13 @@
     </row>
     <row r="471" spans="1:21">
       <c r="A471" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B471" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C471" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D471" t="s">
         <v>22</v>
@@ -20047,7 +19786,7 @@
     </row>
     <row r="472" spans="1:21">
       <c r="A472" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C472" t="s">
         <v>195</v>
@@ -20076,7 +19815,7 @@
     </row>
     <row r="473" spans="1:21">
       <c r="A473" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C473" t="s">
         <v>195</v>
@@ -20105,13 +19844,13 @@
     </row>
     <row r="474" spans="1:21">
       <c r="A474" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B474" t="s">
         <v>195</v>
       </c>
       <c r="C474" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D474" t="s">
         <v>22</v>
@@ -20126,7 +19865,7 @@
         <v>2</v>
       </c>
       <c r="M474" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N474" t="s">
         <v>25</v>
@@ -20137,13 +19876,13 @@
     </row>
     <row r="475" spans="1:21">
       <c r="A475" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B475" t="s">
         <v>195</v>
       </c>
       <c r="C475" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D475" t="s">
         <v>22</v>
@@ -20158,7 +19897,7 @@
         <v>8</v>
       </c>
       <c r="M475" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N475" t="s">
         <v>25</v>
@@ -20169,7 +19908,7 @@
     </row>
     <row r="476" spans="1:21">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C476" t="s">
         <v>195</v>
@@ -20198,7 +19937,7 @@
     </row>
     <row r="477" spans="1:21">
       <c r="A477" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C477" t="s">
         <v>195</v>
@@ -20216,7 +19955,7 @@
         <v>11</v>
       </c>
       <c r="M477" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N477" t="s">
         <v>25</v>
@@ -20227,7 +19966,7 @@
     </row>
     <row r="478" spans="1:21">
       <c r="A478" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C478" t="s">
         <v>195</v>
@@ -20256,7 +19995,7 @@
     </row>
     <row r="479" spans="1:21">
       <c r="A479" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C479" t="s">
         <v>195</v>
@@ -20285,13 +20024,13 @@
     </row>
     <row r="480" spans="1:21">
       <c r="A480" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B480" t="s">
         <v>195</v>
       </c>
       <c r="C480" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D480" t="s">
         <v>22</v>
@@ -20317,7 +20056,7 @@
     </row>
     <row r="481" spans="1:21">
       <c r="A481" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C481" t="s">
         <v>195</v>
@@ -20346,7 +20085,7 @@
     </row>
     <row r="482" spans="1:21">
       <c r="A482" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C482" t="s">
         <v>195</v>
@@ -20375,7 +20114,7 @@
     </row>
     <row r="483" spans="1:21">
       <c r="A483" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C483" t="s">
         <v>195</v>
@@ -20393,7 +20132,7 @@
         <v>4</v>
       </c>
       <c r="M483" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N483" t="s">
         <v>25</v>
@@ -20404,7 +20143,7 @@
     </row>
     <row r="484" spans="1:21">
       <c r="A484" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C484" t="s">
         <v>195</v>
@@ -20433,10 +20172,10 @@
     </row>
     <row r="485" spans="1:21">
       <c r="A485" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C485" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D485" t="s">
         <v>22</v>
@@ -20462,10 +20201,10 @@
     </row>
     <row r="486" spans="1:21">
       <c r="A486" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C486" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D486" t="s">
         <v>22</v>
@@ -20491,13 +20230,13 @@
     </row>
     <row r="487" spans="1:21">
       <c r="A487" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B487" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C487" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D487" t="s">
         <v>22</v>
@@ -20523,13 +20262,13 @@
     </row>
     <row r="488" spans="1:21">
       <c r="A488" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B488" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C488" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D488" t="s">
         <v>22</v>
@@ -20555,13 +20294,13 @@
     </row>
     <row r="489" spans="1:21">
       <c r="A489" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B489" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C489" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D489" t="s">
         <v>22</v>
@@ -20587,13 +20326,13 @@
     </row>
     <row r="490" spans="1:21">
       <c r="A490" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B490" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C490" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D490" t="s">
         <v>22</v>
@@ -20619,13 +20358,13 @@
     </row>
     <row r="491" spans="1:21">
       <c r="A491" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B491" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C491" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D491" t="s">
         <v>22</v>
@@ -20640,7 +20379,7 @@
         <v>200</v>
       </c>
       <c r="K491" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M491" t="s">
         <v>25</v>
@@ -20654,13 +20393,13 @@
     </row>
     <row r="492" spans="1:21">
       <c r="A492" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B492" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C492" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D492" t="s">
         <v>22</v>
@@ -20686,13 +20425,13 @@
     </row>
     <row r="493" spans="1:21">
       <c r="A493" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B493" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C493" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D493" t="s">
         <v>22</v>
@@ -20718,13 +20457,13 @@
     </row>
     <row r="494" spans="1:21">
       <c r="A494" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B494" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C494" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D494" t="s">
         <v>22</v>
@@ -20750,13 +20489,13 @@
     </row>
     <row r="495" spans="1:21">
       <c r="A495" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B495" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C495" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D495" t="s">
         <v>22</v>
@@ -20771,7 +20510,7 @@
         <v>1</v>
       </c>
       <c r="K495" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M495" t="s">
         <v>25</v>
@@ -20785,13 +20524,13 @@
     </row>
     <row r="496" spans="1:21">
       <c r="A496" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B496" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C496" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D496" t="s">
         <v>22</v>
@@ -20806,7 +20545,7 @@
         <v>400</v>
       </c>
       <c r="K496" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M496" t="s">
         <v>25</v>
@@ -20820,13 +20559,13 @@
     </row>
     <row r="497" spans="1:21">
       <c r="A497" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B497" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C497" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D497" t="s">
         <v>22</v>
@@ -20852,13 +20591,13 @@
     </row>
     <row r="498" spans="1:21">
       <c r="A498" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B498" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C498" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D498" t="s">
         <v>22</v>
@@ -20884,13 +20623,13 @@
     </row>
     <row r="499" spans="1:21">
       <c r="A499" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B499" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C499" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D499" t="s">
         <v>22</v>
@@ -20916,13 +20655,13 @@
     </row>
     <row r="500" spans="1:21">
       <c r="A500" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B500" t="s">
         <v>373</v>
       </c>
       <c r="C500" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D500" t="s">
         <v>22</v>
@@ -20948,13 +20687,13 @@
     </row>
     <row r="501" spans="1:21">
       <c r="A501" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B501" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C501" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D501" t="s">
         <v>22</v>
@@ -20980,13 +20719,13 @@
     </row>
     <row r="502" spans="1:21">
       <c r="A502" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B502" t="s">
         <v>366</v>
       </c>
       <c r="C502" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D502" t="s">
         <v>22</v>
@@ -21012,10 +20751,10 @@
     </row>
     <row r="503" spans="1:21">
       <c r="A503" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C503" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D503" t="s">
         <v>22</v>
@@ -21041,10 +20780,10 @@
     </row>
     <row r="504" spans="1:21">
       <c r="A504" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C504" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D504" t="s">
         <v>22</v>
@@ -21070,13 +20809,13 @@
     </row>
     <row r="505" spans="1:21">
       <c r="A505" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B505" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C505" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D505" t="s">
         <v>22</v>
@@ -21102,10 +20841,10 @@
     </row>
     <row r="506" spans="1:21">
       <c r="A506" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C506" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D506" t="s">
         <v>22</v>
@@ -21131,13 +20870,13 @@
     </row>
     <row r="507" spans="1:21">
       <c r="A507" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B507" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C507" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D507" t="s">
         <v>22</v>
@@ -21163,10 +20902,10 @@
     </row>
     <row r="508" spans="1:21">
       <c r="A508" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C508" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D508" t="s">
         <v>22</v>
@@ -21192,10 +20931,10 @@
     </row>
     <row r="509" spans="1:21">
       <c r="A509" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C509" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D509" t="s">
         <v>22</v>
@@ -21221,10 +20960,10 @@
     </row>
     <row r="510" spans="1:21">
       <c r="A510" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C510" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D510" t="s">
         <v>22</v>
@@ -21250,10 +20989,10 @@
     </row>
     <row r="511" spans="1:21">
       <c r="A511" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C511" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D511" t="s">
         <v>22</v>
@@ -21279,7 +21018,7 @@
     </row>
     <row r="512" spans="1:21">
       <c r="A512" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C512" t="s">
         <v>195</v>
@@ -21308,10 +21047,10 @@
     </row>
     <row r="513" spans="1:21">
       <c r="A513" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C513" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D513" t="s">
         <v>22</v>
@@ -21337,7 +21076,7 @@
     </row>
     <row r="514" spans="1:21">
       <c r="A514" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C514" t="s">
         <v>195</v>
@@ -21366,7 +21105,7 @@
     </row>
     <row r="515" spans="1:21">
       <c r="A515" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C515" t="s">
         <v>195</v>
@@ -21395,10 +21134,10 @@
     </row>
     <row r="516" spans="1:21">
       <c r="A516" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C516" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D516" t="s">
         <v>22</v>
@@ -21424,7 +21163,7 @@
     </row>
     <row r="517" spans="1:21">
       <c r="A517" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C517" t="s">
         <v>195</v>
@@ -21453,7 +21192,7 @@
     </row>
     <row r="518" spans="1:21">
       <c r="A518" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C518" t="s">
         <v>195</v>
@@ -21482,7 +21221,7 @@
     </row>
     <row r="519" spans="1:21">
       <c r="A519" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C519" t="s">
         <v>195</v>
@@ -21511,13 +21250,13 @@
     </row>
     <row r="520" spans="1:21">
       <c r="A520" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B520" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C520" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D520" t="s">
         <v>22</v>
@@ -21543,13 +21282,13 @@
     </row>
     <row r="521" spans="1:21">
       <c r="A521" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B521" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C521" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D521" t="s">
         <v>22</v>
@@ -21575,13 +21314,13 @@
     </row>
     <row r="522" spans="1:21">
       <c r="A522" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B522" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C522" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D522" t="s">
         <v>22</v>
@@ -21607,10 +21346,10 @@
     </row>
     <row r="523" spans="1:21">
       <c r="A523" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C523" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D523" t="s">
         <v>22</v>
@@ -21636,13 +21375,13 @@
     </row>
     <row r="524" spans="1:21">
       <c r="A524" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B524" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C524" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D524" t="s">
         <v>22</v>
@@ -21668,10 +21407,10 @@
     </row>
     <row r="525" spans="1:21">
       <c r="A525" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C525" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D525" t="s">
         <v>22</v>
@@ -21697,13 +21436,13 @@
     </row>
     <row r="526" spans="1:21">
       <c r="A526" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B526" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C526" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D526" t="s">
         <v>22</v>
@@ -21729,10 +21468,10 @@
     </row>
     <row r="527" spans="1:21">
       <c r="A527" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C527" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D527" t="s">
         <v>22</v>
@@ -21758,13 +21497,13 @@
     </row>
     <row r="528" spans="1:21">
       <c r="A528" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B528" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C528" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D528" t="s">
         <v>22</v>
@@ -21790,10 +21529,10 @@
     </row>
     <row r="529" spans="1:21">
       <c r="A529" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C529" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D529" t="s">
         <v>22</v>
@@ -21819,13 +21558,13 @@
     </row>
     <row r="530" spans="1:21">
       <c r="A530" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B530" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C530" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D530" t="s">
         <v>22</v>
@@ -21851,10 +21590,10 @@
     </row>
     <row r="531" spans="1:21">
       <c r="A531" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C531" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D531" t="s">
         <v>22</v>
@@ -21880,13 +21619,13 @@
     </row>
     <row r="532" spans="1:21">
       <c r="A532" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B532" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C532" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D532" t="s">
         <v>22</v>
@@ -21912,10 +21651,10 @@
     </row>
     <row r="533" spans="1:21">
       <c r="A533" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C533" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D533" t="s">
         <v>22</v>
@@ -21941,13 +21680,13 @@
     </row>
     <row r="534" spans="1:21">
       <c r="A534" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B534" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C534" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D534" t="s">
         <v>22</v>
@@ -21973,10 +21712,10 @@
     </row>
     <row r="535" spans="1:21">
       <c r="A535" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C535" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D535" t="s">
         <v>22</v>
@@ -22002,10 +21741,10 @@
     </row>
     <row r="536" spans="1:21">
       <c r="A536" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C536" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D536" t="s">
         <v>22</v>
@@ -22031,10 +21770,10 @@
     </row>
     <row r="537" spans="1:21">
       <c r="A537" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C537" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D537" t="s">
         <v>22</v>
@@ -22060,7 +21799,7 @@
     </row>
     <row r="538" spans="1:21">
       <c r="A538" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C538" t="s">
         <v>107</v>
@@ -22089,10 +21828,10 @@
     </row>
     <row r="539" spans="1:21">
       <c r="A539" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C539" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D539" t="s">
         <v>22</v>
@@ -22118,10 +21857,10 @@
     </row>
     <row r="540" spans="1:21">
       <c r="A540" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C540" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D540" t="s">
         <v>22</v>
@@ -22147,10 +21886,10 @@
     </row>
     <row r="541" spans="1:21">
       <c r="A541" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C541" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D541" t="s">
         <v>22</v>
@@ -22176,10 +21915,10 @@
     </row>
     <row r="542" spans="1:21">
       <c r="A542" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C542" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D542" t="s">
         <v>22</v>
@@ -22205,13 +21944,13 @@
     </row>
     <row r="543" spans="1:21">
       <c r="A543" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B543" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C543" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D543" t="s">
         <v>22</v>
@@ -22237,13 +21976,13 @@
     </row>
     <row r="544" spans="1:21">
       <c r="A544" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B544" t="s">
         <v>243</v>
       </c>
       <c r="C544" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D544" t="s">
         <v>22</v>
@@ -22272,13 +22011,13 @@
     </row>
     <row r="545" spans="1:21">
       <c r="A545" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B545" t="s">
         <v>243</v>
       </c>
       <c r="C545" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D545" t="s">
         <v>22</v>
@@ -22307,13 +22046,13 @@
     </row>
     <row r="546" spans="1:21">
       <c r="A546" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B546" t="s">
         <v>243</v>
       </c>
       <c r="C546" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D546" t="s">
         <v>22</v>
@@ -22342,13 +22081,13 @@
     </row>
     <row r="547" spans="1:21">
       <c r="A547" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B547" t="s">
         <v>243</v>
       </c>
       <c r="C547" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D547" t="s">
         <v>22</v>
@@ -22377,13 +22116,13 @@
     </row>
     <row r="548" spans="1:21">
       <c r="A548" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B548" t="s">
         <v>243</v>
       </c>
       <c r="C548" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D548" t="s">
         <v>22</v>
@@ -22412,13 +22151,13 @@
     </row>
     <row r="549" spans="1:21">
       <c r="A549" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B549" t="s">
         <v>243</v>
       </c>
       <c r="C549" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D549" t="s">
         <v>22</v>
@@ -22447,13 +22186,13 @@
     </row>
     <row r="550" spans="1:21">
       <c r="A550" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B550" t="s">
         <v>243</v>
       </c>
       <c r="C550" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D550" t="s">
         <v>22</v>
@@ -22482,13 +22221,13 @@
     </row>
     <row r="551" spans="1:21">
       <c r="A551" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B551" t="s">
         <v>243</v>
       </c>
       <c r="C551" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D551" t="s">
         <v>22</v>
@@ -22517,13 +22256,13 @@
     </row>
     <row r="552" spans="1:21">
       <c r="A552" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B552" t="s">
         <v>243</v>
       </c>
       <c r="C552" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D552" t="s">
         <v>22</v>
@@ -22552,13 +22291,13 @@
     </row>
     <row r="553" spans="1:21">
       <c r="A553" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B553" t="s">
         <v>243</v>
       </c>
       <c r="C553" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D553" t="s">
         <v>22</v>
@@ -22587,13 +22326,13 @@
     </row>
     <row r="554" spans="1:21">
       <c r="A554" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B554" t="s">
         <v>243</v>
       </c>
       <c r="C554" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D554" t="s">
         <v>22</v>
@@ -22622,13 +22361,13 @@
     </row>
     <row r="555" spans="1:21">
       <c r="A555" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B555" t="s">
         <v>243</v>
       </c>
       <c r="C555" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D555" t="s">
         <v>22</v>
@@ -22657,13 +22396,13 @@
     </row>
     <row r="556" spans="1:21">
       <c r="A556" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B556" t="s">
         <v>243</v>
       </c>
       <c r="C556" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D556" t="s">
         <v>22</v>
@@ -22692,13 +22431,13 @@
     </row>
     <row r="557" spans="1:21">
       <c r="A557" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B557" t="s">
         <v>243</v>
       </c>
       <c r="C557" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D557" t="s">
         <v>22</v>
@@ -22727,13 +22466,13 @@
     </row>
     <row r="558" spans="1:21">
       <c r="A558" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B558" t="s">
         <v>243</v>
       </c>
       <c r="C558" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D558" t="s">
         <v>22</v>
@@ -22762,13 +22501,13 @@
     </row>
     <row r="559" spans="1:21">
       <c r="A559" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B559" t="s">
         <v>243</v>
       </c>
       <c r="C559" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D559" t="s">
         <v>22</v>
@@ -22797,13 +22536,13 @@
     </row>
     <row r="560" spans="1:21">
       <c r="A560" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B560" t="s">
         <v>243</v>
       </c>
       <c r="C560" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D560" t="s">
         <v>22</v>
@@ -22832,13 +22571,13 @@
     </row>
     <row r="561" spans="1:21">
       <c r="A561" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B561" t="s">
         <v>243</v>
       </c>
       <c r="C561" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D561" t="s">
         <v>22</v>
@@ -22867,13 +22606,13 @@
     </row>
     <row r="562" spans="1:21">
       <c r="A562" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B562" t="s">
         <v>243</v>
       </c>
       <c r="C562" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D562" t="s">
         <v>22</v>

--- a/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
+++ b/docs/output/FINAL_RATES_FROM_ATTACHMENTS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>CARRIER</t>
   </si>
@@ -787,18 +787,27 @@
     <t>9-10 Days</t>
   </si>
   <si>
-    <t>Direct Days</t>
+    <t>09-Oct Days</t>
   </si>
   <si>
     <t>SHEKOU</t>
   </si>
   <si>
+    <t>5,12,4,5 Days</t>
+  </si>
+  <si>
     <t>VTX3,VTX4,VTX6</t>
   </si>
   <si>
     <t>NANSHA</t>
   </si>
   <si>
+    <t>11, 6 Days</t>
+  </si>
+  <si>
+    <t>7 days (det)</t>
+  </si>
+  <si>
     <t>VTX4, VTX5</t>
   </si>
   <si>
@@ -922,18 +931,30 @@
     <t>Kuching/Sarawak (Malay)</t>
   </si>
   <si>
+    <t>20-25 Days</t>
+  </si>
+  <si>
+    <t>7/5 days (dem+detention)</t>
+  </si>
+  <si>
     <t>Bintulu</t>
   </si>
   <si>
     <t>Jakarta (NPCT1 Terminal)</t>
   </si>
   <si>
+    <t>7 days combine dem/det</t>
+  </si>
+  <si>
     <t>LKB/NYS/Sahathai</t>
   </si>
   <si>
     <t>Cikarang (CKD)</t>
   </si>
   <si>
+    <t>T/S JKT by truck</t>
+  </si>
+  <si>
     <t>Batam/Indo (CY/CY)</t>
   </si>
   <si>
@@ -952,9 +973,15 @@
     <t>Surabaya</t>
   </si>
   <si>
+    <t>29 Days</t>
+  </si>
+  <si>
     <t>BUSAN</t>
   </si>
   <si>
+    <t>10 dem/ 5 det</t>
+  </si>
+  <si>
     <t>VTX1, VTX5</t>
   </si>
   <si>
@@ -964,6 +991,9 @@
     <t>OSAKA/KOBE</t>
   </si>
   <si>
+    <t>7 dem/ 5 det</t>
+  </si>
+  <si>
     <t>KAWASAKI</t>
   </si>
   <si>
@@ -973,6 +1003,9 @@
     <t>NGO/TOKYO/YOKO</t>
   </si>
   <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
     <t>VTX3 ,VTX6</t>
   </si>
   <si>
@@ -985,6 +1018,12 @@
     <t>Tokyo/Yoko/Nagoya</t>
   </si>
   <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>7dem/ 5 det</t>
+  </si>
+  <si>
     <t>SAKAISENBOKU</t>
   </si>
   <si>
@@ -1036,30 +1075,18 @@
     <t>Chittagong (Chattogram)</t>
   </si>
   <si>
-    <t>1,150</t>
-  </si>
-  <si>
     <t>DHAKA</t>
   </si>
   <si>
-    <t>1,550</t>
-  </si>
-  <si>
     <t>Yangon /Myamar</t>
   </si>
   <si>
-    <t>1,530</t>
-  </si>
-  <si>
     <t>Chennai / India</t>
   </si>
   <si>
     <t>TPT/SHT/LKB</t>
   </si>
   <si>
-    <t>1,250</t>
-  </si>
-  <si>
     <t>Visakhapatnam / India</t>
   </si>
   <si>
@@ -1069,9 +1096,6 @@
     <t>Include LSS</t>
   </si>
   <si>
-    <t>7 dem/ 5 det</t>
-  </si>
-  <si>
     <t>Please recheck case by case(Reefer)</t>
   </si>
   <si>
@@ -1120,13 +1144,7 @@
     <t>Haldia</t>
   </si>
   <si>
-    <t>1,650</t>
-  </si>
-  <si>
     <t>Kolkata (Calcutta)</t>
-  </si>
-  <si>
-    <t>1,850</t>
   </si>
 </sst>
 </file>
@@ -8190,7 +8208,7 @@
         <v>253</v>
       </c>
       <c r="N165" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O165" t="s">
         <v>251</v>
@@ -8225,10 +8243,10 @@
         <v>70</v>
       </c>
       <c r="M166" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N166" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="O166" t="s">
         <v>251</v>
@@ -8237,7 +8255,7 @@
         <v>27</v>
       </c>
       <c r="Q166" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -8263,19 +8281,19 @@
         <v>120</v>
       </c>
       <c r="M167" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="N167" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O167" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P167" t="s">
         <v>27</v>
       </c>
       <c r="Q167" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -8286,7 +8304,7 @@
         <v>221</v>
       </c>
       <c r="C168" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
@@ -8301,19 +8319,19 @@
         <v>80</v>
       </c>
       <c r="M168" t="s">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="N168" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O168" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="P168" t="s">
         <v>27</v>
       </c>
       <c r="Q168" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -8324,7 +8342,7 @@
         <v>225</v>
       </c>
       <c r="C169" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
@@ -8339,19 +8357,19 @@
         <v>130</v>
       </c>
       <c r="M169" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N169" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O169" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P169" t="s">
         <v>27</v>
       </c>
       <c r="Q169" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -8377,19 +8395,19 @@
         <v>70</v>
       </c>
       <c r="M170" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="N170" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="O170" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="P170" t="s">
         <v>27</v>
       </c>
       <c r="Q170" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -8415,19 +8433,19 @@
         <v>120</v>
       </c>
       <c r="M171" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N171" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O171" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="P171" t="s">
         <v>27</v>
       </c>
       <c r="Q171" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -8438,7 +8456,7 @@
         <v>221</v>
       </c>
       <c r="C172" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
@@ -8453,19 +8471,19 @@
         <v>100</v>
       </c>
       <c r="M172" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N172" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O172" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P172" t="s">
         <v>27</v>
       </c>
       <c r="Q172" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -8476,7 +8494,7 @@
         <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
@@ -8491,19 +8509,19 @@
         <v>150</v>
       </c>
       <c r="M173" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O173" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P173" t="s">
         <v>27</v>
       </c>
       <c r="Q173" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -8514,7 +8532,7 @@
         <v>221</v>
       </c>
       <c r="C174" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
@@ -8529,19 +8547,19 @@
         <v>70</v>
       </c>
       <c r="M174" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O174" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="P174" t="s">
         <v>27</v>
       </c>
       <c r="Q174" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -8552,7 +8570,7 @@
         <v>225</v>
       </c>
       <c r="C175" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D175" t="s">
         <v>23</v>
@@ -8567,19 +8585,19 @@
         <v>120</v>
       </c>
       <c r="M175" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N175" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O175" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="P175" t="s">
         <v>27</v>
       </c>
       <c r="Q175" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -8590,7 +8608,7 @@
         <v>221</v>
       </c>
       <c r="C176" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
@@ -8605,19 +8623,19 @@
         <v>170</v>
       </c>
       <c r="M176" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O176" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P176" t="s">
         <v>27</v>
       </c>
       <c r="Q176" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -8628,7 +8646,7 @@
         <v>225</v>
       </c>
       <c r="C177" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
@@ -8643,19 +8661,19 @@
         <v>220</v>
       </c>
       <c r="M177" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N177" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O177" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P177" t="s">
         <v>27</v>
       </c>
       <c r="Q177" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -8666,7 +8684,7 @@
         <v>221</v>
       </c>
       <c r="C178" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
@@ -8684,7 +8702,7 @@
         <v>56</v>
       </c>
       <c r="N178" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O178" t="s">
         <v>251</v>
@@ -8704,7 +8722,7 @@
         <v>225</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D179" t="s">
         <v>23</v>
@@ -8722,7 +8740,7 @@
         <v>56</v>
       </c>
       <c r="N179" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O179" t="s">
         <v>251</v>
@@ -8739,10 +8757,10 @@
         <v>220</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C180" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D180" t="s">
         <v>23</v>
@@ -8777,10 +8795,10 @@
         <v>220</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
@@ -8788,6 +8806,12 @@
       <c r="E181">
         <v>750</v>
       </c>
+      <c r="F181">
+        <v>430</v>
+      </c>
+      <c r="G181">
+        <v>430</v>
+      </c>
       <c r="M181" t="s">
         <v>199</v>
       </c>
@@ -8812,7 +8836,7 @@
         <v>221</v>
       </c>
       <c r="C182" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
@@ -8830,7 +8854,7 @@
         <v>56</v>
       </c>
       <c r="N182" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O182" t="s">
         <v>251</v>
@@ -8839,7 +8863,7 @@
         <v>27</v>
       </c>
       <c r="Q182" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -8850,7 +8874,7 @@
         <v>225</v>
       </c>
       <c r="C183" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
@@ -8868,7 +8892,7 @@
         <v>56</v>
       </c>
       <c r="N183" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O183" t="s">
         <v>251</v>
@@ -8877,7 +8901,7 @@
         <v>27</v>
       </c>
       <c r="Q183" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -8888,7 +8912,7 @@
         <v>221</v>
       </c>
       <c r="C184" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D184" t="s">
         <v>23</v>
@@ -8906,7 +8930,7 @@
         <v>56</v>
       </c>
       <c r="N184" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O184" t="s">
         <v>251</v>
@@ -8915,7 +8939,7 @@
         <v>27</v>
       </c>
       <c r="Q184" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -8926,7 +8950,7 @@
         <v>225</v>
       </c>
       <c r="C185" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
@@ -8941,19 +8965,19 @@
         <v>1000</v>
       </c>
       <c r="M185" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N185" t="s">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="O185" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P185" t="s">
         <v>27</v>
       </c>
       <c r="Q185" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -8964,7 +8988,7 @@
         <v>221</v>
       </c>
       <c r="C186" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D186" t="s">
         <v>23</v>
@@ -8985,7 +9009,7 @@
         <v>241</v>
       </c>
       <c r="O186" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P186" t="s">
         <v>27</v>
@@ -9002,7 +9026,7 @@
         <v>225</v>
       </c>
       <c r="C187" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
@@ -9017,13 +9041,13 @@
         <v>200</v>
       </c>
       <c r="M187" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N187" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="O187" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="P187" t="s">
         <v>27</v>
@@ -9040,7 +9064,7 @@
         <v>221</v>
       </c>
       <c r="C188" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D188" t="s">
         <v>23</v>
@@ -9055,13 +9079,13 @@
         <v>150</v>
       </c>
       <c r="M188" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N188" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="O188" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="P188" t="s">
         <v>27</v>
@@ -9078,7 +9102,7 @@
         <v>225</v>
       </c>
       <c r="C189" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D189" t="s">
         <v>23</v>
@@ -9093,13 +9117,13 @@
         <v>200</v>
       </c>
       <c r="M189" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N189" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="O189" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="P189" t="s">
         <v>27</v>
@@ -9116,7 +9140,7 @@
         <v>221</v>
       </c>
       <c r="C190" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D190" t="s">
         <v>23</v>
@@ -9134,7 +9158,7 @@
         <v>56</v>
       </c>
       <c r="N190" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O190" t="s">
         <v>251</v>
@@ -9154,7 +9178,7 @@
         <v>225</v>
       </c>
       <c r="C191" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
@@ -9169,13 +9193,13 @@
         <v>220</v>
       </c>
       <c r="M191" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N191" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="O191" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P191" t="s">
         <v>27</v>
@@ -9192,7 +9216,7 @@
         <v>221</v>
       </c>
       <c r="C192" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D192" t="s">
         <v>23</v>
@@ -9207,7 +9231,7 @@
         <v>750</v>
       </c>
       <c r="M192" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N192" t="s">
         <v>26</v>
@@ -9219,7 +9243,7 @@
         <v>27</v>
       </c>
       <c r="Q192" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -9227,10 +9251,10 @@
         <v>220</v>
       </c>
       <c r="B193" t="s">
+        <v>285</v>
+      </c>
+      <c r="C193" t="s">
         <v>282</v>
-      </c>
-      <c r="C193" t="s">
-        <v>279</v>
       </c>
       <c r="D193" t="s">
         <v>23</v>
@@ -9245,7 +9269,7 @@
         <v>880</v>
       </c>
       <c r="M193" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N193" t="s">
         <v>26</v>
@@ -9257,7 +9281,7 @@
         <v>27</v>
       </c>
       <c r="Q193" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -9268,7 +9292,7 @@
         <v>221</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D194" t="s">
         <v>23</v>
@@ -9283,13 +9307,13 @@
         <v>1500</v>
       </c>
       <c r="M194" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="N194" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="O194" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P194" t="s">
         <v>27</v>
@@ -9306,7 +9330,7 @@
         <v>225</v>
       </c>
       <c r="C195" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D195" t="s">
         <v>23</v>
@@ -9324,7 +9348,7 @@
         <v>77</v>
       </c>
       <c r="N195" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O195" t="s">
         <v>251</v>
@@ -9344,7 +9368,7 @@
         <v>221</v>
       </c>
       <c r="C196" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D196" t="s">
         <v>23</v>
@@ -9359,13 +9383,13 @@
         <v>1300</v>
       </c>
       <c r="M196" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="N196" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="O196" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P196" t="s">
         <v>27</v>
@@ -9382,7 +9406,7 @@
         <v>225</v>
       </c>
       <c r="C197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D197" t="s">
         <v>23</v>
@@ -9400,7 +9424,7 @@
         <v>77</v>
       </c>
       <c r="N197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O197" t="s">
         <v>251</v>
@@ -9420,7 +9444,7 @@
         <v>221</v>
       </c>
       <c r="C198" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D198" t="s">
         <v>23</v>
@@ -9435,19 +9459,19 @@
         <v>750</v>
       </c>
       <c r="M198" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="N198" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="O198" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P198" t="s">
         <v>27</v>
       </c>
       <c r="Q198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -9455,10 +9479,10 @@
         <v>220</v>
       </c>
       <c r="B199" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C199" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D199" t="s">
         <v>23</v>
@@ -9473,19 +9497,19 @@
         <v>880</v>
       </c>
       <c r="M199" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="N199" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="O199" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P199" t="s">
         <v>27</v>
       </c>
       <c r="Q199" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -9493,10 +9517,10 @@
         <v>220</v>
       </c>
       <c r="B200" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C200" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D200" t="s">
         <v>23</v>
@@ -9511,13 +9535,13 @@
         <v>1300</v>
       </c>
       <c r="M200" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="N200" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="O200" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P200" t="s">
         <v>27</v>
@@ -9531,10 +9555,10 @@
         <v>220</v>
       </c>
       <c r="B201" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C201" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D201" t="s">
         <v>23</v>
@@ -9542,6 +9566,12 @@
       <c r="E201">
         <v>1450</v>
       </c>
+      <c r="F201">
+        <v>750</v>
+      </c>
+      <c r="G201">
+        <v>750</v>
+      </c>
       <c r="M201" t="s">
         <v>174</v>
       </c>
@@ -9566,7 +9596,7 @@
         <v>221</v>
       </c>
       <c r="C202" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D202" t="s">
         <v>23</v>
@@ -9581,13 +9611,13 @@
         <v>1300</v>
       </c>
       <c r="M202" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N202" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="O202" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P202" t="s">
         <v>27</v>
@@ -9604,7 +9634,7 @@
         <v>225</v>
       </c>
       <c r="C203" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D203" t="s">
         <v>23</v>
@@ -9622,7 +9652,7 @@
         <v>149</v>
       </c>
       <c r="N203" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O203" t="s">
         <v>251</v>
@@ -9639,10 +9669,10 @@
         <v>220</v>
       </c>
       <c r="B204" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C204" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D204" t="s">
         <v>23</v>
@@ -9657,13 +9687,13 @@
         <v>1300</v>
       </c>
       <c r="M204" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="N204" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="O204" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P204" t="s">
         <v>27</v>
@@ -9677,10 +9707,10 @@
         <v>220</v>
       </c>
       <c r="B205" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C205" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D205" t="s">
         <v>23</v>
@@ -9688,6 +9718,12 @@
       <c r="E205">
         <v>1450</v>
       </c>
+      <c r="F205">
+        <v>750</v>
+      </c>
+      <c r="G205">
+        <v>750</v>
+      </c>
       <c r="M205" t="s">
         <v>212</v>
       </c>
@@ -9709,10 +9745,10 @@
         <v>220</v>
       </c>
       <c r="B206" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C206" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D206" t="s">
         <v>23</v>
@@ -9747,10 +9783,10 @@
         <v>220</v>
       </c>
       <c r="B207" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C207" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D207" t="s">
         <v>23</v>
@@ -9758,6 +9794,12 @@
       <c r="E207">
         <v>1450</v>
       </c>
+      <c r="F207">
+        <v>750</v>
+      </c>
+      <c r="G207">
+        <v>750</v>
+      </c>
       <c r="M207" t="s">
         <v>212</v>
       </c>
@@ -9782,7 +9824,7 @@
         <v>221</v>
       </c>
       <c r="C208" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D208" t="s">
         <v>23</v>
@@ -9809,7 +9851,7 @@
         <v>27</v>
       </c>
       <c r="Q208" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:21">
@@ -9817,10 +9859,10 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C209" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D209" t="s">
         <v>23</v>
@@ -9835,19 +9877,19 @@
         <v>450</v>
       </c>
       <c r="M209" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="N209" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O209" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P209" t="s">
         <v>27</v>
       </c>
       <c r="Q209" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -9858,7 +9900,7 @@
         <v>221</v>
       </c>
       <c r="C210" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D210" t="s">
         <v>23</v>
@@ -9873,10 +9915,10 @@
         <v>1700</v>
       </c>
       <c r="M210" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N210" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O210" t="s">
         <v>251</v>
@@ -9896,7 +9938,7 @@
         <v>225</v>
       </c>
       <c r="C211" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
@@ -9911,13 +9953,13 @@
         <v>1750</v>
       </c>
       <c r="M211" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="N211" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O211" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="P211" t="s">
         <v>27</v>
@@ -9934,7 +9976,7 @@
         <v>221</v>
       </c>
       <c r="C212" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D212" t="s">
         <v>23</v>
@@ -9949,13 +9991,13 @@
         <v>900</v>
       </c>
       <c r="M212" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N212" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O212" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="P212" t="s">
         <v>27</v>
@@ -9972,7 +10014,7 @@
         <v>225</v>
       </c>
       <c r="C213" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D213" t="s">
         <v>23</v>
@@ -9987,13 +10029,13 @@
         <v>950</v>
       </c>
       <c r="M213" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N213" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O213" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="P213" t="s">
         <v>27</v>
@@ -10010,7 +10052,7 @@
         <v>221</v>
       </c>
       <c r="C214" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D214" t="s">
         <v>23</v>
@@ -10025,13 +10067,13 @@
         <v>1700</v>
       </c>
       <c r="M214" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N214" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O214" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="P214" t="s">
         <v>27</v>
@@ -10048,7 +10090,7 @@
         <v>225</v>
       </c>
       <c r="C215" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D215" t="s">
         <v>23</v>
@@ -10063,13 +10105,13 @@
         <v>1750</v>
       </c>
       <c r="M215" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N215" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O215" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="P215" t="s">
         <v>27</v>
@@ -10086,7 +10128,7 @@
         <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D216" t="s">
         <v>23</v>
@@ -10101,19 +10143,19 @@
         <v>400</v>
       </c>
       <c r="M216" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N216" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O216" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P216" t="s">
         <v>27</v>
       </c>
       <c r="Q216" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" spans="1:21">
@@ -10121,10 +10163,10 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C217" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D217" t="s">
         <v>23</v>
@@ -10139,19 +10181,19 @@
         <v>500</v>
       </c>
       <c r="M217" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N217" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O217" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P217" t="s">
         <v>27</v>
       </c>
       <c r="Q217" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="1:21">
@@ -10162,7 +10204,7 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D218" t="s">
         <v>23</v>
@@ -10177,19 +10219,19 @@
         <v>600</v>
       </c>
       <c r="M218" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="N218" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="O218" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P218" t="s">
         <v>27</v>
       </c>
       <c r="Q218" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:21">
@@ -10197,10 +10239,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C219" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D219" t="s">
         <v>23</v>
@@ -10215,19 +10257,19 @@
         <v>750</v>
       </c>
       <c r="M219" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="N219" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="O219" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P219" t="s">
         <v>27</v>
       </c>
       <c r="Q219" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -10238,7 +10280,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D220" t="s">
         <v>23</v>
@@ -10253,13 +10295,13 @@
         <v>900</v>
       </c>
       <c r="M220" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N220" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O220" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P220" t="s">
         <v>27</v>
@@ -10276,7 +10318,7 @@
         <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D221" t="s">
         <v>23</v>
@@ -10291,13 +10333,13 @@
         <v>950</v>
       </c>
       <c r="M221" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N221" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O221" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P221" t="s">
         <v>27</v>
@@ -10314,7 +10356,7 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D222" t="s">
         <v>23</v>
@@ -10329,13 +10371,13 @@
         <v>1000</v>
       </c>
       <c r="M222" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N222" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O222" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P222" t="s">
         <v>27</v>
@@ -10352,7 +10394,7 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D223" t="s">
         <v>23</v>
@@ -10367,13 +10409,13 @@
         <v>1050</v>
       </c>
       <c r="M223" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N223" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O223" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P223" t="s">
         <v>27</v>
@@ -10390,7 +10432,7 @@
         <v>221</v>
       </c>
       <c r="C224" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D224" t="s">
         <v>23</v>
@@ -10405,13 +10447,13 @@
         <v>1200</v>
       </c>
       <c r="M224" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N224" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O224" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P224" t="s">
         <v>27</v>
@@ -10428,7 +10470,7 @@
         <v>225</v>
       </c>
       <c r="C225" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D225" t="s">
         <v>23</v>
@@ -10443,13 +10485,13 @@
         <v>1250</v>
       </c>
       <c r="M225" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N225" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="O225" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P225" t="s">
         <v>27</v>
@@ -10466,7 +10508,7 @@
         <v>221</v>
       </c>
       <c r="C226" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D226" t="s">
         <v>23</v>
@@ -10481,13 +10523,13 @@
         <v>900</v>
       </c>
       <c r="M226" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N226" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="O226" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P226" t="s">
         <v>27</v>
@@ -10504,7 +10546,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D227" t="s">
         <v>23</v>
@@ -10519,13 +10561,13 @@
         <v>950</v>
       </c>
       <c r="M227" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="N227" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="O227" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P227" t="s">
         <v>27</v>
@@ -10542,7 +10584,7 @@
         <v>221</v>
       </c>
       <c r="C228" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D228" t="s">
         <v>23</v>
@@ -10557,13 +10599,13 @@
         <v>2600</v>
       </c>
       <c r="M228" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="N228" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="O228" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P228" t="s">
         <v>27</v>
@@ -10580,7 +10622,7 @@
         <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D229" t="s">
         <v>23</v>
@@ -10595,13 +10637,13 @@
         <v>2650</v>
       </c>
       <c r="M229" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="N229" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="O229" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P229" t="s">
         <v>27</v>
@@ -10618,7 +10660,7 @@
         <v>221</v>
       </c>
       <c r="C230" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D230" t="s">
         <v>23</v>
@@ -10633,13 +10675,13 @@
         <v>1800</v>
       </c>
       <c r="M230" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="N230" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="O230" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P230" t="s">
         <v>27</v>
@@ -10656,7 +10698,7 @@
         <v>225</v>
       </c>
       <c r="C231" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D231" t="s">
         <v>23</v>
@@ -10671,13 +10713,13 @@
         <v>1850</v>
       </c>
       <c r="M231" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="N231" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="O231" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="P231" t="s">
         <v>27</v>
@@ -10694,7 +10736,7 @@
         <v>221</v>
       </c>
       <c r="C232" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D232" t="s">
         <v>23</v>
@@ -10709,19 +10751,19 @@
         <v>350</v>
       </c>
       <c r="M232" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N232" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O232" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="P232" t="s">
         <v>27</v>
       </c>
       <c r="Q232" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" spans="1:21">
@@ -10732,28 +10774,34 @@
         <v>225</v>
       </c>
       <c r="C233" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D233" t="s">
         <v>23</v>
       </c>
       <c r="E233">
+        <v>300</v>
+      </c>
+      <c r="F233">
         <v>450</v>
       </c>
+      <c r="G233">
+        <v>450</v>
+      </c>
       <c r="M233" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N233" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O233" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="P233" t="s">
         <v>27</v>
       </c>
-      <c r="Q233">
-        <v>300</v>
+      <c r="Q233" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:21">
@@ -10764,7 +10812,7 @@
         <v>221</v>
       </c>
       <c r="C234" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D234" t="s">
         <v>23</v>
@@ -10779,19 +10827,19 @@
         <v>500</v>
       </c>
       <c r="M234" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N234" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O234" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="P234" t="s">
         <v>27</v>
       </c>
       <c r="Q234" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" spans="1:21">
@@ -10802,28 +10850,34 @@
         <v>225</v>
       </c>
       <c r="C235" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D235" t="s">
         <v>23</v>
       </c>
       <c r="E235">
+        <v>350</v>
+      </c>
+      <c r="F235">
         <v>600</v>
       </c>
+      <c r="G235">
+        <v>600</v>
+      </c>
       <c r="M235" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N235" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O235" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="P235" t="s">
         <v>27</v>
       </c>
-      <c r="Q235">
-        <v>350</v>
+      <c r="Q235" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:21">
@@ -10834,7 +10888,7 @@
         <v>221</v>
       </c>
       <c r="C236" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D236" t="s">
         <v>23</v>
@@ -10849,13 +10903,13 @@
         <v>450</v>
       </c>
       <c r="M236" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N236" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O236" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P236" t="s">
         <v>27</v>
@@ -10872,28 +10926,34 @@
         <v>225</v>
       </c>
       <c r="C237" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D237" t="s">
         <v>23</v>
       </c>
       <c r="E237">
+        <v>300</v>
+      </c>
+      <c r="F237">
         <v>500</v>
       </c>
+      <c r="G237">
+        <v>500</v>
+      </c>
       <c r="M237" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N237" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O237" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P237" t="s">
         <v>27</v>
       </c>
-      <c r="Q237">
-        <v>300</v>
+      <c r="Q237" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:21">
@@ -10904,7 +10964,7 @@
         <v>221</v>
       </c>
       <c r="C238" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D238" t="s">
         <v>23</v>
@@ -10919,19 +10979,19 @@
         <v>500</v>
       </c>
       <c r="M238" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N238" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O238" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P238" t="s">
         <v>27</v>
       </c>
       <c r="Q238" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:21">
@@ -10942,28 +11002,34 @@
         <v>225</v>
       </c>
       <c r="C239" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D239" t="s">
         <v>23</v>
       </c>
       <c r="E239">
+        <v>350</v>
+      </c>
+      <c r="F239">
         <v>600</v>
       </c>
+      <c r="G239">
+        <v>600</v>
+      </c>
       <c r="M239" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N239" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O239" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P239" t="s">
         <v>27</v>
       </c>
-      <c r="Q239">
-        <v>350</v>
+      <c r="Q239" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="240" spans="1:21">
@@ -10974,7 +11040,7 @@
         <v>221</v>
       </c>
       <c r="C240" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D240" t="s">
         <v>23</v>
@@ -10989,19 +11055,19 @@
         <v>450</v>
       </c>
       <c r="M240" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="N240" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O240" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P240" t="s">
         <v>27</v>
       </c>
       <c r="Q240" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" spans="1:21">
@@ -11012,28 +11078,34 @@
         <v>225</v>
       </c>
       <c r="C241" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D241" t="s">
         <v>23</v>
       </c>
       <c r="E241">
+        <v>300</v>
+      </c>
+      <c r="F241">
         <v>500</v>
       </c>
+      <c r="G241">
+        <v>500</v>
+      </c>
       <c r="M241" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="N241" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O241" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P241" t="s">
         <v>27</v>
       </c>
-      <c r="Q241">
-        <v>300</v>
+      <c r="Q241" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:21">
@@ -11044,7 +11116,7 @@
         <v>221</v>
       </c>
       <c r="C242" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D242" t="s">
         <v>23</v>
@@ -11059,19 +11131,19 @@
         <v>450</v>
       </c>
       <c r="M242" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N242" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O242" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P242" t="s">
         <v>27</v>
       </c>
       <c r="Q242" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:21">
@@ -11082,28 +11154,34 @@
         <v>225</v>
       </c>
       <c r="C243" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D243" t="s">
         <v>23</v>
       </c>
       <c r="E243">
+        <v>300</v>
+      </c>
+      <c r="F243">
         <v>500</v>
       </c>
+      <c r="G243">
+        <v>500</v>
+      </c>
       <c r="M243" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N243" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O243" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P243" t="s">
         <v>27</v>
       </c>
-      <c r="Q243">
-        <v>300</v>
+      <c r="Q243" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="244" spans="1:21">
@@ -11114,7 +11192,7 @@
         <v>221</v>
       </c>
       <c r="C244" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D244" t="s">
         <v>23</v>
@@ -11129,19 +11207,19 @@
         <v>450</v>
       </c>
       <c r="M244" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N244" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O244" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P244" t="s">
         <v>27</v>
       </c>
       <c r="Q244" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:21">
@@ -11152,28 +11230,34 @@
         <v>225</v>
       </c>
       <c r="C245" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D245" t="s">
         <v>23</v>
       </c>
       <c r="E245">
+        <v>300</v>
+      </c>
+      <c r="F245">
         <v>500</v>
       </c>
+      <c r="G245">
+        <v>500</v>
+      </c>
       <c r="M245" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N245" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O245" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="P245" t="s">
         <v>27</v>
       </c>
-      <c r="Q245">
-        <v>300</v>
+      <c r="Q245" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:21">
@@ -11184,7 +11268,7 @@
         <v>221</v>
       </c>
       <c r="C246" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D246" t="s">
         <v>23</v>
@@ -11199,19 +11283,19 @@
         <v>450</v>
       </c>
       <c r="M246" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="N246" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O246" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="P246" t="s">
         <v>27</v>
       </c>
       <c r="Q246" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="247" spans="1:21">
@@ -11222,28 +11306,34 @@
         <v>225</v>
       </c>
       <c r="C247" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D247" t="s">
         <v>23</v>
       </c>
       <c r="E247">
+        <v>300</v>
+      </c>
+      <c r="F247">
         <v>500</v>
       </c>
+      <c r="G247">
+        <v>500</v>
+      </c>
       <c r="M247" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="N247" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O247" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="P247" t="s">
         <v>27</v>
       </c>
-      <c r="Q247">
-        <v>300</v>
+      <c r="Q247" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="248" spans="1:21">
@@ -11254,7 +11344,7 @@
         <v>221</v>
       </c>
       <c r="C248" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D248" t="s">
         <v>23</v>
@@ -11292,14 +11382,20 @@
         <v>225</v>
       </c>
       <c r="C249" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D249" t="s">
         <v>23</v>
       </c>
       <c r="E249">
+        <v>380</v>
+      </c>
+      <c r="F249">
         <v>600</v>
       </c>
+      <c r="G249">
+        <v>600</v>
+      </c>
       <c r="M249" t="s">
         <v>25</v>
       </c>
@@ -11312,8 +11408,8 @@
       <c r="P249" t="s">
         <v>27</v>
       </c>
-      <c r="Q249">
-        <v>380</v>
+      <c r="Q249" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="250" spans="1:21">
@@ -11321,10 +11417,10 @@
         <v>220</v>
       </c>
       <c r="B250" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C250" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D250" t="s">
         <v>23</v>
@@ -11359,10 +11455,10 @@
         <v>220</v>
       </c>
       <c r="B251" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C251" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D251" t="s">
         <v>23</v>
@@ -11397,10 +11493,10 @@
         <v>220</v>
       </c>
       <c r="B252" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C252" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D252" t="s">
         <v>23</v>
@@ -11435,10 +11531,10 @@
         <v>220</v>
       </c>
       <c r="B253" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C253" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D253" t="s">
         <v>23</v>
@@ -11473,10 +11569,10 @@
         <v>220</v>
       </c>
       <c r="B254" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C254" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D254" t="s">
         <v>23</v>
@@ -11511,10 +11607,10 @@
         <v>220</v>
       </c>
       <c r="B255" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C255" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D255" t="s">
         <v>23</v>
@@ -11549,10 +11645,10 @@
         <v>220</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C256" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D256" t="s">
         <v>23</v>
@@ -11587,10 +11683,10 @@
         <v>220</v>
       </c>
       <c r="B257" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C257" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D257" t="s">
         <v>23</v>
@@ -11625,10 +11721,10 @@
         <v>220</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C258" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D258" t="s">
         <v>23</v>
@@ -11663,10 +11759,10 @@
         <v>220</v>
       </c>
       <c r="B259" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C259" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D259" t="s">
         <v>23</v>
@@ -11701,10 +11797,10 @@
         <v>220</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C260" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D260" t="s">
         <v>23</v>
@@ -11739,10 +11835,10 @@
         <v>220</v>
       </c>
       <c r="B261" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C261" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D261" t="s">
         <v>23</v>
@@ -11777,10 +11873,10 @@
         <v>220</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C262" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D262" t="s">
         <v>23</v>
@@ -11815,10 +11911,10 @@
         <v>220</v>
       </c>
       <c r="B263" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C263" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D263" t="s">
         <v>23</v>
@@ -11853,10 +11949,10 @@
         <v>220</v>
       </c>
       <c r="B264" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C264" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D264" t="s">
         <v>23</v>
@@ -11891,10 +11987,10 @@
         <v>220</v>
       </c>
       <c r="B265" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C265" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D265" t="s">
         <v>23</v>
@@ -11929,10 +12025,10 @@
         <v>220</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C266" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D266" t="s">
         <v>23</v>
@@ -11967,10 +12063,10 @@
         <v>220</v>
       </c>
       <c r="B267" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C267" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D267" t="s">
         <v>23</v>
@@ -12005,10 +12101,10 @@
         <v>220</v>
       </c>
       <c r="B268" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C268" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D268" t="s">
         <v>23</v>
@@ -12043,10 +12139,10 @@
         <v>220</v>
       </c>
       <c r="B269" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C269" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D269" t="s">
         <v>23</v>
@@ -12081,10 +12177,10 @@
         <v>220</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="D270" t="s">
         <v>23</v>
@@ -12111,7 +12207,7 @@
         <v>27</v>
       </c>
       <c r="Q270" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="271" spans="1:21">
@@ -12119,10 +12215,10 @@
         <v>220</v>
       </c>
       <c r="B271" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C271" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="D271" t="s">
         <v>23</v>
@@ -12149,7 +12245,7 @@
         <v>27</v>
       </c>
       <c r="Q271" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="272" spans="1:21">
@@ -12157,10 +12253,10 @@
         <v>220</v>
       </c>
       <c r="B272" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C272" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D272" t="s">
         <v>23</v>
@@ -12187,7 +12283,7 @@
         <v>27</v>
       </c>
       <c r="Q272" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="273" spans="1:21">
@@ -12195,10 +12291,10 @@
         <v>220</v>
       </c>
       <c r="B273" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C273" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D273" t="s">
         <v>23</v>
@@ -12225,7 +12321,7 @@
         <v>27</v>
       </c>
       <c r="Q273" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="274" spans="1:21">
@@ -12233,10 +12329,10 @@
         <v>220</v>
       </c>
       <c r="B274" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D274" t="s">
         <v>23</v>
@@ -12271,10 +12367,10 @@
         <v>220</v>
       </c>
       <c r="B275" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C275" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D275" t="s">
         <v>23</v>
@@ -12312,7 +12408,7 @@
         <v>221</v>
       </c>
       <c r="C276" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D276" t="s">
         <v>23</v>
@@ -12350,14 +12446,20 @@
         <v>225</v>
       </c>
       <c r="C277" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D277" t="s">
         <v>23</v>
       </c>
       <c r="E277">
+        <v>1150</v>
+      </c>
+      <c r="F277">
         <v>1400</v>
       </c>
+      <c r="G277">
+        <v>1400</v>
+      </c>
       <c r="M277" t="s">
         <v>25</v>
       </c>
@@ -12371,7 +12473,7 @@
         <v>27</v>
       </c>
       <c r="Q277" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
     </row>
     <row r="278" spans="1:21">
@@ -12382,7 +12484,7 @@
         <v>221</v>
       </c>
       <c r="C278" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D278" t="s">
         <v>23</v>
@@ -12420,14 +12522,20 @@
         <v>225</v>
       </c>
       <c r="C279" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D279" t="s">
         <v>23</v>
       </c>
       <c r="E279">
+        <v>1550</v>
+      </c>
+      <c r="F279">
         <v>2250</v>
       </c>
+      <c r="G279">
+        <v>2250</v>
+      </c>
       <c r="M279" t="s">
         <v>25</v>
       </c>
@@ -12441,7 +12549,7 @@
         <v>27</v>
       </c>
       <c r="Q279" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
     </row>
     <row r="280" spans="1:21">
@@ -12452,7 +12560,7 @@
         <v>221</v>
       </c>
       <c r="C280" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D280" t="s">
         <v>23</v>
@@ -12490,14 +12598,20 @@
         <v>225</v>
       </c>
       <c r="C281" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D281" t="s">
         <v>23</v>
       </c>
       <c r="E281">
+        <v>1530</v>
+      </c>
+      <c r="F281">
         <v>2100</v>
       </c>
+      <c r="G281">
+        <v>2100</v>
+      </c>
       <c r="M281" t="s">
         <v>25</v>
       </c>
@@ -12511,7 +12625,7 @@
         <v>27</v>
       </c>
       <c r="Q281" t="s">
-        <v>340</v>
+        <v>239</v>
       </c>
     </row>
     <row r="282" spans="1:21">
@@ -12522,7 +12636,7 @@
         <v>221</v>
       </c>
       <c r="C282" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D282" t="s">
         <v>23</v>
@@ -12557,17 +12671,23 @@
         <v>220</v>
       </c>
       <c r="B283" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C283" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D283" t="s">
         <v>23</v>
       </c>
       <c r="E283">
+        <v>1250</v>
+      </c>
+      <c r="F283">
         <v>1600</v>
       </c>
+      <c r="G283">
+        <v>1600</v>
+      </c>
       <c r="M283" t="s">
         <v>25</v>
       </c>
@@ -12581,7 +12701,7 @@
         <v>27</v>
       </c>
       <c r="Q283" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
     </row>
     <row r="284" spans="1:21">
@@ -12592,7 +12712,7 @@
         <v>221</v>
       </c>
       <c r="C284" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D284" t="s">
         <v>23</v>
@@ -12627,17 +12747,23 @@
         <v>220</v>
       </c>
       <c r="B285" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C285" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D285" t="s">
         <v>23</v>
       </c>
       <c r="E285">
+        <v>1250</v>
+      </c>
+      <c r="F285">
         <v>1600</v>
       </c>
+      <c r="G285">
+        <v>1600</v>
+      </c>
       <c r="M285" t="s">
         <v>25</v>
       </c>
@@ -12651,7 +12777,7 @@
         <v>27</v>
       </c>
       <c r="Q285" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
     </row>
     <row r="286" spans="1:21">
@@ -12659,22 +12785,22 @@
         <v>220</v>
       </c>
       <c r="B286" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C286" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D286" t="s">
         <v>23</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
         <v>26</v>
       </c>
-      <c r="F286" t="s">
-        <v>347</v>
-      </c>
       <c r="G286" t="s">
-        <v>347</v>
+        <v>26</v>
       </c>
       <c r="M286" t="s">
         <v>25</v>
@@ -12688,8 +12814,8 @@
       <c r="P286" t="s">
         <v>27</v>
       </c>
-      <c r="Q286">
-        <v>10</v>
+      <c r="Q286" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="287" spans="1:21">
@@ -12697,22 +12823,22 @@
         <v>220</v>
       </c>
       <c r="B287" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C287" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D287" t="s">
         <v>23</v>
       </c>
       <c r="E287" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F287" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="G287" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="M287" t="s">
         <v>25</v>
@@ -12727,7 +12853,7 @@
         <v>27</v>
       </c>
       <c r="Q287" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:21">
@@ -12735,22 +12861,22 @@
         <v>220</v>
       </c>
       <c r="B288" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C288" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D288" t="s">
         <v>23</v>
       </c>
       <c r="E288" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F288" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="G288" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="M288" t="s">
         <v>25</v>
@@ -12765,7 +12891,7 @@
         <v>27</v>
       </c>
       <c r="Q288" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="289" spans="1:21">
@@ -12773,22 +12899,22 @@
         <v>220</v>
       </c>
       <c r="B289" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C289" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
         <v>23</v>
       </c>
       <c r="E289" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F289" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G289" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M289" t="s">
         <v>25</v>
@@ -12803,7 +12929,7 @@
         <v>27</v>
       </c>
       <c r="Q289" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="290" spans="1:21">
@@ -12811,10 +12937,10 @@
         <v>220</v>
       </c>
       <c r="B290" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C290" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D290" t="s">
         <v>23</v>
@@ -12823,10 +12949,10 @@
         <v>20</v>
       </c>
       <c r="F290" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G290" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M290" t="s">
         <v>25</v>
@@ -12846,16 +12972,16 @@
         <v>220</v>
       </c>
       <c r="B291" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C291" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D291" t="s">
         <v>23</v>
       </c>
       <c r="E291" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M291" t="s">
         <v>25</v>
@@ -12870,7 +12996,7 @@
         <v>27</v>
       </c>
       <c r="Q291" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:21">
@@ -12878,10 +13004,10 @@
         <v>220</v>
       </c>
       <c r="B292" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C292" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D292" t="s">
         <v>23</v>
@@ -12890,10 +13016,10 @@
         <v>33</v>
       </c>
       <c r="F292" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G292" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M292" t="s">
         <v>25</v>
@@ -12908,7 +13034,7 @@
         <v>27</v>
       </c>
       <c r="Q292" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="293" spans="1:21">
@@ -12916,10 +13042,10 @@
         <v>220</v>
       </c>
       <c r="B293" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C293" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D293" t="s">
         <v>23</v>
@@ -12928,10 +13054,10 @@
         <v>20</v>
       </c>
       <c r="F293" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G293" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M293" t="s">
         <v>25</v>
@@ -12951,22 +13077,22 @@
         <v>220</v>
       </c>
       <c r="B294" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C294" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D294" t="s">
         <v>23</v>
       </c>
       <c r="E294" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F294" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G294" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M294" t="s">
         <v>25</v>
@@ -12981,7 +13107,7 @@
         <v>27</v>
       </c>
       <c r="Q294" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="295" spans="1:21">
@@ -12992,7 +13118,7 @@
         <v>221</v>
       </c>
       <c r="C295" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D295" t="s">
         <v>23</v>
@@ -13027,17 +13153,23 @@
         <v>220</v>
       </c>
       <c r="B296" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C296" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D296" t="s">
         <v>23</v>
       </c>
       <c r="E296">
+        <v>1650</v>
+      </c>
+      <c r="F296">
         <v>2300</v>
       </c>
+      <c r="G296">
+        <v>2300</v>
+      </c>
       <c r="M296" t="s">
         <v>25</v>
       </c>
@@ -13051,7 +13183,7 @@
         <v>27</v>
       </c>
       <c r="Q296" t="s">
-        <v>364</v>
+        <v>239</v>
       </c>
     </row>
     <row r="297" spans="1:21">
@@ -13062,7 +13194,7 @@
         <v>221</v>
       </c>
       <c r="C297" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D297" t="s">
         <v>23</v>
@@ -13097,17 +13229,23 @@
         <v>220</v>
       </c>
       <c r="B298" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C298" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D298" t="s">
         <v>23</v>
       </c>
       <c r="E298">
+        <v>1850</v>
+      </c>
+      <c r="F298">
         <v>2500</v>
       </c>
+      <c r="G298">
+        <v>2500</v>
+      </c>
       <c r="M298" t="s">
         <v>25</v>
       </c>
@@ -13121,7 +13259,7 @@
         <v>27</v>
       </c>
       <c r="Q298" t="s">
-        <v>366</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
